--- a/output.xlsx
+++ b/output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607B459-F0EC-4A01-88C9-971FCA7A3D41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE2BDC7-BB02-4679-818E-9318CA8AFD17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -6208,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
+      <selection activeCell="D1465" sqref="D1465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -26707,7 +26707,7 @@
         <v>122</v>
       </c>
       <c r="D1464">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.35">
@@ -31347,6 +31347,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F577F-D27D-4611-AA78-EB65A5E3B859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693F4209-261B-412F-8C85-99C881BF09E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="2007">
   <si>
     <t>代號</t>
   </si>
@@ -5378,33 +5378,6 @@
   </si>
   <si>
     <t>世紀鋼五</t>
-  </si>
-  <si>
-    <t>遠新E1</t>
-  </si>
-  <si>
-    <t>萬洲E1</t>
-  </si>
-  <si>
-    <t>友訊E1</t>
-  </si>
-  <si>
-    <t>達科E1</t>
-  </si>
-  <si>
-    <t>國碩E1</t>
-  </si>
-  <si>
-    <t>國碩E2</t>
-  </si>
-  <si>
-    <t>長榮E1</t>
-  </si>
-  <si>
-    <t>兆豐E1</t>
-  </si>
-  <si>
-    <t>兆豐E2</t>
   </si>
   <si>
     <t>愛之味一</t>
@@ -6843,10 +6816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2041"/>
+  <dimension ref="A1:D2032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2026" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2041"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2033" sqref="B2033"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6901,7 +6874,7 @@
         <v>12171</v>
       </c>
       <c r="B4" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -6915,7 +6888,7 @@
         <v>12172</v>
       </c>
       <c r="B5" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -7083,7 +7056,7 @@
         <v>13164</v>
       </c>
       <c r="B17" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="C17">
         <v>183</v>
@@ -7097,7 +7070,7 @@
         <v>13165</v>
       </c>
       <c r="B18" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="C18">
         <v>232</v>
@@ -7153,7 +7126,7 @@
         <v>13381</v>
       </c>
       <c r="B22" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="C22">
         <v>117</v>
@@ -7167,7 +7140,7 @@
         <v>13382</v>
       </c>
       <c r="B23" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -7181,7 +7154,7 @@
         <v>13411</v>
       </c>
       <c r="B24" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="C24">
         <v>116.9</v>
@@ -7265,7 +7238,7 @@
         <v>14362</v>
       </c>
       <c r="B30" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="C30">
         <v>192</v>
@@ -7559,7 +7532,7 @@
         <v>15132</v>
       </c>
       <c r="B51" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="C51">
         <v>231</v>
@@ -7573,7 +7546,7 @@
         <v>15141</v>
       </c>
       <c r="B52" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="C52">
         <v>110.9</v>
@@ -7657,7 +7630,7 @@
         <v>15261</v>
       </c>
       <c r="B58" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="C58">
         <v>103</v>
@@ -7797,7 +7770,7 @@
         <v>15331</v>
       </c>
       <c r="B68" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="C68">
         <v>132</v>
@@ -8133,7 +8106,7 @@
         <v>15864</v>
       </c>
       <c r="B92" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="C92">
         <v>114.5</v>
@@ -8147,7 +8120,7 @@
         <v>15864</v>
       </c>
       <c r="B93" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="C93">
         <v>114.5</v>
@@ -8161,7 +8134,7 @@
         <v>15865</v>
       </c>
       <c r="B94" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="C94">
         <v>105.5</v>
@@ -8189,7 +8162,7 @@
         <v>15892</v>
       </c>
       <c r="B96" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="C96">
         <v>114</v>
@@ -8217,7 +8190,7 @@
         <v>15894</v>
       </c>
       <c r="B98" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="C98">
         <v>131.1</v>
@@ -8259,7 +8232,7 @@
         <v>15932</v>
       </c>
       <c r="B101" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="C101">
         <v>228</v>
@@ -8329,7 +8302,7 @@
         <v>15991</v>
       </c>
       <c r="B106" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="C106">
         <v>109</v>
@@ -8707,7 +8680,7 @@
         <v>17271</v>
       </c>
       <c r="B133" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="C133">
         <v>146</v>
@@ -8819,7 +8792,7 @@
         <v>17361</v>
       </c>
       <c r="B141" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -8889,7 +8862,7 @@
         <v>17814</v>
       </c>
       <c r="B146" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -8959,7 +8932,7 @@
         <v>17862</v>
       </c>
       <c r="B151" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="C151">
         <v>200</v>
@@ -9253,7 +9226,7 @@
         <v>18156</v>
       </c>
       <c r="B172" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="C172">
         <v>144.5</v>
@@ -9393,7 +9366,7 @@
         <v>20066</v>
       </c>
       <c r="B182" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
       <c r="C182">
         <v>109.2</v>
@@ -9407,7 +9380,7 @@
         <v>20067</v>
       </c>
       <c r="B183" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="C183">
         <v>173</v>
@@ -9715,7 +9688,7 @@
         <v>20343</v>
       </c>
       <c r="B205" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="C205">
         <v>180</v>
@@ -9827,7 +9800,7 @@
         <v>20632</v>
       </c>
       <c r="B213" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -9883,7 +9856,7 @@
         <v>20662</v>
       </c>
       <c r="B217" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="C217">
         <v>114.5</v>
@@ -9981,7 +9954,7 @@
         <v>21043</v>
       </c>
       <c r="B224" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -10065,7 +10038,7 @@
         <v>22013</v>
       </c>
       <c r="B230" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="C230">
         <v>116.3</v>
@@ -10177,7 +10150,7 @@
         <v>22304</v>
       </c>
       <c r="B238" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="C238">
         <v>470</v>
@@ -10247,7 +10220,7 @@
         <v>22362</v>
       </c>
       <c r="B243" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="C243">
         <v>127</v>
@@ -10499,7 +10472,7 @@
         <v>23451</v>
       </c>
       <c r="B261" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -10625,7 +10598,7 @@
         <v>23581</v>
       </c>
       <c r="B270" t="s">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="C270">
         <v>118.5</v>
@@ -10723,7 +10696,7 @@
         <v>23681</v>
       </c>
       <c r="B277" t="s">
-        <v>1824</v>
+        <v>1815</v>
       </c>
       <c r="C277">
         <v>300</v>
@@ -10737,7 +10710,7 @@
         <v>23682</v>
       </c>
       <c r="B278" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -11423,7 +11396,7 @@
         <v>24213</v>
       </c>
       <c r="B327" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="C327">
         <v>289</v>
@@ -11563,7 +11536,7 @@
         <v>24271</v>
       </c>
       <c r="B337" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -11647,7 +11620,7 @@
         <v>24361</v>
       </c>
       <c r="B343" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
       <c r="C343">
         <v>125.75</v>
@@ -11717,7 +11690,7 @@
         <v>24401</v>
       </c>
       <c r="B348" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="C348">
         <v>150</v>
@@ -12109,7 +12082,7 @@
         <v>24616</v>
       </c>
       <c r="B376" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
       <c r="C376">
         <v>182</v>
@@ -12781,7 +12754,7 @@
         <v>24971</v>
       </c>
       <c r="B424" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="C424">
         <v>177</v>
@@ -13033,7 +13006,7 @@
         <v>25372</v>
       </c>
       <c r="B442" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
       <c r="C442">
         <v>145</v>
@@ -13047,7 +13020,7 @@
         <v>25373</v>
       </c>
       <c r="B443" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="C443">
         <v>137</v>
@@ -13061,7 +13034,7 @@
         <v>25374</v>
       </c>
       <c r="B444" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="C444">
         <v>139</v>
@@ -13145,7 +13118,7 @@
         <v>25421</v>
       </c>
       <c r="B450" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="C450">
         <v>278</v>
@@ -13159,7 +13132,7 @@
         <v>25422</v>
       </c>
       <c r="B451" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="C451">
         <v>263</v>
@@ -13173,7 +13146,7 @@
         <v>25423</v>
       </c>
       <c r="B452" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="C452">
         <v>208</v>
@@ -13187,7 +13160,7 @@
         <v>25424</v>
       </c>
       <c r="B453" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="C453">
         <v>415</v>
@@ -13565,7 +13538,7 @@
         <v>26107</v>
       </c>
       <c r="B480" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="C480">
         <v>167</v>
@@ -13817,7 +13790,7 @@
         <v>26364</v>
       </c>
       <c r="B498" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="C498">
         <v>750</v>
@@ -13957,7 +13930,7 @@
         <v>26416</v>
       </c>
       <c r="B508" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
       <c r="C508">
         <v>115.7</v>
@@ -14041,7 +14014,7 @@
         <v>27261</v>
       </c>
       <c r="B514" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
       <c r="C514">
         <v>250</v>
@@ -14069,7 +14042,7 @@
         <v>27271</v>
       </c>
       <c r="B516" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
       <c r="C516">
         <v>127.5</v>
@@ -14391,7 +14364,7 @@
         <v>28887</v>
       </c>
       <c r="B539" t="s">
-        <v>1844</v>
+        <v>1835</v>
       </c>
       <c r="C539">
         <v>110</v>
@@ -14419,7 +14392,7 @@
         <v>29051</v>
       </c>
       <c r="B541" t="s">
-        <v>1845</v>
+        <v>1836</v>
       </c>
       <c r="C541">
         <v>119.3</v>
@@ -14433,7 +14406,7 @@
         <v>29061</v>
       </c>
       <c r="B542" t="s">
-        <v>1846</v>
+        <v>1837</v>
       </c>
       <c r="C542">
         <v>107.2</v>
@@ -14643,7 +14616,7 @@
         <v>30061</v>
       </c>
       <c r="B557" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -14741,7 +14714,7 @@
         <v>30131</v>
       </c>
       <c r="B564" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="C564">
         <v>135</v>
@@ -14755,7 +14728,7 @@
         <v>30132</v>
       </c>
       <c r="B565" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="C565">
         <v>135</v>
@@ -14769,7 +14742,7 @@
         <v>30133</v>
       </c>
       <c r="B566" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -14825,7 +14798,7 @@
         <v>30164</v>
       </c>
       <c r="B570" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="C570">
         <v>122.95</v>
@@ -15091,7 +15064,7 @@
         <v>30237</v>
       </c>
       <c r="B589" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="C589">
         <v>193</v>
@@ -15105,7 +15078,7 @@
         <v>30238</v>
       </c>
       <c r="B590" t="s">
-        <v>1853</v>
+        <v>1844</v>
       </c>
       <c r="C590">
         <v>134.05000000000001</v>
@@ -15777,7 +15750,7 @@
         <v>30477</v>
       </c>
       <c r="B638" t="s">
-        <v>1854</v>
+        <v>1845</v>
       </c>
       <c r="C638">
         <v>142.6</v>
@@ -15847,7 +15820,7 @@
         <v>30541</v>
       </c>
       <c r="B643" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -15861,7 +15834,7 @@
         <v>30542</v>
       </c>
       <c r="B644" t="s">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="C644">
         <v>289</v>
@@ -16211,7 +16184,7 @@
         <v>30882</v>
       </c>
       <c r="B669" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="C669">
         <v>121.85</v>
@@ -16225,7 +16198,7 @@
         <v>30882</v>
       </c>
       <c r="B670" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="C670">
         <v>121.85</v>
@@ -16295,7 +16268,7 @@
         <v>30922</v>
       </c>
       <c r="B675" t="s">
-        <v>1858</v>
+        <v>1849</v>
       </c>
       <c r="C675">
         <v>116.6</v>
@@ -16421,7 +16394,7 @@
         <v>31282</v>
       </c>
       <c r="B684" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="C684">
         <v>113.45</v>
@@ -16449,7 +16422,7 @@
         <v>31411</v>
       </c>
       <c r="B686" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="C686">
         <v>489</v>
@@ -16561,7 +16534,7 @@
         <v>31493</v>
       </c>
       <c r="B694" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="C694">
         <v>137</v>
@@ -16617,7 +16590,7 @@
         <v>31632</v>
       </c>
       <c r="B698" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="C698">
         <v>193</v>
@@ -17387,7 +17360,7 @@
         <v>32903</v>
       </c>
       <c r="B753" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="C753">
         <v>147.25</v>
@@ -17583,7 +17556,7 @@
         <v>33053</v>
       </c>
       <c r="B767" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="C767">
         <v>278</v>
@@ -17597,7 +17570,7 @@
         <v>33054</v>
       </c>
       <c r="B768" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="C768">
         <v>268</v>
@@ -17709,7 +17682,7 @@
         <v>33223</v>
       </c>
       <c r="B776" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="C776">
         <v>199</v>
@@ -17723,7 +17696,7 @@
         <v>33224</v>
       </c>
       <c r="B777" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="C777">
         <v>119</v>
@@ -17807,7 +17780,7 @@
         <v>33244</v>
       </c>
       <c r="B783" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="C783">
         <v>161</v>
@@ -17961,7 +17934,7 @@
         <v>33463</v>
       </c>
       <c r="B794" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="C794">
         <v>142</v>
@@ -18003,7 +17976,7 @@
         <v>33571</v>
       </c>
       <c r="B797" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="C797">
         <v>0</v>
@@ -18227,7 +18200,7 @@
         <v>34132</v>
       </c>
       <c r="B813" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="C813">
         <v>141</v>
@@ -18255,7 +18228,7 @@
         <v>34162</v>
       </c>
       <c r="B815" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="C815">
         <v>208</v>
@@ -18423,7 +18396,7 @@
         <v>34653</v>
       </c>
       <c r="B827" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="C827">
         <v>125.8</v>
@@ -18437,7 +18410,7 @@
         <v>34654</v>
       </c>
       <c r="B828" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="C828">
         <v>107</v>
@@ -18479,7 +18452,7 @@
         <v>34793</v>
       </c>
       <c r="B831" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="C831">
         <v>0</v>
@@ -18549,7 +18522,7 @@
         <v>34842</v>
       </c>
       <c r="B836" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="C836">
         <v>135</v>
@@ -18563,7 +18536,7 @@
         <v>34843</v>
       </c>
       <c r="B837" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="C837">
         <v>118</v>
@@ -18577,7 +18550,7 @@
         <v>34891</v>
       </c>
       <c r="B838" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="C838">
         <v>120</v>
@@ -18661,7 +18634,7 @@
         <v>35121</v>
       </c>
       <c r="B844" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="C844">
         <v>121</v>
@@ -18717,7 +18690,7 @@
         <v>35211</v>
       </c>
       <c r="B848" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="C848">
         <v>199</v>
@@ -18857,7 +18830,7 @@
         <v>35332</v>
       </c>
       <c r="B858" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
       <c r="C858">
         <v>125.9</v>
@@ -18871,7 +18844,7 @@
         <v>35351</v>
       </c>
       <c r="B859" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
       <c r="C859">
         <v>113</v>
@@ -19151,7 +19124,7 @@
         <v>35802</v>
       </c>
       <c r="B879" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
       <c r="C879">
         <v>132</v>
@@ -19179,7 +19152,7 @@
         <v>35871</v>
       </c>
       <c r="B881" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="C881">
         <v>155</v>
@@ -19221,7 +19194,7 @@
         <v>35913</v>
       </c>
       <c r="B884" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="C884">
         <v>159</v>
@@ -19417,7 +19390,7 @@
         <v>36172</v>
       </c>
       <c r="B898" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="C898">
         <v>158</v>
@@ -19459,7 +19432,7 @@
         <v>36253</v>
       </c>
       <c r="B901" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="C901">
         <v>168</v>
@@ -19501,7 +19474,7 @@
         <v>36313</v>
       </c>
       <c r="B904" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C904">
         <v>123.1</v>
@@ -19711,7 +19684,7 @@
         <v>36633</v>
       </c>
       <c r="B919" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="C919">
         <v>140</v>
@@ -19795,7 +19768,7 @@
         <v>36804</v>
       </c>
       <c r="B925" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="C925">
         <v>0</v>
@@ -19851,7 +19824,7 @@
         <v>36893</v>
       </c>
       <c r="B929" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="C929">
         <v>227</v>
@@ -19949,7 +19922,7 @@
         <v>37012</v>
       </c>
       <c r="B936" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="C936">
         <v>128.9</v>
@@ -20103,7 +20076,7 @@
         <v>37102</v>
       </c>
       <c r="B947" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="C947">
         <v>0</v>
@@ -20285,7 +20258,7 @@
         <v>41091</v>
       </c>
       <c r="B960" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="C960">
         <v>164</v>
@@ -20299,7 +20272,7 @@
         <v>41092</v>
       </c>
       <c r="B961" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="C961">
         <v>150</v>
@@ -20313,7 +20286,7 @@
         <v>41093</v>
       </c>
       <c r="B962" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="C962">
         <v>120.25</v>
@@ -20607,7 +20580,7 @@
         <v>41236</v>
       </c>
       <c r="B983" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="C983">
         <v>139</v>
@@ -20621,7 +20594,7 @@
         <v>41237</v>
       </c>
       <c r="B984" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="C984">
         <v>136.4</v>
@@ -20719,7 +20692,7 @@
         <v>41294</v>
       </c>
       <c r="B991" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="C991">
         <v>133</v>
@@ -20901,7 +20874,7 @@
         <v>41481</v>
       </c>
       <c r="B1004" t="s">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="C1004">
         <v>104.5</v>
@@ -20971,7 +20944,7 @@
         <v>41553</v>
       </c>
       <c r="B1009" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="C1009">
         <v>158</v>
@@ -20999,7 +20972,7 @@
         <v>41612</v>
       </c>
       <c r="B1011" t="s">
-        <v>1902</v>
+        <v>1893</v>
       </c>
       <c r="C1011">
         <v>0</v>
@@ -21027,7 +21000,7 @@
         <v>41641</v>
       </c>
       <c r="B1013" t="s">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="C1013">
         <v>118.5</v>
@@ -21097,7 +21070,7 @@
         <v>41672</v>
       </c>
       <c r="B1018" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="C1018">
         <v>157</v>
@@ -21517,7 +21490,7 @@
         <v>44163</v>
       </c>
       <c r="B1048" t="s">
-        <v>1905</v>
+        <v>1896</v>
       </c>
       <c r="C1048">
         <v>114.4</v>
@@ -21587,7 +21560,7 @@
         <v>44382</v>
       </c>
       <c r="B1053" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="C1053">
         <v>108.5</v>
@@ -21755,7 +21728,7 @@
         <v>45381</v>
       </c>
       <c r="B1065" t="s">
-        <v>1907</v>
+        <v>1898</v>
       </c>
       <c r="C1065">
         <v>146.6</v>
@@ -21909,7 +21882,7 @@
         <v>45553</v>
       </c>
       <c r="B1076" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="C1076">
         <v>106</v>
@@ -21923,7 +21896,7 @@
         <v>45561</v>
       </c>
       <c r="B1077" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="C1077">
         <v>113.2</v>
@@ -21937,7 +21910,7 @@
         <v>45562</v>
       </c>
       <c r="B1078" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="C1078">
         <v>104.15</v>
@@ -21979,7 +21952,7 @@
         <v>45641</v>
       </c>
       <c r="B1081" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="C1081">
         <v>110</v>
@@ -22021,7 +21994,7 @@
         <v>45663</v>
       </c>
       <c r="B1084" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="C1084">
         <v>0</v>
@@ -22455,7 +22428,7 @@
         <v>47442</v>
       </c>
       <c r="B1115" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="C1115">
         <v>172</v>
@@ -22525,7 +22498,7 @@
         <v>47471</v>
       </c>
       <c r="B1120" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="C1120">
         <v>173</v>
@@ -22679,7 +22652,7 @@
         <v>48071</v>
       </c>
       <c r="B1131" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="C1131">
         <v>106.95</v>
@@ -22805,7 +22778,7 @@
         <v>49066</v>
       </c>
       <c r="B1140" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="C1140">
         <v>134</v>
@@ -22945,7 +22918,7 @@
         <v>49125</v>
       </c>
       <c r="B1150" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="C1150">
         <v>0</v>
@@ -22973,7 +22946,7 @@
         <v>49162</v>
       </c>
       <c r="B1152" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
       <c r="C1152">
         <v>128.69999999999999</v>
@@ -23001,7 +22974,7 @@
         <v>49164</v>
       </c>
       <c r="B1154" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="C1154">
         <v>127</v>
@@ -23225,7 +23198,7 @@
         <v>49711</v>
       </c>
       <c r="B1170" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="C1170">
         <v>0</v>
@@ -23435,7 +23408,7 @@
         <v>50097</v>
       </c>
       <c r="B1185" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="C1185">
         <v>107.1</v>
@@ -23491,7 +23464,7 @@
         <v>50114</v>
       </c>
       <c r="B1189" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="C1189">
         <v>111</v>
@@ -23757,7 +23730,7 @@
         <v>52251</v>
       </c>
       <c r="B1208" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="C1208">
         <v>161</v>
@@ -23785,7 +23758,7 @@
         <v>52302</v>
       </c>
       <c r="B1210" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="C1210">
         <v>125</v>
@@ -23799,7 +23772,7 @@
         <v>52303</v>
       </c>
       <c r="B1211" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="C1211">
         <v>113.6</v>
@@ -24065,7 +24038,7 @@
         <v>53063</v>
       </c>
       <c r="B1230" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="C1230">
         <v>129</v>
@@ -24093,7 +24066,7 @@
         <v>53091</v>
       </c>
       <c r="B1232" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="C1232">
         <v>182</v>
@@ -24149,7 +24122,7 @@
         <v>53095</v>
       </c>
       <c r="B1236" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="C1236">
         <v>111</v>
@@ -24709,7 +24682,7 @@
         <v>53887</v>
       </c>
       <c r="B1276" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="C1276">
         <v>0</v>
@@ -25003,7 +24976,7 @@
         <v>54342</v>
       </c>
       <c r="B1297" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="C1297">
         <v>110.75</v>
@@ -25087,7 +25060,7 @@
         <v>54501</v>
       </c>
       <c r="B1303" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="C1303">
         <v>134</v>
@@ -25199,7 +25172,7 @@
         <v>54572</v>
       </c>
       <c r="B1311" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="C1311">
         <v>121</v>
@@ -25213,7 +25186,7 @@
         <v>54573</v>
       </c>
       <c r="B1312" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="C1312">
         <v>0</v>
@@ -25647,7 +25620,7 @@
         <v>54983</v>
       </c>
       <c r="B1343" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="C1343">
         <v>110</v>
@@ -25969,7 +25942,7 @@
         <v>55361</v>
       </c>
       <c r="B1366" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="C1366">
         <v>202</v>
@@ -25997,7 +25970,7 @@
         <v>55382</v>
       </c>
       <c r="B1368" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="C1368">
         <v>0</v>
@@ -26039,7 +26012,7 @@
         <v>55433</v>
       </c>
       <c r="B1371" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="C1371">
         <v>102</v>
@@ -26053,7 +26026,7 @@
         <v>55434</v>
       </c>
       <c r="B1372" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
       <c r="C1372">
         <v>104</v>
@@ -26067,7 +26040,7 @@
         <v>55461</v>
       </c>
       <c r="B1373" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="C1373">
         <v>111</v>
@@ -26151,7 +26124,7 @@
         <v>56086</v>
       </c>
       <c r="B1379" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
       <c r="C1379">
         <v>112</v>
@@ -26207,7 +26180,7 @@
         <v>59051</v>
       </c>
       <c r="B1383" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="C1383">
         <v>242</v>
@@ -27310,7 +27283,7 @@
         <v>61531</v>
       </c>
       <c r="B1462" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="C1462">
         <v>252</v>
@@ -27324,7 +27297,7 @@
         <v>61532</v>
       </c>
       <c r="B1463" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="C1463">
         <v>124</v>
@@ -27562,7 +27535,7 @@
         <v>61631</v>
       </c>
       <c r="B1480" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="C1480">
         <v>140</v>
@@ -27576,7 +27549,7 @@
         <v>61632</v>
       </c>
       <c r="B1481" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="C1481">
         <v>136</v>
@@ -27590,7 +27563,7 @@
         <v>61633</v>
       </c>
       <c r="B1482" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="C1482">
         <v>145.5</v>
@@ -27604,7 +27577,7 @@
         <v>61634</v>
       </c>
       <c r="B1483" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="C1483">
         <v>170</v>
@@ -28066,7 +28039,7 @@
         <v>61793</v>
       </c>
       <c r="B1516" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="C1516">
         <v>111.2</v>
@@ -28206,7 +28179,7 @@
         <v>61841</v>
       </c>
       <c r="B1526" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="C1526">
         <v>113.2</v>
@@ -28374,7 +28347,7 @@
         <v>61894</v>
       </c>
       <c r="B1538" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="C1538">
         <v>0</v>
@@ -28388,7 +28361,7 @@
         <v>61901</v>
       </c>
       <c r="B1539" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="C1539">
         <v>147.5</v>
@@ -28402,7 +28375,7 @@
         <v>61902</v>
       </c>
       <c r="B1540" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="C1540">
         <v>119</v>
@@ -28458,7 +28431,7 @@
         <v>61906</v>
       </c>
       <c r="B1544" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="C1544">
         <v>118</v>
@@ -28556,7 +28529,7 @@
         <v>61962</v>
       </c>
       <c r="B1551" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="C1551">
         <v>118</v>
@@ -28570,7 +28543,7 @@
         <v>61963</v>
       </c>
       <c r="B1552" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="C1552">
         <v>300</v>
@@ -28584,7 +28557,7 @@
         <v>61964</v>
       </c>
       <c r="B1553" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="C1553">
         <v>174</v>
@@ -28598,7 +28571,7 @@
         <v>61965</v>
       </c>
       <c r="B1554" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="C1554">
         <v>115.8</v>
@@ -28682,7 +28655,7 @@
         <v>62021</v>
       </c>
       <c r="B1560" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="C1560">
         <v>0</v>
@@ -28878,7 +28851,7 @@
         <v>62091</v>
       </c>
       <c r="B1574" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="C1574">
         <v>207</v>
@@ -29018,7 +28991,7 @@
         <v>62171</v>
       </c>
       <c r="B1584" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="C1584">
         <v>250</v>
@@ -29032,7 +29005,7 @@
         <v>62172</v>
       </c>
       <c r="B1585" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="C1585">
         <v>123</v>
@@ -29046,7 +29019,7 @@
         <v>62173</v>
       </c>
       <c r="B1586" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="C1586">
         <v>150</v>
@@ -29326,7 +29299,7 @@
         <v>62241</v>
       </c>
       <c r="B1606" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="C1606">
         <v>184</v>
@@ -29732,7 +29705,7 @@
         <v>62484</v>
       </c>
       <c r="B1635" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="C1635">
         <v>158</v>
@@ -29774,7 +29747,7 @@
         <v>62512</v>
       </c>
       <c r="B1638" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="C1638">
         <v>125.45</v>
@@ -30222,7 +30195,7 @@
         <v>62791</v>
       </c>
       <c r="B1670" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="C1670">
         <v>122</v>
@@ -30250,7 +30223,7 @@
         <v>62822</v>
       </c>
       <c r="B1672" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="C1672">
         <v>124.65</v>
@@ -30320,7 +30293,7 @@
         <v>62843</v>
       </c>
       <c r="B1677" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="C1677">
         <v>0</v>
@@ -30376,7 +30349,7 @@
         <v>62854</v>
       </c>
       <c r="B1681" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="C1681">
         <v>0</v>
@@ -30488,7 +30461,7 @@
         <v>62883</v>
       </c>
       <c r="B1689" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="C1689">
         <v>167</v>
@@ -30502,7 +30475,7 @@
         <v>62884</v>
       </c>
       <c r="B1690" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="C1690">
         <v>0</v>
@@ -30824,7 +30797,7 @@
         <v>64382</v>
       </c>
       <c r="B1713" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="C1713">
         <v>126.1</v>
@@ -30950,7 +30923,7 @@
         <v>64651</v>
       </c>
       <c r="B1722" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="C1722">
         <v>123</v>
@@ -30978,7 +30951,7 @@
         <v>64692</v>
       </c>
       <c r="B1724" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="C1724">
         <v>151</v>
@@ -31006,7 +30979,7 @@
         <v>64722</v>
       </c>
       <c r="B1726" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="C1726">
         <v>355</v>
@@ -31020,7 +30993,7 @@
         <v>64723</v>
       </c>
       <c r="B1727" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="C1727">
         <v>126</v>
@@ -31104,7 +31077,7 @@
         <v>64862</v>
       </c>
       <c r="B1733" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="C1733">
         <v>132.4</v>
@@ -31328,7 +31301,7 @@
         <v>65851</v>
       </c>
       <c r="B1749" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="C1749">
         <v>0</v>
@@ -31342,7 +31315,7 @@
         <v>65852</v>
       </c>
       <c r="B1750" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="C1750">
         <v>0</v>
@@ -31412,7 +31385,7 @@
         <v>65931</v>
       </c>
       <c r="B1755" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="C1755">
         <v>226</v>
@@ -31482,7 +31455,7 @@
         <v>66131</v>
       </c>
       <c r="B1760" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="C1760">
         <v>157</v>
@@ -31524,7 +31497,7 @@
         <v>66163</v>
       </c>
       <c r="B1763" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="C1763">
         <v>100.2</v>
@@ -31580,7 +31553,7 @@
         <v>66551</v>
       </c>
       <c r="B1767" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="C1767">
         <v>440</v>
@@ -31692,7 +31665,7 @@
         <v>67061</v>
       </c>
       <c r="B1775" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="C1775">
         <v>158</v>
@@ -31720,7 +31693,7 @@
         <v>67161</v>
       </c>
       <c r="B1777" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="C1777">
         <v>0</v>
@@ -31790,7 +31763,7 @@
         <v>68041</v>
       </c>
       <c r="B1782" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="C1782">
         <v>111</v>
@@ -31804,7 +31777,7 @@
         <v>68061</v>
       </c>
       <c r="B1783" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="C1783">
         <v>0</v>
@@ -31818,7 +31791,7 @@
         <v>68231</v>
       </c>
       <c r="B1784" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C1784">
         <v>118</v>
@@ -31832,7 +31805,7 @@
         <v>68731</v>
       </c>
       <c r="B1785" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="C1785">
         <v>106.4</v>
@@ -32266,7 +32239,7 @@
         <v>80506</v>
       </c>
       <c r="B1816" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="C1816">
         <v>158</v>
@@ -32378,7 +32351,7 @@
         <v>80704</v>
       </c>
       <c r="B1824" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="C1824">
         <v>188</v>
@@ -32392,7 +32365,7 @@
         <v>80705</v>
       </c>
       <c r="B1825" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="C1825">
         <v>115.5</v>
@@ -32798,7 +32771,7 @@
         <v>80924</v>
       </c>
       <c r="B1854" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="C1854">
         <v>0</v>
@@ -33232,7 +33205,7 @@
         <v>81141</v>
       </c>
       <c r="B1885" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="C1885">
         <v>124</v>
@@ -33316,7 +33289,7 @@
         <v>81713</v>
       </c>
       <c r="B1891" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="C1891">
         <v>140.1</v>
@@ -33400,7 +33373,7 @@
         <v>82551</v>
       </c>
       <c r="B1897" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="C1897">
         <v>113.95</v>
@@ -33666,7 +33639,7 @@
         <v>83901</v>
       </c>
       <c r="B1916" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="C1916">
         <v>121</v>
@@ -33680,7 +33653,7 @@
         <v>83902</v>
       </c>
       <c r="B1917" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="C1917">
         <v>120</v>
@@ -33694,7 +33667,7 @@
         <v>83903</v>
       </c>
       <c r="B1918" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="C1918">
         <v>127.1</v>
@@ -33708,7 +33681,7 @@
         <v>83904</v>
       </c>
       <c r="B1919" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="C1919">
         <v>107.9</v>
@@ -33722,7 +33695,7 @@
         <v>83905</v>
       </c>
       <c r="B1920" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="C1920">
         <v>190</v>
@@ -33820,7 +33793,7 @@
         <v>84112</v>
       </c>
       <c r="B1927" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="C1927">
         <v>102.7</v>
@@ -33834,7 +33807,7 @@
         <v>84201</v>
       </c>
       <c r="B1928" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="C1928">
         <v>148.9</v>
@@ -33862,7 +33835,7 @@
         <v>84221</v>
       </c>
       <c r="B1930" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="C1930">
         <v>127</v>
@@ -33904,7 +33877,7 @@
         <v>84331</v>
       </c>
       <c r="B1933" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="C1933">
         <v>133</v>
@@ -33988,7 +33961,7 @@
         <v>84422</v>
       </c>
       <c r="B1939" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C1939">
         <v>0</v>
@@ -34030,7 +34003,7 @@
         <v>84622</v>
       </c>
       <c r="B1942" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C1942">
         <v>129.9</v>
@@ -34044,7 +34017,7 @@
         <v>84623</v>
       </c>
       <c r="B1943" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C1943">
         <v>133</v>
@@ -34128,7 +34101,7 @@
         <v>84881</v>
       </c>
       <c r="B1949" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="C1949">
         <v>0</v>
@@ -34436,7 +34409,7 @@
         <v>89275</v>
       </c>
       <c r="B1971" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C1971">
         <v>416</v>
@@ -34520,7 +34493,7 @@
         <v>89321</v>
       </c>
       <c r="B1977" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="C1977">
         <v>457</v>
@@ -34842,7 +34815,7 @@
         <v>89964</v>
       </c>
       <c r="B2000" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C2000">
         <v>0</v>
@@ -34926,7 +34899,7 @@
         <v>99061</v>
       </c>
       <c r="B2006" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C2006">
         <v>120.9</v>
@@ -35108,7 +35081,7 @@
         <v>99412</v>
       </c>
       <c r="B2019" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="C2019">
         <v>0</v>
@@ -35290,139 +35263,13 @@
         <v>99586</v>
       </c>
       <c r="B2032" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="C2032">
         <v>135.5</v>
       </c>
       <c r="D2032">
         <v>106</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2033">
-        <v>140201</v>
-      </c>
-      <c r="B2033" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C2033">
-        <v>111.75</v>
-      </c>
-      <c r="D2033">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2034">
-        <v>171501</v>
-      </c>
-      <c r="B2034" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C2034">
-        <v>123</v>
-      </c>
-      <c r="D2034">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2035">
-        <v>233201</v>
-      </c>
-      <c r="B2035" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C2035">
-        <v>141</v>
-      </c>
-      <c r="D2035">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2036">
-        <v>235201</v>
-      </c>
-      <c r="B2036" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C2036">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="D2036">
-        <v>95.65</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2037">
-        <v>240601</v>
-      </c>
-      <c r="B2037" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C2037">
-        <v>270</v>
-      </c>
-      <c r="D2037">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2038">
-        <v>240602</v>
-      </c>
-      <c r="B2038" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C2038">
-        <v>136.05000000000001</v>
-      </c>
-      <c r="D2038">
-        <v>102.05</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2039">
-        <v>260301</v>
-      </c>
-      <c r="B2039" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C2039">
-        <v>111.3</v>
-      </c>
-      <c r="D2039">
-        <v>98.55</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2040">
-        <v>288601</v>
-      </c>
-      <c r="B2040" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C2040">
-        <v>102.15</v>
-      </c>
-      <c r="D2040">
-        <v>96.25</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2041">
-        <v>288602</v>
-      </c>
-      <c r="B2041" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C2041">
-        <v>127</v>
-      </c>
-      <c r="D2041">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE888D2-1700-4374-B60F-47619D934C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D77C9-2DE8-449D-9C70-C21436030952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -6442,6 +6442,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6498,9 +6501,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6845,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2040"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A1219" workbookViewId="0">
+      <selection activeCell="E1230" sqref="E1230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6854,17 +6854,17 @@
     <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -24062,16 +24062,16 @@
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1230">
-        <v>53063</v>
+        <v>53064</v>
       </c>
       <c r="B1230" t="s">
         <v>1973</v>
       </c>
       <c r="C1230">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D1230">
-        <v>99.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.35">
@@ -35437,58 +35437,58 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="2:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:11" ht="30.6" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
@@ -35919,28 +35919,28 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G65" s="13" t="s">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D77C9-2DE8-449D-9C70-C21436030952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862148BA-C788-40E3-90CD-73F8B6E2443D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="資料庫" sheetId="1" r:id="rId1"/>
     <sheet name="CB價格查詢" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">資料庫!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6845,8 +6848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1219" workbookViewId="0">
-      <selection activeCell="E1230" sqref="E1230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7268,7 +7271,7 @@
         <v>1394</v>
       </c>
       <c r="C30">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D30">
         <v>111.1</v>
@@ -7576,7 +7579,7 @@
         <v>1396</v>
       </c>
       <c r="C52">
-        <v>110.9</v>
+        <v>115.95</v>
       </c>
       <c r="D52">
         <v>103.8</v>
@@ -7663,7 +7666,7 @@
         <v>103</v>
       </c>
       <c r="D58">
-        <v>100.5</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -8164,7 +8167,7 @@
         <v>1398</v>
       </c>
       <c r="C94">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="D94">
         <v>97.2</v>
@@ -8223,7 +8226,7 @@
         <v>131.1</v>
       </c>
       <c r="D98">
-        <v>101</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -10068,7 +10071,7 @@
         <v>1409</v>
       </c>
       <c r="C230">
-        <v>116.3</v>
+        <v>118.45</v>
       </c>
       <c r="D230">
         <v>105.5</v>
@@ -10152,7 +10155,7 @@
         <v>212</v>
       </c>
       <c r="C236">
-        <v>117.8</v>
+        <v>0</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -11650,10 +11653,10 @@
         <v>1933</v>
       </c>
       <c r="C343">
-        <v>125.75</v>
+        <v>0</v>
       </c>
       <c r="D343">
-        <v>116.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -14383,7 +14386,7 @@
         <v>125.15</v>
       </c>
       <c r="D538">
-        <v>100</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -14436,10 +14439,10 @@
         <v>1944</v>
       </c>
       <c r="C542">
-        <v>107.2</v>
+        <v>0</v>
       </c>
       <c r="D542">
-        <v>104.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -15234,7 +15237,7 @@
         <v>443</v>
       </c>
       <c r="C599">
-        <v>139.35</v>
+        <v>141</v>
       </c>
       <c r="D599">
         <v>102</v>
@@ -16217,7 +16220,7 @@
         <v>121.85</v>
       </c>
       <c r="D669">
-        <v>108.15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
@@ -16231,7 +16234,7 @@
         <v>121.85</v>
       </c>
       <c r="D670">
-        <v>108.15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
@@ -16301,7 +16304,7 @@
         <v>116.6</v>
       </c>
       <c r="D675">
-        <v>104.55</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -16693,7 +16696,7 @@
         <v>123</v>
       </c>
       <c r="D703">
-        <v>100</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.35">
@@ -17390,7 +17393,7 @@
         <v>1431</v>
       </c>
       <c r="C753">
-        <v>147.25</v>
+        <v>148</v>
       </c>
       <c r="D753">
         <v>100.6</v>
@@ -17726,7 +17729,7 @@
         <v>1435</v>
       </c>
       <c r="C777">
-        <v>119</v>
+        <v>121.6</v>
       </c>
       <c r="D777">
         <v>92</v>
@@ -18006,10 +18009,10 @@
         <v>1951</v>
       </c>
       <c r="C797">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="D797">
-        <v>0</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.35">
@@ -18958,7 +18961,7 @@
         <v>635</v>
       </c>
       <c r="C865">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D865">
         <v>101.6</v>
@@ -19101,7 +19104,7 @@
         <v>125.9</v>
       </c>
       <c r="D875">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.35">
@@ -19115,7 +19118,7 @@
         <v>125.9</v>
       </c>
       <c r="D876">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.35">
@@ -19185,7 +19188,7 @@
         <v>155</v>
       </c>
       <c r="D881">
-        <v>116.15</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.35">
@@ -19420,7 +19423,7 @@
         <v>1446</v>
       </c>
       <c r="C898">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D898">
         <v>111</v>
@@ -21394,7 +21397,7 @@
         <v>765</v>
       </c>
       <c r="C1039">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1039">
         <v>101.05</v>
@@ -21408,7 +21411,7 @@
         <v>1707</v>
       </c>
       <c r="C1040">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D1040">
         <v>101.9</v>
@@ -21912,7 +21915,7 @@
         <v>1461</v>
       </c>
       <c r="C1076">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D1076">
         <v>99.2</v>
@@ -21929,7 +21932,7 @@
         <v>113.2</v>
       </c>
       <c r="D1077">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.35">
@@ -21942,8 +21945,8 @@
       <c r="C1078">
         <v>104.15</v>
       </c>
-      <c r="D1078" t="e">
-        <v>#N/A</v>
+      <c r="D1078">
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.35">
@@ -21982,10 +21985,10 @@
         <v>1966</v>
       </c>
       <c r="C1081">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D1081">
-        <v>107.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.35">
@@ -23214,10 +23217,10 @@
         <v>1970</v>
       </c>
       <c r="C1169">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D1169">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.35">
@@ -23231,7 +23234,7 @@
         <v>195</v>
       </c>
       <c r="D1170">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.35">
@@ -23441,7 +23444,7 @@
         <v>107.1</v>
       </c>
       <c r="D1185">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.35">
@@ -23530,52 +23533,52 @@
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1192">
-        <v>50683</v>
+        <v>52031</v>
       </c>
       <c r="B1192" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C1192">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D1192">
-        <v>0</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1193">
-        <v>52031</v>
+        <v>52041</v>
       </c>
       <c r="B1193" t="s">
-        <v>1722</v>
+        <v>878</v>
       </c>
       <c r="C1193">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="D1193">
-        <v>111.1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1194">
-        <v>52041</v>
+        <v>52071</v>
       </c>
       <c r="B1194" t="s">
-        <v>878</v>
+        <v>1723</v>
       </c>
       <c r="C1194">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D1194">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1195">
-        <v>52071</v>
+        <v>52081</v>
       </c>
       <c r="B1195" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C1195">
         <v>0</v>
@@ -23586,10 +23589,10 @@
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1196">
-        <v>52081</v>
+        <v>52091</v>
       </c>
       <c r="B1196" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C1196">
         <v>0</v>
@@ -23600,472 +23603,472 @@
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1197">
-        <v>52091</v>
+        <v>52111</v>
       </c>
       <c r="B1197" t="s">
-        <v>1725</v>
+        <v>879</v>
       </c>
       <c r="C1197">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D1197">
-        <v>0</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1198">
-        <v>52111</v>
+        <v>52131</v>
       </c>
       <c r="B1198" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C1198">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D1198">
-        <v>100.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1199">
-        <v>52131</v>
+        <v>52132</v>
       </c>
       <c r="B1199" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C1199">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D1199">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1200">
-        <v>52132</v>
+        <v>52133</v>
       </c>
       <c r="B1200" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C1200">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="D1200">
-        <v>101</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1201">
-        <v>52133</v>
+        <v>52134</v>
       </c>
       <c r="B1201" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C1201">
-        <v>108</v>
+        <v>104.5</v>
       </c>
       <c r="D1201">
-        <v>98.3</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1202">
-        <v>52134</v>
+        <v>52135</v>
       </c>
       <c r="B1202" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C1202">
-        <v>104.5</v>
+        <v>122.5</v>
       </c>
       <c r="D1202">
-        <v>99.1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1203">
-        <v>52135</v>
+        <v>52136</v>
       </c>
       <c r="B1203" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C1203">
-        <v>122.5</v>
+        <v>180</v>
       </c>
       <c r="D1203">
-        <v>101</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1204">
-        <v>52136</v>
+        <v>52137</v>
       </c>
       <c r="B1204" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C1204">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D1204">
-        <v>104.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1205">
-        <v>52137</v>
+        <v>52151</v>
       </c>
       <c r="B1205" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C1205">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="D1205">
-        <v>102</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1206">
-        <v>52151</v>
+        <v>52231</v>
       </c>
       <c r="B1206" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C1206">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D1206">
-        <v>99.55</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1207">
-        <v>52231</v>
+        <v>52251</v>
       </c>
       <c r="B1207" t="s">
-        <v>888</v>
+        <v>1471</v>
       </c>
       <c r="C1207">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D1207">
-        <v>95.5</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1208">
-        <v>52251</v>
+        <v>52301</v>
       </c>
       <c r="B1208" t="s">
-        <v>1471</v>
+        <v>1726</v>
       </c>
       <c r="C1208">
-        <v>161</v>
+        <v>138.9</v>
       </c>
       <c r="D1208">
-        <v>104.1</v>
+        <v>100.75</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1209">
-        <v>52301</v>
+        <v>52302</v>
       </c>
       <c r="B1209" t="s">
-        <v>1726</v>
+        <v>1971</v>
       </c>
       <c r="C1209">
-        <v>138.9</v>
+        <v>125</v>
       </c>
       <c r="D1209">
-        <v>100.75</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1210">
-        <v>52302</v>
+        <v>52303</v>
       </c>
       <c r="B1210" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C1210">
-        <v>125</v>
+        <v>113.6</v>
       </c>
       <c r="D1210">
-        <v>99.6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1211">
-        <v>52303</v>
+        <v>52451</v>
       </c>
       <c r="B1211" t="s">
-        <v>1972</v>
+        <v>889</v>
       </c>
       <c r="C1211">
-        <v>113.6</v>
+        <v>122</v>
       </c>
       <c r="D1211">
-        <v>108</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1212">
-        <v>52451</v>
+        <v>52551</v>
       </c>
       <c r="B1212" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C1212">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="D1212">
-        <v>102.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1213">
-        <v>52551</v>
+        <v>52591</v>
       </c>
       <c r="B1213" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C1213">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="D1213">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1214">
-        <v>52591</v>
+        <v>52631</v>
       </c>
       <c r="B1214" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C1214">
-        <v>120</v>
+        <v>822</v>
       </c>
       <c r="D1214">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1215">
-        <v>52631</v>
+        <v>52632</v>
       </c>
       <c r="B1215" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C1215">
-        <v>822</v>
+        <v>629</v>
       </c>
       <c r="D1215">
-        <v>107</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1216">
-        <v>52632</v>
+        <v>52633</v>
       </c>
       <c r="B1216" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C1216">
-        <v>629</v>
+        <v>159</v>
       </c>
       <c r="D1216">
-        <v>103.3</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1217">
-        <v>52633</v>
+        <v>52634</v>
       </c>
       <c r="B1217" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C1217">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1217">
-        <v>100.25</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1218">
-        <v>52634</v>
+        <v>52811</v>
       </c>
       <c r="B1218" t="s">
-        <v>895</v>
+        <v>23</v>
       </c>
       <c r="C1218">
-        <v>155</v>
+        <v>101.75</v>
       </c>
       <c r="D1218">
-        <v>99.9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1219">
-        <v>52811</v>
+        <v>52841</v>
       </c>
       <c r="B1219" t="s">
-        <v>23</v>
+        <v>1727</v>
       </c>
       <c r="C1219">
-        <v>101.75</v>
+        <v>144</v>
       </c>
       <c r="D1219">
-        <v>81</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1220">
-        <v>52841</v>
+        <v>52842</v>
       </c>
       <c r="B1220" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C1220">
-        <v>144</v>
+        <v>124.85</v>
       </c>
       <c r="D1220">
-        <v>102.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1221">
-        <v>52842</v>
+        <v>52851</v>
       </c>
       <c r="B1221" t="s">
-        <v>1728</v>
+        <v>896</v>
       </c>
       <c r="C1221">
-        <v>124.85</v>
+        <v>260</v>
       </c>
       <c r="D1221">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1222">
-        <v>52851</v>
+        <v>52852</v>
       </c>
       <c r="B1222" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C1222">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="D1222">
-        <v>93</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1223">
-        <v>52852</v>
+        <v>52881</v>
       </c>
       <c r="B1223" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C1223">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D1223">
-        <v>98.1</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1224">
-        <v>52881</v>
+        <v>52891</v>
       </c>
       <c r="B1224" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C1224">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D1224">
-        <v>103.9</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1225">
-        <v>52891</v>
+        <v>52911</v>
       </c>
       <c r="B1225" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C1225">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D1225">
-        <v>103.2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1226">
-        <v>52911</v>
+        <v>53061</v>
       </c>
       <c r="B1226" t="s">
-        <v>900</v>
+        <v>1729</v>
       </c>
       <c r="C1226">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="D1226">
-        <v>108</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1227">
-        <v>53061</v>
+        <v>53062</v>
       </c>
       <c r="B1227" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C1227">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D1227">
-        <v>96.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1228">
-        <v>53062</v>
+        <v>53063</v>
       </c>
       <c r="B1228" t="s">
-        <v>1730</v>
+        <v>901</v>
       </c>
       <c r="C1228">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D1228">
-        <v>0</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1229">
-        <v>53063</v>
+        <v>53064</v>
       </c>
       <c r="B1229" t="s">
-        <v>901</v>
+        <v>1973</v>
       </c>
       <c r="C1229">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D1229">
-        <v>99.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1230">
-        <v>53064</v>
+        <v>53071</v>
       </c>
       <c r="B1230" t="s">
-        <v>1973</v>
+        <v>1731</v>
       </c>
       <c r="C1230">
         <v>0</v>
@@ -24076,108 +24079,108 @@
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1231">
-        <v>53071</v>
+        <v>53091</v>
       </c>
       <c r="B1231" t="s">
-        <v>1731</v>
+        <v>1974</v>
       </c>
       <c r="C1231">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D1231">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1232">
-        <v>53091</v>
+        <v>53092</v>
       </c>
       <c r="B1232" t="s">
-        <v>1974</v>
+        <v>1732</v>
       </c>
       <c r="C1232">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D1232">
-        <v>107</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1233">
-        <v>53092</v>
+        <v>53093</v>
       </c>
       <c r="B1233" t="s">
-        <v>1732</v>
+        <v>902</v>
       </c>
       <c r="C1233">
-        <v>155</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="D1233">
-        <v>99.6</v>
+        <v>99.15</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1234">
-        <v>53093</v>
+        <v>53094</v>
       </c>
       <c r="B1234" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C1234">
-        <v>139.05000000000001</v>
+        <v>138.94999999999999</v>
       </c>
       <c r="D1234">
-        <v>99.15</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1235">
-        <v>53094</v>
+        <v>53095</v>
       </c>
       <c r="B1235" t="s">
-        <v>903</v>
+        <v>1472</v>
       </c>
       <c r="C1235">
-        <v>138.94999999999999</v>
+        <v>112</v>
       </c>
       <c r="D1235">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1236">
-        <v>53095</v>
+        <v>53101</v>
       </c>
       <c r="B1236" t="s">
-        <v>1472</v>
+        <v>1733</v>
       </c>
       <c r="C1236">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1236">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1237">
-        <v>53101</v>
+        <v>53131</v>
       </c>
       <c r="B1237" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C1237">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D1237">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1238">
-        <v>53131</v>
+        <v>53132</v>
       </c>
       <c r="B1238" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C1238">
         <v>0</v>
@@ -24188,13 +24191,13 @@
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1239">
-        <v>53132</v>
+        <v>53151</v>
       </c>
       <c r="B1239" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C1239">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D1239">
         <v>0</v>
@@ -24202,52 +24205,52 @@
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1240">
-        <v>53151</v>
+        <v>53152</v>
       </c>
       <c r="B1240" t="s">
-        <v>1736</v>
+        <v>904</v>
       </c>
       <c r="C1240">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D1240">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1241">
-        <v>53152</v>
+        <v>53153</v>
       </c>
       <c r="B1241" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C1241">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D1241">
-        <v>97</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1242">
-        <v>53153</v>
+        <v>53181</v>
       </c>
       <c r="B1242" t="s">
-        <v>905</v>
+        <v>1737</v>
       </c>
       <c r="C1242">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D1242">
-        <v>101.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1243">
-        <v>53181</v>
+        <v>53251</v>
       </c>
       <c r="B1243" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C1243">
         <v>0</v>
@@ -24258,83 +24261,83 @@
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1244">
-        <v>53251</v>
+        <v>53261</v>
       </c>
       <c r="B1244" t="s">
-        <v>1738</v>
+        <v>695</v>
       </c>
       <c r="C1244">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D1244">
-        <v>0</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1245">
-        <v>53261</v>
+        <v>53262</v>
       </c>
       <c r="B1245" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C1245">
-        <v>610</v>
+        <v>123.2</v>
       </c>
       <c r="D1245">
-        <v>110.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1246">
-        <v>53262</v>
+        <v>53263</v>
       </c>
       <c r="B1246" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C1246">
-        <v>123.2</v>
+        <v>127</v>
       </c>
       <c r="D1246">
-        <v>0</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1247">
-        <v>53263</v>
+        <v>53264</v>
       </c>
       <c r="B1247" t="s">
-        <v>697</v>
+        <v>906</v>
       </c>
       <c r="C1247">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D1247">
-        <v>102.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1248">
-        <v>53264</v>
+        <v>53271</v>
       </c>
       <c r="B1248" t="s">
-        <v>906</v>
+        <v>1739</v>
       </c>
       <c r="C1248">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D1248">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1249">
-        <v>53271</v>
+        <v>53281</v>
       </c>
       <c r="B1249" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C1249">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D1249">
         <v>0</v>
@@ -24342,139 +24345,139 @@
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1250">
-        <v>53281</v>
+        <v>53282</v>
       </c>
       <c r="B1250" t="s">
-        <v>1740</v>
+        <v>907</v>
       </c>
       <c r="C1250">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D1250">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1251">
-        <v>53282</v>
+        <v>53411</v>
       </c>
       <c r="B1251" t="s">
-        <v>907</v>
+        <v>1741</v>
       </c>
       <c r="C1251">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D1251">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1252">
-        <v>53411</v>
+        <v>53451</v>
       </c>
       <c r="B1252" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C1252">
-        <v>0</v>
+        <v>127.8</v>
       </c>
       <c r="D1252">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1253">
-        <v>53451</v>
+        <v>53461</v>
       </c>
       <c r="B1253" t="s">
-        <v>1742</v>
+        <v>908</v>
       </c>
       <c r="C1253">
-        <v>127.8</v>
+        <v>119.8</v>
       </c>
       <c r="D1253">
-        <v>59</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1254">
-        <v>53461</v>
+        <v>53462</v>
       </c>
       <c r="B1254" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C1254">
-        <v>119.8</v>
+        <v>121</v>
       </c>
       <c r="D1254">
-        <v>27.2</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1255">
-        <v>53462</v>
+        <v>53511</v>
       </c>
       <c r="B1255" t="s">
-        <v>909</v>
+        <v>1743</v>
       </c>
       <c r="C1255">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D1255">
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1256">
-        <v>53511</v>
+        <v>53512</v>
       </c>
       <c r="B1256" t="s">
-        <v>1743</v>
+        <v>910</v>
       </c>
       <c r="C1256">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="D1256">
-        <v>0</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1257">
-        <v>53512</v>
+        <v>53513</v>
       </c>
       <c r="B1257" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C1257">
-        <v>110</v>
+        <v>113.5</v>
       </c>
       <c r="D1257">
-        <v>96.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1258">
-        <v>53513</v>
+        <v>53521</v>
       </c>
       <c r="B1258" t="s">
-        <v>911</v>
+        <v>1744</v>
       </c>
       <c r="C1258">
-        <v>113.5</v>
+        <v>0</v>
       </c>
       <c r="D1258">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1259">
-        <v>53521</v>
+        <v>53551</v>
       </c>
       <c r="B1259" t="s">
-        <v>1744</v>
+        <v>912</v>
       </c>
       <c r="C1259">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="D1259">
         <v>0</v>
@@ -24482,52 +24485,52 @@
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1260">
-        <v>53551</v>
+        <v>53552</v>
       </c>
       <c r="B1260" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C1260">
-        <v>645</v>
+        <v>300</v>
       </c>
       <c r="D1260">
-        <v>0</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1261">
-        <v>53552</v>
+        <v>53553</v>
       </c>
       <c r="B1261" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C1261">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="D1261">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1262">
-        <v>53553</v>
+        <v>53631</v>
       </c>
       <c r="B1262" t="s">
-        <v>914</v>
+        <v>1745</v>
       </c>
       <c r="C1262">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D1262">
-        <v>105.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1263">
-        <v>53631</v>
+        <v>53671</v>
       </c>
       <c r="B1263" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C1263">
         <v>0</v>
@@ -24538,13 +24541,13 @@
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1264">
-        <v>53671</v>
+        <v>53711</v>
       </c>
       <c r="B1264" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C1264">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D1264">
         <v>0</v>
@@ -24552,69 +24555,69 @@
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1265">
-        <v>53711</v>
+        <v>53811</v>
       </c>
       <c r="B1265" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C1265">
-        <v>239</v>
+        <v>132.65</v>
       </c>
       <c r="D1265">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1266">
-        <v>53811</v>
+        <v>53812</v>
       </c>
       <c r="B1266" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C1266">
-        <v>132.65</v>
+        <v>211</v>
       </c>
       <c r="D1266">
-        <v>85</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1267">
-        <v>53812</v>
+        <v>53813</v>
       </c>
       <c r="B1267" t="s">
-        <v>1749</v>
+        <v>915</v>
       </c>
       <c r="C1267">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="D1267">
-        <v>95.2</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1268">
-        <v>53813</v>
+        <v>53861</v>
       </c>
       <c r="B1268" t="s">
-        <v>915</v>
+        <v>1750</v>
       </c>
       <c r="C1268">
-        <v>155</v>
+        <v>110.05</v>
       </c>
       <c r="D1268">
-        <v>91.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1269">
-        <v>53861</v>
+        <v>53881</v>
       </c>
       <c r="B1269" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C1269">
-        <v>110.05</v>
+        <v>0</v>
       </c>
       <c r="D1269">
         <v>0</v>
@@ -24622,13 +24625,13 @@
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1270">
-        <v>53881</v>
+        <v>53882</v>
       </c>
       <c r="B1270" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C1270">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D1270">
         <v>0</v>
@@ -24636,80 +24639,80 @@
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1271">
-        <v>53882</v>
+        <v>53883</v>
       </c>
       <c r="B1271" t="s">
-        <v>1752</v>
+        <v>916</v>
       </c>
       <c r="C1271">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="D1271">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1272">
-        <v>53883</v>
+        <v>53884</v>
       </c>
       <c r="B1272" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C1272">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="D1272">
-        <v>107</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1273">
-        <v>53884</v>
+        <v>53885</v>
       </c>
       <c r="B1273" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C1273">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D1273">
-        <v>97.9</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1274">
-        <v>53885</v>
+        <v>53886</v>
       </c>
       <c r="B1274" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C1274">
-        <v>200</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="D1274">
-        <v>97.7</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1275">
-        <v>53886</v>
+        <v>53887</v>
       </c>
       <c r="B1275" t="s">
-        <v>919</v>
+        <v>1975</v>
       </c>
       <c r="C1275">
-        <v>139.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="D1275">
-        <v>99.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1276">
-        <v>53887</v>
+        <v>53891</v>
       </c>
       <c r="B1276" t="s">
-        <v>1975</v>
+        <v>1753</v>
       </c>
       <c r="C1276">
         <v>0</v>
@@ -24720,94 +24723,94 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1277">
-        <v>53891</v>
+        <v>53921</v>
       </c>
       <c r="B1277" t="s">
-        <v>1753</v>
+        <v>920</v>
       </c>
       <c r="C1277">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="D1277">
-        <v>0</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1278">
-        <v>53921</v>
+        <v>53922</v>
       </c>
       <c r="B1278" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C1278">
-        <v>164</v>
+        <v>118.8</v>
       </c>
       <c r="D1278">
-        <v>84.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1279">
-        <v>53922</v>
+        <v>53923</v>
       </c>
       <c r="B1279" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C1279">
-        <v>118.8</v>
+        <v>196</v>
       </c>
       <c r="D1279">
-        <v>96.5</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1280">
-        <v>53923</v>
+        <v>53924</v>
       </c>
       <c r="B1280" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C1280">
-        <v>196</v>
+        <v>132.9</v>
       </c>
       <c r="D1280">
-        <v>106.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1281">
-        <v>53924</v>
+        <v>54031</v>
       </c>
       <c r="B1281" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C1281">
-        <v>132.9</v>
+        <v>123.05</v>
       </c>
       <c r="D1281">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1282">
-        <v>54031</v>
+        <v>54051</v>
       </c>
       <c r="B1282" t="s">
-        <v>924</v>
+        <v>1754</v>
       </c>
       <c r="C1282">
-        <v>123.05</v>
+        <v>0</v>
       </c>
       <c r="D1282">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1283">
-        <v>54051</v>
+        <v>54071</v>
       </c>
       <c r="B1283" t="s">
-        <v>1754</v>
+        <v>1609</v>
       </c>
       <c r="C1283">
         <v>0</v>
@@ -24818,10 +24821,10 @@
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1284">
-        <v>54071</v>
+        <v>54121</v>
       </c>
       <c r="B1284" t="s">
-        <v>1609</v>
+        <v>477</v>
       </c>
       <c r="C1284">
         <v>0</v>
@@ -24832,10 +24835,10 @@
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1285">
-        <v>54121</v>
+        <v>54181</v>
       </c>
       <c r="B1285" t="s">
-        <v>477</v>
+        <v>1615</v>
       </c>
       <c r="C1285">
         <v>0</v>
@@ -24846,10 +24849,10 @@
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1286">
-        <v>54181</v>
+        <v>54221</v>
       </c>
       <c r="B1286" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C1286">
         <v>0</v>
@@ -24860,10 +24863,10 @@
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1287">
-        <v>54221</v>
+        <v>54231</v>
       </c>
       <c r="B1287" t="s">
-        <v>1616</v>
+        <v>1647</v>
       </c>
       <c r="C1287">
         <v>0</v>
@@ -24874,10 +24877,10 @@
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1288">
-        <v>54231</v>
+        <v>54251</v>
       </c>
       <c r="B1288" t="s">
-        <v>1647</v>
+        <v>1755</v>
       </c>
       <c r="C1288">
         <v>0</v>
@@ -24888,27 +24891,27 @@
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1289">
-        <v>54251</v>
+        <v>54252</v>
       </c>
       <c r="B1289" t="s">
-        <v>1755</v>
+        <v>925</v>
       </c>
       <c r="C1289">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D1289">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1290">
-        <v>54252</v>
+        <v>54253</v>
       </c>
       <c r="B1290" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C1290">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="D1290">
         <v>107</v>
@@ -24916,108 +24919,108 @@
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1291">
-        <v>54253</v>
+        <v>54254</v>
       </c>
       <c r="B1291" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C1291">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="D1291">
-        <v>107</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1292">
-        <v>54254</v>
+        <v>54255</v>
       </c>
       <c r="B1292" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C1292">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D1292">
-        <v>73.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1293">
-        <v>54255</v>
+        <v>54261</v>
       </c>
       <c r="B1293" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C1293">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="D1293">
-        <v>99.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1294">
-        <v>54261</v>
+        <v>54291</v>
       </c>
       <c r="B1294" t="s">
-        <v>929</v>
+        <v>1613</v>
       </c>
       <c r="C1294">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="D1294">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1295">
-        <v>54291</v>
+        <v>54341</v>
       </c>
       <c r="B1295" t="s">
-        <v>1613</v>
+        <v>1756</v>
       </c>
       <c r="C1295">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="D1295">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1296">
-        <v>54341</v>
+        <v>54342</v>
       </c>
       <c r="B1296" t="s">
-        <v>1756</v>
+        <v>1473</v>
       </c>
       <c r="C1296">
-        <v>277</v>
+        <v>110.75</v>
       </c>
       <c r="D1296">
-        <v>100</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1297">
-        <v>54342</v>
+        <v>54371</v>
       </c>
       <c r="B1297" t="s">
-        <v>1473</v>
+        <v>1608</v>
       </c>
       <c r="C1297">
-        <v>110.75</v>
+        <v>0</v>
       </c>
       <c r="D1297">
-        <v>104.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1298">
-        <v>54371</v>
+        <v>54421</v>
       </c>
       <c r="B1298" t="s">
-        <v>1608</v>
+        <v>1757</v>
       </c>
       <c r="C1298">
         <v>0</v>
@@ -25028,10 +25031,10 @@
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1299">
-        <v>54421</v>
+        <v>54422</v>
       </c>
       <c r="B1299" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C1299">
         <v>0</v>
@@ -25042,10 +25045,10 @@
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1300">
-        <v>54422</v>
+        <v>54431</v>
       </c>
       <c r="B1300" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C1300">
         <v>0</v>
@@ -25056,10 +25059,10 @@
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1301">
-        <v>54431</v>
+        <v>54441</v>
       </c>
       <c r="B1301" t="s">
-        <v>1759</v>
+        <v>1612</v>
       </c>
       <c r="C1301">
         <v>0</v>
@@ -25070,38 +25073,38 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1302">
-        <v>54441</v>
+        <v>54501</v>
       </c>
       <c r="B1302" t="s">
-        <v>1612</v>
+        <v>1474</v>
       </c>
       <c r="C1302">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D1302">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1303">
-        <v>54501</v>
+        <v>54511</v>
       </c>
       <c r="B1303" t="s">
-        <v>1474</v>
+        <v>1643</v>
       </c>
       <c r="C1303">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D1303">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1304">
-        <v>54511</v>
+        <v>54512</v>
       </c>
       <c r="B1304" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C1304">
         <v>0</v>
@@ -25112,38 +25115,38 @@
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1305">
-        <v>54512</v>
+        <v>54521</v>
       </c>
       <c r="B1305" t="s">
-        <v>1644</v>
+        <v>930</v>
       </c>
       <c r="C1305">
-        <v>0</v>
+        <v>133.5</v>
       </c>
       <c r="D1305">
-        <v>0</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1306">
-        <v>54521</v>
+        <v>54531</v>
       </c>
       <c r="B1306" t="s">
-        <v>930</v>
+        <v>1639</v>
       </c>
       <c r="C1306">
-        <v>133.5</v>
+        <v>0</v>
       </c>
       <c r="D1306">
-        <v>99.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1307">
-        <v>54531</v>
+        <v>54551</v>
       </c>
       <c r="B1307" t="s">
-        <v>1639</v>
+        <v>1760</v>
       </c>
       <c r="C1307">
         <v>0</v>
@@ -25154,66 +25157,66 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1308">
-        <v>54551</v>
+        <v>54552</v>
       </c>
       <c r="B1308" t="s">
-        <v>1760</v>
+        <v>931</v>
       </c>
       <c r="C1308">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D1308">
-        <v>0</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1309">
-        <v>54552</v>
+        <v>54571</v>
       </c>
       <c r="B1309" t="s">
-        <v>931</v>
+        <v>1761</v>
       </c>
       <c r="C1309">
-        <v>118</v>
+        <v>139.6</v>
       </c>
       <c r="D1309">
-        <v>97.2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1310">
-        <v>54571</v>
+        <v>54572</v>
       </c>
       <c r="B1310" t="s">
-        <v>1761</v>
+        <v>1475</v>
       </c>
       <c r="C1310">
-        <v>139.6</v>
+        <v>121</v>
       </c>
       <c r="D1310">
-        <v>70</v>
+        <v>97.9</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1311">
-        <v>54572</v>
+        <v>54573</v>
       </c>
       <c r="B1311" t="s">
-        <v>1475</v>
+        <v>1976</v>
       </c>
       <c r="C1311">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D1311">
-        <v>97.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1312">
-        <v>54573</v>
+        <v>54581</v>
       </c>
       <c r="B1312" t="s">
-        <v>1976</v>
+        <v>1645</v>
       </c>
       <c r="C1312">
         <v>0</v>
@@ -25224,10 +25227,10 @@
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1313">
-        <v>54581</v>
+        <v>54591</v>
       </c>
       <c r="B1313" t="s">
-        <v>1645</v>
+        <v>1654</v>
       </c>
       <c r="C1313">
         <v>0</v>
@@ -25238,10 +25241,10 @@
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1314">
-        <v>54591</v>
+        <v>54592</v>
       </c>
       <c r="B1314" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C1314">
         <v>0</v>
@@ -25252,10 +25255,10 @@
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1315">
-        <v>54592</v>
+        <v>54611</v>
       </c>
       <c r="B1315" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C1315">
         <v>0</v>
@@ -25266,10 +25269,10 @@
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1316">
-        <v>54611</v>
+        <v>54631</v>
       </c>
       <c r="B1316" t="s">
-        <v>1650</v>
+        <v>1762</v>
       </c>
       <c r="C1316">
         <v>0</v>
@@ -25280,38 +25283,38 @@
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1317">
-        <v>54631</v>
+        <v>54641</v>
       </c>
       <c r="B1317" t="s">
-        <v>1762</v>
+        <v>932</v>
       </c>
       <c r="C1317">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D1317">
-        <v>0</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1318">
-        <v>54641</v>
+        <v>54651</v>
       </c>
       <c r="B1318" t="s">
-        <v>932</v>
+        <v>1763</v>
       </c>
       <c r="C1318">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D1318">
-        <v>101.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1319">
-        <v>54651</v>
+        <v>54661</v>
       </c>
       <c r="B1319" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C1319">
         <v>0</v>
@@ -25322,10 +25325,10 @@
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1320">
-        <v>54661</v>
+        <v>54662</v>
       </c>
       <c r="B1320" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C1320">
         <v>0</v>
@@ -25336,41 +25339,41 @@
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1321">
-        <v>54662</v>
+        <v>54691</v>
       </c>
       <c r="B1321" t="s">
-        <v>1765</v>
+        <v>933</v>
       </c>
       <c r="C1321">
-        <v>0</v>
+        <v>104.8</v>
       </c>
       <c r="D1321">
-        <v>0</v>
+        <v>93.05</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1322">
-        <v>54691</v>
+        <v>54731</v>
       </c>
       <c r="B1322" t="s">
-        <v>933</v>
+        <v>1766</v>
       </c>
       <c r="C1322">
-        <v>104.8</v>
+        <v>0</v>
       </c>
       <c r="D1322">
-        <v>93.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1323">
-        <v>54731</v>
+        <v>54751</v>
       </c>
       <c r="B1323" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C1323">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D1323">
         <v>0</v>
@@ -25378,66 +25381,66 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1324">
-        <v>54751</v>
+        <v>54752</v>
       </c>
       <c r="B1324" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C1324">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="D1324">
-        <v>0</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1325">
-        <v>54752</v>
+        <v>54753</v>
       </c>
       <c r="B1325" t="s">
-        <v>1768</v>
+        <v>934</v>
       </c>
       <c r="C1325">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D1325">
-        <v>100.5</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1326">
-        <v>54753</v>
+        <v>54754</v>
       </c>
       <c r="B1326" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C1326">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D1326">
-        <v>99.3</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1327">
-        <v>54754</v>
+        <v>54755</v>
       </c>
       <c r="B1327" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C1327">
-        <v>118</v>
+        <v>113.5</v>
       </c>
       <c r="D1327">
-        <v>102.6</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1328">
-        <v>54755</v>
+        <v>54756</v>
       </c>
       <c r="B1328" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C1328">
         <v>113.5</v>
@@ -25448,674 +25451,674 @@
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1329">
-        <v>54756</v>
+        <v>54757</v>
       </c>
       <c r="B1329" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C1329">
-        <v>113.5</v>
+        <v>141</v>
       </c>
       <c r="D1329">
-        <v>101.1</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1330">
-        <v>54757</v>
+        <v>54758</v>
       </c>
       <c r="B1330" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C1330">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D1330">
-        <v>101.55</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1331">
-        <v>54758</v>
+        <v>54759</v>
       </c>
       <c r="B1331" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C1331">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D1331">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1332">
-        <v>54759</v>
+        <v>54781</v>
       </c>
       <c r="B1332" t="s">
-        <v>940</v>
+        <v>1769</v>
       </c>
       <c r="C1332">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D1332">
-        <v>100.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1333">
-        <v>54781</v>
+        <v>54811</v>
       </c>
       <c r="B1333" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C1333">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D1333">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1334">
-        <v>54811</v>
+        <v>54821</v>
       </c>
       <c r="B1334" t="s">
-        <v>1770</v>
+        <v>1664</v>
       </c>
       <c r="C1334">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D1334">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1335">
-        <v>54821</v>
+        <v>54901</v>
       </c>
       <c r="B1335" t="s">
-        <v>1664</v>
+        <v>941</v>
       </c>
       <c r="C1335">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D1335">
-        <v>0</v>
+        <v>92.05</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1336">
-        <v>54901</v>
+        <v>54911</v>
       </c>
       <c r="B1336" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C1336">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1336">
-        <v>92.05</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1337">
-        <v>54911</v>
+        <v>54912</v>
       </c>
       <c r="B1337" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C1337">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D1337">
-        <v>68</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1338">
-        <v>54912</v>
+        <v>54913</v>
       </c>
       <c r="B1338" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C1338">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D1338">
-        <v>94.1</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1339">
-        <v>54913</v>
+        <v>54931</v>
       </c>
       <c r="B1339" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C1339">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D1339">
-        <v>98.55</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1340">
-        <v>54931</v>
+        <v>54981</v>
       </c>
       <c r="B1340" t="s">
-        <v>945</v>
+        <v>1771</v>
       </c>
       <c r="C1340">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D1340">
-        <v>94.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1341">
-        <v>54981</v>
+        <v>54982</v>
       </c>
       <c r="B1341" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C1341">
-        <v>0</v>
+        <v>128.9</v>
       </c>
       <c r="D1341">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1342">
-        <v>54982</v>
+        <v>54983</v>
       </c>
       <c r="B1342" t="s">
-        <v>1772</v>
+        <v>1977</v>
       </c>
       <c r="C1342">
-        <v>128.9</v>
+        <v>110</v>
       </c>
       <c r="D1342">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1343">
-        <v>54983</v>
+        <v>55021</v>
       </c>
       <c r="B1343" t="s">
-        <v>1977</v>
+        <v>1773</v>
       </c>
       <c r="C1343">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D1343">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1344">
-        <v>55021</v>
+        <v>55051</v>
       </c>
       <c r="B1344" t="s">
-        <v>1773</v>
+        <v>946</v>
       </c>
       <c r="C1344">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D1344">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1345">
-        <v>55051</v>
+        <v>55052</v>
       </c>
       <c r="B1345" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C1345">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="D1345">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1346">
-        <v>55052</v>
+        <v>55121</v>
       </c>
       <c r="B1346" t="s">
-        <v>947</v>
+        <v>1774</v>
       </c>
       <c r="C1346">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="D1346">
-        <v>99</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1347">
-        <v>55121</v>
+        <v>55122</v>
       </c>
       <c r="B1347" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C1347">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D1347">
-        <v>96.6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1348">
-        <v>55122</v>
+        <v>55123</v>
       </c>
       <c r="B1348" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C1348">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D1348">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1349">
-        <v>55123</v>
+        <v>55124</v>
       </c>
       <c r="B1349" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C1349">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D1349">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1350">
-        <v>55124</v>
+        <v>55191</v>
       </c>
       <c r="B1350" t="s">
-        <v>1777</v>
+        <v>948</v>
       </c>
       <c r="C1350">
-        <v>116</v>
+        <v>105.2</v>
       </c>
       <c r="D1350">
-        <v>90</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1351">
-        <v>55191</v>
+        <v>55192</v>
       </c>
       <c r="B1351" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C1351">
-        <v>105.2</v>
+        <v>104</v>
       </c>
       <c r="D1351">
-        <v>99.75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1352">
-        <v>55192</v>
+        <v>55193</v>
       </c>
       <c r="B1352" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C1352">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D1352">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1353">
-        <v>55193</v>
+        <v>55194</v>
       </c>
       <c r="B1353" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C1353">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1353">
-        <v>105</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1354">
-        <v>55194</v>
+        <v>55221</v>
       </c>
       <c r="B1354" t="s">
-        <v>951</v>
+        <v>1778</v>
       </c>
       <c r="C1354">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="D1354">
-        <v>103.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1355">
-        <v>55221</v>
+        <v>55222</v>
       </c>
       <c r="B1355" t="s">
-        <v>1778</v>
+        <v>952</v>
       </c>
       <c r="C1355">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="D1355">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1356">
-        <v>55222</v>
+        <v>55223</v>
       </c>
       <c r="B1356" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C1356">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D1356">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1357">
-        <v>55223</v>
+        <v>55224</v>
       </c>
       <c r="B1357" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C1357">
         <v>114</v>
       </c>
       <c r="D1357">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1358">
-        <v>55224</v>
+        <v>55225</v>
       </c>
       <c r="B1358" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C1358">
-        <v>114</v>
+        <v>108.5</v>
       </c>
       <c r="D1358">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1359">
-        <v>55225</v>
+        <v>55226</v>
       </c>
       <c r="B1359" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C1359">
-        <v>108.5</v>
+        <v>105</v>
       </c>
       <c r="D1359">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1360">
-        <v>55226</v>
+        <v>55231</v>
       </c>
       <c r="B1360" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C1360">
-        <v>105</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="D1360">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1361">
-        <v>55231</v>
+        <v>55291</v>
       </c>
       <c r="B1361" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C1361">
-        <v>137.19999999999999</v>
+        <v>105</v>
       </c>
       <c r="D1361">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1362">
-        <v>55291</v>
+        <v>55341</v>
       </c>
       <c r="B1362" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C1362">
-        <v>105</v>
+        <v>503</v>
       </c>
       <c r="D1362">
-        <v>97</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1363">
-        <v>55341</v>
+        <v>55342</v>
       </c>
       <c r="B1363" t="s">
         <v>959</v>
       </c>
       <c r="C1363">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="D1363">
-        <v>102.7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1364">
-        <v>55342</v>
+        <v>55343</v>
       </c>
       <c r="B1364" t="s">
         <v>959</v>
       </c>
       <c r="C1364">
-        <v>585</v>
+        <v>190</v>
       </c>
       <c r="D1364">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1365">
-        <v>55343</v>
+        <v>55361</v>
       </c>
       <c r="B1365" t="s">
-        <v>959</v>
+        <v>1476</v>
       </c>
       <c r="C1365">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D1365">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1366">
-        <v>55361</v>
+        <v>55381</v>
       </c>
       <c r="B1366" t="s">
-        <v>1476</v>
+        <v>960</v>
       </c>
       <c r="C1366">
-        <v>202</v>
+        <v>115.5</v>
       </c>
       <c r="D1366">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1367">
-        <v>55381</v>
+        <v>55382</v>
       </c>
       <c r="B1367" t="s">
-        <v>960</v>
+        <v>1978</v>
       </c>
       <c r="C1367">
-        <v>115.5</v>
+        <v>0</v>
       </c>
       <c r="D1367">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1368">
-        <v>55382</v>
+        <v>55431</v>
       </c>
       <c r="B1368" t="s">
-        <v>1978</v>
+        <v>961</v>
       </c>
       <c r="C1368">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D1368">
-        <v>0</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1369">
-        <v>55431</v>
+        <v>55432</v>
       </c>
       <c r="B1369" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C1369">
-        <v>123</v>
+        <v>112.1</v>
       </c>
       <c r="D1369">
-        <v>102.3</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1370">
-        <v>55432</v>
+        <v>55433</v>
       </c>
       <c r="B1370" t="s">
-        <v>962</v>
+        <v>1477</v>
       </c>
       <c r="C1370">
-        <v>112.1</v>
+        <v>102</v>
       </c>
       <c r="D1370">
-        <v>100.05</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1371">
-        <v>55433</v>
+        <v>55434</v>
       </c>
       <c r="B1371" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C1371">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1371">
-        <v>101</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1372">
-        <v>55434</v>
+        <v>55461</v>
       </c>
       <c r="B1372" t="s">
-        <v>1478</v>
+        <v>1979</v>
       </c>
       <c r="C1372">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1372">
-        <v>101.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1373">
-        <v>55461</v>
+        <v>56031</v>
       </c>
       <c r="B1373" t="s">
-        <v>1979</v>
+        <v>963</v>
       </c>
       <c r="C1373">
-        <v>111</v>
+        <v>113.4</v>
       </c>
       <c r="D1373">
-        <v>88</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1374">
-        <v>56031</v>
+        <v>56081</v>
       </c>
       <c r="B1374" t="s">
-        <v>963</v>
+        <v>1779</v>
       </c>
       <c r="C1374">
-        <v>113.4</v>
+        <v>280</v>
       </c>
       <c r="D1374">
-        <v>95.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1375">
-        <v>56081</v>
+        <v>56082</v>
       </c>
       <c r="B1375" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C1375">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D1375">
-        <v>103.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1376">
-        <v>56082</v>
+        <v>56083</v>
       </c>
       <c r="B1376" t="s">
-        <v>1780</v>
+        <v>1721</v>
       </c>
       <c r="C1376">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D1376">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.35">
@@ -27428,7 +27431,7 @@
         <v>1020</v>
       </c>
       <c r="C1470">
-        <v>117.5</v>
+        <v>119.7</v>
       </c>
       <c r="D1470">
         <v>95.5</v>
@@ -30102,7 +30105,7 @@
         <v>1144</v>
       </c>
       <c r="C1661">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1661">
         <v>98.05</v>
@@ -30214,10 +30217,10 @@
         <v>1489</v>
       </c>
       <c r="C1669">
-        <v>122</v>
+        <v>123.5</v>
       </c>
       <c r="D1669">
-        <v>112.35</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.35">
@@ -30970,7 +30973,7 @@
         <v>1494</v>
       </c>
       <c r="C1723">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D1723">
         <v>103.6</v>
@@ -31015,7 +31018,7 @@
         <v>126</v>
       </c>
       <c r="D1726">
-        <v>113.5</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.35">
@@ -31404,7 +31407,7 @@
         <v>2001</v>
       </c>
       <c r="C1754">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="D1754">
         <v>113.5</v>
@@ -31474,7 +31477,7 @@
         <v>1498</v>
       </c>
       <c r="C1759">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D1759">
         <v>105.1</v>
@@ -31516,10 +31519,10 @@
         <v>2002</v>
       </c>
       <c r="C1762">
-        <v>100.2</v>
+        <v>0</v>
       </c>
       <c r="D1762">
-        <v>97.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.35">
@@ -31754,10 +31757,10 @@
         <v>1221</v>
       </c>
       <c r="C1779">
-        <v>119.8</v>
+        <v>0</v>
       </c>
       <c r="D1779">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1780" spans="1:4" x14ac:dyDescent="0.35">
@@ -31785,7 +31788,7 @@
         <v>111</v>
       </c>
       <c r="D1781">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.35">
@@ -31824,10 +31827,10 @@
         <v>2005</v>
       </c>
       <c r="C1784">
-        <v>106.4</v>
+        <v>0</v>
       </c>
       <c r="D1784">
-        <v>104.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1785" spans="1:4" x14ac:dyDescent="0.35">
@@ -33210,7 +33213,7 @@
         <v>1296</v>
       </c>
       <c r="C1883">
-        <v>125.5</v>
+        <v>126.6</v>
       </c>
       <c r="D1883">
         <v>95.95</v>
@@ -33829,7 +33832,7 @@
         <v>148.9</v>
       </c>
       <c r="D1927">
-        <v>98.05</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.35">
@@ -33966,7 +33969,7 @@
         <v>1330</v>
       </c>
       <c r="C1937">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1937">
         <v>110.6</v>
@@ -34428,7 +34431,7 @@
         <v>1516</v>
       </c>
       <c r="C1970">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D1970">
         <v>112.2</v>
@@ -34711,7 +34714,7 @@
         <v>145</v>
       </c>
       <c r="D1990">
-        <v>104.5</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.35">
@@ -35415,6 +35418,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{560938A7-4414-491C-AA09-6A0E6F3D3732}">
+    <sortState ref="A2:D2040">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35692,7 +35700,7 @@
       </c>
       <c r="D11" s="7">
         <f>IFERROR(VLOOKUP(B11,資料庫!A:D,3,FALSE),"")</f>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
         <f>IFERROR(VLOOKUP(B11,資料庫!A:D,4,FALSE),"")</f>
@@ -35700,7 +35708,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>2.7076648841354722</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="12">
         <v>50092</v>
@@ -35911,11 +35919,11 @@
       </c>
       <c r="J16" s="7">
         <f>IFERROR(VLOOKUP(G16,資料庫!A:D,4,FALSE),"")</f>
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>5.4133858267716439E-2</v>
+        <v>5.5172413793103336E-2</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9321D151-3472-42A4-8CDA-D90BAC8C8AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E4903-D8AC-4A00-8221-1884C1563390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="2056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="2056">
   <si>
     <t>代號</t>
   </si>
@@ -6969,10 +6969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2092"/>
+  <dimension ref="A1:D2091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
-      <selection activeCell="C799" sqref="C799"/>
+    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
+      <selection activeCell="A784" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7313,7 +7313,7 @@
         <v>115.5</v>
       </c>
       <c r="D24">
-        <v>107</v>
+        <v>106.05</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7394,7 +7394,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <v>106</v>
@@ -7408,7 +7408,7 @@
         <v>1389</v>
       </c>
       <c r="C31">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D31">
         <v>111.1</v>
@@ -7716,7 +7716,7 @@
         <v>1391</v>
       </c>
       <c r="C53">
-        <v>143.05000000000001</v>
+        <v>155</v>
       </c>
       <c r="D53">
         <v>103.8</v>
@@ -10012,7 +10012,7 @@
         <v>1916</v>
       </c>
       <c r="C217">
-        <v>112.7</v>
+        <v>113.65</v>
       </c>
       <c r="D217">
         <v>105.9</v>
@@ -10040,7 +10040,7 @@
         <v>195</v>
       </c>
       <c r="C219">
-        <v>124.65</v>
+        <v>132</v>
       </c>
       <c r="D219">
         <v>99.5</v>
@@ -10253,7 +10253,7 @@
         <v>118.45</v>
       </c>
       <c r="D234">
-        <v>104.9</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -10950,7 +10950,7 @@
         <v>1920</v>
       </c>
       <c r="C284">
-        <v>119.2</v>
+        <v>130.6</v>
       </c>
       <c r="D284">
         <v>109.15</v>
@@ -11118,7 +11118,7 @@
         <v>244</v>
       </c>
       <c r="C296">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D296">
         <v>97</v>
@@ -11779,7 +11779,7 @@
         <v>103.8</v>
       </c>
       <c r="D343">
-        <v>99.25</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -11863,7 +11863,7 @@
         <v>129.5</v>
       </c>
       <c r="D349">
-        <v>115</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -12644,7 +12644,7 @@
         <v>2023</v>
       </c>
       <c r="C405">
-        <v>115.5</v>
+        <v>131.5</v>
       </c>
       <c r="D405">
         <v>113.1</v>
@@ -13204,7 +13204,7 @@
         <v>1610</v>
       </c>
       <c r="C445">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D445">
         <v>103</v>
@@ -14422,7 +14422,7 @@
         <v>2025</v>
       </c>
       <c r="C532">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D532">
         <v>110</v>
@@ -14716,7 +14716,7 @@
         <v>1933</v>
       </c>
       <c r="C553">
-        <v>116.5</v>
+        <v>123.8</v>
       </c>
       <c r="D553">
         <v>103</v>
@@ -14968,7 +14968,7 @@
         <v>420</v>
       </c>
       <c r="C571">
-        <v>127</v>
+        <v>133.5</v>
       </c>
       <c r="D571">
         <v>102</v>
@@ -15514,7 +15514,7 @@
         <v>441</v>
       </c>
       <c r="C610">
-        <v>147.5</v>
+        <v>154</v>
       </c>
       <c r="D610">
         <v>102</v>
@@ -15612,7 +15612,7 @@
         <v>447</v>
       </c>
       <c r="C617">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D617">
         <v>95.5</v>
@@ -16060,7 +16060,7 @@
         <v>1418</v>
       </c>
       <c r="C649">
-        <v>142.6</v>
+        <v>160</v>
       </c>
       <c r="D649">
         <v>106</v>
@@ -16581,7 +16581,7 @@
         <v>116.6</v>
       </c>
       <c r="D686">
-        <v>103.15</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.35">
@@ -17474,7 +17474,7 @@
         <v>543</v>
       </c>
       <c r="C750">
-        <v>120</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="D750">
         <v>102.1</v>
@@ -17922,7 +17922,7 @@
         <v>2028</v>
       </c>
       <c r="C782">
-        <v>119.9</v>
+        <v>120</v>
       </c>
       <c r="D782">
         <v>110.55</v>
@@ -17936,7 +17936,7 @@
         <v>2028</v>
       </c>
       <c r="C783">
-        <v>119.9</v>
+        <v>120</v>
       </c>
       <c r="D783">
         <v>110.55</v>
@@ -18160,7 +18160,7 @@
         <v>1429</v>
       </c>
       <c r="C799">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D799">
         <v>100.8</v>
@@ -18384,7 +18384,7 @@
         <v>1940</v>
       </c>
       <c r="C815">
-        <v>118.45</v>
+        <v>119.95</v>
       </c>
       <c r="D815">
         <v>105.95</v>
@@ -18552,7 +18552,7 @@
         <v>1745</v>
       </c>
       <c r="C827">
-        <v>110.1</v>
+        <v>112.65</v>
       </c>
       <c r="D827">
         <v>101.55</v>
@@ -18608,7 +18608,7 @@
         <v>1431</v>
       </c>
       <c r="C831">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D831">
         <v>105.1</v>
@@ -18636,7 +18636,7 @@
         <v>1941</v>
       </c>
       <c r="C833">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D833">
         <v>108</v>
@@ -18650,7 +18650,7 @@
         <v>2029</v>
       </c>
       <c r="C834">
-        <v>119</v>
+        <v>124.5</v>
       </c>
       <c r="D834">
         <v>110</v>
@@ -18874,10 +18874,10 @@
         <v>1944</v>
       </c>
       <c r="C850">
-        <v>116</v>
+        <v>122.7</v>
       </c>
       <c r="D850">
-        <v>113.35</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.35">
@@ -18888,10 +18888,10 @@
         <v>1944</v>
       </c>
       <c r="C851">
-        <v>116</v>
+        <v>122.7</v>
       </c>
       <c r="D851">
-        <v>113.35</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.35">
@@ -19140,7 +19140,7 @@
         <v>1682</v>
       </c>
       <c r="C869">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D869">
         <v>116</v>
@@ -19224,7 +19224,7 @@
         <v>625</v>
       </c>
       <c r="C875">
-        <v>125.2</v>
+        <v>127.5</v>
       </c>
       <c r="D875">
         <v>99</v>
@@ -19238,7 +19238,7 @@
         <v>2030</v>
       </c>
       <c r="C876">
-        <v>108</v>
+        <v>116.5</v>
       </c>
       <c r="D876">
         <v>104</v>
@@ -19392,7 +19392,7 @@
         <v>2031</v>
       </c>
       <c r="C887">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D887">
         <v>113.6</v>
@@ -19535,7 +19535,7 @@
         <v>125.9</v>
       </c>
       <c r="D897">
-        <v>100.2</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.35">
@@ -19549,7 +19549,7 @@
         <v>125.9</v>
       </c>
       <c r="D898">
-        <v>100.2</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -20176,7 +20176,7 @@
         <v>1441</v>
       </c>
       <c r="C943">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D943">
         <v>114</v>
@@ -20260,7 +20260,7 @@
         <v>1948</v>
       </c>
       <c r="C949">
-        <v>128.19999999999999</v>
+        <v>136.5</v>
       </c>
       <c r="D949">
         <v>110</v>
@@ -20501,7 +20501,7 @@
         <v>129.4</v>
       </c>
       <c r="D966">
-        <v>103</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.35">
@@ -21649,7 +21649,7 @@
         <v>159</v>
       </c>
       <c r="D1048">
-        <v>100.8</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.35">
@@ -21663,7 +21663,7 @@
         <v>159</v>
       </c>
       <c r="D1049">
-        <v>100.8</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.35">
@@ -21758,7 +21758,7 @@
         <v>755</v>
       </c>
       <c r="C1056">
-        <v>110.5</v>
+        <v>167</v>
       </c>
       <c r="D1056">
         <v>96.1</v>
@@ -21772,7 +21772,7 @@
         <v>755</v>
       </c>
       <c r="C1057">
-        <v>110.5</v>
+        <v>167</v>
       </c>
       <c r="D1057">
         <v>96.1</v>
@@ -22010,7 +22010,7 @@
         <v>1450</v>
       </c>
       <c r="C1074">
-        <v>123.8</v>
+        <v>124.5</v>
       </c>
       <c r="D1074">
         <v>99.05</v>
@@ -22402,7 +22402,7 @@
         <v>1453</v>
       </c>
       <c r="C1102">
-        <v>113.4</v>
+        <v>118.75</v>
       </c>
       <c r="D1102">
         <v>99.2</v>
@@ -22640,7 +22640,7 @@
         <v>796</v>
       </c>
       <c r="C1119">
-        <v>121.9</v>
+        <v>149.94999999999999</v>
       </c>
       <c r="D1119">
         <v>100.2</v>
@@ -22654,7 +22654,7 @@
         <v>797</v>
       </c>
       <c r="C1120">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="D1120">
         <v>100</v>
@@ -22909,7 +22909,7 @@
         <v>161</v>
       </c>
       <c r="D1138">
-        <v>104.2</v>
+        <v>102.65</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.35">
@@ -23676,7 +23676,7 @@
         <v>2034</v>
       </c>
       <c r="C1193">
-        <v>115.8</v>
+        <v>124</v>
       </c>
       <c r="D1193">
         <v>114</v>
@@ -23690,7 +23690,7 @@
         <v>855</v>
       </c>
       <c r="C1194">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="D1194">
         <v>100.05</v>
@@ -23721,7 +23721,7 @@
         <v>119.35</v>
       </c>
       <c r="D1196">
-        <v>105.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.35">
@@ -24082,7 +24082,7 @@
         <v>1714</v>
       </c>
       <c r="C1222">
-        <v>117</v>
+        <v>117.9</v>
       </c>
       <c r="D1222">
         <v>108.95</v>
@@ -24236,7 +24236,7 @@
         <v>1462</v>
       </c>
       <c r="C1233">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="D1233">
         <v>104.1</v>
@@ -24295,7 +24295,7 @@
         <v>122</v>
       </c>
       <c r="D1237">
-        <v>102.4</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.35">
@@ -24558,7 +24558,7 @@
         <v>1962</v>
       </c>
       <c r="C1256">
-        <v>114</v>
+        <v>125.1</v>
       </c>
       <c r="D1256">
         <v>107.6</v>
@@ -25216,7 +25216,7 @@
         <v>1964</v>
       </c>
       <c r="C1303">
-        <v>112.35</v>
+        <v>116.1</v>
       </c>
       <c r="D1303">
         <v>103</v>
@@ -25510,7 +25510,7 @@
         <v>1464</v>
       </c>
       <c r="C1324">
-        <v>111.8</v>
+        <v>116</v>
       </c>
       <c r="D1324">
         <v>104.1</v>
@@ -26910,7 +26910,7 @@
         <v>967</v>
       </c>
       <c r="C1424">
-        <v>121</v>
+        <v>122.45</v>
       </c>
       <c r="D1424">
         <v>97</v>
@@ -27400,7 +27400,7 @@
         <v>2039</v>
       </c>
       <c r="C1459">
-        <v>118.2</v>
+        <v>152</v>
       </c>
       <c r="D1459">
         <v>104.55</v>
@@ -27680,7 +27680,7 @@
         <v>2040</v>
       </c>
       <c r="C1479">
-        <v>119.5</v>
+        <v>126.2</v>
       </c>
       <c r="D1479">
         <v>110</v>
@@ -28688,7 +28688,7 @@
         <v>1472</v>
       </c>
       <c r="C1551">
-        <v>111.2</v>
+        <v>114.45</v>
       </c>
       <c r="D1551">
         <v>100.2</v>
@@ -28954,7 +28954,7 @@
         <v>1052</v>
       </c>
       <c r="C1570">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="D1570">
         <v>98</v>
@@ -29010,7 +29010,7 @@
         <v>1976</v>
       </c>
       <c r="C1574">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D1574">
         <v>109.65</v>
@@ -29234,7 +29234,7 @@
         <v>1476</v>
       </c>
       <c r="C1590">
-        <v>116.5</v>
+        <v>123</v>
       </c>
       <c r="D1590">
         <v>106.1</v>
@@ -30480,7 +30480,7 @@
         <v>1120</v>
       </c>
       <c r="C1679">
-        <v>128.30000000000001</v>
+        <v>132.35</v>
       </c>
       <c r="D1679">
         <v>102</v>
@@ -30746,7 +30746,7 @@
         <v>1139</v>
       </c>
       <c r="C1698">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1698">
         <v>98.05</v>
@@ -30830,7 +30830,7 @@
         <v>1145</v>
       </c>
       <c r="C1704">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D1704">
         <v>102.5</v>
@@ -30858,7 +30858,7 @@
         <v>1480</v>
       </c>
       <c r="C1706">
-        <v>123.5</v>
+        <v>125.5</v>
       </c>
       <c r="D1706">
         <v>111.8</v>
@@ -31138,7 +31138,7 @@
         <v>1987</v>
       </c>
       <c r="C1726">
-        <v>111.75</v>
+        <v>117.5</v>
       </c>
       <c r="D1726">
         <v>104</v>
@@ -31292,7 +31292,7 @@
         <v>1171</v>
       </c>
       <c r="C1737">
-        <v>141.5</v>
+        <v>192</v>
       </c>
       <c r="D1737">
         <v>108.2</v>
@@ -31348,7 +31348,7 @@
         <v>1175</v>
       </c>
       <c r="C1741">
-        <v>148.80000000000001</v>
+        <v>149.5</v>
       </c>
       <c r="D1741">
         <v>105.5</v>
@@ -31362,7 +31362,7 @@
         <v>2017</v>
       </c>
       <c r="C1742">
-        <v>113.3</v>
+        <v>116.05</v>
       </c>
       <c r="D1742">
         <v>105</v>
@@ -31474,7 +31474,7 @@
         <v>1483</v>
       </c>
       <c r="C1750">
-        <v>126.1</v>
+        <v>128</v>
       </c>
       <c r="D1750">
         <v>110.55</v>
@@ -31754,7 +31754,7 @@
         <v>1488</v>
       </c>
       <c r="C1770">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D1770">
         <v>108.2</v>
@@ -31964,7 +31964,7 @@
         <v>23</v>
       </c>
       <c r="C1785">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D1785">
         <v>102.5</v>
@@ -31978,7 +31978,7 @@
         <v>1988</v>
       </c>
       <c r="C1786">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D1786">
         <v>112.5</v>
@@ -31992,7 +31992,7 @@
         <v>1989</v>
       </c>
       <c r="C1787">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D1787">
         <v>107</v>
@@ -32132,7 +32132,7 @@
         <v>1489</v>
       </c>
       <c r="C1797">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="D1797">
         <v>105.1</v>
@@ -32174,7 +32174,7 @@
         <v>1991</v>
       </c>
       <c r="C1800">
-        <v>100.2</v>
+        <v>103</v>
       </c>
       <c r="D1800">
         <v>96.55</v>
@@ -32328,7 +32328,7 @@
         <v>1860</v>
       </c>
       <c r="C1811">
-        <v>127</v>
+        <v>127.8</v>
       </c>
       <c r="D1811">
         <v>103.2</v>
@@ -32370,7 +32370,7 @@
         <v>1214</v>
       </c>
       <c r="C1814">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D1814">
         <v>106.8</v>
@@ -32384,7 +32384,7 @@
         <v>2044</v>
       </c>
       <c r="C1815">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1815">
         <v>115.7</v>
@@ -32485,7 +32485,7 @@
         <v>111</v>
       </c>
       <c r="D1822">
-        <v>98.3</v>
+        <v>96.35</v>
       </c>
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.35">
@@ -32496,7 +32496,7 @@
         <v>1993</v>
       </c>
       <c r="C1823">
-        <v>115.95</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="D1823">
         <v>106</v>
@@ -32552,7 +32552,7 @@
         <v>1994</v>
       </c>
       <c r="C1827">
-        <v>129.5</v>
+        <v>136</v>
       </c>
       <c r="D1827">
         <v>104.1</v>
@@ -32566,7 +32566,7 @@
         <v>1218</v>
       </c>
       <c r="C1828">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D1828">
         <v>101.45</v>
@@ -32692,7 +32692,7 @@
         <v>1225</v>
       </c>
       <c r="C1837">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D1837">
         <v>101</v>
@@ -33126,7 +33126,7 @@
         <v>1496</v>
       </c>
       <c r="C1868">
-        <v>115.5</v>
+        <v>121.5</v>
       </c>
       <c r="D1868">
         <v>105</v>
@@ -33540,1410 +33540,1410 @@
     </row>
     <row r="1898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1898">
-        <v>80924</v>
+        <v>80961</v>
       </c>
       <c r="B1898" t="s">
-        <v>1995</v>
+        <v>1265</v>
       </c>
       <c r="C1898">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D1898">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1899">
-        <v>80961</v>
+        <v>80971</v>
       </c>
       <c r="B1899" t="s">
-        <v>1265</v>
+        <v>1879</v>
       </c>
       <c r="C1899">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D1899">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1900">
-        <v>80971</v>
+        <v>80972</v>
       </c>
       <c r="B1900" t="s">
-        <v>1879</v>
+        <v>1266</v>
       </c>
       <c r="C1900">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="D1900">
-        <v>0</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="1901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1901">
-        <v>80972</v>
+        <v>81011</v>
       </c>
       <c r="B1901" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C1901">
-        <v>381</v>
+        <v>141</v>
       </c>
       <c r="D1901">
-        <v>112.2</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="1902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1902">
-        <v>81011</v>
+        <v>81031</v>
       </c>
       <c r="B1902" t="s">
-        <v>1267</v>
+        <v>1880</v>
       </c>
       <c r="C1902">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="D1902">
-        <v>62.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1903">
-        <v>81031</v>
+        <v>81032</v>
       </c>
       <c r="B1903" t="s">
-        <v>1880</v>
+        <v>1268</v>
       </c>
       <c r="C1903">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="D1903">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1904">
-        <v>81032</v>
+        <v>81033</v>
       </c>
       <c r="B1904" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C1904">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D1904">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1905">
-        <v>81033</v>
+        <v>81034</v>
       </c>
       <c r="B1905" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C1905">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="D1905">
-        <v>96</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1906">
-        <v>81034</v>
+        <v>81041</v>
       </c>
       <c r="B1906" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C1906">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="D1906">
-        <v>99.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1907">
-        <v>81041</v>
+        <v>81042</v>
       </c>
       <c r="B1907" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C1907">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="D1907">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1908">
-        <v>81042</v>
+        <v>81051</v>
       </c>
       <c r="B1908" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C1908">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D1908">
-        <v>90</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1909">
-        <v>81051</v>
+        <v>81052</v>
       </c>
       <c r="B1909" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C1909">
-        <v>161</v>
+        <v>103.8</v>
       </c>
       <c r="D1909">
-        <v>94.5</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="1910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1910">
-        <v>81052</v>
+        <v>81071</v>
       </c>
       <c r="B1910" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C1910">
-        <v>103.8</v>
+        <v>112.2</v>
       </c>
       <c r="D1910">
-        <v>81.45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1911">
-        <v>81071</v>
+        <v>81072</v>
       </c>
       <c r="B1911" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C1911">
-        <v>112.2</v>
+        <v>123</v>
       </c>
       <c r="D1911">
-        <v>86</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1912">
-        <v>81072</v>
+        <v>81073</v>
       </c>
       <c r="B1912" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C1912">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D1912">
-        <v>100.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="1913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1913">
-        <v>81073</v>
+        <v>81091</v>
       </c>
       <c r="B1913" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C1913">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D1913">
-        <v>83.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="1914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1914">
-        <v>81091</v>
+        <v>81101</v>
       </c>
       <c r="B1914" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C1914">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D1914">
-        <v>106.5</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="1915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1915">
-        <v>81101</v>
+        <v>81102</v>
       </c>
       <c r="B1915" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C1915">
-        <v>138</v>
+        <v>112.5</v>
       </c>
       <c r="D1915">
-        <v>92.9</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="1916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1916">
-        <v>81102</v>
+        <v>81111</v>
       </c>
       <c r="B1916" t="s">
-        <v>1280</v>
+        <v>1881</v>
       </c>
       <c r="C1916">
-        <v>112.5</v>
+        <v>190</v>
       </c>
       <c r="D1916">
-        <v>97.2</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="1917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1917">
-        <v>81111</v>
+        <v>81112</v>
       </c>
       <c r="B1917" t="s">
-        <v>1881</v>
+        <v>1281</v>
       </c>
       <c r="C1917">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="D1917">
-        <v>91.75</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="1918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1918">
-        <v>81112</v>
+        <v>81113</v>
       </c>
       <c r="B1918" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C1918">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1918">
-        <v>93.5</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="1919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1919">
-        <v>81113</v>
+        <v>81121</v>
       </c>
       <c r="B1919" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C1919">
-        <v>126</v>
+        <v>130.1</v>
       </c>
       <c r="D1919">
-        <v>40.299999999999997</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1920">
-        <v>81121</v>
+        <v>81122</v>
       </c>
       <c r="B1920" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C1920">
-        <v>130.1</v>
+        <v>145</v>
       </c>
       <c r="D1920">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1921">
-        <v>81122</v>
+        <v>81123</v>
       </c>
       <c r="B1921" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C1921">
-        <v>145</v>
+        <v>124.1</v>
       </c>
       <c r="D1921">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1922">
-        <v>81123</v>
+        <v>81124</v>
       </c>
       <c r="B1922" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C1922">
-        <v>124.1</v>
+        <v>322</v>
       </c>
       <c r="D1922">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1923">
-        <v>81124</v>
+        <v>81125</v>
       </c>
       <c r="B1923" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C1923">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="D1923">
-        <v>107</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="1924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1924">
-        <v>81125</v>
+        <v>81126</v>
       </c>
       <c r="B1924" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C1924">
-        <v>116</v>
+        <v>134.6</v>
       </c>
       <c r="D1924">
-        <v>100.85</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1925">
-        <v>81126</v>
+        <v>81127</v>
       </c>
       <c r="B1925" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C1925">
-        <v>134.6</v>
+        <v>152</v>
       </c>
       <c r="D1925">
-        <v>100.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1926">
-        <v>81127</v>
+        <v>81128</v>
       </c>
       <c r="B1926" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C1926">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="D1926">
-        <v>107</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1927">
-        <v>81128</v>
+        <v>81129</v>
       </c>
       <c r="B1927" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C1927">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="D1927">
-        <v>101.5</v>
+        <v>95.95</v>
       </c>
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1928">
-        <v>81129</v>
+        <v>81141</v>
       </c>
       <c r="B1928" t="s">
-        <v>1291</v>
+        <v>1497</v>
       </c>
       <c r="C1928">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D1928">
-        <v>95.95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1929">
-        <v>81141</v>
+        <v>81142</v>
       </c>
       <c r="B1929" t="s">
-        <v>1497</v>
+        <v>1292</v>
       </c>
       <c r="C1929">
-        <v>124</v>
+        <v>106.5</v>
       </c>
       <c r="D1929">
-        <v>98</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="1930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1930">
-        <v>81142</v>
+        <v>81471</v>
       </c>
       <c r="B1930" t="s">
-        <v>1292</v>
+        <v>1882</v>
       </c>
       <c r="C1930">
-        <v>106.5</v>
+        <v>167</v>
       </c>
       <c r="D1930">
-        <v>91.8</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1931">
-        <v>81471</v>
+        <v>81472</v>
       </c>
       <c r="B1931" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C1931">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="D1931">
-        <v>100.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1932">
-        <v>81472</v>
+        <v>81711</v>
       </c>
       <c r="B1932" t="s">
-        <v>1883</v>
+        <v>1293</v>
       </c>
       <c r="C1932">
-        <v>141.9</v>
+        <v>234</v>
       </c>
       <c r="D1932">
-        <v>102</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="1933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1933">
-        <v>81711</v>
+        <v>81712</v>
       </c>
       <c r="B1933" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C1933">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="D1933">
-        <v>104.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1934">
-        <v>81712</v>
+        <v>81713</v>
       </c>
       <c r="B1934" t="s">
-        <v>1294</v>
+        <v>1498</v>
       </c>
       <c r="C1934">
-        <v>119</v>
+        <v>140.1</v>
       </c>
       <c r="D1934">
-        <v>100</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1935">
-        <v>81713</v>
+        <v>82101</v>
       </c>
       <c r="B1935" t="s">
-        <v>1498</v>
+        <v>2047</v>
       </c>
       <c r="C1935">
-        <v>140.1</v>
+        <v>125.5</v>
       </c>
       <c r="D1935">
-        <v>101.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1936">
-        <v>82101</v>
+        <v>82131</v>
       </c>
       <c r="B1936" t="s">
-        <v>2047</v>
+        <v>1295</v>
       </c>
       <c r="C1936">
-        <v>125.5</v>
+        <v>135</v>
       </c>
       <c r="D1936">
-        <v>120.65</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="1937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1937">
-        <v>82131</v>
+        <v>82341</v>
       </c>
       <c r="B1937" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C1937">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D1937">
-        <v>100.3</v>
+        <v>95.05</v>
       </c>
     </row>
     <row r="1938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1938">
-        <v>82341</v>
+        <v>82401</v>
       </c>
       <c r="B1938" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C1938">
-        <v>121</v>
+        <v>130.5</v>
       </c>
       <c r="D1938">
-        <v>95.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1939">
-        <v>82401</v>
+        <v>82402</v>
       </c>
       <c r="B1939" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C1939">
-        <v>130.5</v>
+        <v>106.8</v>
       </c>
       <c r="D1939">
-        <v>100</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="1940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1940">
-        <v>82402</v>
+        <v>82491</v>
       </c>
       <c r="B1940" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C1940">
-        <v>106.8</v>
+        <v>156</v>
       </c>
       <c r="D1940">
-        <v>97.1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1941">
-        <v>82491</v>
+        <v>82551</v>
       </c>
       <c r="B1941" t="s">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="C1941">
-        <v>156</v>
+        <v>114.5</v>
       </c>
       <c r="D1941">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1942">
-        <v>82551</v>
+        <v>82611</v>
       </c>
       <c r="B1942" t="s">
-        <v>1499</v>
+        <v>1300</v>
       </c>
       <c r="C1942">
-        <v>114.5</v>
+        <v>185</v>
       </c>
       <c r="D1942">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1943">
-        <v>82611</v>
+        <v>82612</v>
       </c>
       <c r="B1943" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C1943">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="D1943">
-        <v>96</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="1944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1944">
-        <v>82612</v>
+        <v>82613</v>
       </c>
       <c r="B1944" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C1944">
         <v>120</v>
       </c>
       <c r="D1944">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1945">
-        <v>82613</v>
+        <v>82661</v>
       </c>
       <c r="B1945" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C1945">
-        <v>120</v>
+        <v>117.1</v>
       </c>
       <c r="D1945">
-        <v>100</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="1946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1946">
-        <v>82661</v>
+        <v>82771</v>
       </c>
       <c r="B1946" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C1946">
-        <v>117.1</v>
+        <v>155</v>
       </c>
       <c r="D1946">
-        <v>102.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1947">
-        <v>82771</v>
+        <v>82772</v>
       </c>
       <c r="B1947" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C1947">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="D1947">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1948">
-        <v>82772</v>
+        <v>82773</v>
       </c>
       <c r="B1948" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C1948">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="D1948">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1949">
-        <v>82773</v>
+        <v>82871</v>
       </c>
       <c r="B1949" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C1949">
-        <v>107</v>
+        <v>1390</v>
       </c>
       <c r="D1949">
-        <v>97</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="1950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1950">
-        <v>82871</v>
+        <v>82891</v>
       </c>
       <c r="B1950" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C1950">
-        <v>1390</v>
+        <v>118</v>
       </c>
       <c r="D1950">
-        <v>96.25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1951">
-        <v>82891</v>
+        <v>82991</v>
       </c>
       <c r="B1951" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C1951">
-        <v>118</v>
+        <v>130.5</v>
       </c>
       <c r="D1951">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1952">
-        <v>82991</v>
+        <v>82992</v>
       </c>
       <c r="B1952" t="s">
-        <v>1309</v>
+        <v>2048</v>
       </c>
       <c r="C1952">
-        <v>124.6</v>
+        <v>121.5</v>
       </c>
       <c r="D1952">
-        <v>97</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1953">
-        <v>82992</v>
+        <v>83491</v>
       </c>
       <c r="B1953" t="s">
-        <v>2048</v>
+        <v>1884</v>
       </c>
       <c r="C1953">
-        <v>108.65</v>
+        <v>243</v>
       </c>
       <c r="D1953">
-        <v>106.15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1954">
-        <v>83491</v>
+        <v>83492</v>
       </c>
       <c r="B1954" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C1954">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="D1954">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1955">
-        <v>83492</v>
+        <v>83493</v>
       </c>
       <c r="B1955" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C1955">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="D1955">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1956">
-        <v>83493</v>
+        <v>83494</v>
       </c>
       <c r="B1956" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C1956">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="D1956">
-        <v>103</v>
+        <v>93.05</v>
       </c>
     </row>
     <row r="1957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1957">
-        <v>83494</v>
+        <v>83541</v>
       </c>
       <c r="B1957" t="s">
-        <v>1887</v>
+        <v>1310</v>
       </c>
       <c r="C1957">
-        <v>157</v>
+        <v>144.44999999999999</v>
       </c>
       <c r="D1957">
-        <v>93.05</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1958">
-        <v>83541</v>
+        <v>83671</v>
       </c>
       <c r="B1958" t="s">
-        <v>1310</v>
+        <v>1888</v>
       </c>
       <c r="C1958">
-        <v>144.44999999999999</v>
+        <v>120.5</v>
       </c>
       <c r="D1958">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1959">
-        <v>83671</v>
+        <v>83741</v>
       </c>
       <c r="B1959" t="s">
-        <v>1888</v>
+        <v>1311</v>
       </c>
       <c r="C1959">
-        <v>120.5</v>
+        <v>122</v>
       </c>
       <c r="D1959">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1960">
-        <v>83741</v>
+        <v>83831</v>
       </c>
       <c r="B1960" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C1960">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="D1960">
-        <v>93</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1961">
-        <v>83831</v>
+        <v>83901</v>
       </c>
       <c r="B1961" t="s">
-        <v>1312</v>
+        <v>1996</v>
       </c>
       <c r="C1961">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="D1961">
-        <v>101.95</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1962">
-        <v>83901</v>
+        <v>83902</v>
       </c>
       <c r="B1962" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C1962">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1962">
-        <v>98.8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1963">
-        <v>83902</v>
+        <v>83903</v>
       </c>
       <c r="B1963" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C1963">
-        <v>120</v>
+        <v>127.1</v>
       </c>
       <c r="D1963">
-        <v>101</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1964">
-        <v>83903</v>
+        <v>83904</v>
       </c>
       <c r="B1964" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C1964">
-        <v>127.1</v>
+        <v>107.9</v>
       </c>
       <c r="D1964">
-        <v>98.9</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1965">
-        <v>83904</v>
+        <v>83905</v>
       </c>
       <c r="B1965" t="s">
-        <v>1999</v>
+        <v>1500</v>
       </c>
       <c r="C1965">
-        <v>107.9</v>
+        <v>190</v>
       </c>
       <c r="D1965">
-        <v>99.9</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1966">
-        <v>83905</v>
+        <v>84011</v>
       </c>
       <c r="B1966" t="s">
-        <v>1500</v>
+        <v>1313</v>
       </c>
       <c r="C1966">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D1966">
-        <v>104.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1967">
-        <v>84011</v>
+        <v>84031</v>
       </c>
       <c r="B1967" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C1967">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="D1967">
-        <v>100.5</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1968">
-        <v>84031</v>
+        <v>84032</v>
       </c>
       <c r="B1968" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C1968">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="D1968">
-        <v>106.6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1969">
-        <v>84032</v>
+        <v>84033</v>
       </c>
       <c r="B1969" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C1969">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1969">
-        <v>101</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1970">
-        <v>84033</v>
+        <v>84061</v>
       </c>
       <c r="B1970" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C1970">
-        <v>153</v>
+        <v>129.9</v>
       </c>
       <c r="D1970">
-        <v>99.75</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="1971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1971">
-        <v>84061</v>
+        <v>84111</v>
       </c>
       <c r="B1971" t="s">
-        <v>1317</v>
+        <v>1889</v>
       </c>
       <c r="C1971">
-        <v>129.9</v>
+        <v>109</v>
       </c>
       <c r="D1971">
-        <v>95.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1972">
-        <v>84111</v>
+        <v>84112</v>
       </c>
       <c r="B1972" t="s">
-        <v>1889</v>
+        <v>1501</v>
       </c>
       <c r="C1972">
-        <v>109</v>
+        <v>102.7</v>
       </c>
       <c r="D1972">
-        <v>99</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="1973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1973">
-        <v>84112</v>
+        <v>84201</v>
       </c>
       <c r="B1973" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C1973">
-        <v>102.7</v>
+        <v>148.9</v>
       </c>
       <c r="D1973">
-        <v>89.1</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1974">
-        <v>84201</v>
+        <v>84211</v>
       </c>
       <c r="B1974" t="s">
-        <v>1502</v>
+        <v>1318</v>
       </c>
       <c r="C1974">
-        <v>148.9</v>
+        <v>159</v>
       </c>
       <c r="D1974">
-        <v>90.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1975">
-        <v>84211</v>
+        <v>84221</v>
       </c>
       <c r="B1975" t="s">
-        <v>1318</v>
+        <v>1503</v>
       </c>
       <c r="C1975">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D1975">
-        <v>100</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1976">
-        <v>84221</v>
+        <v>84291</v>
       </c>
       <c r="B1976" t="s">
-        <v>1503</v>
+        <v>1319</v>
       </c>
       <c r="C1976">
-        <v>127</v>
+        <v>109.75</v>
       </c>
       <c r="D1976">
-        <v>102.7</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1977">
-        <v>84291</v>
+        <v>84311</v>
       </c>
       <c r="B1977" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C1977">
-        <v>109.75</v>
+        <v>163</v>
       </c>
       <c r="D1977">
-        <v>88.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1978">
-        <v>84311</v>
+        <v>84331</v>
       </c>
       <c r="B1978" t="s">
-        <v>1320</v>
+        <v>1504</v>
       </c>
       <c r="C1978">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D1978">
-        <v>99.2</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1979">
-        <v>84331</v>
+        <v>84361</v>
       </c>
       <c r="B1979" t="s">
-        <v>1504</v>
+        <v>1321</v>
       </c>
       <c r="C1979">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="D1979">
-        <v>104.1</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1980">
-        <v>84361</v>
+        <v>84362</v>
       </c>
       <c r="B1980" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C1980">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="D1980">
-        <v>110.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1981">
-        <v>84362</v>
+        <v>84371</v>
       </c>
       <c r="B1981" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C1981">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D1981">
-        <v>100</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1982">
-        <v>84371</v>
+        <v>84372</v>
       </c>
       <c r="B1982" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C1982">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1982">
-        <v>109.05</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1983">
-        <v>84372</v>
+        <v>84421</v>
       </c>
       <c r="B1983" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C1983">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D1983">
-        <v>107.6</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1984">
-        <v>84421</v>
+        <v>84422</v>
       </c>
       <c r="B1984" t="s">
-        <v>1325</v>
+        <v>2000</v>
       </c>
       <c r="C1984">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="D1984">
-        <v>110.6</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1985">
-        <v>84422</v>
+        <v>84501</v>
       </c>
       <c r="B1985" t="s">
-        <v>2000</v>
+        <v>1326</v>
       </c>
       <c r="C1985">
-        <v>136</v>
+        <v>149.5</v>
       </c>
       <c r="D1985">
-        <v>111.9</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1986">
-        <v>84501</v>
+        <v>84621</v>
       </c>
       <c r="B1986" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C1986">
-        <v>149.5</v>
+        <v>259</v>
       </c>
       <c r="D1986">
-        <v>85.05</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1987">
-        <v>84621</v>
+        <v>84622</v>
       </c>
       <c r="B1987" t="s">
-        <v>1327</v>
+        <v>1505</v>
       </c>
       <c r="C1987">
-        <v>259</v>
+        <v>129.9</v>
       </c>
       <c r="D1987">
-        <v>104.1</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1988">
-        <v>84622</v>
+        <v>84623</v>
       </c>
       <c r="B1988" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C1988">
-        <v>129.9</v>
+        <v>133</v>
       </c>
       <c r="D1988">
-        <v>101.55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1989">
-        <v>84623</v>
+        <v>84661</v>
       </c>
       <c r="B1989" t="s">
-        <v>1506</v>
+        <v>28</v>
       </c>
       <c r="C1989">
-        <v>133</v>
+        <v>105.8</v>
       </c>
       <c r="D1989">
-        <v>109</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1990">
-        <v>84661</v>
+        <v>84662</v>
       </c>
       <c r="B1990" t="s">
-        <v>28</v>
+        <v>2011</v>
       </c>
       <c r="C1990">
-        <v>105.8</v>
+        <v>99.75</v>
       </c>
       <c r="D1990">
-        <v>95.8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1991">
-        <v>84662</v>
+        <v>84671</v>
       </c>
       <c r="B1991" t="s">
-        <v>2011</v>
+        <v>1328</v>
       </c>
       <c r="C1991">
-        <v>99.75</v>
+        <v>117</v>
       </c>
       <c r="D1991">
-        <v>93</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1992">
-        <v>84671</v>
+        <v>84731</v>
       </c>
       <c r="B1992" t="s">
-        <v>1328</v>
+        <v>1890</v>
       </c>
       <c r="C1992">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D1992">
-        <v>100.6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1993">
-        <v>84731</v>
+        <v>84732</v>
       </c>
       <c r="B1993" t="s">
-        <v>1890</v>
+        <v>1329</v>
       </c>
       <c r="C1993">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D1993">
-        <v>97</v>
+        <v>92.95</v>
       </c>
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1994">
-        <v>84732</v>
+        <v>84761</v>
       </c>
       <c r="B1994" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C1994">
-        <v>103.6</v>
+        <v>119.5</v>
       </c>
       <c r="D1994">
-        <v>92.95</v>
+        <v>99.65</v>
       </c>
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1995">
-        <v>84761</v>
+        <v>84881</v>
       </c>
       <c r="B1995" t="s">
-        <v>1330</v>
+        <v>2001</v>
       </c>
       <c r="C1995">
-        <v>119.5</v>
+        <v>106.35</v>
       </c>
       <c r="D1995">
-        <v>99.65</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1996">
-        <v>84881</v>
+        <v>84991</v>
       </c>
       <c r="B1996" t="s">
-        <v>2001</v>
+        <v>1331</v>
       </c>
       <c r="C1996">
-        <v>106.35</v>
+        <v>135.5</v>
       </c>
       <c r="D1996">
-        <v>104.35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1997">
-        <v>84991</v>
+        <v>85002</v>
       </c>
       <c r="B1997" t="s">
-        <v>1331</v>
+        <v>1891</v>
       </c>
       <c r="C1997">
-        <v>135.5</v>
+        <v>0</v>
       </c>
       <c r="D1997">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1998">
-        <v>85002</v>
+        <v>85010</v>
       </c>
       <c r="B1998" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C1998">
         <v>0</v>
@@ -34954,10 +34954,10 @@
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1999">
-        <v>85010</v>
+        <v>85012</v>
       </c>
       <c r="B1999" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C1999">
         <v>0</v>
@@ -34968,10 +34968,10 @@
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2000">
-        <v>85012</v>
+        <v>85013</v>
       </c>
       <c r="B2000" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C2000">
         <v>0</v>
@@ -34982,10 +34982,10 @@
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2001">
-        <v>85013</v>
+        <v>85014</v>
       </c>
       <c r="B2001" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C2001">
         <v>0</v>
@@ -34996,10 +34996,10 @@
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2002">
-        <v>85014</v>
+        <v>85023</v>
       </c>
       <c r="B2002" t="s">
-        <v>1892</v>
+        <v>1743</v>
       </c>
       <c r="C2002">
         <v>0</v>
@@ -35010,10 +35010,10 @@
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2003">
-        <v>85023</v>
+        <v>85054</v>
       </c>
       <c r="B2003" t="s">
-        <v>1743</v>
+        <v>1776</v>
       </c>
       <c r="C2003">
         <v>0</v>
@@ -35024,10 +35024,10 @@
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2004">
-        <v>85054</v>
+        <v>85060</v>
       </c>
       <c r="B2004" t="s">
-        <v>1776</v>
+        <v>1895</v>
       </c>
       <c r="C2004">
         <v>0</v>
@@ -35038,220 +35038,220 @@
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2005">
-        <v>85060</v>
+        <v>89161</v>
       </c>
       <c r="B2005" t="s">
-        <v>1895</v>
+        <v>1332</v>
       </c>
       <c r="C2005">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D2005">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2006">
-        <v>89161</v>
+        <v>89241</v>
       </c>
       <c r="B2006" t="s">
-        <v>1332</v>
+        <v>1896</v>
       </c>
       <c r="C2006">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="D2006">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2007">
-        <v>89241</v>
+        <v>89251</v>
       </c>
       <c r="B2007" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C2007">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D2007">
-        <v>0</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="2008" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2008">
-        <v>89251</v>
+        <v>89252</v>
       </c>
       <c r="B2008" t="s">
-        <v>1897</v>
+        <v>1333</v>
       </c>
       <c r="C2008">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D2008">
-        <v>94.05</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2009">
-        <v>89252</v>
+        <v>89253</v>
       </c>
       <c r="B2009" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C2009">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="D2009">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2010">
-        <v>89253</v>
+        <v>89254</v>
       </c>
       <c r="B2010" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C2010">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D2010">
-        <v>79</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2011">
-        <v>89254</v>
+        <v>89255</v>
       </c>
       <c r="B2011" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C2011">
-        <v>140</v>
+        <v>101.8</v>
       </c>
       <c r="D2011">
-        <v>50.1</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="2012" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2012">
-        <v>89255</v>
+        <v>89261</v>
       </c>
       <c r="B2012" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C2012">
-        <v>101.8</v>
+        <v>165</v>
       </c>
       <c r="D2012">
-        <v>84.5</v>
+        <v>146.80000000000001</v>
       </c>
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2013">
-        <v>89261</v>
+        <v>89271</v>
       </c>
       <c r="B2013" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C2013">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D2013">
-        <v>146.80000000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2014" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2014">
-        <v>89271</v>
+        <v>89272</v>
       </c>
       <c r="B2014" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C2014">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="D2014">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2015">
-        <v>89272</v>
+        <v>89273</v>
       </c>
       <c r="B2015" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C2015">
-        <v>115</v>
+        <v>118.1</v>
       </c>
       <c r="D2015">
-        <v>101</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="2016" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2016">
-        <v>89273</v>
+        <v>89274</v>
       </c>
       <c r="B2016" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C2016">
-        <v>118.1</v>
+        <v>118</v>
       </c>
       <c r="D2016">
-        <v>99.5</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="2017" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2017">
-        <v>89274</v>
+        <v>89275</v>
       </c>
       <c r="B2017" t="s">
-        <v>1341</v>
+        <v>1507</v>
       </c>
       <c r="C2017">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="D2017">
-        <v>96.55</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="2018" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2018">
-        <v>89275</v>
+        <v>89276</v>
       </c>
       <c r="B2018" t="s">
-        <v>1507</v>
+        <v>1342</v>
       </c>
       <c r="C2018">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="D2018">
-        <v>112.2</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2019">
-        <v>89276</v>
+        <v>89277</v>
       </c>
       <c r="B2019" t="s">
-        <v>1342</v>
+        <v>2049</v>
       </c>
       <c r="C2019">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D2019">
-        <v>98.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2020">
-        <v>89277</v>
+        <v>89278</v>
       </c>
       <c r="B2020" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="C2020">
         <v>0</v>
@@ -35262,161 +35262,161 @@
     </row>
     <row r="2021" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2021">
-        <v>89278</v>
+        <v>89281</v>
       </c>
       <c r="B2021" t="s">
-        <v>2050</v>
+        <v>1898</v>
       </c>
       <c r="C2021">
-        <v>0</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="D2021">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2022">
-        <v>89281</v>
+        <v>89291</v>
       </c>
       <c r="B2022" t="s">
-        <v>1898</v>
+        <v>1343</v>
       </c>
       <c r="C2022">
-        <v>148.80000000000001</v>
+        <v>159</v>
       </c>
       <c r="D2022">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2023" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2023">
-        <v>89291</v>
+        <v>89301</v>
       </c>
       <c r="B2023" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C2023">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D2023">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2024">
-        <v>89301</v>
+        <v>89302</v>
       </c>
       <c r="B2024" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C2024">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2024">
-        <v>65</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2025">
-        <v>89302</v>
+        <v>89321</v>
       </c>
       <c r="B2025" t="s">
-        <v>1345</v>
+        <v>1508</v>
       </c>
       <c r="C2025">
-        <v>138</v>
+        <v>681</v>
       </c>
       <c r="D2025">
-        <v>100.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2026">
-        <v>89321</v>
+        <v>89331</v>
       </c>
       <c r="B2026" t="s">
-        <v>1508</v>
+        <v>1899</v>
       </c>
       <c r="C2026">
-        <v>681</v>
+        <v>146</v>
       </c>
       <c r="D2026">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2027" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2027">
-        <v>89331</v>
+        <v>89332</v>
       </c>
       <c r="B2027" t="s">
-        <v>1899</v>
+        <v>1346</v>
       </c>
       <c r="C2027">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D2027">
-        <v>95</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="2028" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2028">
-        <v>89332</v>
+        <v>89333</v>
       </c>
       <c r="B2028" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C2028">
-        <v>128</v>
+        <v>123.5</v>
       </c>
       <c r="D2028">
-        <v>99.75</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="2029" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2029">
-        <v>89333</v>
+        <v>89334</v>
       </c>
       <c r="B2029" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C2029">
-        <v>123.5</v>
+        <v>141.15</v>
       </c>
       <c r="D2029">
-        <v>91.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="2030" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2030">
-        <v>89334</v>
+        <v>89335</v>
       </c>
       <c r="B2030" t="s">
-        <v>1348</v>
+        <v>1899</v>
       </c>
       <c r="C2030">
-        <v>141.15</v>
+        <v>180</v>
       </c>
       <c r="D2030">
-        <v>99.7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2031" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2031">
-        <v>89335</v>
+        <v>89351</v>
       </c>
       <c r="B2031" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C2031">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2031">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2032" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2032">
-        <v>89351</v>
+        <v>89352</v>
       </c>
       <c r="B2032" t="s">
         <v>1900</v>
@@ -35425,144 +35425,144 @@
         <v>182</v>
       </c>
       <c r="D2032">
-        <v>103</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="2033" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2033">
-        <v>89352</v>
+        <v>89361</v>
       </c>
       <c r="B2033" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C2033">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="D2033">
-        <v>77.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2034" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2034">
-        <v>89361</v>
+        <v>89362</v>
       </c>
       <c r="B2034" t="s">
-        <v>1901</v>
+        <v>1349</v>
       </c>
       <c r="C2034">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="D2034">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2035" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2035">
-        <v>89362</v>
+        <v>89363</v>
       </c>
       <c r="B2035" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C2035">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D2035">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2036" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2036">
-        <v>89363</v>
+        <v>89364</v>
       </c>
       <c r="B2036" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C2036">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="D2036">
-        <v>101</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="2037" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2037">
-        <v>89364</v>
+        <v>89381</v>
       </c>
       <c r="B2037" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C2037">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="D2037">
-        <v>101.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2038" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2038">
-        <v>89381</v>
+        <v>89382</v>
       </c>
       <c r="B2038" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C2038">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="D2038">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2039" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2039">
-        <v>89382</v>
+        <v>89383</v>
       </c>
       <c r="B2039" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C2039">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="D2039">
-        <v>100</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="2040" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2040">
-        <v>89383</v>
+        <v>89411</v>
       </c>
       <c r="B2040" t="s">
-        <v>1354</v>
+        <v>1902</v>
       </c>
       <c r="C2040">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D2040">
-        <v>102.05</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2041" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2041">
-        <v>89411</v>
+        <v>89412</v>
       </c>
       <c r="B2041" t="s">
-        <v>1902</v>
+        <v>2051</v>
       </c>
       <c r="C2041">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D2041">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2042" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2042">
-        <v>89412</v>
+        <v>89421</v>
       </c>
       <c r="B2042" t="s">
-        <v>2051</v>
+        <v>1355</v>
       </c>
       <c r="C2042">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D2042">
         <v>0</v>
@@ -35570,321 +35570,321 @@
     </row>
     <row r="2043" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2043">
-        <v>89421</v>
+        <v>89422</v>
       </c>
       <c r="B2043" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C2043">
-        <v>321</v>
+        <v>141.9</v>
       </c>
       <c r="D2043">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2044" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2044">
-        <v>89422</v>
+        <v>89423</v>
       </c>
       <c r="B2044" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C2044">
-        <v>141.9</v>
+        <v>236</v>
       </c>
       <c r="D2044">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2045" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2045">
-        <v>89423</v>
+        <v>89424</v>
       </c>
       <c r="B2045" t="s">
-        <v>1357</v>
+        <v>1902</v>
       </c>
       <c r="C2045">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D2045">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2046" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2046">
-        <v>89424</v>
+        <v>89961</v>
       </c>
       <c r="B2046" t="s">
-        <v>1902</v>
+        <v>1358</v>
       </c>
       <c r="C2046">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D2046">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2047" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2047">
-        <v>89961</v>
+        <v>89962</v>
       </c>
       <c r="B2047" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C2047">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="D2047">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2048" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2048">
-        <v>89962</v>
+        <v>89963</v>
       </c>
       <c r="B2048" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C2048">
-        <v>151</v>
+        <v>120.5</v>
       </c>
       <c r="D2048">
-        <v>103</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="2049" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2049">
-        <v>89963</v>
+        <v>89964</v>
       </c>
       <c r="B2049" t="s">
-        <v>1360</v>
+        <v>2002</v>
       </c>
       <c r="C2049">
-        <v>120.5</v>
+        <v>133.5</v>
       </c>
       <c r="D2049">
-        <v>99.5</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="2050" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2050">
-        <v>89964</v>
+        <v>98021</v>
       </c>
       <c r="B2050" t="s">
-        <v>2002</v>
+        <v>1361</v>
       </c>
       <c r="C2050">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="D2050">
-        <v>114.3</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2051">
-        <v>98021</v>
+        <v>98022</v>
       </c>
       <c r="B2051" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C2051">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D2051">
-        <v>104.05</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="2052" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2052">
-        <v>98022</v>
+        <v>98023</v>
       </c>
       <c r="B2052" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C2052">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="D2052">
-        <v>100.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="2053" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2053">
-        <v>98023</v>
+        <v>98024</v>
       </c>
       <c r="B2053" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C2053">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="D2053">
-        <v>99.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2054" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2054">
-        <v>98024</v>
+        <v>98025</v>
       </c>
       <c r="B2054" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C2054">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="D2054">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2055" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2055">
-        <v>98025</v>
+        <v>99061</v>
       </c>
       <c r="B2055" t="s">
-        <v>1365</v>
+        <v>1509</v>
       </c>
       <c r="C2055">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D2055">
-        <v>112</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="2056" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2056">
-        <v>99061</v>
+        <v>99211</v>
       </c>
       <c r="B2056" t="s">
-        <v>1509</v>
+        <v>1366</v>
       </c>
       <c r="C2056">
-        <v>131.5</v>
+        <v>107</v>
       </c>
       <c r="D2056">
-        <v>111.2</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="2057" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2057">
-        <v>99211</v>
+        <v>99241</v>
       </c>
       <c r="B2057" t="s">
-        <v>1366</v>
+        <v>1903</v>
       </c>
       <c r="C2057">
-        <v>106.7</v>
+        <v>214</v>
       </c>
       <c r="D2057">
-        <v>95.2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2058" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2058">
-        <v>99241</v>
+        <v>99271</v>
       </c>
       <c r="B2058" t="s">
-        <v>1903</v>
+        <v>1367</v>
       </c>
       <c r="C2058">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D2058">
-        <v>165</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="2059" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2059">
-        <v>99271</v>
+        <v>99272</v>
       </c>
       <c r="B2059" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C2059">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D2059">
-        <v>95.5</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="2060" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2060">
-        <v>99272</v>
+        <v>99331</v>
       </c>
       <c r="B2060" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C2060">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D2060">
-        <v>106.4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2061" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2061">
-        <v>99331</v>
+        <v>99341</v>
       </c>
       <c r="B2061" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C2061">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2061">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2062" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2062">
-        <v>99341</v>
+        <v>99342</v>
       </c>
       <c r="B2062" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C2062">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D2062">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2063" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2063">
-        <v>99342</v>
+        <v>99351</v>
       </c>
       <c r="B2063" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C2063">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="D2063">
-        <v>95</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="2064" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2064">
-        <v>99351</v>
+        <v>99352</v>
       </c>
       <c r="B2064" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C2064">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2064">
-        <v>93.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2065">
-        <v>99352</v>
+        <v>99381</v>
       </c>
       <c r="B2065" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C2065">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="D2065">
         <v>0</v>
@@ -35892,379 +35892,365 @@
     </row>
     <row r="2066" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2066">
-        <v>99381</v>
+        <v>99391</v>
       </c>
       <c r="B2066" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C2066">
-        <v>258</v>
+        <v>106.4</v>
       </c>
       <c r="D2066">
-        <v>0</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="2067" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2067">
-        <v>99391</v>
+        <v>99411</v>
       </c>
       <c r="B2067" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C2067">
-        <v>106.4</v>
+        <v>134.5</v>
       </c>
       <c r="D2067">
-        <v>95.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2068">
-        <v>99411</v>
+        <v>99412</v>
       </c>
       <c r="B2068" t="s">
-        <v>1376</v>
+        <v>2003</v>
       </c>
       <c r="C2068">
-        <v>134.5</v>
+        <v>102.5</v>
       </c>
       <c r="D2068">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="2069" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2069">
-        <v>99412</v>
+        <v>99421</v>
       </c>
       <c r="B2069" t="s">
-        <v>2003</v>
+        <v>1377</v>
       </c>
       <c r="C2069">
-        <v>102.5</v>
+        <v>168</v>
       </c>
       <c r="D2069">
-        <v>100.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2070" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2070">
-        <v>99421</v>
+        <v>99441</v>
       </c>
       <c r="B2070" t="s">
-        <v>1377</v>
+        <v>1904</v>
       </c>
       <c r="C2070">
-        <v>168</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="D2070">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2071" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2071">
-        <v>99441</v>
+        <v>99442</v>
       </c>
       <c r="B2071" t="s">
-        <v>1904</v>
+        <v>1378</v>
       </c>
       <c r="C2071">
-        <v>148.69999999999999</v>
+        <v>288</v>
       </c>
       <c r="D2071">
-        <v>0</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="2072" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2072">
-        <v>99442</v>
+        <v>99461</v>
       </c>
       <c r="B2072" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C2072">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="D2072">
-        <v>99.75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2073" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2073">
-        <v>99461</v>
+        <v>99551</v>
       </c>
       <c r="B2073" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C2073">
-        <v>229</v>
+        <v>602</v>
       </c>
       <c r="D2073">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2074" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2074">
-        <v>99551</v>
+        <v>99552</v>
       </c>
       <c r="B2074" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C2074">
-        <v>602</v>
+        <v>119</v>
       </c>
       <c r="D2074">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2075" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2075">
-        <v>99552</v>
+        <v>99553</v>
       </c>
       <c r="B2075" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C2075">
-        <v>119</v>
+        <v>118.5</v>
       </c>
       <c r="D2075">
-        <v>98</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="2076" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2076">
-        <v>99553</v>
+        <v>99581</v>
       </c>
       <c r="B2076" t="s">
-        <v>1382</v>
+        <v>1905</v>
       </c>
       <c r="C2076">
-        <v>118.5</v>
+        <v>139.1</v>
       </c>
       <c r="D2076">
-        <v>98.05</v>
+        <v>104.35</v>
       </c>
     </row>
     <row r="2077" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2077">
-        <v>99581</v>
+        <v>99582</v>
       </c>
       <c r="B2077" t="s">
-        <v>1905</v>
+        <v>1383</v>
       </c>
       <c r="C2077">
-        <v>139.1</v>
+        <v>195</v>
       </c>
       <c r="D2077">
-        <v>104.35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2078" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2078">
-        <v>99582</v>
+        <v>99583</v>
       </c>
       <c r="B2078" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C2078">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D2078">
-        <v>102</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="2079" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2079">
-        <v>99583</v>
+        <v>99584</v>
       </c>
       <c r="B2079" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C2079">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2079">
-        <v>81.400000000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2080" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2080">
-        <v>99584</v>
+        <v>99585</v>
       </c>
       <c r="B2080" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C2080">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D2080">
-        <v>102</v>
+        <v>104.35</v>
       </c>
     </row>
     <row r="2081" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2081">
-        <v>99585</v>
+        <v>99586</v>
       </c>
       <c r="B2081" t="s">
-        <v>1386</v>
+        <v>1510</v>
       </c>
       <c r="C2081">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D2081">
-        <v>104.35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2082" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2082">
-        <v>99586</v>
+        <v>140201</v>
       </c>
       <c r="B2082" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C2082">
-        <v>162</v>
+        <v>111.75</v>
       </c>
       <c r="D2082">
-        <v>106</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="2083" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2083">
-        <v>140201</v>
+        <v>171501</v>
       </c>
       <c r="B2083" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C2083">
-        <v>111.75</v>
+        <v>123</v>
       </c>
       <c r="D2083">
-        <v>82.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2084" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2084">
-        <v>171501</v>
+        <v>233201</v>
       </c>
       <c r="B2084" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C2084">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D2084">
-        <v>102</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="2085" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2085">
-        <v>233201</v>
+        <v>235201</v>
       </c>
       <c r="B2085" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C2085">
-        <v>141</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="D2085">
-        <v>96.8</v>
+        <v>95.65</v>
       </c>
     </row>
     <row r="2086" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2086">
-        <v>235201</v>
+        <v>240601</v>
       </c>
       <c r="B2086" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C2086">
-        <v>139.19999999999999</v>
+        <v>270</v>
       </c>
       <c r="D2086">
-        <v>95.65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2087" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2087">
-        <v>240601</v>
+        <v>240602</v>
       </c>
       <c r="B2087" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C2087">
-        <v>270</v>
+        <v>136.05000000000001</v>
       </c>
       <c r="D2087">
-        <v>100</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="2088" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2088">
-        <v>240602</v>
+        <v>260301</v>
       </c>
       <c r="B2088" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C2088">
-        <v>136.05000000000001</v>
+        <v>111.3</v>
       </c>
       <c r="D2088">
-        <v>102.05</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="2089" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2089">
-        <v>260301</v>
+        <v>288601</v>
       </c>
       <c r="B2089" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C2089">
-        <v>111.3</v>
+        <v>102.15</v>
       </c>
       <c r="D2089">
-        <v>98.55</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="2090" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2090">
-        <v>288601</v>
+        <v>288602</v>
       </c>
       <c r="B2090" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C2090">
-        <v>102.15</v>
+        <v>127</v>
       </c>
       <c r="D2090">
-        <v>96.25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2091" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2091">
-        <v>288602</v>
+        <v>288701</v>
       </c>
       <c r="B2091" t="s">
-        <v>1519</v>
+        <v>2013</v>
       </c>
       <c r="C2091">
-        <v>127</v>
+        <v>112.1</v>
       </c>
       <c r="D2091">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2092" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2092">
-        <v>288701</v>
-      </c>
-      <c r="B2092" t="s">
-        <v>2013</v>
-      </c>
-      <c r="C2092">
-        <v>112.1</v>
-      </c>
-      <c r="D2092">
         <v>98.5</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54E4903-D8AC-4A00-8221-1884C1563390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9890BC2-408A-4861-ABC3-2ACABF6915A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -6971,8 +6971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="A784" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -8013,7 +8013,7 @@
         <v>765</v>
       </c>
       <c r="D74">
-        <v>693</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E81841-1C3E-435C-A94E-95E61FF8D41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8912F73-40C2-4B1E-9F49-8F308958CDCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="2060">
   <si>
     <t>代號</t>
   </si>
@@ -6209,6 +6209,15 @@
   </si>
   <si>
     <t>笙泉二</t>
+  </si>
+  <si>
+    <t>台燿四</t>
+  </si>
+  <si>
+    <t>弘帆二</t>
+  </si>
+  <si>
+    <t>弘帆三</t>
   </si>
 </sst>
 </file>
@@ -6972,7 +6981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2092"/>
+  <dimension ref="A1:D2095"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A52" sqref="A1:D1048576"/>
@@ -7316,7 +7325,7 @@
         <v>115.5</v>
       </c>
       <c r="D24">
-        <v>103.05</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7397,7 +7406,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="D30">
         <v>106</v>
@@ -7411,7 +7420,7 @@
         <v>1389</v>
       </c>
       <c r="C31">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="D31">
         <v>111.1</v>
@@ -7719,7 +7728,7 @@
         <v>1391</v>
       </c>
       <c r="C53">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="D53">
         <v>103.8</v>
@@ -7929,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="C68">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>103.2</v>
@@ -8643,7 +8652,7 @@
         <v>123</v>
       </c>
       <c r="C119">
-        <v>118.5</v>
+        <v>166</v>
       </c>
       <c r="D119">
         <v>94</v>
@@ -9147,7 +9156,7 @@
         <v>1399</v>
       </c>
       <c r="C155">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="D155">
         <v>100</v>
@@ -10015,7 +10024,7 @@
         <v>1916</v>
       </c>
       <c r="C217">
-        <v>114</v>
+        <v>116.8</v>
       </c>
       <c r="D217">
         <v>105.9</v>
@@ -10057,7 +10066,7 @@
         <v>196</v>
       </c>
       <c r="C220">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="D220">
         <v>106</v>
@@ -10071,7 +10080,7 @@
         <v>1403</v>
       </c>
       <c r="C221">
-        <v>117.5</v>
+        <v>154</v>
       </c>
       <c r="D221">
         <v>104.5</v>
@@ -11779,7 +11788,7 @@
         <v>1921</v>
       </c>
       <c r="C343">
-        <v>103.8</v>
+        <v>115</v>
       </c>
       <c r="D343">
         <v>98.8</v>
@@ -11919,7 +11928,7 @@
         <v>278</v>
       </c>
       <c r="C353">
-        <v>118.05</v>
+        <v>122</v>
       </c>
       <c r="D353">
         <v>97</v>
@@ -13207,7 +13216,7 @@
         <v>1610</v>
       </c>
       <c r="C445">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="D445">
         <v>103</v>
@@ -14330,7 +14339,7 @@
         <v>127.5</v>
       </c>
       <c r="D525">
-        <v>108.3</v>
+        <v>107.55</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -14932,7 +14941,7 @@
         <v>131</v>
       </c>
       <c r="D568">
-        <v>115.5</v>
+        <v>114.65</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
@@ -14971,7 +14980,7 @@
         <v>420</v>
       </c>
       <c r="C571">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D571">
         <v>102</v>
@@ -15055,7 +15064,7 @@
         <v>1937</v>
       </c>
       <c r="C577">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D577">
         <v>114</v>
@@ -15615,7 +15624,7 @@
         <v>447</v>
       </c>
       <c r="C617">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D617">
         <v>95.5</v>
@@ -17099,7 +17108,7 @@
         <v>2026</v>
       </c>
       <c r="C723">
-        <v>132.9</v>
+        <v>148.1</v>
       </c>
       <c r="D723">
         <v>110</v>
@@ -17564,7 +17573,7 @@
         <v>111.55</v>
       </c>
       <c r="D756">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -18177,7 +18186,7 @@
         <v>1429</v>
       </c>
       <c r="C800">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="D800">
         <v>100.8</v>
@@ -18303,7 +18312,7 @@
         <v>583</v>
       </c>
       <c r="C809">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D809">
         <v>100</v>
@@ -18401,7 +18410,7 @@
         <v>1940</v>
       </c>
       <c r="C816">
-        <v>125.95</v>
+        <v>126</v>
       </c>
       <c r="D816">
         <v>105.95</v>
@@ -18569,7 +18578,7 @@
         <v>1745</v>
       </c>
       <c r="C828">
-        <v>116</v>
+        <v>118.8</v>
       </c>
       <c r="D828">
         <v>101.55</v>
@@ -18852,7 +18861,7 @@
         <v>107</v>
       </c>
       <c r="D848">
-        <v>97.4</v>
+        <v>97.35</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.35">
@@ -18989,7 +18998,7 @@
         <v>1946</v>
       </c>
       <c r="C858">
-        <v>118.95</v>
+        <v>125.5</v>
       </c>
       <c r="D858">
         <v>105.5</v>
@@ -19090,7 +19099,7 @@
         <v>128</v>
       </c>
       <c r="D865">
-        <v>102.75</v>
+        <v>99.35</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.35">
@@ -19160,7 +19169,7 @@
         <v>135</v>
       </c>
       <c r="D870">
-        <v>116</v>
+        <v>113.05</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.35">
@@ -19241,7 +19250,7 @@
         <v>625</v>
       </c>
       <c r="C876">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D876">
         <v>99</v>
@@ -19255,7 +19264,7 @@
         <v>2030</v>
       </c>
       <c r="C877">
-        <v>119.95</v>
+        <v>122</v>
       </c>
       <c r="D877">
         <v>104</v>
@@ -19297,7 +19306,7 @@
         <v>1435</v>
       </c>
       <c r="C880">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D880">
         <v>110.2</v>
@@ -19552,7 +19561,7 @@
         <v>125.9</v>
       </c>
       <c r="D898">
-        <v>99.9</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -19566,7 +19575,7 @@
         <v>125.9</v>
       </c>
       <c r="D899">
-        <v>99.9</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.35">
@@ -19633,7 +19642,7 @@
         <v>1437</v>
       </c>
       <c r="C904">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D904">
         <v>111.2</v>
@@ -20350,7 +20359,7 @@
         <v>133.75</v>
       </c>
       <c r="D955">
-        <v>121.6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.35">
@@ -20557,7 +20566,7 @@
         <v>9</v>
       </c>
       <c r="C970">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D970">
         <v>108</v>
@@ -20571,7 +20580,7 @@
         <v>10</v>
       </c>
       <c r="C971">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D971">
         <v>102.7</v>
@@ -21901,7 +21910,7 @@
         <v>762</v>
       </c>
       <c r="C1066">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D1066">
         <v>101.05</v>
@@ -21915,7 +21924,7 @@
         <v>1697</v>
       </c>
       <c r="C1067">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D1067">
         <v>101.9</v>
@@ -22027,7 +22036,7 @@
         <v>1450</v>
       </c>
       <c r="C1075">
-        <v>128.80000000000001</v>
+        <v>135</v>
       </c>
       <c r="D1075">
         <v>99.05</v>
@@ -22559,7 +22568,7 @@
         <v>17</v>
       </c>
       <c r="C1113">
-        <v>119.3</v>
+        <v>120</v>
       </c>
       <c r="D1113">
         <v>102.05</v>
@@ -23693,7 +23702,7 @@
         <v>2034</v>
       </c>
       <c r="C1194">
-        <v>124.5</v>
+        <v>127.8</v>
       </c>
       <c r="D1194">
         <v>114</v>
@@ -23945,7 +23954,7 @@
         <v>1460</v>
       </c>
       <c r="C1212">
-        <v>110.25</v>
+        <v>118.4</v>
       </c>
       <c r="D1212">
         <v>101.2</v>
@@ -24099,7 +24108,7 @@
         <v>1714</v>
       </c>
       <c r="C1223">
-        <v>124.95</v>
+        <v>128</v>
       </c>
       <c r="D1223">
         <v>108.95</v>
@@ -24211,7 +24220,7 @@
         <v>881</v>
       </c>
       <c r="C1231">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="D1231">
         <v>102</v>
@@ -24253,7 +24262,7 @@
         <v>1462</v>
       </c>
       <c r="C1234">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D1234">
         <v>104.1</v>
@@ -24295,7 +24304,7 @@
         <v>1961</v>
       </c>
       <c r="C1237">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D1237">
         <v>108</v>
@@ -24410,7 +24419,7 @@
         <v>128</v>
       </c>
       <c r="D1245">
-        <v>121.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.35">
@@ -24491,7 +24500,7 @@
         <v>893</v>
       </c>
       <c r="C1251">
-        <v>137.5</v>
+        <v>138</v>
       </c>
       <c r="D1251">
         <v>103.9</v>
@@ -24774,7 +24783,7 @@
         <v>107.2</v>
       </c>
       <c r="D1271">
-        <v>100.6</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.35">
@@ -25527,7 +25536,7 @@
         <v>1464</v>
       </c>
       <c r="C1325">
-        <v>122.1</v>
+        <v>138.9</v>
       </c>
       <c r="D1325">
         <v>104.1</v>
@@ -25740,7 +25749,7 @@
         <v>114.25</v>
       </c>
       <c r="D1340">
-        <v>107.25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.35">
@@ -25754,7 +25763,7 @@
         <v>114.25</v>
       </c>
       <c r="D1341">
-        <v>107.25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.35">
@@ -26885,7 +26894,7 @@
         <v>2037</v>
       </c>
       <c r="C1422">
-        <v>112.7</v>
+        <v>120.4</v>
       </c>
       <c r="D1422">
         <v>97.6</v>
@@ -27697,7 +27706,7 @@
         <v>2040</v>
       </c>
       <c r="C1480">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D1480">
         <v>110</v>
@@ -27910,7 +27919,7 @@
         <v>117</v>
       </c>
       <c r="D1495">
-        <v>107.5</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.35">
@@ -28694,7 +28703,7 @@
         <v>133</v>
       </c>
       <c r="D1551">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.35">
@@ -29027,7 +29036,7 @@
         <v>1976</v>
       </c>
       <c r="C1575">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D1575">
         <v>109.65</v>
@@ -29111,7 +29120,7 @@
         <v>1473</v>
       </c>
       <c r="C1581">
-        <v>118</v>
+        <v>120.9</v>
       </c>
       <c r="D1581">
         <v>96.1</v>
@@ -29251,7 +29260,7 @@
         <v>1476</v>
       </c>
       <c r="C1591">
-        <v>124</v>
+        <v>129.15</v>
       </c>
       <c r="D1591">
         <v>106.1</v>
@@ -29548,7 +29557,7 @@
         <v>129</v>
       </c>
       <c r="D1612">
-        <v>102.05</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.35">
@@ -30763,7 +30772,7 @@
         <v>1139</v>
       </c>
       <c r="C1699">
-        <v>146.85</v>
+        <v>151</v>
       </c>
       <c r="D1699">
         <v>98.05</v>
@@ -30771,780 +30780,780 @@
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1700">
-        <v>62751</v>
+        <v>62744</v>
       </c>
       <c r="B1700" t="s">
-        <v>1140</v>
+        <v>2057</v>
       </c>
       <c r="C1700">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="D1700">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1701">
-        <v>62752</v>
+        <v>62751</v>
       </c>
       <c r="B1701" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C1701">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="D1701">
-        <v>100.6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1702">
-        <v>62753</v>
+        <v>62752</v>
       </c>
       <c r="B1702" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C1702">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D1702">
-        <v>84</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1703">
-        <v>62754</v>
+        <v>62753</v>
       </c>
       <c r="B1703" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C1703">
-        <v>141.69999999999999</v>
+        <v>122</v>
       </c>
       <c r="D1703">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1704">
-        <v>62755</v>
+        <v>62754</v>
       </c>
       <c r="B1704" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C1704">
-        <v>184</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="D1704">
-        <v>107.25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1705">
-        <v>62756</v>
+        <v>62755</v>
       </c>
       <c r="B1705" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C1705">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="D1705">
-        <v>102.5</v>
+        <v>107.25</v>
       </c>
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1706">
-        <v>62761</v>
+        <v>62756</v>
       </c>
       <c r="B1706" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1706">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="D1706">
-        <v>50</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1707">
-        <v>62791</v>
+        <v>62761</v>
       </c>
       <c r="B1707" t="s">
-        <v>1480</v>
+        <v>1146</v>
       </c>
       <c r="C1707">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D1707">
-        <v>111.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1708">
-        <v>62821</v>
+        <v>62791</v>
       </c>
       <c r="B1708" t="s">
-        <v>1147</v>
+        <v>1480</v>
       </c>
       <c r="C1708">
-        <v>164</v>
+        <v>127.5</v>
       </c>
       <c r="D1708">
-        <v>96.55</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1709">
-        <v>62822</v>
+        <v>62821</v>
       </c>
       <c r="B1709" t="s">
-        <v>1481</v>
+        <v>1147</v>
       </c>
       <c r="C1709">
-        <v>124.65</v>
+        <v>164</v>
       </c>
       <c r="D1709">
-        <v>103.6</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1710">
-        <v>62831</v>
+        <v>62822</v>
       </c>
       <c r="B1710" t="s">
-        <v>1148</v>
+        <v>1481</v>
       </c>
       <c r="C1710">
-        <v>122</v>
+        <v>124.65</v>
       </c>
       <c r="D1710">
-        <v>88</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1711">
-        <v>62832</v>
+        <v>62831</v>
       </c>
       <c r="B1711" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C1711">
-        <v>121.5</v>
+        <v>122</v>
       </c>
       <c r="D1711">
-        <v>99.8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1712">
-        <v>62841</v>
+        <v>62832</v>
       </c>
       <c r="B1712" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C1712">
-        <v>130</v>
+        <v>121.5</v>
       </c>
       <c r="D1712">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1713">
-        <v>62842</v>
+        <v>62841</v>
       </c>
       <c r="B1713" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C1713">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="D1713">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1714">
-        <v>62843</v>
+        <v>62842</v>
       </c>
       <c r="B1714" t="s">
-        <v>1985</v>
+        <v>1151</v>
       </c>
       <c r="C1714">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="D1714">
-        <v>110.2</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1715">
-        <v>62851</v>
+        <v>62843</v>
       </c>
       <c r="B1715" t="s">
-        <v>1152</v>
+        <v>1985</v>
       </c>
       <c r="C1715">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D1715">
-        <v>93.65</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1716">
-        <v>62852</v>
+        <v>62851</v>
       </c>
       <c r="B1716" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C1716">
-        <v>127.6</v>
+        <v>103</v>
       </c>
       <c r="D1716">
-        <v>101</v>
+        <v>93.65</v>
       </c>
     </row>
     <row r="1717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1717">
-        <v>62853</v>
+        <v>62852</v>
       </c>
       <c r="B1717" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1717">
-        <v>251</v>
+        <v>127.6</v>
       </c>
       <c r="D1717">
-        <v>100.3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1718">
-        <v>62854</v>
+        <v>62853</v>
       </c>
       <c r="B1718" t="s">
-        <v>1986</v>
+        <v>1154</v>
       </c>
       <c r="C1718">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D1718">
-        <v>0</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1719">
-        <v>62871</v>
+        <v>62854</v>
       </c>
       <c r="B1719" t="s">
-        <v>1155</v>
+        <v>1986</v>
       </c>
       <c r="C1719">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D1719">
-        <v>81.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1720">
-        <v>62872</v>
+        <v>62871</v>
       </c>
       <c r="B1720" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C1720">
-        <v>111.1</v>
+        <v>171</v>
       </c>
       <c r="D1720">
-        <v>100.45</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="1721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1721">
-        <v>62873</v>
+        <v>62872</v>
       </c>
       <c r="B1721" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C1721">
-        <v>110</v>
+        <v>111.1</v>
       </c>
       <c r="D1721">
-        <v>0</v>
+        <v>100.45</v>
       </c>
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1722">
-        <v>62874</v>
+        <v>62873</v>
       </c>
       <c r="B1722" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C1722">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D1722">
-        <v>99.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1723">
-        <v>62875</v>
+        <v>62874</v>
       </c>
       <c r="B1723" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C1723">
-        <v>105.4</v>
+        <v>118</v>
       </c>
       <c r="D1723">
-        <v>97</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1724">
-        <v>62881</v>
+        <v>62875</v>
       </c>
       <c r="B1724" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1724">
-        <v>220</v>
+        <v>105.4</v>
       </c>
       <c r="D1724">
-        <v>99.6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1725">
-        <v>62882</v>
+        <v>62881</v>
       </c>
       <c r="B1725" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1725">
-        <v>114.3</v>
+        <v>220</v>
       </c>
       <c r="D1725">
-        <v>97.05</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1726">
-        <v>62883</v>
+        <v>62882</v>
       </c>
       <c r="B1726" t="s">
-        <v>1482</v>
+        <v>1161</v>
       </c>
       <c r="C1726">
-        <v>167</v>
+        <v>114.3</v>
       </c>
       <c r="D1726">
-        <v>100</v>
+        <v>97.05</v>
       </c>
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1727">
-        <v>62884</v>
+        <v>62883</v>
       </c>
       <c r="B1727" t="s">
-        <v>1987</v>
+        <v>1482</v>
       </c>
       <c r="C1727">
-        <v>118.5</v>
+        <v>167</v>
       </c>
       <c r="D1727">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1728">
-        <v>62891</v>
+        <v>62884</v>
       </c>
       <c r="B1728" t="s">
-        <v>1162</v>
+        <v>1987</v>
       </c>
       <c r="C1728">
-        <v>197</v>
+        <v>118.5</v>
       </c>
       <c r="D1728">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1729">
-        <v>62892</v>
+        <v>62891</v>
       </c>
       <c r="B1729" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1729">
-        <v>147.9</v>
+        <v>197</v>
       </c>
       <c r="D1729">
-        <v>19.8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1730">
-        <v>62901</v>
+        <v>62892</v>
       </c>
       <c r="B1730" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1730">
-        <v>165</v>
+        <v>147.9</v>
       </c>
       <c r="D1730">
-        <v>106</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1731">
-        <v>62902</v>
+        <v>62901</v>
       </c>
       <c r="B1731" t="s">
-        <v>1848</v>
+        <v>1164</v>
       </c>
       <c r="C1731">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1731">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1732">
-        <v>62903</v>
+        <v>62902</v>
       </c>
       <c r="B1732" t="s">
-        <v>1165</v>
+        <v>1848</v>
       </c>
       <c r="C1732">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="D1732">
-        <v>97.7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1733">
-        <v>62904</v>
+        <v>62903</v>
       </c>
       <c r="B1733" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C1733">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D1733">
-        <v>74</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="1734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1734">
-        <v>62905</v>
+        <v>62904</v>
       </c>
       <c r="B1734" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C1734">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="D1734">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1735">
-        <v>62906</v>
+        <v>62905</v>
       </c>
       <c r="B1735" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1735">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D1735">
-        <v>93.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1736">
-        <v>62907</v>
+        <v>62906</v>
       </c>
       <c r="B1736" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1736">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="D1736">
-        <v>109.1</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="1737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1737">
-        <v>62908</v>
+        <v>62907</v>
       </c>
       <c r="B1737" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C1737">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D1737">
-        <v>107.05</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="1738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1738">
-        <v>62909</v>
+        <v>62908</v>
       </c>
       <c r="B1738" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1738">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="D1738">
-        <v>108.2</v>
+        <v>107.05</v>
       </c>
     </row>
     <row r="1739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1739">
-        <v>64141</v>
+        <v>62909</v>
       </c>
       <c r="B1739" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1739">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D1739">
-        <v>103.6</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="1740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1740">
-        <v>64142</v>
+        <v>64141</v>
       </c>
       <c r="B1740" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1740">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="D1740">
-        <v>93.5</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="1741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1741">
-        <v>64143</v>
+        <v>64142</v>
       </c>
       <c r="B1741" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1741">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D1741">
-        <v>93</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1742">
-        <v>64144</v>
+        <v>64143</v>
       </c>
       <c r="B1742" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1742">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D1742">
-        <v>105.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1743">
-        <v>64145</v>
+        <v>64144</v>
       </c>
       <c r="B1743" t="s">
-        <v>2017</v>
+        <v>1175</v>
       </c>
       <c r="C1743">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D1743">
-        <v>105</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1744">
-        <v>64161</v>
+        <v>64145</v>
       </c>
       <c r="B1744" t="s">
-        <v>1849</v>
+        <v>2017</v>
       </c>
       <c r="C1744">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D1744">
-        <v>101.25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1745">
-        <v>64221</v>
+        <v>64161</v>
       </c>
       <c r="B1745" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1745">
-        <v>126.5</v>
+        <v>177</v>
       </c>
       <c r="D1745">
-        <v>98.95</v>
+        <v>101.25</v>
       </c>
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1746">
-        <v>64261</v>
+        <v>64221</v>
       </c>
       <c r="B1746" t="s">
-        <v>1176</v>
+        <v>1850</v>
       </c>
       <c r="C1746">
-        <v>115</v>
+        <v>126.5</v>
       </c>
       <c r="D1746">
-        <v>92</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="1747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1747">
-        <v>64321</v>
+        <v>64261</v>
       </c>
       <c r="B1747" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1747">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D1747">
-        <v>99.65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1748">
-        <v>64322</v>
+        <v>64321</v>
       </c>
       <c r="B1748" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1748">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D1748">
-        <v>110</v>
+        <v>99.65</v>
       </c>
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1749">
-        <v>64323</v>
+        <v>64322</v>
       </c>
       <c r="B1749" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1749">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="D1749">
-        <v>101.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1750">
-        <v>64381</v>
+        <v>64323</v>
       </c>
       <c r="B1750" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C1750">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="D1750">
-        <v>102</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1751">
-        <v>64382</v>
+        <v>64381</v>
       </c>
       <c r="B1751" t="s">
-        <v>1483</v>
+        <v>1180</v>
       </c>
       <c r="C1751">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D1751">
-        <v>110.55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1752">
-        <v>64411</v>
+        <v>64382</v>
       </c>
       <c r="B1752" t="s">
-        <v>1181</v>
+        <v>1483</v>
       </c>
       <c r="C1752">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="D1752">
-        <v>105.3</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="1753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1753">
-        <v>64412</v>
+        <v>64411</v>
       </c>
       <c r="B1753" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C1753">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D1753">
-        <v>106.5</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="1754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1754">
-        <v>64413</v>
+        <v>64412</v>
       </c>
       <c r="B1754" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C1754">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="D1754">
-        <v>99.4</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1755">
-        <v>64414</v>
+        <v>64413</v>
       </c>
       <c r="B1755" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C1755">
         <v>129</v>
@@ -31555,352 +31564,352 @@
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1756">
-        <v>64415</v>
+        <v>64414</v>
       </c>
       <c r="B1756" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C1756">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D1756">
-        <v>94.5</v>
+        <v>99.4</v>
       </c>
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1757">
-        <v>64491</v>
+        <v>64415</v>
       </c>
       <c r="B1757" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C1757">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D1757">
-        <v>99.85</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1758">
-        <v>64492</v>
+        <v>64491</v>
       </c>
       <c r="B1758" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1758">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="D1758">
-        <v>96</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1759">
-        <v>64511</v>
+        <v>64492</v>
       </c>
       <c r="B1759" t="s">
-        <v>1851</v>
+        <v>1187</v>
       </c>
       <c r="C1759">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D1759">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1760">
-        <v>64651</v>
+        <v>64511</v>
       </c>
       <c r="B1760" t="s">
-        <v>1484</v>
+        <v>1851</v>
       </c>
       <c r="C1760">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D1760">
-        <v>99.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1761">
-        <v>64691</v>
+        <v>64651</v>
       </c>
       <c r="B1761" t="s">
-        <v>1188</v>
+        <v>1484</v>
       </c>
       <c r="C1761">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="D1761">
-        <v>100.05</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1762">
-        <v>64692</v>
+        <v>64691</v>
       </c>
       <c r="B1762" t="s">
-        <v>1485</v>
+        <v>1188</v>
       </c>
       <c r="C1762">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="D1762">
-        <v>103.6</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1763">
-        <v>64721</v>
+        <v>64692</v>
       </c>
       <c r="B1763" t="s">
-        <v>1189</v>
+        <v>1485</v>
       </c>
       <c r="C1763">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="D1763">
-        <v>100.2</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="1764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1764">
-        <v>64722</v>
+        <v>64721</v>
       </c>
       <c r="B1764" t="s">
-        <v>1486</v>
+        <v>1189</v>
       </c>
       <c r="C1764">
-        <v>355</v>
+        <v>220</v>
       </c>
       <c r="D1764">
-        <v>104</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1765">
-        <v>64723</v>
+        <v>64722</v>
       </c>
       <c r="B1765" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C1765">
-        <v>128.9</v>
+        <v>355</v>
       </c>
       <c r="D1765">
-        <v>109.2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1766">
-        <v>64771</v>
+        <v>64723</v>
       </c>
       <c r="B1766" t="s">
-        <v>1190</v>
+        <v>1487</v>
       </c>
       <c r="C1766">
-        <v>323</v>
+        <v>138.44999999999999</v>
       </c>
       <c r="D1766">
-        <v>91</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="1767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1767">
-        <v>64772</v>
+        <v>64771</v>
       </c>
       <c r="B1767" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C1767">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="D1767">
-        <v>99.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1768">
-        <v>64773</v>
+        <v>64772</v>
       </c>
       <c r="B1768" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C1768">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D1768">
-        <v>101.2</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1769">
-        <v>64774</v>
+        <v>64773</v>
       </c>
       <c r="B1769" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C1769">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D1769">
-        <v>95.8</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="1770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1770">
-        <v>64861</v>
+        <v>64774</v>
       </c>
       <c r="B1770" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C1770">
-        <v>132.19999999999999</v>
+        <v>113</v>
       </c>
       <c r="D1770">
-        <v>99.55</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="1771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1771">
-        <v>64862</v>
+        <v>64861</v>
       </c>
       <c r="B1771" t="s">
-        <v>1488</v>
+        <v>1194</v>
       </c>
       <c r="C1771">
-        <v>148.5</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="D1771">
-        <v>108.2</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="1772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1772">
-        <v>64961</v>
+        <v>64862</v>
       </c>
       <c r="B1772" t="s">
-        <v>1195</v>
+        <v>1488</v>
       </c>
       <c r="C1772">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D1772">
-        <v>99.7</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="1773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1773">
-        <v>65091</v>
+        <v>64961</v>
       </c>
       <c r="B1773" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C1773">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D1773">
-        <v>0</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="1774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1774">
-        <v>65092</v>
+        <v>65091</v>
       </c>
       <c r="B1774" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C1774">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="D1774">
-        <v>101.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1775">
-        <v>65093</v>
+        <v>65092</v>
       </c>
       <c r="B1775" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C1775">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1775">
-        <v>92.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1776">
-        <v>65094</v>
+        <v>65093</v>
       </c>
       <c r="B1776" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C1776">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D1776">
-        <v>99.9</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="1777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1777">
-        <v>65095</v>
+        <v>65094</v>
       </c>
       <c r="B1777" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C1777">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D1777">
-        <v>100</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1778">
-        <v>65321</v>
+        <v>65095</v>
       </c>
       <c r="B1778" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C1778">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D1778">
-        <v>101.95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1779">
-        <v>65471</v>
+        <v>65321</v>
       </c>
       <c r="B1779" t="s">
-        <v>22</v>
+        <v>1201</v>
       </c>
       <c r="C1779">
-        <v>100.45</v>
+        <v>200</v>
       </c>
       <c r="D1779">
-        <v>86.75</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="1780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1780">
-        <v>65481</v>
+        <v>65471</v>
       </c>
       <c r="B1780" t="s">
-        <v>1202</v>
+        <v>22</v>
       </c>
       <c r="C1780">
-        <v>148</v>
+        <v>100.45</v>
       </c>
       <c r="D1780">
-        <v>120</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="1781" spans="1:4" x14ac:dyDescent="0.35">
@@ -31919,408 +31928,408 @@
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1782">
-        <v>65521</v>
+        <v>65481</v>
       </c>
       <c r="B1782" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C1782">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D1782">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1783">
-        <v>65581</v>
+        <v>65521</v>
       </c>
       <c r="B1783" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C1783">
-        <v>111.8</v>
+        <v>117</v>
       </c>
       <c r="D1783">
-        <v>91.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1784">
-        <v>65701</v>
+        <v>65581</v>
       </c>
       <c r="B1784" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C1784">
-        <v>185</v>
+        <v>111.8</v>
       </c>
       <c r="D1784">
-        <v>103.85</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="1785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1785">
-        <v>65731</v>
+        <v>65701</v>
       </c>
       <c r="B1785" t="s">
-        <v>1852</v>
+        <v>1205</v>
       </c>
       <c r="C1785">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D1785">
-        <v>77.5</v>
+        <v>103.85</v>
       </c>
     </row>
     <row r="1786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1786">
-        <v>65781</v>
+        <v>65731</v>
       </c>
       <c r="B1786" t="s">
-        <v>23</v>
+        <v>1852</v>
       </c>
       <c r="C1786">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D1786">
-        <v>102.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="1787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1787">
-        <v>65851</v>
+        <v>65781</v>
       </c>
       <c r="B1787" t="s">
-        <v>1988</v>
+        <v>23</v>
       </c>
       <c r="C1787">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="D1787">
-        <v>112.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1788">
-        <v>65852</v>
+        <v>65851</v>
       </c>
       <c r="B1788" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1788">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D1788">
-        <v>107</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="1789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1789">
-        <v>65891</v>
+        <v>65852</v>
       </c>
       <c r="B1789" t="s">
-        <v>24</v>
+        <v>1989</v>
       </c>
       <c r="C1789">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="D1789">
-        <v>109.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1790">
-        <v>65911</v>
+        <v>65891</v>
       </c>
       <c r="B1790" t="s">
-        <v>1853</v>
+        <v>24</v>
       </c>
       <c r="C1790">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="D1790">
-        <v>95.2</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1791">
-        <v>65912</v>
+        <v>65911</v>
       </c>
       <c r="B1791" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C1791">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="D1791">
-        <v>96.3</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="1792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1792">
-        <v>65913</v>
+        <v>65912</v>
       </c>
       <c r="B1792" t="s">
-        <v>1206</v>
+        <v>1854</v>
       </c>
       <c r="C1792">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="D1792">
-        <v>94.6</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="1793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1793">
-        <v>65931</v>
+        <v>65913</v>
       </c>
       <c r="B1793" t="s">
-        <v>1990</v>
+        <v>1206</v>
       </c>
       <c r="C1793">
-        <v>496</v>
+        <v>166</v>
       </c>
       <c r="D1793">
-        <v>113.5</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="1794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1794">
-        <v>66031</v>
+        <v>65931</v>
       </c>
       <c r="B1794" t="s">
-        <v>1855</v>
+        <v>1990</v>
       </c>
       <c r="C1794">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="D1794">
-        <v>0</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="1795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1795">
-        <v>66032</v>
+        <v>66031</v>
       </c>
       <c r="B1795" t="s">
-        <v>1207</v>
+        <v>1855</v>
       </c>
       <c r="C1795">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D1795">
-        <v>103.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1796">
-        <v>66033</v>
+        <v>66032</v>
       </c>
       <c r="B1796" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1796">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D1796">
-        <v>98.45</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="1797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1797">
-        <v>66051</v>
+        <v>66033</v>
       </c>
       <c r="B1797" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C1797">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D1797">
-        <v>0</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="1798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1798">
-        <v>66131</v>
+        <v>66051</v>
       </c>
       <c r="B1798" t="s">
-        <v>1489</v>
+        <v>1209</v>
       </c>
       <c r="C1798">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D1798">
-        <v>105.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1799">
-        <v>66161</v>
+        <v>66131</v>
       </c>
       <c r="B1799" t="s">
-        <v>1856</v>
+        <v>1489</v>
       </c>
       <c r="C1799">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="D1799">
-        <v>85</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="1800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1800">
-        <v>66162</v>
+        <v>66161</v>
       </c>
       <c r="B1800" t="s">
-        <v>1210</v>
+        <v>1856</v>
       </c>
       <c r="C1800">
-        <v>120.5</v>
+        <v>104</v>
       </c>
       <c r="D1800">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1801">
-        <v>66163</v>
+        <v>66162</v>
       </c>
       <c r="B1801" t="s">
-        <v>1991</v>
+        <v>1210</v>
       </c>
       <c r="C1801">
-        <v>119.35</v>
+        <v>120.5</v>
       </c>
       <c r="D1801">
-        <v>96.55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1802">
-        <v>66241</v>
+        <v>66163</v>
       </c>
       <c r="B1802" t="s">
-        <v>2043</v>
+        <v>1991</v>
       </c>
       <c r="C1802">
-        <v>0</v>
+        <v>119.35</v>
       </c>
       <c r="D1802">
-        <v>0</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="1803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1803">
-        <v>66291</v>
+        <v>66241</v>
       </c>
       <c r="B1803" t="s">
-        <v>1857</v>
+        <v>2043</v>
       </c>
       <c r="C1803">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D1803">
-        <v>97.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1804">
-        <v>66411</v>
+        <v>66291</v>
       </c>
       <c r="B1804" t="s">
-        <v>25</v>
+        <v>1857</v>
       </c>
       <c r="C1804">
-        <v>109.8</v>
+        <v>126</v>
       </c>
       <c r="D1804">
-        <v>96</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="1805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1805">
-        <v>66541</v>
+        <v>66411</v>
       </c>
       <c r="B1805" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1805">
-        <v>122.5</v>
+        <v>109.8</v>
       </c>
       <c r="D1805">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1806">
-        <v>66551</v>
+        <v>66541</v>
       </c>
       <c r="B1806" t="s">
-        <v>1490</v>
+        <v>26</v>
       </c>
       <c r="C1806">
-        <v>440</v>
+        <v>122.5</v>
       </c>
       <c r="D1806">
-        <v>110.65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1807">
-        <v>66641</v>
+        <v>66551</v>
       </c>
       <c r="B1807" t="s">
-        <v>1211</v>
+        <v>1490</v>
       </c>
       <c r="C1807">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="D1807">
-        <v>102</v>
+        <v>110.65</v>
       </c>
     </row>
     <row r="1808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1808">
-        <v>66681</v>
+        <v>66641</v>
       </c>
       <c r="B1808" t="s">
-        <v>1858</v>
+        <v>1211</v>
       </c>
       <c r="C1808">
-        <v>125.8</v>
+        <v>202</v>
       </c>
       <c r="D1808">
-        <v>99.75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1809">
-        <v>66682</v>
+        <v>66681</v>
       </c>
       <c r="B1809" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C1809">
-        <v>125</v>
+        <v>125.8</v>
       </c>
       <c r="D1809">
-        <v>97.4</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1810">
-        <v>66683</v>
+        <v>66682</v>
       </c>
       <c r="B1810" t="s">
-        <v>1212</v>
+        <v>1859</v>
       </c>
       <c r="C1810">
-        <v>115.95</v>
+        <v>125</v>
       </c>
       <c r="D1810">
-        <v>93.3</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="1811" spans="1:4" x14ac:dyDescent="0.35">
@@ -32331,7 +32340,7 @@
         <v>1212</v>
       </c>
       <c r="C1811">
-        <v>115.95</v>
+        <v>131.5</v>
       </c>
       <c r="D1811">
         <v>93.3</v>
@@ -32339,142 +32348,142 @@
     </row>
     <row r="1812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1812">
-        <v>66701</v>
+        <v>66683</v>
       </c>
       <c r="B1812" t="s">
-        <v>1860</v>
+        <v>1212</v>
       </c>
       <c r="C1812">
-        <v>132.5</v>
+        <v>131.5</v>
       </c>
       <c r="D1812">
-        <v>103.2</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1813">
-        <v>67021</v>
+        <v>66701</v>
       </c>
       <c r="B1813" t="s">
-        <v>1213</v>
+        <v>1860</v>
       </c>
       <c r="C1813">
-        <v>127.75</v>
+        <v>154</v>
       </c>
       <c r="D1813">
-        <v>31.5</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="1814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1814">
-        <v>67061</v>
+        <v>67021</v>
       </c>
       <c r="B1814" t="s">
-        <v>1491</v>
+        <v>1213</v>
       </c>
       <c r="C1814">
-        <v>158</v>
+        <v>127.75</v>
       </c>
       <c r="D1814">
-        <v>99</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1815">
-        <v>67151</v>
+        <v>67061</v>
       </c>
       <c r="B1815" t="s">
-        <v>1214</v>
+        <v>1491</v>
       </c>
       <c r="C1815">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D1815">
-        <v>106.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1816">
-        <v>67152</v>
+        <v>67151</v>
       </c>
       <c r="B1816" t="s">
-        <v>2044</v>
+        <v>1214</v>
       </c>
       <c r="C1816">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="D1816">
-        <v>115.7</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="1817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1817">
-        <v>67161</v>
+        <v>67152</v>
       </c>
       <c r="B1817" t="s">
-        <v>1992</v>
+        <v>2044</v>
       </c>
       <c r="C1817">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D1817">
-        <v>0</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="1818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1818">
-        <v>67271</v>
+        <v>67161</v>
       </c>
       <c r="B1818" t="s">
-        <v>27</v>
+        <v>1992</v>
       </c>
       <c r="C1818">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D1818">
-        <v>112.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1819">
-        <v>67611</v>
+        <v>67271</v>
       </c>
       <c r="B1819" t="s">
-        <v>1215</v>
+        <v>27</v>
       </c>
       <c r="C1819">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="D1819">
-        <v>99.95</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1820">
-        <v>67961</v>
+        <v>67611</v>
       </c>
       <c r="B1820" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1820">
-        <v>119.8</v>
+        <v>126.8</v>
       </c>
       <c r="D1820">
-        <v>100.6</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="1821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1821">
-        <v>68031</v>
+        <v>67961</v>
       </c>
       <c r="B1821" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1821">
-        <v>171</v>
+        <v>119.8</v>
       </c>
       <c r="D1821">
-        <v>0</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="1822" spans="1:4" x14ac:dyDescent="0.35">
@@ -32493,783 +32502,783 @@
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1823">
-        <v>68041</v>
+        <v>68031</v>
       </c>
       <c r="B1823" t="s">
-        <v>1492</v>
+        <v>1217</v>
       </c>
       <c r="C1823">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="D1823">
-        <v>96.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1824">
-        <v>68061</v>
+        <v>68041</v>
       </c>
       <c r="B1824" t="s">
-        <v>1993</v>
+        <v>1492</v>
       </c>
       <c r="C1824">
-        <v>142.69999999999999</v>
+        <v>111</v>
       </c>
       <c r="D1824">
-        <v>106</v>
+        <v>96.35</v>
       </c>
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1825">
-        <v>68231</v>
+        <v>68061</v>
       </c>
       <c r="B1825" t="s">
-        <v>1493</v>
+        <v>1993</v>
       </c>
       <c r="C1825">
-        <v>118</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="D1825">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1826">
-        <v>68401</v>
+        <v>68231</v>
       </c>
       <c r="B1826" t="s">
-        <v>2045</v>
+        <v>1493</v>
       </c>
       <c r="C1826">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D1826">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1827">
-        <v>68691</v>
+        <v>68401</v>
       </c>
       <c r="B1827" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="C1827">
-        <v>111.8</v>
+        <v>0</v>
       </c>
       <c r="D1827">
-        <v>106.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1828">
-        <v>68731</v>
+        <v>68691</v>
       </c>
       <c r="B1828" t="s">
-        <v>1994</v>
+        <v>2055</v>
       </c>
       <c r="C1828">
-        <v>136</v>
+        <v>111.8</v>
       </c>
       <c r="D1828">
-        <v>104.1</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="1829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1829">
-        <v>74021</v>
+        <v>68731</v>
       </c>
       <c r="B1829" t="s">
-        <v>1218</v>
+        <v>1994</v>
       </c>
       <c r="C1829">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="D1829">
-        <v>101.45</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1830">
-        <v>80111</v>
+        <v>74021</v>
       </c>
       <c r="B1830" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C1830">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="D1830">
-        <v>99.2</v>
+        <v>101.45</v>
       </c>
     </row>
     <row r="1831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1831">
-        <v>80112</v>
+        <v>80111</v>
       </c>
       <c r="B1831" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1831">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D1831">
-        <v>105.1</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="1832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1832">
-        <v>80113</v>
+        <v>80112</v>
       </c>
       <c r="B1832" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C1832">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1832">
-        <v>105.5</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="1833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1833">
-        <v>80114</v>
+        <v>80113</v>
       </c>
       <c r="B1833" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1833">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D1833">
-        <v>99.65</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1834">
-        <v>80161</v>
+        <v>80114</v>
       </c>
       <c r="B1834" t="s">
-        <v>1861</v>
+        <v>1222</v>
       </c>
       <c r="C1834">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D1834">
-        <v>99.5</v>
+        <v>99.65</v>
       </c>
     </row>
     <row r="1835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1835">
-        <v>80211</v>
+        <v>80161</v>
       </c>
       <c r="B1835" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C1835">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D1835">
-        <v>108.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1836">
-        <v>80271</v>
+        <v>80211</v>
       </c>
       <c r="B1836" t="s">
-        <v>1223</v>
+        <v>1862</v>
       </c>
       <c r="C1836">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="D1836">
-        <v>107</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="1837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1837">
-        <v>80272</v>
+        <v>80271</v>
       </c>
       <c r="B1837" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C1837">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D1837">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1838">
-        <v>80273</v>
+        <v>80272</v>
       </c>
       <c r="B1838" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C1838">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="D1838">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1839">
-        <v>80281</v>
+        <v>80273</v>
       </c>
       <c r="B1839" t="s">
-        <v>1863</v>
+        <v>1225</v>
       </c>
       <c r="C1839">
-        <v>120.8</v>
+        <v>162</v>
       </c>
       <c r="D1839">
-        <v>96.9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1840">
-        <v>80341</v>
+        <v>80281</v>
       </c>
       <c r="B1840" t="s">
-        <v>1226</v>
+        <v>1863</v>
       </c>
       <c r="C1840">
-        <v>169</v>
+        <v>120.8</v>
       </c>
       <c r="D1840">
-        <v>90</v>
+        <v>96.9</v>
       </c>
     </row>
     <row r="1841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1841">
-        <v>80381</v>
+        <v>80341</v>
       </c>
       <c r="B1841" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C1841">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D1841">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1842">
-        <v>80382</v>
+        <v>80381</v>
       </c>
       <c r="B1842" t="s">
-        <v>2046</v>
+        <v>1227</v>
       </c>
       <c r="C1842">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D1842">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1843">
-        <v>80391</v>
+        <v>80382</v>
       </c>
       <c r="B1843" t="s">
-        <v>1228</v>
+        <v>2046</v>
       </c>
       <c r="C1843">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="D1843">
-        <v>97.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1844">
-        <v>80392</v>
+        <v>80391</v>
       </c>
       <c r="B1844" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1844">
-        <v>126.2</v>
+        <v>188</v>
       </c>
       <c r="D1844">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1845">
-        <v>80421</v>
+        <v>80392</v>
       </c>
       <c r="B1845" t="s">
-        <v>1864</v>
+        <v>1229</v>
       </c>
       <c r="C1845">
-        <v>321</v>
+        <v>126.2</v>
       </c>
       <c r="D1845">
-        <v>109.35</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="1846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1846">
-        <v>80422</v>
+        <v>80421</v>
       </c>
       <c r="B1846" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1846">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="D1846">
-        <v>94</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="1847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1847">
-        <v>80423</v>
+        <v>80422</v>
       </c>
       <c r="B1847" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C1847">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="D1847">
-        <v>98.05</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1848">
-        <v>80424</v>
+        <v>80423</v>
       </c>
       <c r="B1848" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C1848">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D1848">
-        <v>101.5</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="1849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1849">
-        <v>80425</v>
+        <v>80424</v>
       </c>
       <c r="B1849" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1849">
-        <v>109.45</v>
+        <v>195</v>
       </c>
       <c r="D1849">
-        <v>89</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1850">
-        <v>80431</v>
+        <v>80425</v>
       </c>
       <c r="B1850" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C1850">
-        <v>158</v>
+        <v>109.45</v>
       </c>
       <c r="D1850">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1851">
-        <v>80441</v>
+        <v>80431</v>
       </c>
       <c r="B1851" t="s">
-        <v>1230</v>
+        <v>1869</v>
       </c>
       <c r="C1851">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D1851">
-        <v>98.8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1852">
-        <v>80491</v>
+        <v>80441</v>
       </c>
       <c r="B1852" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1852">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="D1852">
-        <v>90.5</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="1853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1853">
-        <v>80492</v>
+        <v>80491</v>
       </c>
       <c r="B1853" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1853">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="D1853">
-        <v>40</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="1854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1854">
-        <v>80493</v>
+        <v>80492</v>
       </c>
       <c r="B1854" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C1854">
-        <v>134.69999999999999</v>
+        <v>120</v>
       </c>
       <c r="D1854">
-        <v>97.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1855">
-        <v>80501</v>
+        <v>80493</v>
       </c>
       <c r="B1855" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C1855">
-        <v>203</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="D1855">
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1856">
-        <v>80502</v>
+        <v>80501</v>
       </c>
       <c r="B1856" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C1856">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D1856">
-        <v>100.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1857">
-        <v>80503</v>
+        <v>80502</v>
       </c>
       <c r="B1857" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C1857">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="D1857">
-        <v>102</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1858">
-        <v>80504</v>
+        <v>80503</v>
       </c>
       <c r="B1858" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C1858">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D1858">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1859">
-        <v>80505</v>
+        <v>80504</v>
       </c>
       <c r="B1859" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C1859">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D1859">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1860">
-        <v>80506</v>
+        <v>80505</v>
       </c>
       <c r="B1860" t="s">
-        <v>1494</v>
+        <v>1238</v>
       </c>
       <c r="C1860">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D1860">
-        <v>103.6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1861">
-        <v>80661</v>
+        <v>80506</v>
       </c>
       <c r="B1861" t="s">
-        <v>1239</v>
+        <v>1494</v>
       </c>
       <c r="C1861">
-        <v>110.5</v>
+        <v>158</v>
       </c>
       <c r="D1861">
-        <v>99.5</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="1862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1862">
-        <v>80671</v>
+        <v>80661</v>
       </c>
       <c r="B1862" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C1862">
-        <v>182</v>
+        <v>110.5</v>
       </c>
       <c r="D1862">
-        <v>0</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1863">
-        <v>80691</v>
+        <v>80671</v>
       </c>
       <c r="B1863" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C1863">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="D1863">
-        <v>90.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1864">
-        <v>80692</v>
+        <v>80691</v>
       </c>
       <c r="B1864" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1864">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="D1864">
-        <v>93</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="1865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1865">
-        <v>80701</v>
+        <v>80692</v>
       </c>
       <c r="B1865" t="s">
-        <v>1870</v>
+        <v>1242</v>
       </c>
       <c r="C1865">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="D1865">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1866">
-        <v>80702</v>
+        <v>80701</v>
       </c>
       <c r="B1866" t="s">
-        <v>1243</v>
+        <v>1870</v>
       </c>
       <c r="C1866">
-        <v>120.5</v>
+        <v>260</v>
       </c>
       <c r="D1866">
-        <v>99.1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1867" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1867">
-        <v>80703</v>
+        <v>80702</v>
       </c>
       <c r="B1867" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C1867">
-        <v>115.95</v>
+        <v>120.5</v>
       </c>
       <c r="D1867">
-        <v>98.4</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="1868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1868">
-        <v>80704</v>
+        <v>80703</v>
       </c>
       <c r="B1868" t="s">
-        <v>1495</v>
+        <v>1244</v>
       </c>
       <c r="C1868">
-        <v>188</v>
+        <v>115.95</v>
       </c>
       <c r="D1868">
-        <v>108.95</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="1869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1869">
-        <v>80705</v>
+        <v>80704</v>
       </c>
       <c r="B1869" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C1869">
-        <v>124.8</v>
+        <v>188</v>
       </c>
       <c r="D1869">
-        <v>105</v>
+        <v>108.95</v>
       </c>
     </row>
     <row r="1870" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1870">
-        <v>80711</v>
+        <v>80705</v>
       </c>
       <c r="B1870" t="s">
-        <v>1871</v>
+        <v>1496</v>
       </c>
       <c r="C1870">
-        <v>0</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="D1870">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1871">
-        <v>80741</v>
+        <v>80711</v>
       </c>
       <c r="B1871" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C1871">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="D1871">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1872" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1872">
-        <v>80742</v>
+        <v>80741</v>
       </c>
       <c r="B1872" t="s">
-        <v>1245</v>
+        <v>1872</v>
       </c>
       <c r="C1872">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="D1872">
-        <v>79.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1873">
-        <v>80743</v>
+        <v>80742</v>
       </c>
       <c r="B1873" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C1873">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="D1873">
-        <v>108</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="1874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1874">
-        <v>80744</v>
+        <v>80743</v>
       </c>
       <c r="B1874" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C1874">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D1874">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1875">
-        <v>80745</v>
+        <v>80744</v>
       </c>
       <c r="B1875" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C1875">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="D1875">
-        <v>105.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1876">
-        <v>80761</v>
+        <v>80745</v>
       </c>
       <c r="B1876" t="s">
-        <v>1873</v>
+        <v>1248</v>
       </c>
       <c r="C1876">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="D1876">
-        <v>100</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="1877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1877">
-        <v>80762</v>
+        <v>80761</v>
       </c>
       <c r="B1877" t="s">
-        <v>1249</v>
+        <v>1873</v>
       </c>
       <c r="C1877">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="D1877">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1878">
-        <v>80763</v>
+        <v>80762</v>
       </c>
       <c r="B1878" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C1878">
-        <v>477</v>
+        <v>348</v>
       </c>
       <c r="D1878">
         <v>107</v>
@@ -33277,1718 +33286,1718 @@
     </row>
     <row r="1879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1879">
-        <v>80764</v>
+        <v>80763</v>
       </c>
       <c r="B1879" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1879">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="D1879">
-        <v>99.7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1880" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1880">
-        <v>80771</v>
+        <v>80764</v>
       </c>
       <c r="B1880" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C1880">
         <v>128</v>
       </c>
       <c r="D1880">
-        <v>73</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="1881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1881">
-        <v>80791</v>
+        <v>80771</v>
       </c>
       <c r="B1881" t="s">
-        <v>1874</v>
+        <v>1252</v>
       </c>
       <c r="C1881">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D1881">
-        <v>86.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1882">
-        <v>80792</v>
+        <v>80791</v>
       </c>
       <c r="B1882" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C1882">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1882">
-        <v>92.55</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="1883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1883">
-        <v>80821</v>
+        <v>80792</v>
       </c>
       <c r="B1883" t="s">
-        <v>1253</v>
+        <v>1875</v>
       </c>
       <c r="C1883">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="D1883">
-        <v>117</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="1884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1884">
-        <v>80822</v>
+        <v>80821</v>
       </c>
       <c r="B1884" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C1884">
-        <v>147.5</v>
+        <v>256</v>
       </c>
       <c r="D1884">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1885">
-        <v>80823</v>
+        <v>80822</v>
       </c>
       <c r="B1885" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1885">
-        <v>139</v>
+        <v>147.5</v>
       </c>
       <c r="D1885">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1886">
-        <v>80841</v>
+        <v>80823</v>
       </c>
       <c r="B1886" t="s">
-        <v>1876</v>
+        <v>1255</v>
       </c>
       <c r="C1886">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D1886">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1887">
-        <v>80851</v>
+        <v>80841</v>
       </c>
       <c r="B1887" t="s">
-        <v>1256</v>
+        <v>1876</v>
       </c>
       <c r="C1887">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D1887">
-        <v>84.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1888">
-        <v>80852</v>
+        <v>80851</v>
       </c>
       <c r="B1888" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1888">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="D1888">
-        <v>77</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="1889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1889">
-        <v>80871</v>
+        <v>80852</v>
       </c>
       <c r="B1889" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1889">
-        <v>112.5</v>
+        <v>100</v>
       </c>
       <c r="D1889">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1890">
-        <v>80881</v>
+        <v>80871</v>
       </c>
       <c r="B1890" t="s">
-        <v>1877</v>
+        <v>1258</v>
       </c>
       <c r="C1890">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="D1890">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1891">
-        <v>80882</v>
+        <v>80881</v>
       </c>
       <c r="B1891" t="s">
-        <v>1259</v>
+        <v>1877</v>
       </c>
       <c r="C1891">
-        <v>102.5</v>
+        <v>0</v>
       </c>
       <c r="D1891">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1892">
-        <v>80911</v>
+        <v>80882</v>
       </c>
       <c r="B1892" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1892">
-        <v>187</v>
+        <v>102.5</v>
       </c>
       <c r="D1892">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1893">
-        <v>80912</v>
+        <v>80911</v>
       </c>
       <c r="B1893" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1893">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D1893">
-        <v>100.95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1894">
-        <v>80913</v>
+        <v>80912</v>
       </c>
       <c r="B1894" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1894">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1894">
-        <v>100.2</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="1895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1895">
-        <v>80921</v>
+        <v>80913</v>
       </c>
       <c r="B1895" t="s">
-        <v>1878</v>
+        <v>1262</v>
       </c>
       <c r="C1895">
-        <v>103.5</v>
+        <v>146</v>
       </c>
       <c r="D1895">
-        <v>0</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1896">
-        <v>80922</v>
+        <v>80921</v>
       </c>
       <c r="B1896" t="s">
-        <v>1263</v>
+        <v>1878</v>
       </c>
       <c r="C1896">
-        <v>225</v>
+        <v>103.5</v>
       </c>
       <c r="D1896">
-        <v>100.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1897">
-        <v>80923</v>
+        <v>80922</v>
       </c>
       <c r="B1897" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1897">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D1897">
-        <v>106.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1898">
-        <v>80924</v>
+        <v>80923</v>
       </c>
       <c r="B1898" t="s">
-        <v>1995</v>
+        <v>1264</v>
       </c>
       <c r="C1898">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="D1898">
-        <v>150</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="1899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1899">
-        <v>80961</v>
+        <v>80924</v>
       </c>
       <c r="B1899" t="s">
-        <v>1265</v>
+        <v>1995</v>
       </c>
       <c r="C1899">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="D1899">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1900">
-        <v>80971</v>
+        <v>80961</v>
       </c>
       <c r="B1900" t="s">
-        <v>1879</v>
+        <v>1265</v>
       </c>
       <c r="C1900">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D1900">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1901">
-        <v>80972</v>
+        <v>80971</v>
       </c>
       <c r="B1901" t="s">
-        <v>1266</v>
+        <v>1879</v>
       </c>
       <c r="C1901">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D1901">
-        <v>112.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1902">
-        <v>81011</v>
+        <v>80972</v>
       </c>
       <c r="B1902" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C1902">
-        <v>141</v>
+        <v>381</v>
       </c>
       <c r="D1902">
-        <v>62.5</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="1903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1903">
-        <v>81031</v>
+        <v>81011</v>
       </c>
       <c r="B1903" t="s">
-        <v>1880</v>
+        <v>1267</v>
       </c>
       <c r="C1903">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="D1903">
-        <v>99</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="1904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1904">
-        <v>81032</v>
+        <v>81031</v>
       </c>
       <c r="B1904" t="s">
-        <v>1268</v>
+        <v>1880</v>
       </c>
       <c r="C1904">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="D1904">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1905">
-        <v>81033</v>
+        <v>81032</v>
       </c>
       <c r="B1905" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C1905">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D1905">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1906">
-        <v>81034</v>
+        <v>81033</v>
       </c>
       <c r="B1906" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C1906">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="D1906">
-        <v>99.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1907">
-        <v>81041</v>
+        <v>81034</v>
       </c>
       <c r="B1907" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C1907">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D1907">
-        <v>97</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1908">
-        <v>81042</v>
+        <v>81041</v>
       </c>
       <c r="B1908" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C1908">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="D1908">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1909">
-        <v>81051</v>
+        <v>81042</v>
       </c>
       <c r="B1909" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C1909">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D1909">
-        <v>94.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1910">
-        <v>81052</v>
+        <v>81051</v>
       </c>
       <c r="B1910" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C1910">
-        <v>103.8</v>
+        <v>161</v>
       </c>
       <c r="D1910">
-        <v>81.45</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1911">
-        <v>81071</v>
+        <v>81052</v>
       </c>
       <c r="B1911" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C1911">
-        <v>112.2</v>
+        <v>103.8</v>
       </c>
       <c r="D1911">
-        <v>86</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="1912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1912">
-        <v>81072</v>
+        <v>81071</v>
       </c>
       <c r="B1912" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C1912">
-        <v>123</v>
+        <v>112.2</v>
       </c>
       <c r="D1912">
-        <v>100.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1913">
-        <v>81073</v>
+        <v>81072</v>
       </c>
       <c r="B1913" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C1913">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D1913">
-        <v>83.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1914">
-        <v>81091</v>
+        <v>81073</v>
       </c>
       <c r="B1914" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1914">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D1914">
-        <v>106.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="1915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1915">
-        <v>81101</v>
+        <v>81091</v>
       </c>
       <c r="B1915" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C1915">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D1915">
-        <v>92.9</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="1916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1916">
-        <v>81102</v>
+        <v>81101</v>
       </c>
       <c r="B1916" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C1916">
-        <v>112.5</v>
+        <v>138</v>
       </c>
       <c r="D1916">
-        <v>97.2</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="1917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1917">
-        <v>81111</v>
+        <v>81102</v>
       </c>
       <c r="B1917" t="s">
-        <v>1881</v>
+        <v>1280</v>
       </c>
       <c r="C1917">
-        <v>190</v>
+        <v>112.5</v>
       </c>
       <c r="D1917">
-        <v>91.75</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="1918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1918">
-        <v>81112</v>
+        <v>81111</v>
       </c>
       <c r="B1918" t="s">
-        <v>1281</v>
+        <v>1881</v>
       </c>
       <c r="C1918">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D1918">
-        <v>93.5</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="1919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1919">
-        <v>81113</v>
+        <v>81112</v>
       </c>
       <c r="B1919" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1919">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1919">
-        <v>40.299999999999997</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="1920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1920">
-        <v>81121</v>
+        <v>81113</v>
       </c>
       <c r="B1920" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C1920">
-        <v>130.1</v>
+        <v>126</v>
       </c>
       <c r="D1920">
-        <v>75</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="1921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1921">
-        <v>81122</v>
+        <v>81121</v>
       </c>
       <c r="B1921" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C1921">
-        <v>145</v>
+        <v>130.1</v>
       </c>
       <c r="D1921">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1922">
-        <v>81123</v>
+        <v>81122</v>
       </c>
       <c r="B1922" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C1922">
-        <v>124.1</v>
+        <v>145</v>
       </c>
       <c r="D1922">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1923">
-        <v>81124</v>
+        <v>81123</v>
       </c>
       <c r="B1923" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1923">
-        <v>322</v>
+        <v>124.1</v>
       </c>
       <c r="D1923">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1924">
-        <v>81125</v>
+        <v>81124</v>
       </c>
       <c r="B1924" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1924">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="D1924">
-        <v>100.85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1925">
-        <v>81126</v>
+        <v>81125</v>
       </c>
       <c r="B1925" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C1925">
-        <v>134.6</v>
+        <v>116</v>
       </c>
       <c r="D1925">
-        <v>100.5</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="1926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1926">
-        <v>81127</v>
+        <v>81126</v>
       </c>
       <c r="B1926" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1926">
-        <v>152</v>
+        <v>134.6</v>
       </c>
       <c r="D1926">
-        <v>107</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1927">
-        <v>81128</v>
+        <v>81127</v>
       </c>
       <c r="B1927" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1927">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="D1927">
-        <v>101.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1928">
-        <v>81129</v>
+        <v>81128</v>
       </c>
       <c r="B1928" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1928">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="D1928">
-        <v>95.95</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1929">
-        <v>81141</v>
+        <v>81129</v>
       </c>
       <c r="B1929" t="s">
-        <v>1497</v>
+        <v>1291</v>
       </c>
       <c r="C1929">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="D1929">
-        <v>98</v>
+        <v>95.95</v>
       </c>
     </row>
     <row r="1930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1930">
-        <v>81142</v>
+        <v>81141</v>
       </c>
       <c r="B1930" t="s">
-        <v>1292</v>
+        <v>1497</v>
       </c>
       <c r="C1930">
-        <v>106.5</v>
+        <v>124</v>
       </c>
       <c r="D1930">
-        <v>91.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1931">
-        <v>81471</v>
+        <v>81142</v>
       </c>
       <c r="B1931" t="s">
-        <v>1882</v>
+        <v>1292</v>
       </c>
       <c r="C1931">
-        <v>167</v>
+        <v>106.5</v>
       </c>
       <c r="D1931">
-        <v>100.2</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="1932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1932">
-        <v>81472</v>
+        <v>81471</v>
       </c>
       <c r="B1932" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C1932">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="D1932">
-        <v>102</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1933">
-        <v>81711</v>
+        <v>81472</v>
       </c>
       <c r="B1933" t="s">
-        <v>1293</v>
+        <v>1883</v>
       </c>
       <c r="C1933">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D1933">
-        <v>104.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1934">
-        <v>81712</v>
+        <v>81711</v>
       </c>
       <c r="B1934" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C1934">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="D1934">
-        <v>100</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1935">
-        <v>81713</v>
+        <v>81712</v>
       </c>
       <c r="B1935" t="s">
-        <v>1498</v>
+        <v>1294</v>
       </c>
       <c r="C1935">
-        <v>140.1</v>
+        <v>119</v>
       </c>
       <c r="D1935">
-        <v>101.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1936">
-        <v>82101</v>
+        <v>81713</v>
       </c>
       <c r="B1936" t="s">
-        <v>2047</v>
+        <v>1498</v>
       </c>
       <c r="C1936">
-        <v>125.5</v>
+        <v>140.1</v>
       </c>
       <c r="D1936">
-        <v>114.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="1937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1937">
-        <v>82131</v>
+        <v>82101</v>
       </c>
       <c r="B1937" t="s">
-        <v>1295</v>
+        <v>2047</v>
       </c>
       <c r="C1937">
-        <v>135</v>
+        <v>126.5</v>
       </c>
       <c r="D1937">
-        <v>100.3</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="1938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1938">
-        <v>82341</v>
+        <v>82131</v>
       </c>
       <c r="B1938" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C1938">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D1938">
-        <v>95.05</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="1939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1939">
-        <v>82401</v>
+        <v>82341</v>
       </c>
       <c r="B1939" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C1939">
-        <v>130.5</v>
+        <v>121</v>
       </c>
       <c r="D1939">
-        <v>100</v>
+        <v>95.05</v>
       </c>
     </row>
     <row r="1940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1940">
-        <v>82402</v>
+        <v>82401</v>
       </c>
       <c r="B1940" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C1940">
-        <v>106.8</v>
+        <v>130.5</v>
       </c>
       <c r="D1940">
-        <v>97.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1941">
-        <v>82491</v>
+        <v>82402</v>
       </c>
       <c r="B1941" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C1941">
-        <v>156</v>
+        <v>106.8</v>
       </c>
       <c r="D1941">
-        <v>97</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="1942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1942">
-        <v>82551</v>
+        <v>82491</v>
       </c>
       <c r="B1942" t="s">
-        <v>1499</v>
+        <v>1299</v>
       </c>
       <c r="C1942">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D1942">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1943">
-        <v>82611</v>
+        <v>82551</v>
       </c>
       <c r="B1943" t="s">
-        <v>1300</v>
+        <v>1499</v>
       </c>
       <c r="C1943">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="D1943">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1944">
-        <v>82612</v>
+        <v>82611</v>
       </c>
       <c r="B1944" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C1944">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="D1944">
-        <v>99.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1945">
-        <v>82613</v>
+        <v>82612</v>
       </c>
       <c r="B1945" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1945">
         <v>120</v>
       </c>
       <c r="D1945">
-        <v>100</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="1946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1946">
-        <v>82661</v>
+        <v>82613</v>
       </c>
       <c r="B1946" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C1946">
-        <v>117.1</v>
+        <v>120</v>
       </c>
       <c r="D1946">
-        <v>102.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1947">
-        <v>82771</v>
+        <v>82661</v>
       </c>
       <c r="B1947" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C1947">
-        <v>155</v>
+        <v>117.1</v>
       </c>
       <c r="D1947">
-        <v>0</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="1948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1948">
-        <v>82772</v>
+        <v>82771</v>
       </c>
       <c r="B1948" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C1948">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="D1948">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1949">
-        <v>82773</v>
+        <v>82772</v>
       </c>
       <c r="B1949" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C1949">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="D1949">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1950">
-        <v>82871</v>
+        <v>82773</v>
       </c>
       <c r="B1950" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C1950">
-        <v>1390</v>
+        <v>107</v>
       </c>
       <c r="D1950">
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1951">
-        <v>82891</v>
+        <v>82871</v>
       </c>
       <c r="B1951" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1951">
-        <v>118</v>
+        <v>1390</v>
       </c>
       <c r="D1951">
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="1952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1952">
-        <v>82991</v>
+        <v>82891</v>
       </c>
       <c r="B1952" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C1952">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D1952">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1953">
-        <v>82992</v>
+        <v>82991</v>
       </c>
       <c r="B1953" t="s">
-        <v>2048</v>
+        <v>1309</v>
       </c>
       <c r="C1953">
-        <v>127.3</v>
+        <v>153</v>
       </c>
       <c r="D1953">
-        <v>106.15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1954">
-        <v>83491</v>
+        <v>82992</v>
       </c>
       <c r="B1954" t="s">
-        <v>1884</v>
+        <v>2048</v>
       </c>
       <c r="C1954">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="D1954">
-        <v>107</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="1955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1955">
-        <v>83492</v>
+        <v>83491</v>
       </c>
       <c r="B1955" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C1955">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D1955">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1956">
-        <v>83493</v>
+        <v>83492</v>
       </c>
       <c r="B1956" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C1956">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="D1956">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1957">
-        <v>83494</v>
+        <v>83493</v>
       </c>
       <c r="B1957" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C1957">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="D1957">
-        <v>93.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1958">
-        <v>83541</v>
+        <v>83494</v>
       </c>
       <c r="B1958" t="s">
-        <v>1310</v>
+        <v>1887</v>
       </c>
       <c r="C1958">
-        <v>144.44999999999999</v>
+        <v>162</v>
       </c>
       <c r="D1958">
-        <v>94</v>
+        <v>93.05</v>
       </c>
     </row>
     <row r="1959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1959">
-        <v>83671</v>
+        <v>83541</v>
       </c>
       <c r="B1959" t="s">
-        <v>1888</v>
+        <v>1310</v>
       </c>
       <c r="C1959">
-        <v>120.5</v>
+        <v>144.44999999999999</v>
       </c>
       <c r="D1959">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1960">
-        <v>83741</v>
+        <v>83671</v>
       </c>
       <c r="B1960" t="s">
-        <v>1311</v>
+        <v>1888</v>
       </c>
       <c r="C1960">
-        <v>122</v>
+        <v>120.5</v>
       </c>
       <c r="D1960">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1961">
-        <v>83831</v>
+        <v>83741</v>
       </c>
       <c r="B1961" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C1961">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="D1961">
-        <v>101.95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1962">
-        <v>83901</v>
+        <v>83831</v>
       </c>
       <c r="B1962" t="s">
-        <v>1996</v>
+        <v>1312</v>
       </c>
       <c r="C1962">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D1962">
-        <v>98.8</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="1963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1963">
-        <v>83902</v>
+        <v>83901</v>
       </c>
       <c r="B1963" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C1963">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1963">
-        <v>101</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1964">
-        <v>83903</v>
+        <v>83902</v>
       </c>
       <c r="B1964" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C1964">
-        <v>127.1</v>
+        <v>120</v>
       </c>
       <c r="D1964">
-        <v>98.9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1965">
-        <v>83904</v>
+        <v>83903</v>
       </c>
       <c r="B1965" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C1965">
-        <v>107.9</v>
+        <v>127.1</v>
       </c>
       <c r="D1965">
-        <v>99.9</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1966">
-        <v>83905</v>
+        <v>83904</v>
       </c>
       <c r="B1966" t="s">
-        <v>1500</v>
+        <v>1999</v>
       </c>
       <c r="C1966">
-        <v>190</v>
+        <v>107.9</v>
       </c>
       <c r="D1966">
-        <v>104.5</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1967">
-        <v>84011</v>
+        <v>83905</v>
       </c>
       <c r="B1967" t="s">
-        <v>1313</v>
+        <v>1500</v>
       </c>
       <c r="C1967">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D1967">
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1968">
-        <v>84031</v>
+        <v>84011</v>
       </c>
       <c r="B1968" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C1968">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="D1968">
-        <v>106.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1969">
-        <v>84032</v>
+        <v>84031</v>
       </c>
       <c r="B1969" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C1969">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D1969">
-        <v>101</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="1970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1970">
-        <v>84033</v>
+        <v>84032</v>
       </c>
       <c r="B1970" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C1970">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1970">
-        <v>99.75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1971">
-        <v>84061</v>
+        <v>84033</v>
       </c>
       <c r="B1971" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C1971">
-        <v>129.9</v>
+        <v>153</v>
       </c>
       <c r="D1971">
-        <v>95.7</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1972">
-        <v>84111</v>
+        <v>84061</v>
       </c>
       <c r="B1972" t="s">
-        <v>1889</v>
+        <v>1317</v>
       </c>
       <c r="C1972">
-        <v>109</v>
+        <v>129.9</v>
       </c>
       <c r="D1972">
-        <v>99</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="1973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1973">
-        <v>84112</v>
+        <v>84111</v>
       </c>
       <c r="B1973" t="s">
-        <v>1501</v>
+        <v>1889</v>
       </c>
       <c r="C1973">
-        <v>102.7</v>
+        <v>109</v>
       </c>
       <c r="D1973">
-        <v>89.1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1974">
-        <v>84201</v>
+        <v>84112</v>
       </c>
       <c r="B1974" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C1974">
-        <v>148.9</v>
+        <v>102.7</v>
       </c>
       <c r="D1974">
-        <v>90.3</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1975">
-        <v>84211</v>
+        <v>84201</v>
       </c>
       <c r="B1975" t="s">
-        <v>1318</v>
+        <v>1502</v>
       </c>
       <c r="C1975">
-        <v>159</v>
+        <v>148.9</v>
       </c>
       <c r="D1975">
-        <v>100</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1976">
-        <v>84221</v>
+        <v>84211</v>
       </c>
       <c r="B1976" t="s">
-        <v>1503</v>
+        <v>1318</v>
       </c>
       <c r="C1976">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D1976">
-        <v>102.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1977">
-        <v>84291</v>
+        <v>84221</v>
       </c>
       <c r="B1977" t="s">
-        <v>1319</v>
+        <v>1503</v>
       </c>
       <c r="C1977">
-        <v>109.75</v>
+        <v>127</v>
       </c>
       <c r="D1977">
-        <v>88.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1978">
-        <v>84311</v>
+        <v>84291</v>
       </c>
       <c r="B1978" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C1978">
-        <v>163</v>
+        <v>109.75</v>
       </c>
       <c r="D1978">
-        <v>99.2</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1979">
-        <v>84331</v>
+        <v>84311</v>
       </c>
       <c r="B1979" t="s">
-        <v>1504</v>
+        <v>1320</v>
       </c>
       <c r="C1979">
-        <v>143.5</v>
+        <v>163</v>
       </c>
       <c r="D1979">
-        <v>104.1</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1980">
-        <v>84361</v>
+        <v>84331</v>
       </c>
       <c r="B1980" t="s">
-        <v>1321</v>
+        <v>1504</v>
       </c>
       <c r="C1980">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="D1980">
-        <v>110.5</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1981">
-        <v>84362</v>
+        <v>84332</v>
       </c>
       <c r="B1981" t="s">
-        <v>1322</v>
+        <v>2058</v>
       </c>
       <c r="C1981">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D1981">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1982">
-        <v>84371</v>
+        <v>84333</v>
       </c>
       <c r="B1982" t="s">
-        <v>1323</v>
+        <v>2059</v>
       </c>
       <c r="C1982">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D1982">
-        <v>109.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1983">
-        <v>84372</v>
+        <v>84361</v>
       </c>
       <c r="B1983" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C1983">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="D1983">
-        <v>107.6</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1984">
-        <v>84421</v>
+        <v>84362</v>
       </c>
       <c r="B1984" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C1984">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="D1984">
-        <v>110.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1985">
-        <v>84422</v>
+        <v>84371</v>
       </c>
       <c r="B1985" t="s">
-        <v>2000</v>
+        <v>1323</v>
       </c>
       <c r="C1985">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D1985">
-        <v>111.9</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1986">
-        <v>84501</v>
+        <v>84372</v>
       </c>
       <c r="B1986" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C1986">
-        <v>149.5</v>
+        <v>202</v>
       </c>
       <c r="D1986">
-        <v>85.05</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1987">
-        <v>84621</v>
+        <v>84421</v>
       </c>
       <c r="B1987" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C1987">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D1987">
-        <v>104.1</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1988">
-        <v>84622</v>
+        <v>84422</v>
       </c>
       <c r="B1988" t="s">
-        <v>1505</v>
+        <v>2000</v>
       </c>
       <c r="C1988">
-        <v>129.9</v>
+        <v>158</v>
       </c>
       <c r="D1988">
-        <v>101.55</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1989">
-        <v>84623</v>
+        <v>84501</v>
       </c>
       <c r="B1989" t="s">
-        <v>1506</v>
+        <v>1326</v>
       </c>
       <c r="C1989">
-        <v>133</v>
+        <v>149.5</v>
       </c>
       <c r="D1989">
-        <v>109</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1990">
-        <v>84661</v>
+        <v>84621</v>
       </c>
       <c r="B1990" t="s">
-        <v>28</v>
+        <v>1327</v>
       </c>
       <c r="C1990">
-        <v>105.8</v>
+        <v>259</v>
       </c>
       <c r="D1990">
-        <v>95.8</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1991">
-        <v>84662</v>
+        <v>84622</v>
       </c>
       <c r="B1991" t="s">
-        <v>2011</v>
+        <v>1505</v>
       </c>
       <c r="C1991">
-        <v>99.75</v>
+        <v>129.9</v>
       </c>
       <c r="D1991">
-        <v>93</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1992">
-        <v>84671</v>
+        <v>84623</v>
       </c>
       <c r="B1992" t="s">
-        <v>1328</v>
+        <v>1506</v>
       </c>
       <c r="C1992">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D1992">
-        <v>100.6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1993">
-        <v>84731</v>
+        <v>84661</v>
       </c>
       <c r="B1993" t="s">
-        <v>1890</v>
+        <v>28</v>
       </c>
       <c r="C1993">
-        <v>107</v>
+        <v>105.8</v>
       </c>
       <c r="D1993">
-        <v>97</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1994">
-        <v>84732</v>
+        <v>84662</v>
       </c>
       <c r="B1994" t="s">
-        <v>1329</v>
+        <v>2011</v>
       </c>
       <c r="C1994">
-        <v>125.95</v>
+        <v>110.1</v>
       </c>
       <c r="D1994">
-        <v>92.95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1995">
-        <v>84761</v>
+        <v>84671</v>
       </c>
       <c r="B1995" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C1995">
-        <v>119.5</v>
+        <v>117</v>
       </c>
       <c r="D1995">
-        <v>99.65</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1996">
-        <v>84881</v>
+        <v>84731</v>
       </c>
       <c r="B1996" t="s">
-        <v>2001</v>
+        <v>1890</v>
       </c>
       <c r="C1996">
-        <v>109.2</v>
+        <v>107</v>
       </c>
       <c r="D1996">
-        <v>104.2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1997">
-        <v>84991</v>
+        <v>84732</v>
       </c>
       <c r="B1997" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C1997">
-        <v>135.5</v>
+        <v>139</v>
       </c>
       <c r="D1997">
-        <v>98</v>
+        <v>92.95</v>
       </c>
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1998">
-        <v>85002</v>
+        <v>84761</v>
       </c>
       <c r="B1998" t="s">
-        <v>1891</v>
+        <v>1330</v>
       </c>
       <c r="C1998">
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="D1998">
-        <v>0</v>
+        <v>99.65</v>
       </c>
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1999">
-        <v>85010</v>
+        <v>84881</v>
       </c>
       <c r="B1999" t="s">
-        <v>1892</v>
+        <v>2001</v>
       </c>
       <c r="C1999">
-        <v>0</v>
+        <v>116.95</v>
       </c>
       <c r="D1999">
-        <v>0</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2000">
-        <v>85012</v>
+        <v>84991</v>
       </c>
       <c r="B2000" t="s">
-        <v>1893</v>
+        <v>1331</v>
       </c>
       <c r="C2000">
-        <v>0</v>
+        <v>135.5</v>
       </c>
       <c r="D2000">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2001">
-        <v>85013</v>
+        <v>85002</v>
       </c>
       <c r="B2001" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="C2001">
         <v>0</v>
@@ -34999,7 +35008,7 @@
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2002">
-        <v>85014</v>
+        <v>85010</v>
       </c>
       <c r="B2002" t="s">
         <v>1892</v>
@@ -35013,10 +35022,10 @@
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2003">
-        <v>85023</v>
+        <v>85012</v>
       </c>
       <c r="B2003" t="s">
-        <v>1743</v>
+        <v>1893</v>
       </c>
       <c r="C2003">
         <v>0</v>
@@ -35027,10 +35036,10 @@
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2004">
-        <v>85054</v>
+        <v>85013</v>
       </c>
       <c r="B2004" t="s">
-        <v>1776</v>
+        <v>1894</v>
       </c>
       <c r="C2004">
         <v>0</v>
@@ -35041,10 +35050,10 @@
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2005">
-        <v>85060</v>
+        <v>85014</v>
       </c>
       <c r="B2005" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="C2005">
         <v>0</v>
@@ -35055,27 +35064,27 @@
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2006">
-        <v>89161</v>
+        <v>85023</v>
       </c>
       <c r="B2006" t="s">
-        <v>1332</v>
+        <v>1743</v>
       </c>
       <c r="C2006">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D2006">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2007">
-        <v>89241</v>
+        <v>85054</v>
       </c>
       <c r="B2007" t="s">
-        <v>1896</v>
+        <v>1776</v>
       </c>
       <c r="C2007">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D2007">
         <v>0</v>
@@ -35083,937 +35092,937 @@
     </row>
     <row r="2008" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2008">
-        <v>89251</v>
+        <v>85060</v>
       </c>
       <c r="B2008" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="C2008">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D2008">
-        <v>94.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2009">
-        <v>89252</v>
+        <v>89161</v>
       </c>
       <c r="B2009" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C2009">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="D2009">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2010">
-        <v>89253</v>
+        <v>89241</v>
       </c>
       <c r="B2010" t="s">
-        <v>1334</v>
+        <v>1896</v>
       </c>
       <c r="C2010">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="D2010">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2011">
-        <v>89254</v>
+        <v>89251</v>
       </c>
       <c r="B2011" t="s">
-        <v>1335</v>
+        <v>1897</v>
       </c>
       <c r="C2011">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D2011">
-        <v>50.1</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="2012" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2012">
-        <v>89255</v>
+        <v>89252</v>
       </c>
       <c r="B2012" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C2012">
-        <v>101.8</v>
+        <v>183</v>
       </c>
       <c r="D2012">
-        <v>84.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2013">
-        <v>89261</v>
+        <v>89253</v>
       </c>
       <c r="B2013" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C2013">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D2013">
-        <v>146.80000000000001</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2014" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2014">
-        <v>89271</v>
+        <v>89254</v>
       </c>
       <c r="B2014" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C2014">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D2014">
-        <v>107</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2015">
-        <v>89272</v>
+        <v>89255</v>
       </c>
       <c r="B2015" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C2015">
-        <v>115</v>
+        <v>101.8</v>
       </c>
       <c r="D2015">
-        <v>101</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="2016" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2016">
-        <v>89273</v>
+        <v>89261</v>
       </c>
       <c r="B2016" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C2016">
-        <v>118.1</v>
+        <v>165</v>
       </c>
       <c r="D2016">
-        <v>99.5</v>
+        <v>146.80000000000001</v>
       </c>
     </row>
     <row r="2017" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2017">
-        <v>89274</v>
+        <v>89271</v>
       </c>
       <c r="B2017" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C2017">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D2017">
-        <v>96.55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2018" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2018">
-        <v>89275</v>
+        <v>89272</v>
       </c>
       <c r="B2018" t="s">
-        <v>1507</v>
+        <v>1339</v>
       </c>
       <c r="C2018">
-        <v>416</v>
+        <v>115</v>
       </c>
       <c r="D2018">
-        <v>112.2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2019">
-        <v>89276</v>
+        <v>89273</v>
       </c>
       <c r="B2019" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C2019">
-        <v>225</v>
+        <v>118.1</v>
       </c>
       <c r="D2019">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2020">
-        <v>89277</v>
+        <v>89274</v>
       </c>
       <c r="B2020" t="s">
-        <v>2049</v>
+        <v>1341</v>
       </c>
       <c r="C2020">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D2020">
-        <v>0</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="2021" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2021">
-        <v>89278</v>
+        <v>89275</v>
       </c>
       <c r="B2021" t="s">
-        <v>2050</v>
+        <v>1507</v>
       </c>
       <c r="C2021">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D2021">
-        <v>0</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2022">
-        <v>89281</v>
+        <v>89276</v>
       </c>
       <c r="B2022" t="s">
-        <v>1898</v>
+        <v>1342</v>
       </c>
       <c r="C2022">
-        <v>148.80000000000001</v>
+        <v>225</v>
       </c>
       <c r="D2022">
-        <v>100</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="2023" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2023">
-        <v>89291</v>
+        <v>89277</v>
       </c>
       <c r="B2023" t="s">
-        <v>1343</v>
+        <v>2049</v>
       </c>
       <c r="C2023">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D2023">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2024">
-        <v>89301</v>
+        <v>89278</v>
       </c>
       <c r="B2024" t="s">
-        <v>1344</v>
+        <v>2050</v>
       </c>
       <c r="C2024">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D2024">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2025">
-        <v>89302</v>
+        <v>89281</v>
       </c>
       <c r="B2025" t="s">
-        <v>1345</v>
+        <v>1898</v>
       </c>
       <c r="C2025">
-        <v>138</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="D2025">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2026">
-        <v>89321</v>
+        <v>89291</v>
       </c>
       <c r="B2026" t="s">
-        <v>1508</v>
+        <v>1343</v>
       </c>
       <c r="C2026">
-        <v>681</v>
+        <v>159</v>
       </c>
       <c r="D2026">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2027" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2027">
-        <v>89331</v>
+        <v>89301</v>
       </c>
       <c r="B2027" t="s">
-        <v>1899</v>
+        <v>1344</v>
       </c>
       <c r="C2027">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D2027">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2028" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2028">
-        <v>89332</v>
+        <v>89302</v>
       </c>
       <c r="B2028" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C2028">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D2028">
-        <v>99.75</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="2029" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2029">
-        <v>89333</v>
+        <v>89321</v>
       </c>
       <c r="B2029" t="s">
-        <v>1347</v>
+        <v>1508</v>
       </c>
       <c r="C2029">
-        <v>123.5</v>
+        <v>681</v>
       </c>
       <c r="D2029">
-        <v>91.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2030" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2030">
-        <v>89334</v>
+        <v>89331</v>
       </c>
       <c r="B2030" t="s">
-        <v>1348</v>
+        <v>1899</v>
       </c>
       <c r="C2030">
-        <v>141.15</v>
+        <v>146</v>
       </c>
       <c r="D2030">
-        <v>99.7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2031" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2031">
-        <v>89335</v>
+        <v>89332</v>
       </c>
       <c r="B2031" t="s">
-        <v>1899</v>
+        <v>1346</v>
       </c>
       <c r="C2031">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="D2031">
-        <v>72</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="2032" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2032">
-        <v>89351</v>
+        <v>89333</v>
       </c>
       <c r="B2032" t="s">
-        <v>1900</v>
+        <v>1347</v>
       </c>
       <c r="C2032">
-        <v>182</v>
+        <v>123.5</v>
       </c>
       <c r="D2032">
-        <v>103</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="2033" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2033">
-        <v>89352</v>
+        <v>89334</v>
       </c>
       <c r="B2033" t="s">
-        <v>1900</v>
+        <v>1348</v>
       </c>
       <c r="C2033">
-        <v>182</v>
+        <v>141.15</v>
       </c>
       <c r="D2033">
-        <v>77.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="2034" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2034">
-        <v>89361</v>
+        <v>89335</v>
       </c>
       <c r="B2034" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="C2034">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D2034">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2035" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2035">
-        <v>89362</v>
+        <v>89351</v>
       </c>
       <c r="B2035" t="s">
-        <v>1349</v>
+        <v>1900</v>
       </c>
       <c r="C2035">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D2035">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2036" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2036">
-        <v>89363</v>
+        <v>89352</v>
       </c>
       <c r="B2036" t="s">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="C2036">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D2036">
-        <v>101</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="2037" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2037">
-        <v>89364</v>
+        <v>89361</v>
       </c>
       <c r="B2037" t="s">
-        <v>1351</v>
+        <v>1901</v>
       </c>
       <c r="C2037">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D2037">
-        <v>101.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2038" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2038">
-        <v>89381</v>
+        <v>89362</v>
       </c>
       <c r="B2038" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C2038">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D2038">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2039" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2039">
-        <v>89382</v>
+        <v>89363</v>
       </c>
       <c r="B2039" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C2039">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="D2039">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2040" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2040">
-        <v>89383</v>
+        <v>89364</v>
       </c>
       <c r="B2040" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C2040">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D2040">
-        <v>102.05</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="2041" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2041">
-        <v>89411</v>
+        <v>89381</v>
       </c>
       <c r="B2041" t="s">
-        <v>1902</v>
+        <v>1352</v>
       </c>
       <c r="C2041">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D2041">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2042" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2042">
-        <v>89412</v>
+        <v>89382</v>
       </c>
       <c r="B2042" t="s">
-        <v>2051</v>
+        <v>1353</v>
       </c>
       <c r="C2042">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="D2042">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2043" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2043">
-        <v>89421</v>
+        <v>89383</v>
       </c>
       <c r="B2043" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C2043">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="D2043">
-        <v>0</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="2044" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2044">
-        <v>89422</v>
+        <v>89411</v>
       </c>
       <c r="B2044" t="s">
-        <v>1356</v>
+        <v>1902</v>
       </c>
       <c r="C2044">
-        <v>141.9</v>
+        <v>176</v>
       </c>
       <c r="D2044">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2045" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2045">
-        <v>89423</v>
+        <v>89412</v>
       </c>
       <c r="B2045" t="s">
-        <v>1357</v>
+        <v>2051</v>
       </c>
       <c r="C2045">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D2045">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2046" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2046">
-        <v>89424</v>
+        <v>89421</v>
       </c>
       <c r="B2046" t="s">
-        <v>1902</v>
+        <v>1355</v>
       </c>
       <c r="C2046">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="D2046">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2047" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2047">
-        <v>89961</v>
+        <v>89422</v>
       </c>
       <c r="B2047" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C2047">
-        <v>246</v>
+        <v>141.9</v>
       </c>
       <c r="D2047">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2048" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2048">
-        <v>89962</v>
+        <v>89423</v>
       </c>
       <c r="B2048" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C2048">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="D2048">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2049" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2049">
-        <v>89963</v>
+        <v>89424</v>
       </c>
       <c r="B2049" t="s">
-        <v>1360</v>
+        <v>1902</v>
       </c>
       <c r="C2049">
-        <v>120.5</v>
+        <v>188</v>
       </c>
       <c r="D2049">
-        <v>99.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2050" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2050">
-        <v>89964</v>
+        <v>89961</v>
       </c>
       <c r="B2050" t="s">
-        <v>2002</v>
+        <v>1358</v>
       </c>
       <c r="C2050">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="D2050">
-        <v>114.3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2051">
-        <v>98021</v>
+        <v>89962</v>
       </c>
       <c r="B2051" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C2051">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="D2051">
-        <v>104.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2052" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2052">
-        <v>98022</v>
+        <v>89963</v>
       </c>
       <c r="B2052" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C2052">
-        <v>251</v>
+        <v>120.5</v>
       </c>
       <c r="D2052">
-        <v>100.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="2053" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2053">
-        <v>98023</v>
+        <v>89964</v>
       </c>
       <c r="B2053" t="s">
-        <v>1363</v>
+        <v>2002</v>
       </c>
       <c r="C2053">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D2053">
-        <v>99.2</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="2054" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2054">
-        <v>98024</v>
+        <v>98021</v>
       </c>
       <c r="B2054" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C2054">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="D2054">
-        <v>102</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="2055" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2055">
-        <v>98025</v>
+        <v>98022</v>
       </c>
       <c r="B2055" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C2055">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="D2055">
-        <v>112</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="2056" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2056">
-        <v>99061</v>
+        <v>98023</v>
       </c>
       <c r="B2056" t="s">
-        <v>1509</v>
+        <v>1363</v>
       </c>
       <c r="C2056">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D2056">
-        <v>111.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="2057" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2057">
-        <v>99211</v>
+        <v>98024</v>
       </c>
       <c r="B2057" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C2057">
-        <v>108.5</v>
+        <v>293</v>
       </c>
       <c r="D2057">
-        <v>95.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2058" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2058">
-        <v>99241</v>
+        <v>98025</v>
       </c>
       <c r="B2058" t="s">
-        <v>1903</v>
+        <v>1365</v>
       </c>
       <c r="C2058">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D2058">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2059" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2059">
-        <v>99271</v>
+        <v>99061</v>
       </c>
       <c r="B2059" t="s">
-        <v>1367</v>
+        <v>1509</v>
       </c>
       <c r="C2059">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D2059">
-        <v>95.5</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="2060" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2060">
-        <v>99272</v>
+        <v>99211</v>
       </c>
       <c r="B2060" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C2060">
-        <v>168</v>
+        <v>108.65</v>
       </c>
       <c r="D2060">
-        <v>106.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="2061" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2061">
-        <v>99331</v>
+        <v>99241</v>
       </c>
       <c r="B2061" t="s">
-        <v>1369</v>
+        <v>1903</v>
       </c>
       <c r="C2061">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="D2061">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2062" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2062">
-        <v>99341</v>
+        <v>99271</v>
       </c>
       <c r="B2062" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C2062">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D2062">
-        <v>72</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="2063" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2063">
-        <v>99342</v>
+        <v>99272</v>
       </c>
       <c r="B2063" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C2063">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2063">
-        <v>95</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="2064" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2064">
-        <v>99351</v>
+        <v>99331</v>
       </c>
       <c r="B2064" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C2064">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D2064">
-        <v>93.6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2065" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2065">
-        <v>99352</v>
+        <v>99341</v>
       </c>
       <c r="B2065" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C2065">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D2065">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2066" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2066">
-        <v>99381</v>
+        <v>99342</v>
       </c>
       <c r="B2066" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C2066">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="D2066">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2067" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2067">
-        <v>99391</v>
+        <v>99351</v>
       </c>
       <c r="B2067" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C2067">
-        <v>106.4</v>
+        <v>117</v>
       </c>
       <c r="D2067">
-        <v>95.5</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2068">
-        <v>99411</v>
+        <v>99352</v>
       </c>
       <c r="B2068" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C2068">
-        <v>134.5</v>
+        <v>116</v>
       </c>
       <c r="D2068">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2069" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2069">
-        <v>99412</v>
+        <v>99381</v>
       </c>
       <c r="B2069" t="s">
-        <v>2003</v>
+        <v>1374</v>
       </c>
       <c r="C2069">
-        <v>102.5</v>
+        <v>258</v>
       </c>
       <c r="D2069">
-        <v>97.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2070" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2070">
-        <v>99421</v>
+        <v>99391</v>
       </c>
       <c r="B2070" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C2070">
-        <v>168</v>
+        <v>106.4</v>
       </c>
       <c r="D2070">
-        <v>97</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="2071" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2071">
-        <v>99441</v>
+        <v>99411</v>
       </c>
       <c r="B2071" t="s">
-        <v>1904</v>
+        <v>1376</v>
       </c>
       <c r="C2071">
-        <v>148.69999999999999</v>
+        <v>134.5</v>
       </c>
       <c r="D2071">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2072" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2072">
-        <v>99442</v>
+        <v>99412</v>
       </c>
       <c r="B2072" t="s">
-        <v>1378</v>
+        <v>2003</v>
       </c>
       <c r="C2072">
-        <v>288</v>
+        <v>102.5</v>
       </c>
       <c r="D2072">
-        <v>99.75</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="2073" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2073">
-        <v>99461</v>
+        <v>99421</v>
       </c>
       <c r="B2073" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C2073">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D2073">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2074" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2074">
-        <v>99551</v>
+        <v>99441</v>
       </c>
       <c r="B2074" t="s">
-        <v>1380</v>
+        <v>1904</v>
       </c>
       <c r="C2074">
-        <v>602</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="D2074">
         <v>0</v>
@@ -36021,253 +36030,295 @@
     </row>
     <row r="2075" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2075">
-        <v>99552</v>
+        <v>99442</v>
       </c>
       <c r="B2075" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C2075">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="D2075">
-        <v>98</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="2076" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2076">
-        <v>99553</v>
+        <v>99461</v>
       </c>
       <c r="B2076" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C2076">
-        <v>118.5</v>
+        <v>229</v>
       </c>
       <c r="D2076">
-        <v>98.05</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2077" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2077">
-        <v>99581</v>
+        <v>99551</v>
       </c>
       <c r="B2077" t="s">
-        <v>1905</v>
+        <v>1380</v>
       </c>
       <c r="C2077">
-        <v>139.1</v>
+        <v>602</v>
       </c>
       <c r="D2077">
-        <v>104.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2078" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2078">
-        <v>99582</v>
+        <v>99552</v>
       </c>
       <c r="B2078" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C2078">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="D2078">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2079" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2079">
-        <v>99583</v>
+        <v>99553</v>
       </c>
       <c r="B2079" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C2079">
-        <v>198</v>
+        <v>118.5</v>
       </c>
       <c r="D2079">
-        <v>81.400000000000006</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="2080" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2080">
-        <v>99584</v>
+        <v>99581</v>
       </c>
       <c r="B2080" t="s">
-        <v>1385</v>
+        <v>1905</v>
       </c>
       <c r="C2080">
-        <v>196</v>
+        <v>139.1</v>
       </c>
       <c r="D2080">
-        <v>102</v>
+        <v>104.35</v>
       </c>
     </row>
     <row r="2081" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2081">
-        <v>99585</v>
+        <v>99582</v>
       </c>
       <c r="B2081" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C2081">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D2081">
-        <v>104.35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2082" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2082">
-        <v>99586</v>
+        <v>99583</v>
       </c>
       <c r="B2082" t="s">
-        <v>1510</v>
+        <v>1384</v>
       </c>
       <c r="C2082">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D2082">
-        <v>106</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="2083" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2083">
-        <v>140201</v>
+        <v>99584</v>
       </c>
       <c r="B2083" t="s">
-        <v>1511</v>
+        <v>1385</v>
       </c>
       <c r="C2083">
-        <v>111.75</v>
+        <v>196</v>
       </c>
       <c r="D2083">
-        <v>82.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2084" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2084">
-        <v>171501</v>
+        <v>99585</v>
       </c>
       <c r="B2084" t="s">
-        <v>1512</v>
+        <v>1386</v>
       </c>
       <c r="C2084">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D2084">
-        <v>102</v>
+        <v>104.35</v>
       </c>
     </row>
     <row r="2085" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2085">
-        <v>233201</v>
+        <v>99586</v>
       </c>
       <c r="B2085" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C2085">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D2085">
-        <v>96.8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2086" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2086">
-        <v>235201</v>
+        <v>140201</v>
       </c>
       <c r="B2086" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C2086">
-        <v>139.19999999999999</v>
+        <v>111.75</v>
       </c>
       <c r="D2086">
-        <v>95.65</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="2087" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2087">
-        <v>240601</v>
+        <v>171501</v>
       </c>
       <c r="B2087" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C2087">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="D2087">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2088" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2088">
-        <v>240602</v>
+        <v>233201</v>
       </c>
       <c r="B2088" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C2088">
-        <v>136.05000000000001</v>
+        <v>141</v>
       </c>
       <c r="D2088">
-        <v>102.05</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="2089" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2089">
-        <v>260301</v>
+        <v>235201</v>
       </c>
       <c r="B2089" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C2089">
-        <v>111.3</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="D2089">
-        <v>98.55</v>
+        <v>95.65</v>
       </c>
     </row>
     <row r="2090" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2090">
-        <v>288601</v>
+        <v>240601</v>
       </c>
       <c r="B2090" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C2090">
-        <v>102.15</v>
+        <v>270</v>
       </c>
       <c r="D2090">
-        <v>96.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2091" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2091">
-        <v>288602</v>
+        <v>240602</v>
       </c>
       <c r="B2091" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C2091">
-        <v>127</v>
+        <v>136.05000000000001</v>
       </c>
       <c r="D2091">
-        <v>98</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="2092" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2092">
+        <v>260301</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C2092">
+        <v>111.3</v>
+      </c>
+      <c r="D2092">
+        <v>98.55</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2093">
+        <v>288601</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C2093">
+        <v>102.15</v>
+      </c>
+      <c r="D2093">
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2094">
+        <v>288602</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C2094">
+        <v>127</v>
+      </c>
+      <c r="D2094">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2095">
         <v>288701</v>
       </c>
-      <c r="B2092" t="s">
+      <c r="B2095" t="s">
         <v>2013</v>
       </c>
-      <c r="C2092">
+      <c r="C2095">
         <v>112.1</v>
       </c>
-      <c r="D2092">
+      <c r="D2095">
         <v>98.5</v>
       </c>
     </row>
@@ -36769,7 +36820,7 @@
       </c>
       <c r="I16" s="7">
         <f>IFERROR(VLOOKUP(G16,資料庫!A:D,3,FALSE),"")</f>
-        <v>110.25</v>
+        <v>118.4</v>
       </c>
       <c r="J16" s="7">
         <f>IFERROR(VLOOKUP(G16,資料庫!A:D,4,FALSE),"")</f>
@@ -36777,7 +36828,7 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>8.9426877470355715E-2</v>
+        <v>0.16996047430830052</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8912F73-40C2-4B1E-9F49-8F308958CDCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C8971-15DE-41E9-A8C7-B4E67715C64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="2060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="2109">
   <si>
     <t>代號</t>
   </si>
@@ -6218,6 +6218,153 @@
   </si>
   <si>
     <t>弘帆三</t>
+  </si>
+  <si>
+    <t>欣巴巴二</t>
+  </si>
+  <si>
+    <t>力致四</t>
+  </si>
+  <si>
+    <t>晶宏三</t>
+  </si>
+  <si>
+    <t>麗豐二KY</t>
+  </si>
+  <si>
+    <t>迎廣一</t>
+  </si>
+  <si>
+    <t>一詮六</t>
+  </si>
+  <si>
+    <t>聯發國際一</t>
+  </si>
+  <si>
+    <t>穎威一</t>
+  </si>
+  <si>
+    <t>至上十</t>
+  </si>
+  <si>
+    <t>波力二KY</t>
+  </si>
+  <si>
+    <t>波力三KY</t>
+  </si>
+  <si>
+    <t>柏騰一</t>
+  </si>
+  <si>
+    <t>新日興三</t>
+  </si>
+  <si>
+    <t>正基一</t>
+  </si>
+  <si>
+    <t>建舜電五</t>
+  </si>
+  <si>
+    <t>辛耘一</t>
+  </si>
+  <si>
+    <t>辛耘二</t>
+  </si>
+  <si>
+    <t>廣運五</t>
+  </si>
+  <si>
+    <t>聚和六</t>
+  </si>
+  <si>
+    <t>jpp三KY</t>
+  </si>
+  <si>
+    <t>偉康一</t>
+  </si>
+  <si>
+    <t>和大四</t>
+  </si>
+  <si>
+    <t>龍德造船一</t>
+  </si>
+  <si>
+    <t>中砂一</t>
+  </si>
+  <si>
+    <t>美律四</t>
+  </si>
+  <si>
+    <t>美律五</t>
+  </si>
+  <si>
+    <t>弘億股一</t>
+  </si>
+  <si>
+    <t>迅杰三</t>
+  </si>
+  <si>
+    <t>中鼎二</t>
+  </si>
+  <si>
+    <t>劍麟三</t>
+  </si>
+  <si>
+    <t>汎銓一</t>
+  </si>
+  <si>
+    <t>東哥遊艇一</t>
+  </si>
+  <si>
+    <t>凌網一</t>
+  </si>
+  <si>
+    <t>聯合再生四</t>
+  </si>
+  <si>
+    <t>翔名四</t>
+  </si>
+  <si>
+    <t>正德七</t>
+  </si>
+  <si>
+    <t>大亞五</t>
+  </si>
+  <si>
+    <t>合世三</t>
+  </si>
+  <si>
+    <t>雙鴻五</t>
+  </si>
+  <si>
+    <t>台郡五</t>
+  </si>
+  <si>
+    <t>台郡六</t>
+  </si>
+  <si>
+    <t>皇普三</t>
+  </si>
+  <si>
+    <t>皇普四</t>
+  </si>
+  <si>
+    <t>佐登三KY</t>
+  </si>
+  <si>
+    <t>先進光一</t>
+  </si>
+  <si>
+    <t>遠東新E1</t>
+  </si>
+  <si>
+    <t>遠東新E2</t>
+  </si>
+  <si>
+    <t>華友聯三</t>
+  </si>
+  <si>
+    <t>宏致三</t>
   </si>
 </sst>
 </file>
@@ -6981,10 +7128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2095"/>
+  <dimension ref="A1:D2160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:D1048576"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7325,7 +7472,7 @@
         <v>115.5</v>
       </c>
       <c r="D24">
-        <v>101.7</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7406,7 +7553,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="D30">
         <v>106</v>
@@ -7420,7 +7567,7 @@
         <v>1389</v>
       </c>
       <c r="C31">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="D31">
         <v>111.1</v>
@@ -7938,7 +8085,7 @@
         <v>82</v>
       </c>
       <c r="C68">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>103.2</v>
@@ -8190,7 +8337,7 @@
         <v>98</v>
       </c>
       <c r="C86">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D86">
         <v>101</v>
@@ -8389,7 +8536,7 @@
         <v>131.1</v>
       </c>
       <c r="D100">
-        <v>97.05</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -8501,7 +8648,7 @@
         <v>109</v>
       </c>
       <c r="D108">
-        <v>102.8</v>
+        <v>102.65</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -9282,7 +9429,7 @@
         <v>154</v>
       </c>
       <c r="C164">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D164">
         <v>100.45</v>
@@ -9450,7 +9597,7 @@
         <v>1400</v>
       </c>
       <c r="C176">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D176">
         <v>95.6</v>
@@ -10024,7 +10171,7 @@
         <v>1916</v>
       </c>
       <c r="C217">
-        <v>116.8</v>
+        <v>117.2</v>
       </c>
       <c r="D217">
         <v>105.9</v>
@@ -10080,7 +10227,7 @@
         <v>1403</v>
       </c>
       <c r="C221">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D221">
         <v>104.5</v>
@@ -10514,7 +10661,7 @@
         <v>2021</v>
       </c>
       <c r="C252">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D252">
         <v>110.55</v>
@@ -12656,7 +12803,7 @@
         <v>2023</v>
       </c>
       <c r="C405">
-        <v>131.5</v>
+        <v>140.5</v>
       </c>
       <c r="D405">
         <v>113.1</v>
@@ -13216,7 +13363,7 @@
         <v>1610</v>
       </c>
       <c r="C445">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D445">
         <v>103</v>
@@ -14210,7 +14357,7 @@
         <v>385</v>
       </c>
       <c r="C516">
-        <v>134</v>
+        <v>139.9</v>
       </c>
       <c r="D516">
         <v>90.35</v>
@@ -14686,7 +14833,7 @@
         <v>1414</v>
       </c>
       <c r="C550">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D550">
         <v>98.15</v>
@@ -14728,7 +14875,7 @@
         <v>1933</v>
       </c>
       <c r="C553">
-        <v>123.8</v>
+        <v>129</v>
       </c>
       <c r="D553">
         <v>103</v>
@@ -14980,7 +15127,7 @@
         <v>420</v>
       </c>
       <c r="C571">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D571">
         <v>102</v>
@@ -15064,7 +15211,7 @@
         <v>1937</v>
       </c>
       <c r="C577">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D577">
         <v>114</v>
@@ -15624,7 +15771,7 @@
         <v>447</v>
       </c>
       <c r="C617">
-        <v>126</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="D617">
         <v>95.5</v>
@@ -16072,7 +16219,7 @@
         <v>1418</v>
       </c>
       <c r="C649">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D649">
         <v>106</v>
@@ -16506,7 +16653,7 @@
         <v>1419</v>
       </c>
       <c r="C680">
-        <v>121.85</v>
+        <v>123.9</v>
       </c>
       <c r="D680">
         <v>107</v>
@@ -16520,7 +16667,7 @@
         <v>1419</v>
       </c>
       <c r="C681">
-        <v>121.85</v>
+        <v>123.9</v>
       </c>
       <c r="D681">
         <v>107</v>
@@ -16688,10 +16835,10 @@
         <v>2056</v>
       </c>
       <c r="C693">
-        <v>0</v>
+        <v>122.9</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.35">
@@ -17108,7 +17255,7 @@
         <v>2026</v>
       </c>
       <c r="C723">
-        <v>148.1</v>
+        <v>152</v>
       </c>
       <c r="D723">
         <v>110</v>
@@ -17573,7 +17720,7 @@
         <v>111.55</v>
       </c>
       <c r="D756">
-        <v>100.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -17948,7 +18095,7 @@
         <v>2028</v>
       </c>
       <c r="C783">
-        <v>120</v>
+        <v>122.5</v>
       </c>
       <c r="D783">
         <v>110.55</v>
@@ -17962,7 +18109,7 @@
         <v>2028</v>
       </c>
       <c r="C784">
-        <v>120</v>
+        <v>122.5</v>
       </c>
       <c r="D784">
         <v>110.55</v>
@@ -18186,7 +18333,7 @@
         <v>1429</v>
       </c>
       <c r="C800">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="D800">
         <v>100.8</v>
@@ -18312,7 +18459,7 @@
         <v>583</v>
       </c>
       <c r="C809">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="D809">
         <v>100</v>
@@ -18410,7 +18557,7 @@
         <v>1940</v>
       </c>
       <c r="C816">
-        <v>126</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="D816">
         <v>105.95</v>
@@ -18578,7 +18725,7 @@
         <v>1745</v>
       </c>
       <c r="C828">
-        <v>118.8</v>
+        <v>121.95</v>
       </c>
       <c r="D828">
         <v>101.55</v>
@@ -18634,7 +18781,7 @@
         <v>1431</v>
       </c>
       <c r="C832">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D832">
         <v>105.1</v>
@@ -18861,7 +19008,7 @@
         <v>107</v>
       </c>
       <c r="D848">
-        <v>97.35</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.35">
@@ -18998,7 +19145,7 @@
         <v>1946</v>
       </c>
       <c r="C858">
-        <v>125.5</v>
+        <v>126</v>
       </c>
       <c r="D858">
         <v>105.5</v>
@@ -19250,7 +19397,7 @@
         <v>625</v>
       </c>
       <c r="C876">
-        <v>134</v>
+        <v>140.5</v>
       </c>
       <c r="D876">
         <v>99</v>
@@ -19264,7 +19411,7 @@
         <v>2030</v>
       </c>
       <c r="C877">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D877">
         <v>104</v>
@@ -19306,7 +19453,7 @@
         <v>1435</v>
       </c>
       <c r="C880">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D880">
         <v>110.2</v>
@@ -19939,7 +20086,7 @@
         <v>168</v>
       </c>
       <c r="D925">
-        <v>99.7</v>
+        <v>99.05</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.35">
@@ -20202,7 +20349,7 @@
         <v>1441</v>
       </c>
       <c r="C944">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D944">
         <v>114</v>
@@ -20356,7 +20503,7 @@
         <v>2032</v>
       </c>
       <c r="C955">
-        <v>133.75</v>
+        <v>135</v>
       </c>
       <c r="D955">
         <v>115</v>
@@ -20566,7 +20713,7 @@
         <v>9</v>
       </c>
       <c r="C970">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D970">
         <v>108</v>
@@ -20580,7 +20727,7 @@
         <v>10</v>
       </c>
       <c r="C971">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D971">
         <v>102.7</v>
@@ -20625,7 +20772,7 @@
         <v>126.5</v>
       </c>
       <c r="D974">
-        <v>101</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.35">
@@ -22540,7 +22687,7 @@
         <v>1956</v>
       </c>
       <c r="C1111">
-        <v>113.5</v>
+        <v>140.5</v>
       </c>
       <c r="D1111">
         <v>106</v>
@@ -22568,7 +22715,7 @@
         <v>17</v>
       </c>
       <c r="C1113">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D1113">
         <v>102.05</v>
@@ -23702,7 +23849,7 @@
         <v>2034</v>
       </c>
       <c r="C1194">
-        <v>127.8</v>
+        <v>153</v>
       </c>
       <c r="D1194">
         <v>114</v>
@@ -23954,7 +24101,7 @@
         <v>1460</v>
       </c>
       <c r="C1212">
-        <v>118.4</v>
+        <v>119.7</v>
       </c>
       <c r="D1212">
         <v>101.2</v>
@@ -24220,7 +24367,7 @@
         <v>881</v>
       </c>
       <c r="C1231">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="D1231">
         <v>102</v>
@@ -24304,7 +24451,7 @@
         <v>1961</v>
       </c>
       <c r="C1237">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D1237">
         <v>108</v>
@@ -24416,7 +24563,7 @@
         <v>2035</v>
       </c>
       <c r="C1245">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="D1245">
         <v>119</v>
@@ -24500,7 +24647,7 @@
         <v>893</v>
       </c>
       <c r="C1251">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D1251">
         <v>103.9</v>
@@ -24783,7 +24930,7 @@
         <v>107.2</v>
       </c>
       <c r="D1271">
-        <v>99.3</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.35">
@@ -26712,7 +26859,7 @@
         <v>1470</v>
       </c>
       <c r="C1409">
-        <v>119.5</v>
+        <v>128</v>
       </c>
       <c r="D1409">
         <v>103</v>
@@ -26894,7 +27041,7 @@
         <v>2037</v>
       </c>
       <c r="C1422">
-        <v>120.4</v>
+        <v>120.9</v>
       </c>
       <c r="D1422">
         <v>97.6</v>
@@ -27919,7 +28066,7 @@
         <v>117</v>
       </c>
       <c r="D1495">
-        <v>99.9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.35">
@@ -28703,7 +28850,7 @@
         <v>133</v>
       </c>
       <c r="D1551">
-        <v>106.1</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.35">
@@ -28882,7 +29029,7 @@
         <v>2042</v>
       </c>
       <c r="C1564">
-        <v>103.7</v>
+        <v>104.5</v>
       </c>
       <c r="D1564">
         <v>98</v>
@@ -29036,7 +29183,7 @@
         <v>1976</v>
       </c>
       <c r="C1575">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D1575">
         <v>109.65</v>
@@ -29120,7 +29267,7 @@
         <v>1473</v>
       </c>
       <c r="C1581">
-        <v>120.9</v>
+        <v>124.8</v>
       </c>
       <c r="D1581">
         <v>96.1</v>
@@ -29557,7 +29704,7 @@
         <v>129</v>
       </c>
       <c r="D1612">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.35">
@@ -30506,7 +30653,7 @@
         <v>1120</v>
       </c>
       <c r="C1680">
-        <v>139</v>
+        <v>147.05000000000001</v>
       </c>
       <c r="D1680">
         <v>102</v>
@@ -30786,10 +30933,10 @@
         <v>2057</v>
       </c>
       <c r="C1700">
-        <v>0</v>
+        <v>127.05</v>
       </c>
       <c r="D1700">
-        <v>0</v>
+        <v>116.6</v>
       </c>
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.35">
@@ -30870,7 +31017,7 @@
         <v>1145</v>
       </c>
       <c r="C1706">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D1706">
         <v>102.5</v>
@@ -30996,7 +31143,7 @@
         <v>1985</v>
       </c>
       <c r="C1715">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1715">
         <v>110.2</v>
@@ -31489,7 +31636,7 @@
         <v>136</v>
       </c>
       <c r="D1750">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.35">
@@ -31794,7 +31941,7 @@
         <v>1488</v>
       </c>
       <c r="C1772">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D1772">
         <v>108.2</v>
@@ -31948,7 +32095,7 @@
         <v>1203</v>
       </c>
       <c r="C1783">
-        <v>117</v>
+        <v>118.8</v>
       </c>
       <c r="D1783">
         <v>99</v>
@@ -32018,7 +32165,7 @@
         <v>1988</v>
       </c>
       <c r="C1788">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D1788">
         <v>112.5</v>
@@ -32032,7 +32179,7 @@
         <v>1989</v>
       </c>
       <c r="C1789">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D1789">
         <v>107</v>
@@ -32298,7 +32445,7 @@
         <v>1211</v>
       </c>
       <c r="C1808">
-        <v>202</v>
+        <v>320</v>
       </c>
       <c r="D1808">
         <v>102</v>
@@ -32368,7 +32515,7 @@
         <v>1860</v>
       </c>
       <c r="C1813">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D1813">
         <v>103.2</v>
@@ -32466,7 +32613,7 @@
         <v>1215</v>
       </c>
       <c r="C1820">
-        <v>126.8</v>
+        <v>137</v>
       </c>
       <c r="D1820">
         <v>99.95</v>
@@ -32525,7 +32672,7 @@
         <v>111</v>
       </c>
       <c r="D1824">
-        <v>96.35</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.35">
@@ -32550,7 +32697,7 @@
         <v>1493</v>
       </c>
       <c r="C1826">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1826">
         <v>100</v>
@@ -32564,10 +32711,10 @@
         <v>2045</v>
       </c>
       <c r="C1827">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D1827">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1828" spans="1:4" x14ac:dyDescent="0.35">
@@ -32732,7 +32879,7 @@
         <v>1225</v>
       </c>
       <c r="C1839">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D1839">
         <v>101</v>
@@ -33166,7 +33313,7 @@
         <v>1496</v>
       </c>
       <c r="C1870">
-        <v>132.44999999999999</v>
+        <v>163</v>
       </c>
       <c r="D1870">
         <v>105</v>
@@ -33992,7 +34139,7 @@
         <v>1291</v>
       </c>
       <c r="C1929">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D1929">
         <v>95.95</v>
@@ -34104,7 +34251,7 @@
         <v>2047</v>
       </c>
       <c r="C1937">
-        <v>126.5</v>
+        <v>135</v>
       </c>
       <c r="D1937">
         <v>114.5</v>
@@ -34188,7 +34335,7 @@
         <v>1499</v>
       </c>
       <c r="C1943">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1943">
         <v>106</v>
@@ -34398,7 +34545,7 @@
         <v>1887</v>
       </c>
       <c r="C1958">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D1958">
         <v>93.05</v>
@@ -34706,7 +34853,7 @@
         <v>1504</v>
       </c>
       <c r="C1980">
-        <v>145</v>
+        <v>147.85</v>
       </c>
       <c r="D1980">
         <v>104.1</v>
@@ -34720,10 +34867,10 @@
         <v>2058</v>
       </c>
       <c r="C1981">
-        <v>0</v>
+        <v>118.5</v>
       </c>
       <c r="D1981">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.35">
@@ -34734,10 +34881,10 @@
         <v>2059</v>
       </c>
       <c r="C1982">
-        <v>0</v>
+        <v>111.5</v>
       </c>
       <c r="D1982">
-        <v>0</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.35">
@@ -35728,7 +35875,7 @@
         <v>2002</v>
       </c>
       <c r="C2053">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="D2053">
         <v>114.3</v>
@@ -35812,7 +35959,7 @@
         <v>1509</v>
       </c>
       <c r="C2059">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D2059">
         <v>111.2</v>
@@ -35826,7 +35973,7 @@
         <v>1366</v>
       </c>
       <c r="C2060">
-        <v>108.65</v>
+        <v>108.75</v>
       </c>
       <c r="D2060">
         <v>95.2</v>
@@ -35997,7 +36144,7 @@
         <v>102.5</v>
       </c>
       <c r="D2072">
-        <v>97.4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2073" spans="1:4" x14ac:dyDescent="0.35">
@@ -36320,6 +36467,916 @@
       </c>
       <c r="D2095">
         <v>98.5</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2096">
+        <v>99062</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C2096">
+        <v>121</v>
+      </c>
+      <c r="D2096">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2097">
+        <v>34834</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C2097">
+        <v>150</v>
+      </c>
+      <c r="D2097">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2098">
+        <v>31413</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C2098">
+        <v>126.15</v>
+      </c>
+      <c r="D2098">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2099">
+        <v>66241</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C2099">
+        <v>0</v>
+      </c>
+      <c r="D2099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2100">
+        <v>23011</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C2100">
+        <v>0</v>
+      </c>
+      <c r="D2100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2101">
+        <v>27292</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C2101">
+        <v>0</v>
+      </c>
+      <c r="D2101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2102">
+        <v>45721</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C2102">
+        <v>0</v>
+      </c>
+      <c r="D2102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2103">
+        <v>61112</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C2103">
+        <v>0</v>
+      </c>
+      <c r="D2103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2104">
+        <v>41372</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C2104">
+        <v>0</v>
+      </c>
+      <c r="D2104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2105">
+        <v>68401</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C2105">
+        <v>111</v>
+      </c>
+      <c r="D2105">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2106">
+        <v>61171</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C2106">
+        <v>158</v>
+      </c>
+      <c r="D2106">
+        <v>122.45</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2107">
+        <v>84332</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C2107">
+        <v>118.5</v>
+      </c>
+      <c r="D2107">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2108">
+        <v>84333</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C2108">
+        <v>111.5</v>
+      </c>
+      <c r="D2108">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2109">
+        <v>24866</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C2109">
+        <v>0</v>
+      </c>
+      <c r="D2109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2110">
+        <v>27561</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C2110">
+        <v>118.3</v>
+      </c>
+      <c r="D2110">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2111">
+        <v>65151</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C2111">
+        <v>123.4</v>
+      </c>
+      <c r="D2111">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2112">
+        <v>811210</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C2112">
+        <v>119.1</v>
+      </c>
+      <c r="D2112">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2113">
+        <v>84672</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C2113">
+        <v>118</v>
+      </c>
+      <c r="D2113">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2114">
+        <v>84673</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C2114">
+        <v>104</v>
+      </c>
+      <c r="D2114">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2115">
+        <v>35181</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C2115">
+        <v>0</v>
+      </c>
+      <c r="D2115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2116">
+        <v>33763</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C2116">
+        <v>0</v>
+      </c>
+      <c r="D2116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2117">
+        <v>65461</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C2117">
+        <v>0</v>
+      </c>
+      <c r="D2117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2118">
+        <v>89277</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C2118">
+        <v>0</v>
+      </c>
+      <c r="D2118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2119">
+        <v>89278</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C2119">
+        <v>0</v>
+      </c>
+      <c r="D2119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2120">
+        <v>33225</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C2120">
+        <v>0</v>
+      </c>
+      <c r="D2120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2121">
+        <v>35831</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C2121">
+        <v>0</v>
+      </c>
+      <c r="D2121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2122">
+        <v>35832</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C2122">
+        <v>0</v>
+      </c>
+      <c r="D2122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2123">
+        <v>61255</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C2123">
+        <v>0</v>
+      </c>
+      <c r="D2123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2124">
+        <v>17361</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C2124">
+        <v>0</v>
+      </c>
+      <c r="D2124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2125">
+        <v>17814</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C2125">
+        <v>0</v>
+      </c>
+      <c r="D2125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2126">
+        <v>13101</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C2126">
+        <v>0</v>
+      </c>
+      <c r="D2126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2127">
+        <v>80382</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C2127">
+        <v>0</v>
+      </c>
+      <c r="D2127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2128">
+        <v>89412</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C2128">
+        <v>0</v>
+      </c>
+      <c r="D2128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2129">
+        <v>65096</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C2129">
+        <v>0</v>
+      </c>
+      <c r="D2129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2130">
+        <v>24651</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C2130">
+        <v>203</v>
+      </c>
+      <c r="D2130">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2131">
+        <v>52843</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C2131">
+        <v>0</v>
+      </c>
+      <c r="D2131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2132">
+        <v>68651</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C2132">
+        <v>0</v>
+      </c>
+      <c r="D2132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2133">
+        <v>15364</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C2133">
+        <v>0</v>
+      </c>
+      <c r="D2133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2134">
+        <v>67531</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C2134">
+        <v>0</v>
+      </c>
+      <c r="D2134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2135">
+        <v>15601</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C2135">
+        <v>0</v>
+      </c>
+      <c r="D2135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2136">
+        <v>24394</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C2136">
+        <v>0</v>
+      </c>
+      <c r="D2136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2137">
+        <v>24395</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C2137">
+        <v>0</v>
+      </c>
+      <c r="D2137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2138">
+        <v>33121</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C2138">
+        <v>0</v>
+      </c>
+      <c r="D2138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2139">
+        <v>62433</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C2139">
+        <v>0</v>
+      </c>
+      <c r="D2139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2140">
+        <v>99332</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C2140">
+        <v>0</v>
+      </c>
+      <c r="D2140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2141">
+        <v>22283</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C2141">
+        <v>0</v>
+      </c>
+      <c r="D2141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2142">
+        <v>68301</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C2142">
+        <v>0</v>
+      </c>
+      <c r="D2142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2143">
+        <v>84781</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C2143">
+        <v>0</v>
+      </c>
+      <c r="D2143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2144">
+        <v>52121</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C2144">
+        <v>0</v>
+      </c>
+      <c r="D2144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2145">
+        <v>35764</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C2145">
+        <v>0</v>
+      </c>
+      <c r="D2145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2146">
+        <v>80914</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C2146">
+        <v>0</v>
+      </c>
+      <c r="D2146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2147">
+        <v>26417</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C2147">
+        <v>0</v>
+      </c>
+      <c r="D2147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2148">
+        <v>16095</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C2148">
+        <v>0</v>
+      </c>
+      <c r="D2148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2149">
+        <v>17813</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C2149">
+        <v>0</v>
+      </c>
+      <c r="D2149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2150">
+        <v>33245</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C2150">
+        <v>0</v>
+      </c>
+      <c r="D2150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2151">
+        <v>62695</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C2151">
+        <v>0</v>
+      </c>
+      <c r="D2151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2152">
+        <v>62696</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C2152">
+        <v>0</v>
+      </c>
+      <c r="D2152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2153">
+        <v>25283</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C2153">
+        <v>0</v>
+      </c>
+      <c r="D2153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2154">
+        <v>25284</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C2154">
+        <v>0</v>
+      </c>
+      <c r="D2154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2155">
+        <v>41903</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C2155">
+        <v>0</v>
+      </c>
+      <c r="D2155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2156">
+        <v>33621</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C2156">
+        <v>0</v>
+      </c>
+      <c r="D2156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2157">
+        <v>140201</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C2157">
+        <v>111.75</v>
+      </c>
+      <c r="D2157">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2158">
+        <v>140202</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C2158">
+        <v>0</v>
+      </c>
+      <c r="D2158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2159">
+        <v>14363</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C2159">
+        <v>0</v>
+      </c>
+      <c r="D2159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2160">
+        <v>36053</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C2160">
+        <v>0</v>
+      </c>
+      <c r="D2160">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36820,7 +37877,7 @@
       </c>
       <c r="I16" s="7">
         <f>IFERROR(VLOOKUP(G16,資料庫!A:D,3,FALSE),"")</f>
-        <v>118.4</v>
+        <v>119.7</v>
       </c>
       <c r="J16" s="7">
         <f>IFERROR(VLOOKUP(G16,資料庫!A:D,4,FALSE),"")</f>
@@ -36828,7 +37885,7 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="1"/>
-        <v>0.16996047430830052</v>
+        <v>0.18280632411067188</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0873AC78-86DE-421F-83A5-0BB78125741B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6D127-5971-4B6D-A47B-C2FD3FE6BA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="2118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="2155">
   <si>
     <t>代號</t>
   </si>
@@ -6392,6 +6392,117 @@
   </si>
   <si>
     <t>萬潤五</t>
+  </si>
+  <si>
+    <t>昇達二</t>
+  </si>
+  <si>
+    <t>亞通四</t>
+  </si>
+  <si>
+    <t>川寶二</t>
+  </si>
+  <si>
+    <t>其陽二</t>
+  </si>
+  <si>
+    <t>弘凱一</t>
+  </si>
+  <si>
+    <t>合晶八</t>
+  </si>
+  <si>
+    <t>四維航七</t>
+  </si>
+  <si>
+    <t>神準一</t>
+  </si>
+  <si>
+    <t>台光電六</t>
+  </si>
+  <si>
+    <t>台光電七</t>
+  </si>
+  <si>
+    <t>佳必琪三</t>
+  </si>
+  <si>
+    <t>允強四</t>
+  </si>
+  <si>
+    <t>正凌三</t>
+  </si>
+  <si>
+    <t>華固三</t>
+  </si>
+  <si>
+    <t>華固四</t>
+  </si>
+  <si>
+    <t>永道一KY</t>
+  </si>
+  <si>
+    <t>慶豐富三</t>
+  </si>
+  <si>
+    <t>宏全二</t>
+  </si>
+  <si>
+    <t>福邦證一</t>
+  </si>
+  <si>
+    <t>三地開發一</t>
+  </si>
+  <si>
+    <t>世紀鋼七</t>
+  </si>
+  <si>
+    <t>世紀鋼八</t>
+  </si>
+  <si>
+    <t>虹冠電一</t>
+  </si>
+  <si>
+    <t>晟銘電四</t>
+  </si>
+  <si>
+    <t>惠特二</t>
+  </si>
+  <si>
+    <t>桓達一</t>
+  </si>
+  <si>
+    <t>亞帝歐一</t>
+  </si>
+  <si>
+    <t>泰茂五</t>
+  </si>
+  <si>
+    <t>三貝德一</t>
+  </si>
+  <si>
+    <t>艾笛森四</t>
+  </si>
+  <si>
+    <t>圓裕一</t>
+  </si>
+  <si>
+    <t>麗清六</t>
+  </si>
+  <si>
+    <t>倍力一</t>
+  </si>
+  <si>
+    <t>亞力二</t>
+  </si>
+  <si>
+    <t>鈺齊六KY</t>
+  </si>
+  <si>
+    <t>天宇四</t>
+  </si>
+  <si>
+    <t>天宇五</t>
   </si>
 </sst>
 </file>
@@ -7155,10 +7266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2162"/>
+  <dimension ref="A1:D2203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2087" workbookViewId="0">
-      <selection activeCell="A2095" sqref="A2094:XFD2095"/>
+    <sheetView tabSelected="1" topLeftCell="A2158" workbookViewId="0">
+      <selection activeCell="E2167" sqref="E2167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7499,7 +7610,7 @@
         <v>115.5</v>
       </c>
       <c r="D24">
-        <v>100.55</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -7580,7 +7691,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>636</v>
+        <v>530</v>
       </c>
       <c r="D30">
         <v>106</v>
@@ -7594,7 +7705,7 @@
         <v>1389</v>
       </c>
       <c r="C31">
-        <v>586</v>
+        <v>481</v>
       </c>
       <c r="D31">
         <v>111.1</v>
@@ -8364,7 +8475,7 @@
         <v>98</v>
       </c>
       <c r="C86">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D86">
         <v>101</v>
@@ -8462,7 +8573,7 @@
         <v>1392</v>
       </c>
       <c r="C93">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D93">
         <v>105.95</v>
@@ -8476,7 +8587,7 @@
         <v>1393</v>
       </c>
       <c r="C94">
-        <v>114.5</v>
+        <v>107</v>
       </c>
       <c r="D94">
         <v>97.2</v>
@@ -8521,7 +8632,7 @@
         <v>116</v>
       </c>
       <c r="D97">
-        <v>94</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -8535,7 +8646,7 @@
         <v>131.1</v>
       </c>
       <c r="D98">
-        <v>95.55</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -9274,7 +9385,7 @@
         <v>1399</v>
       </c>
       <c r="C151">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D151">
         <v>100</v>
@@ -10033,7 +10144,7 @@
         <v>180</v>
       </c>
       <c r="D205">
-        <v>110</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -10114,7 +10225,7 @@
         <v>192</v>
       </c>
       <c r="C211">
-        <v>135</v>
+        <v>136.9</v>
       </c>
       <c r="D211">
         <v>113.1</v>
@@ -10383,7 +10494,7 @@
         <v>118.45</v>
       </c>
       <c r="D230">
-        <v>103.7</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -10562,7 +10673,7 @@
         <v>1406</v>
       </c>
       <c r="C243">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D243">
         <v>104</v>
@@ -10607,7 +10718,7 @@
         <v>130</v>
       </c>
       <c r="D246">
-        <v>101.05</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -11993,7 +12104,7 @@
         <v>129.5</v>
       </c>
       <c r="D345">
-        <v>113.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -12511,7 +12622,7 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D382">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -14443,7 +14554,7 @@
         <v>127.5</v>
       </c>
       <c r="D520">
-        <v>107.55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
@@ -14790,7 +14901,7 @@
         <v>1414</v>
       </c>
       <c r="C545">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D545">
         <v>98.15</v>
@@ -16697,7 +16808,7 @@
         <v>116.6</v>
       </c>
       <c r="D681">
-        <v>101.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -16795,7 +16906,7 @@
         <v>144</v>
       </c>
       <c r="D688">
-        <v>110.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -16851,7 +16962,7 @@
         <v>121.5</v>
       </c>
       <c r="D692">
-        <v>102</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -17072,7 +17183,7 @@
         <v>510</v>
       </c>
       <c r="C708">
-        <v>133</v>
+        <v>137.35</v>
       </c>
       <c r="D708">
         <v>90</v>
@@ -18055,7 +18166,7 @@
         <v>132.9</v>
       </c>
       <c r="D778">
-        <v>110.55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
@@ -18069,7 +18180,7 @@
         <v>132.9</v>
       </c>
       <c r="D779">
-        <v>110.55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -19007,7 +19118,7 @@
         <v>123</v>
       </c>
       <c r="D846">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.35">
@@ -19021,7 +19132,7 @@
         <v>123</v>
       </c>
       <c r="D847">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.35">
@@ -19102,7 +19213,7 @@
         <v>1945</v>
       </c>
       <c r="C853">
-        <v>131.5</v>
+        <v>140.5</v>
       </c>
       <c r="D853">
         <v>105.5</v>
@@ -19270,7 +19381,7 @@
         <v>1681</v>
       </c>
       <c r="C865">
-        <v>135.05000000000001</v>
+        <v>159</v>
       </c>
       <c r="D865">
         <v>113.05</v>
@@ -19340,7 +19451,7 @@
         <v>624</v>
       </c>
       <c r="C870">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="D870">
         <v>103.9</v>
@@ -19525,7 +19636,7 @@
         <v>155</v>
       </c>
       <c r="D883">
-        <v>112.8</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.35">
@@ -20138,7 +20249,7 @@
         <v>666</v>
       </c>
       <c r="C927">
-        <v>107.9</v>
+        <v>117</v>
       </c>
       <c r="D927">
         <v>94.5</v>
@@ -20306,7 +20417,7 @@
         <v>1441</v>
       </c>
       <c r="C939">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="D939">
         <v>114</v>
@@ -20390,7 +20501,7 @@
         <v>1947</v>
       </c>
       <c r="C945">
-        <v>149.5</v>
+        <v>160</v>
       </c>
       <c r="D945">
         <v>110</v>
@@ -20460,7 +20571,7 @@
         <v>2031</v>
       </c>
       <c r="C950">
-        <v>140.44999999999999</v>
+        <v>150</v>
       </c>
       <c r="D950">
         <v>115</v>
@@ -20561,7 +20672,7 @@
         <v>128.9</v>
       </c>
       <c r="D957">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
@@ -20631,7 +20742,7 @@
         <v>129.4</v>
       </c>
       <c r="D962">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -22392,7 +22503,7 @@
         <v>13</v>
       </c>
       <c r="C1088">
-        <v>116</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="D1088">
         <v>100.7</v>
@@ -22406,7 +22517,7 @@
         <v>14</v>
       </c>
       <c r="C1089">
-        <v>120</v>
+        <v>142.9</v>
       </c>
       <c r="D1089">
         <v>100</v>
@@ -22602,7 +22713,7 @@
         <v>1954</v>
       </c>
       <c r="C1103">
-        <v>111.85</v>
+        <v>113</v>
       </c>
       <c r="D1103">
         <v>100.5</v>
@@ -22658,10 +22769,10 @@
         <v>2032</v>
       </c>
       <c r="C1107">
-        <v>118</v>
+        <v>118.4</v>
       </c>
       <c r="D1107">
-        <v>113.2</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.35">
@@ -23613,7 +23724,7 @@
         <v>127</v>
       </c>
       <c r="D1175">
-        <v>100.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.35">
@@ -23851,7 +23962,7 @@
         <v>120</v>
       </c>
       <c r="D1192">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.35">
@@ -24366,7 +24477,7 @@
         <v>1462</v>
       </c>
       <c r="C1229">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="D1229">
         <v>104.1</v>
@@ -24425,7 +24536,7 @@
         <v>122</v>
       </c>
       <c r="D1233">
-        <v>101</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
@@ -24492,7 +24603,7 @@
         <v>889</v>
       </c>
       <c r="C1238">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D1238">
         <v>100.25</v>
@@ -24506,7 +24617,7 @@
         <v>890</v>
       </c>
       <c r="C1239">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D1239">
         <v>99.9</v>
@@ -24688,7 +24799,7 @@
         <v>1961</v>
       </c>
       <c r="C1252">
-        <v>125.2</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="D1252">
         <v>107.6</v>
@@ -24772,7 +24883,7 @@
         <v>1463</v>
       </c>
       <c r="C1258">
-        <v>119.5</v>
+        <v>123.5</v>
       </c>
       <c r="D1258">
         <v>105</v>
@@ -24887,7 +24998,7 @@
         <v>107.2</v>
       </c>
       <c r="D1266">
-        <v>96.05</v>
+        <v>94.35</v>
       </c>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.35">
@@ -25853,7 +25964,7 @@
         <v>114.25</v>
       </c>
       <c r="D1335">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.35">
@@ -25867,7 +25978,7 @@
         <v>114.25</v>
       </c>
       <c r="D1336">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.35">
@@ -26928,7 +27039,7 @@
         <v>964</v>
       </c>
       <c r="C1412">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="D1412">
         <v>106.5</v>
@@ -27698,7 +27809,7 @@
         <v>996</v>
       </c>
       <c r="C1467">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D1467">
         <v>102.5</v>
@@ -28023,7 +28134,7 @@
         <v>117</v>
       </c>
       <c r="D1490">
-        <v>99</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.35">
@@ -28188,7 +28299,7 @@
         <v>1015</v>
       </c>
       <c r="C1502">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D1502">
         <v>95.5</v>
@@ -29084,7 +29195,7 @@
         <v>1052</v>
       </c>
       <c r="C1566">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D1566">
         <v>98</v>
@@ -29661,7 +29772,7 @@
         <v>129</v>
       </c>
       <c r="D1607">
-        <v>100</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="1608" spans="1:4" x14ac:dyDescent="0.35">
@@ -30893,7 +31004,7 @@
         <v>127.05</v>
       </c>
       <c r="D1695">
-        <v>115</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.35">
@@ -31859,7 +31970,7 @@
         <v>147</v>
       </c>
       <c r="D1764">
-        <v>101.2</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.35">
@@ -31985,7 +32096,7 @@
         <v>145</v>
       </c>
       <c r="D1773">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1774" spans="1:4" x14ac:dyDescent="0.35">
@@ -32248,7 +32359,7 @@
         <v>1208</v>
       </c>
       <c r="C1792">
-        <v>130</v>
+        <v>136.25</v>
       </c>
       <c r="D1792">
         <v>98.45</v>
@@ -32335,7 +32446,7 @@
         <v>121.6</v>
       </c>
       <c r="D1798">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.35">
@@ -32402,7 +32513,7 @@
         <v>1211</v>
       </c>
       <c r="C1803">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D1803">
         <v>102</v>
@@ -32570,7 +32681,7 @@
         <v>1215</v>
       </c>
       <c r="C1815">
-        <v>137</v>
+        <v>139.5</v>
       </c>
       <c r="D1815">
         <v>99.95</v>
@@ -32629,7 +32740,7 @@
         <v>111</v>
       </c>
       <c r="D1819">
-        <v>96.15</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
@@ -34841,7 +34952,7 @@
         <v>111.5</v>
       </c>
       <c r="D1977">
-        <v>107.5</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
@@ -35412,10 +35523,10 @@
         <v>2048</v>
       </c>
       <c r="C2018">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D2018">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.35">
@@ -35426,10 +35537,10 @@
         <v>2049</v>
       </c>
       <c r="C2019">
-        <v>0</v>
+        <v>133.1</v>
       </c>
       <c r="D2019">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
@@ -35916,7 +36027,7 @@
         <v>1509</v>
       </c>
       <c r="C2054">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="D2054">
         <v>111.2</v>
@@ -36101,7 +36212,7 @@
         <v>102.5</v>
       </c>
       <c r="D2067">
-        <v>96</v>
+        <v>95.95</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.35">
@@ -36420,7 +36531,7 @@
         <v>2059</v>
       </c>
       <c r="C2090">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D2090">
         <v>110</v>
@@ -36437,7 +36548,7 @@
         <v>154</v>
       </c>
       <c r="D2091">
-        <v>127.3</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="2092" spans="1:4" x14ac:dyDescent="0.35">
@@ -36451,7 +36562,7 @@
         <v>130</v>
       </c>
       <c r="D2092">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2093" spans="1:4" x14ac:dyDescent="0.35">
@@ -36465,29 +36576,29 @@
         <v>121.6</v>
       </c>
       <c r="D2093">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2094" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2094">
-        <v>45721</v>
+        <v>23011</v>
       </c>
       <c r="B2094" t="s">
-        <v>2032</v>
+        <v>2021</v>
       </c>
       <c r="C2094">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D2094">
-        <v>113.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2095" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2095">
-        <v>61112</v>
+        <v>27292</v>
       </c>
       <c r="B2095" t="s">
-        <v>2037</v>
+        <v>2023</v>
       </c>
       <c r="C2095">
         <v>0</v>
@@ -36498,318 +36609,318 @@
     </row>
     <row r="2096" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2096">
-        <v>41372</v>
+        <v>45721</v>
       </c>
       <c r="B2096" t="s">
-        <v>2062</v>
+        <v>2032</v>
       </c>
       <c r="C2096">
-        <v>0</v>
+        <v>118.4</v>
       </c>
       <c r="D2096">
-        <v>0</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="2097" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2097">
-        <v>68401</v>
+        <v>61112</v>
       </c>
       <c r="B2097" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="C2097">
-        <v>130.5</v>
+        <v>0</v>
       </c>
       <c r="D2097">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2098" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2098">
-        <v>61171</v>
+        <v>41372</v>
       </c>
       <c r="B2098" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C2098">
-        <v>174</v>
+        <v>104.5</v>
       </c>
       <c r="D2098">
-        <v>122.45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2099" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2099">
-        <v>84332</v>
+        <v>68401</v>
       </c>
       <c r="B2099" t="s">
-        <v>2057</v>
+        <v>2044</v>
       </c>
       <c r="C2099">
-        <v>118.5</v>
+        <v>130.5</v>
       </c>
       <c r="D2099">
-        <v>109.95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2100">
-        <v>84333</v>
+        <v>61171</v>
       </c>
       <c r="B2100" t="s">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="C2100">
-        <v>111.5</v>
+        <v>174</v>
       </c>
       <c r="D2100">
-        <v>107.5</v>
+        <v>106.05</v>
       </c>
     </row>
     <row r="2101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2101">
-        <v>24866</v>
+        <v>84332</v>
       </c>
       <c r="B2101" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="C2101">
-        <v>138</v>
+        <v>118.5</v>
       </c>
       <c r="D2101">
-        <v>111.1</v>
+        <v>109.95</v>
       </c>
     </row>
     <row r="2102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2102">
-        <v>27561</v>
+        <v>84333</v>
       </c>
       <c r="B2102" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="C2102">
-        <v>138</v>
+        <v>111.5</v>
       </c>
       <c r="D2102">
-        <v>114.05</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="2103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2103">
-        <v>65151</v>
+        <v>24866</v>
       </c>
       <c r="B2103" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="C2103">
         <v>138</v>
       </c>
       <c r="D2103">
-        <v>122</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="2104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2104">
-        <v>811210</v>
+        <v>27561</v>
       </c>
       <c r="B2104" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="C2104">
-        <v>124.1</v>
+        <v>138</v>
       </c>
       <c r="D2104">
-        <v>110.2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2105">
-        <v>84672</v>
+        <v>65151</v>
       </c>
       <c r="B2105" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="C2105">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D2105">
-        <v>116.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2106">
-        <v>84673</v>
+        <v>811210</v>
       </c>
       <c r="B2106" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="C2106">
-        <v>128</v>
+        <v>124.1</v>
       </c>
       <c r="D2106">
-        <v>101.95</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2107">
-        <v>35181</v>
+        <v>84672</v>
       </c>
       <c r="B2107" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C2107">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D2107">
-        <v>0</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="2108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2108">
-        <v>33763</v>
+        <v>84673</v>
       </c>
       <c r="B2108" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C2108">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D2108">
-        <v>0</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="2109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2109">
-        <v>65461</v>
+        <v>35181</v>
       </c>
       <c r="B2109" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C2109">
-        <v>132.5</v>
+        <v>129.5</v>
       </c>
       <c r="D2109">
-        <v>110.55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2110">
-        <v>89277</v>
+        <v>33763</v>
       </c>
       <c r="B2110" t="s">
-        <v>2048</v>
+        <v>2071</v>
       </c>
       <c r="C2110">
-        <v>0</v>
+        <v>134.1</v>
       </c>
       <c r="D2110">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2111">
-        <v>89278</v>
+        <v>65461</v>
       </c>
       <c r="B2111" t="s">
-        <v>2049</v>
+        <v>2072</v>
       </c>
       <c r="C2111">
-        <v>0</v>
+        <v>132.5</v>
       </c>
       <c r="D2111">
-        <v>0</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="2112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2112">
-        <v>33225</v>
+        <v>89277</v>
       </c>
       <c r="B2112" t="s">
-        <v>2073</v>
+        <v>2048</v>
       </c>
       <c r="C2112">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D2112">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2113">
-        <v>35831</v>
+        <v>89278</v>
       </c>
       <c r="B2113" t="s">
-        <v>2074</v>
+        <v>2049</v>
       </c>
       <c r="C2113">
-        <v>137.5</v>
+        <v>133.1</v>
       </c>
       <c r="D2113">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2114">
-        <v>35832</v>
+        <v>33225</v>
       </c>
       <c r="B2114" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C2114">
-        <v>141.5</v>
+        <v>0</v>
       </c>
       <c r="D2114">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2115">
-        <v>61255</v>
+        <v>35831</v>
       </c>
       <c r="B2115" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C2115">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D2115">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2116">
-        <v>17361</v>
+        <v>35832</v>
       </c>
       <c r="B2116" t="s">
-        <v>1912</v>
+        <v>2075</v>
       </c>
       <c r="C2116">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="D2116">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2117">
-        <v>17814</v>
+        <v>61255</v>
       </c>
       <c r="B2117" t="s">
-        <v>1913</v>
+        <v>2076</v>
       </c>
       <c r="C2117">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D2117">
-        <v>0</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="2118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2118">
-        <v>13101</v>
+        <v>17361</v>
       </c>
       <c r="B2118" t="s">
-        <v>2019</v>
+        <v>1912</v>
       </c>
       <c r="C2118">
         <v>0</v>
@@ -36820,10 +36931,10 @@
     </row>
     <row r="2119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2119">
-        <v>80382</v>
+        <v>13101</v>
       </c>
       <c r="B2119" t="s">
-        <v>2045</v>
+        <v>2019</v>
       </c>
       <c r="C2119">
         <v>0</v>
@@ -36834,10 +36945,10 @@
     </row>
     <row r="2120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2120">
-        <v>89412</v>
+        <v>80382</v>
       </c>
       <c r="B2120" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C2120">
         <v>0</v>
@@ -36848,38 +36959,38 @@
     </row>
     <row r="2121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2121">
-        <v>65096</v>
+        <v>89412</v>
       </c>
       <c r="B2121" t="s">
-        <v>2077</v>
+        <v>2050</v>
       </c>
       <c r="C2121">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D2121">
-        <v>115.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2122">
-        <v>24651</v>
+        <v>65096</v>
       </c>
       <c r="B2122" t="s">
-        <v>1594</v>
+        <v>2077</v>
       </c>
       <c r="C2122">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D2122">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2123">
-        <v>52843</v>
+        <v>24651</v>
       </c>
       <c r="B2123" t="s">
-        <v>2078</v>
+        <v>1594</v>
       </c>
       <c r="C2123">
         <v>0</v>
@@ -36890,10 +37001,10 @@
     </row>
     <row r="2124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2124">
-        <v>68651</v>
+        <v>52843</v>
       </c>
       <c r="B2124" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C2124">
         <v>0</v>
@@ -36904,10 +37015,10 @@
     </row>
     <row r="2125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2125">
-        <v>15364</v>
+        <v>68651</v>
       </c>
       <c r="B2125" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C2125">
         <v>0</v>
@@ -36918,164 +37029,164 @@
     </row>
     <row r="2126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2126">
-        <v>67531</v>
+        <v>15364</v>
       </c>
       <c r="B2126" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C2126">
-        <v>142.94999999999999</v>
+        <v>115</v>
       </c>
       <c r="D2126">
-        <v>111.1</v>
+        <v>109.65</v>
       </c>
     </row>
     <row r="2127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2127">
-        <v>15601</v>
+        <v>67531</v>
       </c>
       <c r="B2127" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C2127">
-        <v>133.05000000000001</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="D2127">
-        <v>120.1</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="2128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2128">
-        <v>24394</v>
+        <v>15601</v>
       </c>
       <c r="B2128" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C2128">
-        <v>117.65</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="D2128">
-        <v>110.55</v>
+        <v>115.7</v>
       </c>
     </row>
     <row r="2129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2129">
-        <v>24395</v>
+        <v>24394</v>
       </c>
       <c r="B2129" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C2129">
-        <v>117</v>
+        <v>117.65</v>
       </c>
       <c r="D2129">
-        <v>113.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2130">
-        <v>33121</v>
+        <v>24395</v>
       </c>
       <c r="B2130" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C2130">
-        <v>139</v>
+        <v>118.9</v>
       </c>
       <c r="D2130">
-        <v>110.55</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="2131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2131">
-        <v>62433</v>
+        <v>33121</v>
       </c>
       <c r="B2131" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C2131">
-        <v>112.9</v>
+        <v>139</v>
       </c>
       <c r="D2131">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2132">
-        <v>99332</v>
+        <v>62433</v>
       </c>
       <c r="B2132" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C2132">
-        <v>111.85</v>
+        <v>112.9</v>
       </c>
       <c r="D2132">
-        <v>106.5</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2133">
-        <v>22283</v>
+        <v>99332</v>
       </c>
       <c r="B2133" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C2133">
-        <v>0</v>
+        <v>113.2</v>
       </c>
       <c r="D2133">
-        <v>0</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2134">
-        <v>68301</v>
+        <v>22283</v>
       </c>
       <c r="B2134" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C2134">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="D2134">
-        <v>0</v>
+        <v>116.8</v>
       </c>
     </row>
     <row r="2135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2135">
-        <v>84781</v>
+        <v>68301</v>
       </c>
       <c r="B2135" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C2135">
-        <v>121.85</v>
+        <v>116.1</v>
       </c>
       <c r="D2135">
-        <v>115</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="2136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2136">
-        <v>52121</v>
+        <v>84781</v>
       </c>
       <c r="B2136" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C2136">
-        <v>0</v>
+        <v>121.85</v>
       </c>
       <c r="D2136">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2137">
-        <v>35764</v>
+        <v>52121</v>
       </c>
       <c r="B2137" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C2137">
         <v>0</v>
@@ -37086,10 +37197,10 @@
     </row>
     <row r="2138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2138">
-        <v>80914</v>
+        <v>35764</v>
       </c>
       <c r="B2138" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C2138">
         <v>0</v>
@@ -37100,38 +37211,38 @@
     </row>
     <row r="2139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2139">
-        <v>26417</v>
+        <v>80914</v>
       </c>
       <c r="B2139" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C2139">
-        <v>104.8</v>
+        <v>133.94999999999999</v>
       </c>
       <c r="D2139">
-        <v>103.1</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="2140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2140">
-        <v>16095</v>
+        <v>26417</v>
       </c>
       <c r="B2140" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C2140">
-        <v>0</v>
+        <v>106.1</v>
       </c>
       <c r="D2140">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2141">
-        <v>17813</v>
+        <v>16095</v>
       </c>
       <c r="B2141" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C2141">
         <v>0</v>
@@ -37142,66 +37253,66 @@
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2142">
-        <v>33245</v>
+        <v>17813</v>
       </c>
       <c r="B2142" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C2142">
-        <v>110.2</v>
+        <v>0</v>
       </c>
       <c r="D2142">
-        <v>110.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2143">
-        <v>62695</v>
+        <v>33245</v>
       </c>
       <c r="B2143" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C2143">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D2143">
-        <v>0</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="2144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2144">
-        <v>62696</v>
+        <v>62695</v>
       </c>
       <c r="B2144" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C2144">
-        <v>0</v>
+        <v>114.85</v>
       </c>
       <c r="D2144">
-        <v>0</v>
+        <v>106.95</v>
       </c>
     </row>
     <row r="2145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2145">
-        <v>25283</v>
+        <v>62696</v>
       </c>
       <c r="B2145" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C2145">
-        <v>0</v>
+        <v>111.75</v>
       </c>
       <c r="D2145">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2146">
-        <v>25284</v>
+        <v>25283</v>
       </c>
       <c r="B2146" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C2146">
         <v>0</v>
@@ -37212,108 +37323,108 @@
     </row>
     <row r="2147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2147">
-        <v>41903</v>
+        <v>25284</v>
       </c>
       <c r="B2147" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C2147">
-        <v>102.35</v>
+        <v>0</v>
       </c>
       <c r="D2147">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2148">
-        <v>33621</v>
+        <v>41903</v>
       </c>
       <c r="B2148" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C2148">
-        <v>127</v>
+        <v>102.35</v>
       </c>
       <c r="D2148">
-        <v>120.1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2149">
-        <v>140201</v>
+        <v>33621</v>
       </c>
       <c r="B2149" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C2149">
-        <v>0</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D2149">
-        <v>0</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="2150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2150">
-        <v>140202</v>
+        <v>140201</v>
       </c>
       <c r="B2150" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C2150">
-        <v>0</v>
+        <v>110.65</v>
       </c>
       <c r="D2150">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2151">
-        <v>14363</v>
+        <v>140202</v>
       </c>
       <c r="B2151" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C2151">
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="D2151">
-        <v>0</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="2152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2152">
-        <v>36053</v>
+        <v>14363</v>
       </c>
       <c r="B2152" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C2152">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D2152">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2153">
-        <v>45421</v>
+        <v>36053</v>
       </c>
       <c r="B2153" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="C2153">
-        <v>0</v>
+        <v>116.6</v>
       </c>
       <c r="D2153">
-        <v>0</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="2154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2154">
-        <v>36913</v>
+        <v>45421</v>
       </c>
       <c r="B2154" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C2154">
         <v>0</v>
@@ -37324,80 +37435,80 @@
     </row>
     <row r="2155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2155">
-        <v>64251</v>
+        <v>36913</v>
       </c>
       <c r="B2155" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C2155">
-        <v>0</v>
+        <v>109.2</v>
       </c>
       <c r="D2155">
-        <v>0</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2156">
-        <v>61875</v>
+        <v>64251</v>
       </c>
       <c r="B2156" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="C2156">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D2156">
-        <v>125.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2157">
-        <v>30165</v>
+        <v>61875</v>
       </c>
       <c r="B2157" t="s">
-        <v>2111</v>
+        <v>2117</v>
       </c>
       <c r="C2157">
-        <v>108.45</v>
+        <v>142</v>
       </c>
       <c r="D2157">
-        <v>103.9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2158">
-        <v>64324</v>
+        <v>30165</v>
       </c>
       <c r="B2158" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C2158">
-        <v>0</v>
+        <v>109.25</v>
       </c>
       <c r="D2158">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2159">
-        <v>66292</v>
+        <v>64324</v>
       </c>
       <c r="B2159" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C2159">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D2159">
-        <v>0</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2160">
-        <v>65841</v>
+        <v>66292</v>
       </c>
       <c r="B2160" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C2160">
         <v>0</v>
@@ -37408,10 +37519,10 @@
     </row>
     <row r="2161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2161">
-        <v>65842</v>
+        <v>65841</v>
       </c>
       <c r="B2161" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C2161">
         <v>0</v>
@@ -37422,15 +37533,589 @@
     </row>
     <row r="2162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2162">
+        <v>65842</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C2162">
+        <v>0</v>
+      </c>
+      <c r="D2162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2163">
         <v>66801</v>
       </c>
-      <c r="B2162" t="s">
+      <c r="B2163" t="s">
         <v>2116</v>
       </c>
-      <c r="C2162">
-        <v>0</v>
-      </c>
-      <c r="D2162">
+      <c r="C2163">
+        <v>0</v>
+      </c>
+      <c r="D2163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2164">
+        <v>34912</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C2164">
+        <v>129.5</v>
+      </c>
+      <c r="D2164">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2165">
+        <v>61794</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C2165">
+        <v>112</v>
+      </c>
+      <c r="D2165">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2166">
+        <v>22283</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C2166">
+        <v>120.3</v>
+      </c>
+      <c r="D2166">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2167">
+        <v>15952</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C2167">
+        <v>0</v>
+      </c>
+      <c r="D2167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2168">
+        <v>35642</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C2168">
+        <v>0</v>
+      </c>
+      <c r="D2168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2169">
+        <v>52441</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C2169">
+        <v>0</v>
+      </c>
+      <c r="D2169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2170">
+        <v>61828</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C2170">
+        <v>0</v>
+      </c>
+      <c r="D2170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2171">
+        <v>56087</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C2171">
+        <v>0</v>
+      </c>
+      <c r="D2171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2172">
+        <v>35581</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C2172">
+        <v>0</v>
+      </c>
+      <c r="D2172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2173">
+        <v>23836</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C2173">
+        <v>0</v>
+      </c>
+      <c r="D2173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2174">
+        <v>23837</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C2174">
+        <v>0</v>
+      </c>
+      <c r="D2174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2175">
+        <v>61973</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C2175">
+        <v>0</v>
+      </c>
+      <c r="D2175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2176">
+        <v>20344</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C2176">
+        <v>0</v>
+      </c>
+      <c r="D2176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2177">
+        <v>81473</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C2177">
+        <v>0</v>
+      </c>
+      <c r="D2177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2178">
+        <v>25483</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C2178">
+        <v>0</v>
+      </c>
+      <c r="D2178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2179">
+        <v>25484</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C2179">
+        <v>0</v>
+      </c>
+      <c r="D2179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2180">
+        <v>68631</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C2180">
+        <v>0</v>
+      </c>
+      <c r="D2180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2181">
+        <v>99353</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C2181">
+        <v>0</v>
+      </c>
+      <c r="D2181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2182">
+        <v>99392</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C2182">
+        <v>0</v>
+      </c>
+      <c r="D2182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2183">
+        <v>62061</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C2183">
+        <v>121</v>
+      </c>
+      <c r="D2183">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2184">
+        <v>14381</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C2184">
+        <v>0</v>
+      </c>
+      <c r="D2184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2185">
+        <v>99587</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C2185">
+        <v>0</v>
+      </c>
+      <c r="D2185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2186">
+        <v>99588</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C2186">
+        <v>0</v>
+      </c>
+      <c r="D2186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2187">
+        <v>32571</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C2187">
+        <v>0</v>
+      </c>
+      <c r="D2187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2188">
+        <v>30134</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C2188">
+        <v>0</v>
+      </c>
+      <c r="D2188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2189">
+        <v>67062</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C2189">
+        <v>0</v>
+      </c>
+      <c r="D2189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2190">
+        <v>45491</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C2190">
+        <v>0</v>
+      </c>
+      <c r="D2190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2191">
+        <v>52121</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C2191">
+        <v>0</v>
+      </c>
+      <c r="D2191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2192">
+        <v>35161</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C2192">
+        <v>0</v>
+      </c>
+      <c r="D2192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2193">
+        <v>22305</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C2193">
+        <v>0</v>
+      </c>
+      <c r="D2193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2194">
+        <v>84891</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C2194">
+        <v>0</v>
+      </c>
+      <c r="D2194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2195">
+        <v>35914</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C2195">
+        <v>0</v>
+      </c>
+      <c r="D2195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2196">
+        <v>68351</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C2196">
+        <v>0</v>
+      </c>
+      <c r="D2196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2197">
+        <v>35161</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C2197">
+        <v>0</v>
+      </c>
+      <c r="D2197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2198">
+        <v>33466</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C2198">
+        <v>0</v>
+      </c>
+      <c r="D2198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2199">
+        <v>68741</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C2199">
+        <v>0</v>
+      </c>
+      <c r="D2199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2200">
+        <v>15412</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C2200">
+        <v>0</v>
+      </c>
+      <c r="D2200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2201">
+        <v>98026</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C2201">
+        <v>0</v>
+      </c>
+      <c r="D2201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2202">
+        <v>81714</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2202">
+        <v>0</v>
+      </c>
+      <c r="D2202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2203">
+        <v>81715</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C2203">
+        <v>0</v>
+      </c>
+      <c r="D2203">
         <v>0</v>
       </c>
     </row>
@@ -37451,7 +38136,7 @@
   <dimension ref="B1:K66"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6D127-5971-4B6D-A47B-C2FD3FE6BA2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7BB547-709B-480A-8A02-D78007A25FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="2156">
   <si>
     <t>代號</t>
   </si>
@@ -6503,6 +6503,9 @@
   </si>
   <si>
     <t>天宇五</t>
+  </si>
+  <si>
+    <t>盟立二</t>
   </si>
 </sst>
 </file>
@@ -7266,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2203"/>
+  <dimension ref="A1:D2204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2158" workbookViewId="0">
-      <selection activeCell="E2167" sqref="E2167"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7691,7 +7694,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>530</v>
+        <v>695</v>
       </c>
       <c r="D30">
         <v>106</v>
@@ -7705,7 +7708,7 @@
         <v>1389</v>
       </c>
       <c r="C31">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="D31">
         <v>111.1</v>
@@ -8475,7 +8478,7 @@
         <v>98</v>
       </c>
       <c r="C86">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D86">
         <v>101</v>
@@ -8573,7 +8576,7 @@
         <v>1392</v>
       </c>
       <c r="C93">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D93">
         <v>105.95</v>
@@ -8587,7 +8590,7 @@
         <v>1393</v>
       </c>
       <c r="C94">
-        <v>107</v>
+        <v>114.5</v>
       </c>
       <c r="D94">
         <v>97.2</v>
@@ -8646,7 +8649,7 @@
         <v>131.1</v>
       </c>
       <c r="D98">
-        <v>92.75</v>
+        <v>92.45</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -9514,7 +9517,7 @@
         <v>117</v>
       </c>
       <c r="D160">
-        <v>100.45</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -10144,7 +10147,7 @@
         <v>180</v>
       </c>
       <c r="D205">
-        <v>109.05</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -10256,7 +10259,7 @@
         <v>117.2</v>
       </c>
       <c r="D213">
-        <v>105.9</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -10410,7 +10413,7 @@
         <v>106.4</v>
       </c>
       <c r="D224">
-        <v>101.55</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -10494,7 +10497,7 @@
         <v>118.45</v>
       </c>
       <c r="D230">
-        <v>101.7</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -10648,7 +10651,7 @@
         <v>134.30000000000001</v>
       </c>
       <c r="D241">
-        <v>107</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -10673,7 +10676,7 @@
         <v>1406</v>
       </c>
       <c r="C243">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D243">
         <v>104</v>
@@ -10718,7 +10721,7 @@
         <v>130</v>
       </c>
       <c r="D246">
-        <v>100.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -13263,7 +13266,7 @@
         <v>322</v>
       </c>
       <c r="C428">
-        <v>124</v>
+        <v>126.55</v>
       </c>
       <c r="D428">
         <v>103</v>
@@ -14901,7 +14904,7 @@
         <v>1414</v>
       </c>
       <c r="C545">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D545">
         <v>98.15</v>
@@ -15156,7 +15159,7 @@
         <v>139.9</v>
       </c>
       <c r="D563">
-        <v>114.65</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
@@ -16892,7 +16895,7 @@
         <v>138</v>
       </c>
       <c r="D687">
-        <v>100</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -16962,7 +16965,7 @@
         <v>121.5</v>
       </c>
       <c r="D692">
-        <v>101.6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -17183,7 +17186,7 @@
         <v>510</v>
       </c>
       <c r="C708">
-        <v>137.35</v>
+        <v>207</v>
       </c>
       <c r="D708">
         <v>90</v>
@@ -17788,7 +17791,7 @@
         <v>111.55</v>
       </c>
       <c r="D751">
-        <v>98.5</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -17939,7 +17942,7 @@
         <v>1424</v>
       </c>
       <c r="C762">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D762">
         <v>100.6</v>
@@ -19213,7 +19216,7 @@
         <v>1945</v>
       </c>
       <c r="C853">
-        <v>140.5</v>
+        <v>144.9</v>
       </c>
       <c r="D853">
         <v>105.5</v>
@@ -19451,7 +19454,7 @@
         <v>624</v>
       </c>
       <c r="C870">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="D870">
         <v>103.9</v>
@@ -19465,7 +19468,7 @@
         <v>625</v>
       </c>
       <c r="C871">
-        <v>143.5</v>
+        <v>152</v>
       </c>
       <c r="D871">
         <v>99</v>
@@ -19776,7 +19779,7 @@
         <v>125.9</v>
       </c>
       <c r="D893">
-        <v>99.5</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.35">
@@ -19790,7 +19793,7 @@
         <v>125.9</v>
       </c>
       <c r="D894">
-        <v>99.5</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.35">
@@ -20025,7 +20028,7 @@
         <v>654</v>
       </c>
       <c r="C911">
-        <v>125</v>
+        <v>130.55000000000001</v>
       </c>
       <c r="D911">
         <v>95</v>
@@ -20109,7 +20112,7 @@
         <v>1438</v>
       </c>
       <c r="C917">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D917">
         <v>111</v>
@@ -20501,7 +20504,7 @@
         <v>1947</v>
       </c>
       <c r="C945">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D945">
         <v>110</v>
@@ -20571,7 +20574,7 @@
         <v>2031</v>
       </c>
       <c r="C950">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D950">
         <v>115</v>
@@ -20672,7 +20675,7 @@
         <v>128.9</v>
       </c>
       <c r="D957">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
@@ -20742,7 +20745,7 @@
         <v>129.4</v>
       </c>
       <c r="D962">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -22251,7 +22254,7 @@
         <v>1450</v>
       </c>
       <c r="C1070">
-        <v>142.6</v>
+        <v>144.6</v>
       </c>
       <c r="D1070">
         <v>99.05</v>
@@ -22769,7 +22772,7 @@
         <v>2032</v>
       </c>
       <c r="C1107">
-        <v>118.4</v>
+        <v>120</v>
       </c>
       <c r="D1107">
         <v>112.2</v>
@@ -23178,7 +23181,7 @@
         <v>172</v>
       </c>
       <c r="D1136">
-        <v>107</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.35">
@@ -23959,7 +23962,7 @@
         <v>1958</v>
       </c>
       <c r="C1192">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D1192">
         <v>104</v>
@@ -24323,7 +24326,7 @@
         <v>1713</v>
       </c>
       <c r="C1218">
-        <v>128</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D1218">
         <v>108.95</v>
@@ -24799,7 +24802,7 @@
         <v>1961</v>
       </c>
       <c r="C1252">
-        <v>128.80000000000001</v>
+        <v>129</v>
       </c>
       <c r="D1252">
         <v>107.6</v>
@@ -25964,7 +25967,7 @@
         <v>114.25</v>
       </c>
       <c r="D1335">
-        <v>98</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.35">
@@ -25978,7 +25981,7 @@
         <v>114.25</v>
       </c>
       <c r="D1336">
-        <v>98</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.35">
@@ -27151,7 +27154,7 @@
         <v>967</v>
       </c>
       <c r="C1420">
-        <v>122.45</v>
+        <v>134</v>
       </c>
       <c r="D1420">
         <v>97</v>
@@ -27291,10 +27294,10 @@
         <v>2037</v>
       </c>
       <c r="C1430">
-        <v>0</v>
+        <v>110.95</v>
       </c>
       <c r="D1430">
-        <v>0</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.35">
@@ -27809,7 +27812,7 @@
         <v>996</v>
       </c>
       <c r="C1467">
-        <v>138</v>
+        <v>144.15</v>
       </c>
       <c r="D1467">
         <v>102.5</v>
@@ -29195,7 +29198,7 @@
         <v>1052</v>
       </c>
       <c r="C1566">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="D1566">
         <v>98</v>
@@ -30987,7 +30990,7 @@
         <v>1139</v>
       </c>
       <c r="C1694">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1694">
         <v>98.05</v>
@@ -31001,7 +31004,7 @@
         <v>2056</v>
       </c>
       <c r="C1695">
-        <v>127.05</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D1695">
         <v>114.6</v>
@@ -31113,7 +31116,7 @@
         <v>1480</v>
       </c>
       <c r="C1703">
-        <v>127.5</v>
+        <v>143</v>
       </c>
       <c r="D1703">
         <v>111.8</v>
@@ -31729,7 +31732,7 @@
         <v>1483</v>
       </c>
       <c r="C1747">
-        <v>138</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="D1747">
         <v>110.55</v>
@@ -32513,7 +32516,7 @@
         <v>1211</v>
       </c>
       <c r="C1803">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D1803">
         <v>102</v>
@@ -32583,7 +32586,7 @@
         <v>1859</v>
       </c>
       <c r="C1808">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D1808">
         <v>103.2</v>
@@ -32681,7 +32684,7 @@
         <v>1215</v>
       </c>
       <c r="C1815">
-        <v>139.5</v>
+        <v>140</v>
       </c>
       <c r="D1815">
         <v>99.95</v>
@@ -32740,7 +32743,7 @@
         <v>111</v>
       </c>
       <c r="D1819">
-        <v>94.75</v>
+        <v>93.95</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
@@ -32807,7 +32810,7 @@
         <v>1993</v>
       </c>
       <c r="C1824">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D1824">
         <v>104.1</v>
@@ -34613,7 +34616,7 @@
         <v>1886</v>
       </c>
       <c r="C1953">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D1953">
         <v>93.05</v>
@@ -34938,7 +34941,7 @@
         <v>118.5</v>
       </c>
       <c r="D1976">
-        <v>109.95</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.35">
@@ -34952,7 +34955,7 @@
         <v>111.5</v>
       </c>
       <c r="D1977">
-        <v>106.2</v>
+        <v>105.55</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
@@ -35117,7 +35120,7 @@
         <v>2010</v>
       </c>
       <c r="C1989">
-        <v>123.9</v>
+        <v>132</v>
       </c>
       <c r="D1989">
         <v>93</v>
@@ -35540,7 +35543,7 @@
         <v>133.1</v>
       </c>
       <c r="D2019">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
@@ -36615,7 +36618,7 @@
         <v>2032</v>
       </c>
       <c r="C2096">
-        <v>118.4</v>
+        <v>120</v>
       </c>
       <c r="D2096">
         <v>112.2</v>
@@ -36629,10 +36632,10 @@
         <v>2037</v>
       </c>
       <c r="C2097">
-        <v>0</v>
+        <v>110.95</v>
       </c>
       <c r="D2097">
-        <v>0</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2098" spans="1:4" x14ac:dyDescent="0.35">
@@ -36643,10 +36646,10 @@
         <v>2062</v>
       </c>
       <c r="C2098">
-        <v>104.5</v>
+        <v>106.5</v>
       </c>
       <c r="D2098">
-        <v>102</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="2099" spans="1:4" x14ac:dyDescent="0.35">
@@ -36688,7 +36691,7 @@
         <v>118.5</v>
       </c>
       <c r="D2101">
-        <v>109.95</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="2102" spans="1:4" x14ac:dyDescent="0.35">
@@ -36702,7 +36705,7 @@
         <v>111.5</v>
       </c>
       <c r="D2102">
-        <v>106.2</v>
+        <v>105.55</v>
       </c>
     </row>
     <row r="2103" spans="1:4" x14ac:dyDescent="0.35">
@@ -36741,7 +36744,7 @@
         <v>2066</v>
       </c>
       <c r="C2105">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D2105">
         <v>118</v>
@@ -36758,7 +36761,7 @@
         <v>124.1</v>
       </c>
       <c r="D2106">
-        <v>110.2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
@@ -36769,7 +36772,7 @@
         <v>2068</v>
       </c>
       <c r="C2107">
-        <v>146</v>
+        <v>148.5</v>
       </c>
       <c r="D2107">
         <v>116.5</v>
@@ -36800,7 +36803,7 @@
         <v>129.5</v>
       </c>
       <c r="D2109">
-        <v>120</v>
+        <v>112.05</v>
       </c>
     </row>
     <row r="2110" spans="1:4" x14ac:dyDescent="0.35">
@@ -36814,7 +36817,7 @@
         <v>134.1</v>
       </c>
       <c r="D2110">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2111" spans="1:4" x14ac:dyDescent="0.35">
@@ -36825,7 +36828,7 @@
         <v>2072</v>
       </c>
       <c r="C2111">
-        <v>132.5</v>
+        <v>155</v>
       </c>
       <c r="D2111">
         <v>110.55</v>
@@ -36856,7 +36859,7 @@
         <v>133.1</v>
       </c>
       <c r="D2113">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2114" spans="1:4" x14ac:dyDescent="0.35">
@@ -36867,10 +36870,10 @@
         <v>2073</v>
       </c>
       <c r="C2114">
-        <v>0</v>
+        <v>111.25</v>
       </c>
       <c r="D2114">
-        <v>0</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="2115" spans="1:4" x14ac:dyDescent="0.35">
@@ -36982,7 +36985,7 @@
         <v>121</v>
       </c>
       <c r="D2122">
-        <v>112</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="2123" spans="1:4" x14ac:dyDescent="0.35">
@@ -37035,7 +37038,7 @@
         <v>2080</v>
       </c>
       <c r="C2126">
-        <v>115</v>
+        <v>115.5</v>
       </c>
       <c r="D2126">
         <v>109.65</v>
@@ -37091,7 +37094,7 @@
         <v>2084</v>
       </c>
       <c r="C2130">
-        <v>118.9</v>
+        <v>119.65</v>
       </c>
       <c r="D2130">
         <v>110.5</v>
@@ -37122,7 +37125,7 @@
         <v>112.9</v>
       </c>
       <c r="D2132">
-        <v>101.05</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2133" spans="1:4" x14ac:dyDescent="0.35">
@@ -37133,7 +37136,7 @@
         <v>2087</v>
       </c>
       <c r="C2133">
-        <v>113.2</v>
+        <v>114.5</v>
       </c>
       <c r="D2133">
         <v>106.3</v>
@@ -37147,7 +37150,7 @@
         <v>2088</v>
       </c>
       <c r="C2134">
-        <v>120.3</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="D2134">
         <v>116.8</v>
@@ -37161,7 +37164,7 @@
         <v>2089</v>
       </c>
       <c r="C2135">
-        <v>116.1</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D2135">
         <v>110.2</v>
@@ -37178,7 +37181,7 @@
         <v>121.85</v>
       </c>
       <c r="D2136">
-        <v>110</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
@@ -37231,7 +37234,7 @@
         <v>2094</v>
       </c>
       <c r="C2140">
-        <v>106.1</v>
+        <v>107.25</v>
       </c>
       <c r="D2140">
         <v>103</v>
@@ -37245,10 +37248,10 @@
         <v>2095</v>
       </c>
       <c r="C2141">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D2141">
-        <v>0</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
@@ -37259,10 +37262,10 @@
         <v>2096</v>
       </c>
       <c r="C2142">
-        <v>0</v>
+        <v>113.1</v>
       </c>
       <c r="D2142">
-        <v>0</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
@@ -37273,7 +37276,7 @@
         <v>2097</v>
       </c>
       <c r="C2143">
-        <v>127</v>
+        <v>130.5</v>
       </c>
       <c r="D2143">
         <v>110.2</v>
@@ -37357,7 +37360,7 @@
         <v>2103</v>
       </c>
       <c r="C2149">
-        <v>128.19999999999999</v>
+        <v>129.9</v>
       </c>
       <c r="D2149">
         <v>113.5</v>
@@ -37371,7 +37374,7 @@
         <v>2104</v>
       </c>
       <c r="C2150">
-        <v>110.65</v>
+        <v>113.5</v>
       </c>
       <c r="D2150">
         <v>101</v>
@@ -37388,7 +37391,7 @@
         <v>104.4</v>
       </c>
       <c r="D2151">
-        <v>100.1</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="2152" spans="1:4" x14ac:dyDescent="0.35">
@@ -37399,10 +37402,10 @@
         <v>2106</v>
       </c>
       <c r="C2152">
-        <v>124</v>
+        <v>124.25</v>
       </c>
       <c r="D2152">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
@@ -37413,7 +37416,7 @@
         <v>2107</v>
       </c>
       <c r="C2153">
-        <v>116.6</v>
+        <v>127</v>
       </c>
       <c r="D2153">
         <v>101.8</v>
@@ -37427,10 +37430,10 @@
         <v>2108</v>
       </c>
       <c r="C2154">
-        <v>0</v>
+        <v>129.75</v>
       </c>
       <c r="D2154">
-        <v>0</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2155" spans="1:4" x14ac:dyDescent="0.35">
@@ -37441,102 +37444,102 @@
         <v>2109</v>
       </c>
       <c r="C2155">
-        <v>109.2</v>
+        <v>111</v>
       </c>
       <c r="D2155">
-        <v>107.7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2156">
-        <v>64251</v>
+        <v>24642</v>
       </c>
       <c r="B2156" t="s">
-        <v>2110</v>
+        <v>2155</v>
       </c>
       <c r="C2156">
-        <v>0</v>
+        <v>124.1</v>
       </c>
       <c r="D2156">
-        <v>0</v>
+        <v>114.15</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2157">
-        <v>61875</v>
+        <v>64251</v>
       </c>
       <c r="B2157" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="C2157">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D2157">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2158">
-        <v>30165</v>
+        <v>61875</v>
       </c>
       <c r="B2158" t="s">
-        <v>2111</v>
+        <v>2117</v>
       </c>
       <c r="C2158">
-        <v>109.25</v>
+        <v>179</v>
       </c>
       <c r="D2158">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2159">
-        <v>64324</v>
+        <v>30165</v>
       </c>
       <c r="B2159" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C2159">
-        <v>115</v>
+        <v>109.25</v>
       </c>
       <c r="D2159">
-        <v>108.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2160">
-        <v>66292</v>
+        <v>64324</v>
       </c>
       <c r="B2160" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C2160">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D2160">
-        <v>0</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2161">
-        <v>65841</v>
+        <v>66292</v>
       </c>
       <c r="B2161" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C2161">
-        <v>0</v>
+        <v>119.3</v>
       </c>
       <c r="D2161">
-        <v>0</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="2162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2162">
-        <v>65842</v>
+        <v>65841</v>
       </c>
       <c r="B2162" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C2162">
         <v>0</v>
@@ -37547,10 +37550,10 @@
     </row>
     <row r="2163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2163">
-        <v>66801</v>
+        <v>65842</v>
       </c>
       <c r="B2163" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C2163">
         <v>0</v>
@@ -37561,122 +37564,122 @@
     </row>
     <row r="2164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2164">
-        <v>34912</v>
+        <v>66801</v>
       </c>
       <c r="B2164" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="C2164">
         <v>129.5</v>
       </c>
       <c r="D2164">
-        <v>123.8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2165">
-        <v>61794</v>
+        <v>34912</v>
       </c>
       <c r="B2165" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C2165">
-        <v>112</v>
+        <v>130.4</v>
       </c>
       <c r="D2165">
-        <v>108.5</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="2166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2166">
-        <v>22283</v>
+        <v>61794</v>
       </c>
       <c r="B2166" t="s">
-        <v>2088</v>
+        <v>2119</v>
       </c>
       <c r="C2166">
-        <v>120.3</v>
+        <v>112</v>
       </c>
       <c r="D2166">
-        <v>116.8</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="2167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2167">
-        <v>15952</v>
+        <v>22283</v>
       </c>
       <c r="B2167" t="s">
-        <v>2120</v>
+        <v>2088</v>
       </c>
       <c r="C2167">
-        <v>0</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="D2167">
-        <v>0</v>
+        <v>116.8</v>
       </c>
     </row>
     <row r="2168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2168">
-        <v>35642</v>
+        <v>15952</v>
       </c>
       <c r="B2168" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C2168">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="D2168">
-        <v>0</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="2169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2169">
-        <v>52441</v>
+        <v>35642</v>
       </c>
       <c r="B2169" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C2169">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D2169">
-        <v>0</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="2170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2170">
-        <v>61828</v>
+        <v>52441</v>
       </c>
       <c r="B2170" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C2170">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D2170">
-        <v>0</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2171">
-        <v>56087</v>
+        <v>61828</v>
       </c>
       <c r="B2171" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C2171">
-        <v>0</v>
+        <v>103.4</v>
       </c>
       <c r="D2171">
-        <v>0</v>
+        <v>102.25</v>
       </c>
     </row>
     <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2172">
-        <v>35581</v>
+        <v>56087</v>
       </c>
       <c r="B2172" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C2172">
         <v>0</v>
@@ -37687,10 +37690,10 @@
     </row>
     <row r="2173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2173">
-        <v>23836</v>
+        <v>35581</v>
       </c>
       <c r="B2173" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C2173">
         <v>0</v>
@@ -37701,24 +37704,24 @@
     </row>
     <row r="2174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2174">
-        <v>23837</v>
+        <v>23836</v>
       </c>
       <c r="B2174" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C2174">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D2174">
-        <v>0</v>
+        <v>103.45</v>
       </c>
     </row>
     <row r="2175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2175">
-        <v>61973</v>
+        <v>23837</v>
       </c>
       <c r="B2175" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C2175">
         <v>0</v>
@@ -37729,10 +37732,10 @@
     </row>
     <row r="2176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2176">
-        <v>20344</v>
+        <v>61973</v>
       </c>
       <c r="B2176" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C2176">
         <v>0</v>
@@ -37743,10 +37746,10 @@
     </row>
     <row r="2177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2177">
-        <v>81473</v>
+        <v>20344</v>
       </c>
       <c r="B2177" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C2177">
         <v>0</v>
@@ -37757,10 +37760,10 @@
     </row>
     <row r="2178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2178">
-        <v>25483</v>
+        <v>81473</v>
       </c>
       <c r="B2178" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C2178">
         <v>0</v>
@@ -37771,10 +37774,10 @@
     </row>
     <row r="2179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2179">
-        <v>25484</v>
+        <v>25483</v>
       </c>
       <c r="B2179" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C2179">
         <v>0</v>
@@ -37785,10 +37788,10 @@
     </row>
     <row r="2180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2180">
-        <v>68631</v>
+        <v>25484</v>
       </c>
       <c r="B2180" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C2180">
         <v>0</v>
@@ -37799,10 +37802,10 @@
     </row>
     <row r="2181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2181">
-        <v>99353</v>
+        <v>68631</v>
       </c>
       <c r="B2181" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C2181">
         <v>0</v>
@@ -37813,10 +37816,10 @@
     </row>
     <row r="2182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2182">
-        <v>99392</v>
+        <v>99353</v>
       </c>
       <c r="B2182" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C2182">
         <v>0</v>
@@ -37827,38 +37830,38 @@
     </row>
     <row r="2183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2183">
-        <v>62061</v>
+        <v>99392</v>
       </c>
       <c r="B2183" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C2183">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D2183">
-        <v>101.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2184">
-        <v>14381</v>
+        <v>62061</v>
       </c>
       <c r="B2184" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C2184">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D2184">
-        <v>0</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="2185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2185">
-        <v>99587</v>
+        <v>14381</v>
       </c>
       <c r="B2185" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C2185">
         <v>0</v>
@@ -37869,10 +37872,10 @@
     </row>
     <row r="2186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2186">
-        <v>99588</v>
+        <v>99587</v>
       </c>
       <c r="B2186" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C2186">
         <v>0</v>
@@ -37883,10 +37886,10 @@
     </row>
     <row r="2187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2187">
-        <v>32571</v>
+        <v>99588</v>
       </c>
       <c r="B2187" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C2187">
         <v>0</v>
@@ -37897,10 +37900,10 @@
     </row>
     <row r="2188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2188">
-        <v>30134</v>
+        <v>32571</v>
       </c>
       <c r="B2188" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C2188">
         <v>0</v>
@@ -37911,10 +37914,10 @@
     </row>
     <row r="2189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2189">
-        <v>67062</v>
+        <v>30134</v>
       </c>
       <c r="B2189" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C2189">
         <v>0</v>
@@ -37925,10 +37928,10 @@
     </row>
     <row r="2190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2190">
-        <v>45491</v>
+        <v>67062</v>
       </c>
       <c r="B2190" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C2190">
         <v>0</v>
@@ -37939,10 +37942,10 @@
     </row>
     <row r="2191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2191">
-        <v>52121</v>
+        <v>45491</v>
       </c>
       <c r="B2191" t="s">
-        <v>2091</v>
+        <v>2143</v>
       </c>
       <c r="C2191">
         <v>0</v>
@@ -37953,10 +37956,10 @@
     </row>
     <row r="2192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2192">
-        <v>35161</v>
+        <v>52121</v>
       </c>
       <c r="B2192" t="s">
-        <v>2144</v>
+        <v>2091</v>
       </c>
       <c r="C2192">
         <v>0</v>
@@ -37967,10 +37970,10 @@
     </row>
     <row r="2193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2193">
-        <v>22305</v>
+        <v>35161</v>
       </c>
       <c r="B2193" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C2193">
         <v>0</v>
@@ -37981,10 +37984,10 @@
     </row>
     <row r="2194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2194">
-        <v>84891</v>
+        <v>22305</v>
       </c>
       <c r="B2194" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C2194">
         <v>0</v>
@@ -37995,10 +37998,10 @@
     </row>
     <row r="2195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2195">
-        <v>35914</v>
+        <v>84891</v>
       </c>
       <c r="B2195" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C2195">
         <v>0</v>
@@ -38009,10 +38012,10 @@
     </row>
     <row r="2196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2196">
-        <v>68351</v>
+        <v>35914</v>
       </c>
       <c r="B2196" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C2196">
         <v>0</v>
@@ -38023,10 +38026,10 @@
     </row>
     <row r="2197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2197">
-        <v>35161</v>
+        <v>68351</v>
       </c>
       <c r="B2197" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="C2197">
         <v>0</v>
@@ -38037,10 +38040,10 @@
     </row>
     <row r="2198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2198">
-        <v>33466</v>
+        <v>35161</v>
       </c>
       <c r="B2198" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="C2198">
         <v>0</v>
@@ -38051,10 +38054,10 @@
     </row>
     <row r="2199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2199">
-        <v>68741</v>
+        <v>33466</v>
       </c>
       <c r="B2199" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C2199">
         <v>0</v>
@@ -38065,10 +38068,10 @@
     </row>
     <row r="2200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2200">
-        <v>15412</v>
+        <v>68741</v>
       </c>
       <c r="B2200" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C2200">
         <v>0</v>
@@ -38079,10 +38082,10 @@
     </row>
     <row r="2201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2201">
-        <v>98026</v>
+        <v>15412</v>
       </c>
       <c r="B2201" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C2201">
         <v>0</v>
@@ -38093,10 +38096,10 @@
     </row>
     <row r="2202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2202">
-        <v>81714</v>
+        <v>98026</v>
       </c>
       <c r="B2202" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C2202">
         <v>0</v>
@@ -38107,15 +38110,29 @@
     </row>
     <row r="2203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2203">
+        <v>81714</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2203">
+        <v>0</v>
+      </c>
+      <c r="D2203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2204">
         <v>81715</v>
       </c>
-      <c r="B2203" t="s">
+      <c r="B2204" t="s">
         <v>2154</v>
       </c>
-      <c r="C2203">
-        <v>0</v>
-      </c>
-      <c r="D2203">
+      <c r="C2204">
+        <v>0</v>
+      </c>
+      <c r="D2204">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7BB547-709B-480A-8A02-D78007A25FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8841083-A583-4052-AA69-658AD0FF66D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="2156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="2175">
   <si>
     <t>代號</t>
   </si>
@@ -6506,6 +6506,63 @@
   </si>
   <si>
     <t>盟立二</t>
+  </si>
+  <si>
+    <t>志強一KY</t>
+  </si>
+  <si>
+    <t>斐成三</t>
+  </si>
+  <si>
+    <t>群翊二</t>
+  </si>
+  <si>
+    <t>台泥一</t>
+  </si>
+  <si>
+    <t>台灣大四</t>
+  </si>
+  <si>
+    <t>台灣大五</t>
+  </si>
+  <si>
+    <t>大聯大二</t>
+  </si>
+  <si>
+    <t>大聯大三</t>
+  </si>
+  <si>
+    <t>光聖一</t>
+  </si>
+  <si>
+    <t>百和興業一KY</t>
+  </si>
+  <si>
+    <t>岱稜五</t>
+  </si>
+  <si>
+    <t>羅昇二</t>
+  </si>
+  <si>
+    <t>振樺電三</t>
+  </si>
+  <si>
+    <t>訊舟八</t>
+  </si>
+  <si>
+    <t>騰雲一</t>
+  </si>
+  <si>
+    <t>騰雲二</t>
+  </si>
+  <si>
+    <t>新美齊三</t>
+  </si>
+  <si>
+    <t>新美齊四</t>
+  </si>
+  <si>
+    <t>威健七</t>
   </si>
 </sst>
 </file>
@@ -7269,9 +7326,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2204"/>
+  <dimension ref="A1:D2225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -10259,7 +10316,7 @@
         <v>117.2</v>
       </c>
       <c r="D213">
-        <v>104.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -10413,7 +10470,7 @@
         <v>106.4</v>
       </c>
       <c r="D224">
-        <v>101.05</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -10525,7 +10582,7 @@
         <v>151</v>
       </c>
       <c r="D232">
-        <v>101</v>
+        <v>100.65</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -10651,7 +10708,7 @@
         <v>134.30000000000001</v>
       </c>
       <c r="D241">
-        <v>102.05</v>
+        <v>102</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -10676,7 +10733,7 @@
         <v>1406</v>
       </c>
       <c r="C243">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D243">
         <v>104</v>
@@ -15159,7 +15216,7 @@
         <v>139.9</v>
       </c>
       <c r="D563">
-        <v>113.1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
@@ -16909,7 +16966,7 @@
         <v>144</v>
       </c>
       <c r="D688">
-        <v>105</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -16965,7 +17022,7 @@
         <v>121.5</v>
       </c>
       <c r="D692">
-        <v>101</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -17186,7 +17243,7 @@
         <v>510</v>
       </c>
       <c r="C708">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D708">
         <v>90</v>
@@ -17382,7 +17439,7 @@
         <v>519</v>
       </c>
       <c r="C722">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D722">
         <v>96.2</v>
@@ -17791,7 +17848,7 @@
         <v>111.55</v>
       </c>
       <c r="D751">
-        <v>98.05</v>
+        <v>97.05</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -17942,7 +17999,7 @@
         <v>1424</v>
       </c>
       <c r="C762">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D762">
         <v>100.6</v>
@@ -18351,7 +18408,7 @@
         <v>113.5</v>
       </c>
       <c r="D791">
-        <v>102.05</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.35">
@@ -19468,7 +19525,7 @@
         <v>625</v>
       </c>
       <c r="C871">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D871">
         <v>99</v>
@@ -19482,7 +19539,7 @@
         <v>2029</v>
       </c>
       <c r="C872">
-        <v>128</v>
+        <v>137.35</v>
       </c>
       <c r="D872">
         <v>104</v>
@@ -19639,7 +19696,7 @@
         <v>155</v>
       </c>
       <c r="D883">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.35">
@@ -20028,7 +20085,7 @@
         <v>654</v>
       </c>
       <c r="C911">
-        <v>130.55000000000001</v>
+        <v>133</v>
       </c>
       <c r="D911">
         <v>95</v>
@@ -20504,7 +20561,7 @@
         <v>1947</v>
       </c>
       <c r="C945">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D945">
         <v>110</v>
@@ -20675,7 +20732,7 @@
         <v>128.9</v>
       </c>
       <c r="D957">
-        <v>103</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
@@ -20745,7 +20802,7 @@
         <v>129.4</v>
       </c>
       <c r="D962">
-        <v>102.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -22254,7 +22311,7 @@
         <v>1450</v>
       </c>
       <c r="C1070">
-        <v>144.6</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="D1070">
         <v>99.05</v>
@@ -23153,7 +23210,7 @@
         <v>161</v>
       </c>
       <c r="D1134">
-        <v>102.55</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.35">
@@ -23727,7 +23784,7 @@
         <v>127</v>
       </c>
       <c r="D1175">
-        <v>100</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.35">
@@ -23962,7 +24019,7 @@
         <v>1958</v>
       </c>
       <c r="C1192">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D1192">
         <v>104</v>
@@ -24718,7 +24775,7 @@
         <v>893</v>
       </c>
       <c r="C1246">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D1246">
         <v>103.9</v>
@@ -25754,7 +25811,7 @@
         <v>1464</v>
       </c>
       <c r="C1320">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D1320">
         <v>104.1</v>
@@ -26821,7 +26878,7 @@
         <v>107</v>
       </c>
       <c r="D1396">
-        <v>98.1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.35">
@@ -27154,7 +27211,7 @@
         <v>967</v>
       </c>
       <c r="C1420">
-        <v>134</v>
+        <v>134.1</v>
       </c>
       <c r="D1420">
         <v>97</v>
@@ -27297,7 +27354,7 @@
         <v>110.95</v>
       </c>
       <c r="D1430">
-        <v>101.05</v>
+        <v>92.05</v>
       </c>
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.35">
@@ -27812,7 +27869,7 @@
         <v>996</v>
       </c>
       <c r="C1467">
-        <v>144.15</v>
+        <v>205</v>
       </c>
       <c r="D1467">
         <v>102.5</v>
@@ -28137,7 +28194,7 @@
         <v>117</v>
       </c>
       <c r="D1490">
-        <v>97.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.35">
@@ -28302,7 +28359,7 @@
         <v>1015</v>
       </c>
       <c r="C1502">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D1502">
         <v>95.5</v>
@@ -29198,7 +29255,7 @@
         <v>1052</v>
       </c>
       <c r="C1566">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="D1566">
         <v>98</v>
@@ -31147,7 +31204,7 @@
         <v>124.65</v>
       </c>
       <c r="D1705">
-        <v>103.6</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.35">
@@ -31732,7 +31789,7 @@
         <v>1483</v>
       </c>
       <c r="C1747">
-        <v>148.30000000000001</v>
+        <v>223</v>
       </c>
       <c r="D1747">
         <v>110.55</v>
@@ -32449,7 +32506,7 @@
         <v>121.6</v>
       </c>
       <c r="D1798">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.35">
@@ -32743,7 +32800,7 @@
         <v>111</v>
       </c>
       <c r="D1819">
-        <v>93.95</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
@@ -32785,7 +32842,7 @@
         <v>130.5</v>
       </c>
       <c r="D1822">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.35">
@@ -34955,7 +35012,7 @@
         <v>111.5</v>
       </c>
       <c r="D1977">
-        <v>105.55</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
@@ -35526,7 +35583,7 @@
         <v>2048</v>
       </c>
       <c r="C2018">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2018">
         <v>118</v>
@@ -36579,7 +36636,7 @@
         <v>121.6</v>
       </c>
       <c r="D2093">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2094" spans="1:4" x14ac:dyDescent="0.35">
@@ -36635,7 +36692,7 @@
         <v>110.95</v>
       </c>
       <c r="D2097">
-        <v>101.05</v>
+        <v>92.05</v>
       </c>
     </row>
     <row r="2098" spans="1:4" x14ac:dyDescent="0.35">
@@ -36663,7 +36720,7 @@
         <v>130.5</v>
       </c>
       <c r="D2099">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2100" spans="1:4" x14ac:dyDescent="0.35">
@@ -36705,7 +36762,7 @@
         <v>111.5</v>
       </c>
       <c r="D2102">
-        <v>105.55</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="2103" spans="1:4" x14ac:dyDescent="0.35">
@@ -36761,7 +36818,7 @@
         <v>124.1</v>
       </c>
       <c r="D2106">
-        <v>107</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
@@ -36786,7 +36843,7 @@
         <v>2069</v>
       </c>
       <c r="C2108">
-        <v>128</v>
+        <v>134.15</v>
       </c>
       <c r="D2108">
         <v>101.95</v>
@@ -36817,7 +36874,7 @@
         <v>134.1</v>
       </c>
       <c r="D2110">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2111" spans="1:4" x14ac:dyDescent="0.35">
@@ -36842,7 +36899,7 @@
         <v>2048</v>
       </c>
       <c r="C2112">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2112">
         <v>118</v>
@@ -36884,7 +36941,7 @@
         <v>2074</v>
       </c>
       <c r="C2115">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D2115">
         <v>110</v>
@@ -36898,7 +36955,7 @@
         <v>2075</v>
       </c>
       <c r="C2116">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D2116">
         <v>123</v>
@@ -36915,7 +36972,7 @@
         <v>125</v>
       </c>
       <c r="D2117">
-        <v>110.5</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="2118" spans="1:4" x14ac:dyDescent="0.35">
@@ -36982,7 +37039,7 @@
         <v>2077</v>
       </c>
       <c r="C2122">
-        <v>121</v>
+        <v>122.1</v>
       </c>
       <c r="D2122">
         <v>111.1</v>
@@ -37041,7 +37098,7 @@
         <v>115.5</v>
       </c>
       <c r="D2126">
-        <v>109.65</v>
+        <v>107.15</v>
       </c>
     </row>
     <row r="2127" spans="1:4" x14ac:dyDescent="0.35">
@@ -37066,7 +37123,7 @@
         <v>2082</v>
       </c>
       <c r="C2128">
-        <v>133.05000000000001</v>
+        <v>141.85</v>
       </c>
       <c r="D2128">
         <v>115.7</v>
@@ -37097,7 +37154,7 @@
         <v>119.65</v>
       </c>
       <c r="D2130">
-        <v>110.5</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="2131" spans="1:4" x14ac:dyDescent="0.35">
@@ -37111,7 +37168,7 @@
         <v>139</v>
       </c>
       <c r="D2131">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2132" spans="1:4" x14ac:dyDescent="0.35">
@@ -37125,7 +37182,7 @@
         <v>112.9</v>
       </c>
       <c r="D2132">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2133" spans="1:4" x14ac:dyDescent="0.35">
@@ -37139,7 +37196,7 @@
         <v>114.5</v>
       </c>
       <c r="D2133">
-        <v>106.3</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.35">
@@ -37164,7 +37221,7 @@
         <v>2089</v>
       </c>
       <c r="C2135">
-        <v>138.80000000000001</v>
+        <v>152</v>
       </c>
       <c r="D2135">
         <v>110.2</v>
@@ -37181,7 +37238,7 @@
         <v>121.85</v>
       </c>
       <c r="D2136">
-        <v>109.05</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
@@ -37192,10 +37249,10 @@
         <v>2091</v>
       </c>
       <c r="C2137">
-        <v>0</v>
+        <v>104.95</v>
       </c>
       <c r="D2137">
-        <v>0</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2138" spans="1:4" x14ac:dyDescent="0.35">
@@ -37237,7 +37294,7 @@
         <v>107.25</v>
       </c>
       <c r="D2140">
-        <v>103</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.35">
@@ -37251,7 +37308,7 @@
         <v>110</v>
       </c>
       <c r="D2141">
-        <v>108.5</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
@@ -37262,10 +37319,10 @@
         <v>2096</v>
       </c>
       <c r="C2142">
-        <v>113.1</v>
+        <v>115</v>
       </c>
       <c r="D2142">
-        <v>111.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
@@ -37276,7 +37333,7 @@
         <v>2097</v>
       </c>
       <c r="C2143">
-        <v>130.5</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="D2143">
         <v>110.2</v>
@@ -37293,7 +37350,7 @@
         <v>114.85</v>
       </c>
       <c r="D2144">
-        <v>106.95</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="2145" spans="1:4" x14ac:dyDescent="0.35">
@@ -37307,7 +37364,7 @@
         <v>111.75</v>
       </c>
       <c r="D2145">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2146" spans="1:4" x14ac:dyDescent="0.35">
@@ -37346,7 +37403,7 @@
         <v>2102</v>
       </c>
       <c r="C2148">
-        <v>102.35</v>
+        <v>104</v>
       </c>
       <c r="D2148">
         <v>95</v>
@@ -37391,7 +37448,7 @@
         <v>104.4</v>
       </c>
       <c r="D2151">
-        <v>99.75</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="2152" spans="1:4" x14ac:dyDescent="0.35">
@@ -37405,7 +37462,7 @@
         <v>124.25</v>
       </c>
       <c r="D2152">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
@@ -37430,7 +37487,7 @@
         <v>2108</v>
       </c>
       <c r="C2154">
-        <v>129.75</v>
+        <v>133.5</v>
       </c>
       <c r="D2154">
         <v>108.5</v>
@@ -37447,7 +37504,7 @@
         <v>111</v>
       </c>
       <c r="D2155">
-        <v>106</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
@@ -37472,10 +37529,10 @@
         <v>2110</v>
       </c>
       <c r="C2157">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D2157">
-        <v>0</v>
+        <v>135.85</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
@@ -37486,7 +37543,7 @@
         <v>2117</v>
       </c>
       <c r="C2158">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D2158">
         <v>116</v>
@@ -37542,10 +37599,10 @@
         <v>2114</v>
       </c>
       <c r="C2162">
-        <v>0</v>
+        <v>116.5</v>
       </c>
       <c r="D2162">
-        <v>0</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="2163" spans="1:4" x14ac:dyDescent="0.35">
@@ -37556,10 +37613,10 @@
         <v>2115</v>
       </c>
       <c r="C2163">
-        <v>0</v>
+        <v>110.55</v>
       </c>
       <c r="D2163">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2164" spans="1:4" x14ac:dyDescent="0.35">
@@ -37587,7 +37644,7 @@
         <v>130.4</v>
       </c>
       <c r="D2165">
-        <v>121.5</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="2166" spans="1:4" x14ac:dyDescent="0.35">
@@ -37598,7 +37655,7 @@
         <v>2119</v>
       </c>
       <c r="C2166">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D2166">
         <v>103.1</v>
@@ -37626,7 +37683,7 @@
         <v>2120</v>
       </c>
       <c r="C2168">
-        <v>122.5</v>
+        <v>191</v>
       </c>
       <c r="D2168">
         <v>108.2</v>
@@ -37657,7 +37714,7 @@
         <v>106</v>
       </c>
       <c r="D2170">
-        <v>103.1</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
@@ -37671,7 +37728,7 @@
         <v>103.4</v>
       </c>
       <c r="D2171">
-        <v>102.25</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
@@ -37713,7 +37770,7 @@
         <v>106</v>
       </c>
       <c r="D2174">
-        <v>103.45</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="2175" spans="1:4" x14ac:dyDescent="0.35">
@@ -37724,10 +37781,10 @@
         <v>2127</v>
       </c>
       <c r="C2175">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D2175">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2176" spans="1:4" x14ac:dyDescent="0.35">
@@ -37738,10 +37795,10 @@
         <v>2128</v>
       </c>
       <c r="C2176">
-        <v>0</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D2176">
-        <v>0</v>
+        <v>114.65</v>
       </c>
     </row>
     <row r="2177" spans="1:4" x14ac:dyDescent="0.35">
@@ -37752,10 +37809,10 @@
         <v>2129</v>
       </c>
       <c r="C2177">
-        <v>0</v>
+        <v>111.25</v>
       </c>
       <c r="D2177">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2178" spans="1:4" x14ac:dyDescent="0.35">
@@ -37766,10 +37823,10 @@
         <v>2130</v>
       </c>
       <c r="C2178">
-        <v>0</v>
+        <v>120.9</v>
       </c>
       <c r="D2178">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2179" spans="1:4" x14ac:dyDescent="0.35">
@@ -37780,10 +37837,10 @@
         <v>2131</v>
       </c>
       <c r="C2179">
-        <v>0</v>
+        <v>104.25</v>
       </c>
       <c r="D2179">
-        <v>0</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="2180" spans="1:4" x14ac:dyDescent="0.35">
@@ -37794,10 +37851,10 @@
         <v>2132</v>
       </c>
       <c r="C2180">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D2180">
-        <v>0</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="2181" spans="1:4" x14ac:dyDescent="0.35">
@@ -37808,10 +37865,10 @@
         <v>2133</v>
       </c>
       <c r="C2181">
-        <v>0</v>
+        <v>117.3</v>
       </c>
       <c r="D2181">
-        <v>0</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="2182" spans="1:4" x14ac:dyDescent="0.35">
@@ -37822,10 +37879,10 @@
         <v>2134</v>
       </c>
       <c r="C2182">
-        <v>0</v>
+        <v>110.75</v>
       </c>
       <c r="D2182">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2183" spans="1:4" x14ac:dyDescent="0.35">
@@ -37836,10 +37893,10 @@
         <v>2135</v>
       </c>
       <c r="C2183">
-        <v>0</v>
+        <v>102.8</v>
       </c>
       <c r="D2183">
-        <v>0</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="2184" spans="1:4" x14ac:dyDescent="0.35">
@@ -37878,10 +37935,10 @@
         <v>2138</v>
       </c>
       <c r="C2186">
-        <v>0</v>
+        <v>105.4</v>
       </c>
       <c r="D2186">
-        <v>0</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="2187" spans="1:4" x14ac:dyDescent="0.35">
@@ -37920,10 +37977,10 @@
         <v>2141</v>
       </c>
       <c r="C2189">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D2189">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2190" spans="1:4" x14ac:dyDescent="0.35">
@@ -37934,10 +37991,10 @@
         <v>2142</v>
       </c>
       <c r="C2190">
-        <v>0</v>
+        <v>115.9</v>
       </c>
       <c r="D2190">
-        <v>0</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="2191" spans="1:4" x14ac:dyDescent="0.35">
@@ -37962,10 +38019,10 @@
         <v>2091</v>
       </c>
       <c r="C2192">
-        <v>0</v>
+        <v>104.95</v>
       </c>
       <c r="D2192">
-        <v>0</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2193" spans="1:4" x14ac:dyDescent="0.35">
@@ -37976,10 +38033,10 @@
         <v>2144</v>
       </c>
       <c r="C2193">
-        <v>0</v>
+        <v>120.1</v>
       </c>
       <c r="D2193">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2194" spans="1:4" x14ac:dyDescent="0.35">
@@ -38046,10 +38103,10 @@
         <v>2144</v>
       </c>
       <c r="C2198">
-        <v>0</v>
+        <v>120.1</v>
       </c>
       <c r="D2198">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2199" spans="1:4" x14ac:dyDescent="0.35">
@@ -38133,6 +38190,300 @@
         <v>0</v>
       </c>
       <c r="D2204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2205">
+        <v>67681</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2205">
+        <v>0</v>
+      </c>
+      <c r="D2205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2206">
+        <v>33133</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C2206">
+        <v>0</v>
+      </c>
+      <c r="D2206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2207">
+        <v>66642</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C2207">
+        <v>0</v>
+      </c>
+      <c r="D2207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2208">
+        <v>11011</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C2208">
+        <v>0</v>
+      </c>
+      <c r="D2208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2209">
+        <v>15142</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C2209">
+        <v>0</v>
+      </c>
+      <c r="D2209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2210">
+        <v>30454</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C2210">
+        <v>0</v>
+      </c>
+      <c r="D2210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2211">
+        <v>30455</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C2211">
+        <v>0</v>
+      </c>
+      <c r="D2211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2212">
+        <v>37022</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C2212">
+        <v>0</v>
+      </c>
+      <c r="D2212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2213">
+        <v>37023</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C2213">
+        <v>0</v>
+      </c>
+      <c r="D2213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2214">
+        <v>64421</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C2214">
+        <v>0</v>
+      </c>
+      <c r="D2214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2215">
+        <v>84041</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C2215">
+        <v>0</v>
+      </c>
+      <c r="D2215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2216">
+        <v>33035</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C2216">
+        <v>0</v>
+      </c>
+      <c r="D2216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2217">
+        <v>83742</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C2217">
+        <v>0</v>
+      </c>
+      <c r="D2217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2218">
+        <v>81143</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C2218">
+        <v>0</v>
+      </c>
+      <c r="D2218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2219">
+        <v>30478</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C2219">
+        <v>0</v>
+      </c>
+      <c r="D2219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2220">
+        <v>68701</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C2220">
+        <v>0</v>
+      </c>
+      <c r="D2220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2221">
+        <v>68702</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C2221">
+        <v>0</v>
+      </c>
+      <c r="D2221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2222">
+        <v>24423</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C2222">
+        <v>0</v>
+      </c>
+      <c r="D2222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2223">
+        <v>24424</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C2223">
+        <v>0</v>
+      </c>
+      <c r="D2223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2224">
+        <v>30337</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C2224">
+        <v>110.4</v>
+      </c>
+      <c r="D2224">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2225">
+        <v>60261</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C2225">
+        <v>0</v>
+      </c>
+      <c r="D2225">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qoo\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8841083-A583-4052-AA69-658AD0FF66D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CECA1-20B9-4F5F-A594-10D014D6392F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6780" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -7670,7 +7670,7 @@
         <v>115.5</v>
       </c>
       <c r="D24">
-        <v>98.25</v>
+        <v>97.15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -8818,7 +8818,7 @@
         <v>109</v>
       </c>
       <c r="D106">
-        <v>102.65</v>
+        <v>101.55</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -9739,7 +9739,7 @@
         <v>1400</v>
       </c>
       <c r="C172">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D172">
         <v>95.6</v>
@@ -10316,7 +10316,7 @@
         <v>117.2</v>
       </c>
       <c r="D213">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -10470,7 +10470,7 @@
         <v>106.4</v>
       </c>
       <c r="D224">
-        <v>100.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -10582,7 +10582,7 @@
         <v>151</v>
       </c>
       <c r="D232">
-        <v>100.65</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -11254,7 +11254,7 @@
         <v>130.6</v>
       </c>
       <c r="D280">
-        <v>109.15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -12164,7 +12164,7 @@
         <v>129.5</v>
       </c>
       <c r="D345">
-        <v>107</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -12682,7 +12682,7 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D382">
-        <v>109</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -13326,7 +13326,7 @@
         <v>126.55</v>
       </c>
       <c r="D428">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -15216,7 +15216,7 @@
         <v>139.9</v>
       </c>
       <c r="D563">
-        <v>106</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
@@ -15678,7 +15678,7 @@
         <v>134.05000000000001</v>
       </c>
       <c r="D596">
-        <v>107.5</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -16966,7 +16966,7 @@
         <v>144</v>
       </c>
       <c r="D688">
-        <v>103.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
@@ -17022,7 +17022,7 @@
         <v>121.5</v>
       </c>
       <c r="D692">
-        <v>100.85</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
@@ -17778,7 +17778,7 @@
         <v>133.35</v>
       </c>
       <c r="D746">
-        <v>102.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>111.55</v>
       </c>
       <c r="D751">
-        <v>97.05</v>
+        <v>97</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -18405,7 +18405,7 @@
         <v>2013</v>
       </c>
       <c r="C791">
-        <v>113.5</v>
+        <v>126</v>
       </c>
       <c r="D791">
         <v>101.8</v>
@@ -19178,7 +19178,7 @@
         <v>123</v>
       </c>
       <c r="D846">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.35">
@@ -19192,7 +19192,7 @@
         <v>123</v>
       </c>
       <c r="D847">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.35">
@@ -19696,7 +19696,7 @@
         <v>155</v>
       </c>
       <c r="D883">
-        <v>106.4</v>
+        <v>105.15</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.35">
@@ -20802,7 +20802,7 @@
         <v>129.4</v>
       </c>
       <c r="D962">
-        <v>102</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -22776,7 +22776,7 @@
         <v>113</v>
       </c>
       <c r="D1103">
-        <v>100.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.35">
@@ -22832,7 +22832,7 @@
         <v>120</v>
       </c>
       <c r="D1107">
-        <v>112.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.35">
@@ -23238,7 +23238,7 @@
         <v>172</v>
       </c>
       <c r="D1136">
-        <v>105.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.35">
@@ -23784,7 +23784,7 @@
         <v>127</v>
       </c>
       <c r="D1175">
-        <v>99.9</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.35">
@@ -24019,7 +24019,7 @@
         <v>1958</v>
       </c>
       <c r="C1192">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D1192">
         <v>104</v>
@@ -24596,7 +24596,7 @@
         <v>122</v>
       </c>
       <c r="D1233">
-        <v>100.85</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
@@ -24862,7 +24862,7 @@
         <v>129</v>
       </c>
       <c r="D1252">
-        <v>107.6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
@@ -24943,7 +24943,7 @@
         <v>1463</v>
       </c>
       <c r="C1258">
-        <v>123.5</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="D1258">
         <v>105</v>
@@ -28194,7 +28194,7 @@
         <v>117</v>
       </c>
       <c r="D1490">
-        <v>97</v>
+        <v>96.45</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.35">
@@ -31064,7 +31064,7 @@
         <v>129.80000000000001</v>
       </c>
       <c r="D1695">
-        <v>114.6</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.35">
@@ -31204,7 +31204,7 @@
         <v>124.65</v>
       </c>
       <c r="D1705">
-        <v>102.7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.35">
@@ -31274,7 +31274,7 @@
         <v>133.5</v>
       </c>
       <c r="D1710">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.35">
@@ -31789,7 +31789,7 @@
         <v>1483</v>
       </c>
       <c r="C1747">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D1747">
         <v>110.55</v>
@@ -31946,7 +31946,7 @@
         <v>155</v>
       </c>
       <c r="D1758">
-        <v>103.6</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.35">
@@ -32030,7 +32030,7 @@
         <v>147</v>
       </c>
       <c r="D1764">
-        <v>97.6</v>
+        <v>95.05</v>
       </c>
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.35">
@@ -32296,7 +32296,7 @@
         <v>192</v>
       </c>
       <c r="D1783">
-        <v>112.5</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="1784" spans="1:4" x14ac:dyDescent="0.35">
@@ -32643,7 +32643,7 @@
         <v>1859</v>
       </c>
       <c r="C1808">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D1808">
         <v>103.2</v>
@@ -32702,7 +32702,7 @@
         <v>138</v>
       </c>
       <c r="D1812">
-        <v>115.7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
@@ -32758,7 +32758,7 @@
         <v>119.8</v>
       </c>
       <c r="D1816">
-        <v>96.7</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="1817" spans="1:4" x14ac:dyDescent="0.35">
@@ -32800,7 +32800,7 @@
         <v>111</v>
       </c>
       <c r="D1819">
-        <v>93.8</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
@@ -32842,7 +32842,7 @@
         <v>130.5</v>
       </c>
       <c r="D1822">
-        <v>103</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.35">
@@ -34620,7 +34620,7 @@
         <v>137</v>
       </c>
       <c r="D1949">
-        <v>106.15</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="1950" spans="1:4" x14ac:dyDescent="0.35">
@@ -35012,7 +35012,7 @@
         <v>111.5</v>
       </c>
       <c r="D1977">
-        <v>105.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.35">
@@ -35250,7 +35250,7 @@
         <v>116.95</v>
       </c>
       <c r="D1994">
-        <v>104.2</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.35">
@@ -35586,7 +35586,7 @@
         <v>136</v>
       </c>
       <c r="D2018">
-        <v>118</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.35">
@@ -36272,7 +36272,7 @@
         <v>102.5</v>
       </c>
       <c r="D2067">
-        <v>95.95</v>
+        <v>93.65</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.35">
@@ -36608,7 +36608,7 @@
         <v>154</v>
       </c>
       <c r="D2091">
-        <v>116.5</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="2092" spans="1:4" x14ac:dyDescent="0.35">
@@ -36622,7 +36622,7 @@
         <v>130</v>
       </c>
       <c r="D2092">
-        <v>109</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="2093" spans="1:4" x14ac:dyDescent="0.35">
@@ -36678,7 +36678,7 @@
         <v>120</v>
       </c>
       <c r="D2096">
-        <v>112.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2097" spans="1:4" x14ac:dyDescent="0.35">
@@ -36720,7 +36720,7 @@
         <v>130.5</v>
       </c>
       <c r="D2099">
-        <v>103</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="2100" spans="1:4" x14ac:dyDescent="0.35">
@@ -36762,7 +36762,7 @@
         <v>111.5</v>
       </c>
       <c r="D2102">
-        <v>105.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2103" spans="1:4" x14ac:dyDescent="0.35">
@@ -36790,7 +36790,7 @@
         <v>138</v>
       </c>
       <c r="D2104">
-        <v>114</v>
+        <v>104.85</v>
       </c>
     </row>
     <row r="2105" spans="1:4" x14ac:dyDescent="0.35">
@@ -36818,7 +36818,7 @@
         <v>124.1</v>
       </c>
       <c r="D2106">
-        <v>104.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
@@ -36829,7 +36829,7 @@
         <v>2068</v>
       </c>
       <c r="C2107">
-        <v>148.5</v>
+        <v>153</v>
       </c>
       <c r="D2107">
         <v>116.5</v>
@@ -36860,7 +36860,7 @@
         <v>129.5</v>
       </c>
       <c r="D2109">
-        <v>112.05</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="2110" spans="1:4" x14ac:dyDescent="0.35">
@@ -36874,7 +36874,7 @@
         <v>134.1</v>
       </c>
       <c r="D2110">
-        <v>116</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="2111" spans="1:4" x14ac:dyDescent="0.35">
@@ -36888,7 +36888,7 @@
         <v>155</v>
       </c>
       <c r="D2111">
-        <v>110.55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2112" spans="1:4" x14ac:dyDescent="0.35">
@@ -36902,7 +36902,7 @@
         <v>136</v>
       </c>
       <c r="D2112">
-        <v>118</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="2113" spans="1:4" x14ac:dyDescent="0.35">
@@ -36930,7 +36930,7 @@
         <v>111.25</v>
       </c>
       <c r="D2114">
-        <v>105.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="2115" spans="1:4" x14ac:dyDescent="0.35">
@@ -36972,7 +36972,7 @@
         <v>125</v>
       </c>
       <c r="D2117">
-        <v>107.3</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="2118" spans="1:4" x14ac:dyDescent="0.35">
@@ -37042,7 +37042,7 @@
         <v>122.1</v>
       </c>
       <c r="D2122">
-        <v>111.1</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="2123" spans="1:4" x14ac:dyDescent="0.35">
@@ -37067,10 +37067,10 @@
         <v>2078</v>
       </c>
       <c r="C2124">
-        <v>0</v>
+        <v>113.6</v>
       </c>
       <c r="D2124">
-        <v>0</v>
+        <v>107.05</v>
       </c>
     </row>
     <row r="2125" spans="1:4" x14ac:dyDescent="0.35">
@@ -37098,7 +37098,7 @@
         <v>115.5</v>
       </c>
       <c r="D2126">
-        <v>107.15</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="2127" spans="1:4" x14ac:dyDescent="0.35">
@@ -37112,7 +37112,7 @@
         <v>142.94999999999999</v>
       </c>
       <c r="D2127">
-        <v>111.1</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="2128" spans="1:4" x14ac:dyDescent="0.35">
@@ -37126,7 +37126,7 @@
         <v>141.85</v>
       </c>
       <c r="D2128">
-        <v>115.7</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="2129" spans="1:4" x14ac:dyDescent="0.35">
@@ -37140,7 +37140,7 @@
         <v>117.65</v>
       </c>
       <c r="D2129">
-        <v>107</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="2130" spans="1:4" x14ac:dyDescent="0.35">
@@ -37154,7 +37154,7 @@
         <v>119.65</v>
       </c>
       <c r="D2130">
-        <v>108.6</v>
+        <v>104.15</v>
       </c>
     </row>
     <row r="2131" spans="1:4" x14ac:dyDescent="0.35">
@@ -37168,7 +37168,7 @@
         <v>139</v>
       </c>
       <c r="D2131">
-        <v>109</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="2132" spans="1:4" x14ac:dyDescent="0.35">
@@ -37196,7 +37196,7 @@
         <v>114.5</v>
       </c>
       <c r="D2133">
-        <v>104.5</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.35">
@@ -37210,7 +37210,7 @@
         <v>133.80000000000001</v>
       </c>
       <c r="D2134">
-        <v>116.8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2135" spans="1:4" x14ac:dyDescent="0.35">
@@ -37238,7 +37238,7 @@
         <v>121.85</v>
       </c>
       <c r="D2136">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
@@ -37294,7 +37294,7 @@
         <v>107.25</v>
       </c>
       <c r="D2140">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.35">
@@ -37308,7 +37308,7 @@
         <v>110</v>
       </c>
       <c r="D2141">
-        <v>106.6</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
@@ -37319,10 +37319,10 @@
         <v>2096</v>
       </c>
       <c r="C2142">
-        <v>115</v>
+        <v>116.95</v>
       </c>
       <c r="D2142">
-        <v>110</v>
+        <v>109.05</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
@@ -37350,7 +37350,7 @@
         <v>114.85</v>
       </c>
       <c r="D2144">
-        <v>105.8</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="2145" spans="1:4" x14ac:dyDescent="0.35">
@@ -37364,7 +37364,7 @@
         <v>111.75</v>
       </c>
       <c r="D2145">
-        <v>103</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="2146" spans="1:4" x14ac:dyDescent="0.35">
@@ -37406,7 +37406,7 @@
         <v>104</v>
       </c>
       <c r="D2148">
-        <v>95</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="2149" spans="1:4" x14ac:dyDescent="0.35">
@@ -37420,7 +37420,7 @@
         <v>129.9</v>
       </c>
       <c r="D2149">
-        <v>113.5</v>
+        <v>109.15</v>
       </c>
     </row>
     <row r="2150" spans="1:4" x14ac:dyDescent="0.35">
@@ -37462,7 +37462,7 @@
         <v>124.25</v>
       </c>
       <c r="D2152">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
@@ -37490,7 +37490,7 @@
         <v>133.5</v>
       </c>
       <c r="D2154">
-        <v>108.5</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="2155" spans="1:4" x14ac:dyDescent="0.35">
@@ -37504,7 +37504,7 @@
         <v>111</v>
       </c>
       <c r="D2155">
-        <v>104.7</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
@@ -37518,7 +37518,7 @@
         <v>124.1</v>
       </c>
       <c r="D2156">
-        <v>114.15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
@@ -37532,7 +37532,7 @@
         <v>154</v>
       </c>
       <c r="D2157">
-        <v>135.85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
@@ -37560,7 +37560,7 @@
         <v>109.25</v>
       </c>
       <c r="D2159">
-        <v>103</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
@@ -37574,7 +37574,7 @@
         <v>115</v>
       </c>
       <c r="D2160">
-        <v>108.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="2161" spans="1:4" x14ac:dyDescent="0.35">
@@ -37602,7 +37602,7 @@
         <v>116.5</v>
       </c>
       <c r="D2162">
-        <v>114.2</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="2163" spans="1:4" x14ac:dyDescent="0.35">
@@ -37616,7 +37616,7 @@
         <v>110.55</v>
       </c>
       <c r="D2163">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2164" spans="1:4" x14ac:dyDescent="0.35">
@@ -37644,7 +37644,7 @@
         <v>130.4</v>
       </c>
       <c r="D2165">
-        <v>118.2</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="2166" spans="1:4" x14ac:dyDescent="0.35">
@@ -37672,7 +37672,7 @@
         <v>133.80000000000001</v>
       </c>
       <c r="D2167">
-        <v>116.8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2168" spans="1:4" x14ac:dyDescent="0.35">
@@ -37700,7 +37700,7 @@
         <v>125</v>
       </c>
       <c r="D2169">
-        <v>110.05</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2170" spans="1:4" x14ac:dyDescent="0.35">
@@ -37711,10 +37711,10 @@
         <v>2122</v>
       </c>
       <c r="C2170">
-        <v>106</v>
+        <v>117.2</v>
       </c>
       <c r="D2170">
-        <v>102.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
@@ -37725,10 +37725,10 @@
         <v>2123</v>
       </c>
       <c r="C2171">
-        <v>103.4</v>
+        <v>105</v>
       </c>
       <c r="D2171">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
@@ -37781,7 +37781,7 @@
         <v>2127</v>
       </c>
       <c r="C2175">
-        <v>112</v>
+        <v>115.85</v>
       </c>
       <c r="D2175">
         <v>108</v>
@@ -37798,7 +37798,7 @@
         <v>130.30000000000001</v>
       </c>
       <c r="D2176">
-        <v>114.65</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2177" spans="1:4" x14ac:dyDescent="0.35">
@@ -37812,7 +37812,7 @@
         <v>111.25</v>
       </c>
       <c r="D2177">
-        <v>105</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="2178" spans="1:4" x14ac:dyDescent="0.35">
@@ -37826,7 +37826,7 @@
         <v>120.9</v>
       </c>
       <c r="D2178">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2179" spans="1:4" x14ac:dyDescent="0.35">
@@ -37854,7 +37854,7 @@
         <v>104</v>
       </c>
       <c r="D2180">
-        <v>102.3</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="2181" spans="1:4" x14ac:dyDescent="0.35">
@@ -37868,7 +37868,7 @@
         <v>117.3</v>
       </c>
       <c r="D2181">
-        <v>112.2</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="2182" spans="1:4" x14ac:dyDescent="0.35">
@@ -37879,10 +37879,10 @@
         <v>2134</v>
       </c>
       <c r="C2182">
-        <v>110.75</v>
+        <v>111</v>
       </c>
       <c r="D2182">
-        <v>106</v>
+        <v>105.15</v>
       </c>
     </row>
     <row r="2183" spans="1:4" x14ac:dyDescent="0.35">
@@ -37893,7 +37893,7 @@
         <v>2135</v>
       </c>
       <c r="C2183">
-        <v>102.8</v>
+        <v>106</v>
       </c>
       <c r="D2183">
         <v>101.9</v>
@@ -37938,7 +37938,7 @@
         <v>105.4</v>
       </c>
       <c r="D2186">
-        <v>102.05</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="2187" spans="1:4" x14ac:dyDescent="0.35">
@@ -37949,10 +37949,10 @@
         <v>2139</v>
       </c>
       <c r="C2187">
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="D2187">
-        <v>0</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="2188" spans="1:4" x14ac:dyDescent="0.35">
@@ -37963,10 +37963,10 @@
         <v>2140</v>
       </c>
       <c r="C2188">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D2188">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2189" spans="1:4" x14ac:dyDescent="0.35">
@@ -37977,10 +37977,10 @@
         <v>2141</v>
       </c>
       <c r="C2189">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D2189">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2190" spans="1:4" x14ac:dyDescent="0.35">
@@ -37994,7 +37994,7 @@
         <v>115.9</v>
       </c>
       <c r="D2190">
-        <v>112.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2191" spans="1:4" x14ac:dyDescent="0.35">
@@ -38005,10 +38005,10 @@
         <v>2143</v>
       </c>
       <c r="C2191">
-        <v>0</v>
+        <v>117.95</v>
       </c>
       <c r="D2191">
-        <v>0</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="2192" spans="1:4" x14ac:dyDescent="0.35">
@@ -38036,7 +38036,7 @@
         <v>120.1</v>
       </c>
       <c r="D2193">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2194" spans="1:4" x14ac:dyDescent="0.35">
@@ -38075,10 +38075,10 @@
         <v>2147</v>
       </c>
       <c r="C2196">
-        <v>0</v>
+        <v>117.25</v>
       </c>
       <c r="D2196">
-        <v>0</v>
+        <v>103.35</v>
       </c>
     </row>
     <row r="2197" spans="1:4" x14ac:dyDescent="0.35">
@@ -38089,10 +38089,10 @@
         <v>2148</v>
       </c>
       <c r="C2197">
-        <v>0</v>
+        <v>106.65</v>
       </c>
       <c r="D2197">
-        <v>0</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="2198" spans="1:4" x14ac:dyDescent="0.35">
@@ -38106,7 +38106,7 @@
         <v>120.1</v>
       </c>
       <c r="D2198">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2199" spans="1:4" x14ac:dyDescent="0.35">
@@ -38117,10 +38117,10 @@
         <v>2149</v>
       </c>
       <c r="C2199">
-        <v>0</v>
+        <v>104.7</v>
       </c>
       <c r="D2199">
-        <v>0</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="2200" spans="1:4" x14ac:dyDescent="0.35">
@@ -38131,10 +38131,10 @@
         <v>2150</v>
       </c>
       <c r="C2200">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D2200">
-        <v>0</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="2201" spans="1:4" x14ac:dyDescent="0.35">
@@ -38159,10 +38159,10 @@
         <v>2152</v>
       </c>
       <c r="C2202">
-        <v>0</v>
+        <v>113.8</v>
       </c>
       <c r="D2202">
-        <v>0</v>
+        <v>108.55</v>
       </c>
     </row>
     <row r="2203" spans="1:4" x14ac:dyDescent="0.35">
@@ -38173,10 +38173,10 @@
         <v>2153</v>
       </c>
       <c r="C2203">
-        <v>0</v>
+        <v>134.44999999999999</v>
       </c>
       <c r="D2203">
-        <v>0</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="2204" spans="1:4" x14ac:dyDescent="0.35">
@@ -38187,10 +38187,10 @@
         <v>2154</v>
       </c>
       <c r="C2204">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D2204">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2205" spans="1:4" x14ac:dyDescent="0.35">
@@ -38201,10 +38201,10 @@
         <v>2156</v>
       </c>
       <c r="C2205">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="D2205">
-        <v>0</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="2206" spans="1:4" x14ac:dyDescent="0.35">
@@ -38215,10 +38215,10 @@
         <v>2157</v>
       </c>
       <c r="C2206">
-        <v>0</v>
+        <v>103.4</v>
       </c>
       <c r="D2206">
-        <v>0</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="2207" spans="1:4" x14ac:dyDescent="0.35">
@@ -38229,10 +38229,10 @@
         <v>2158</v>
       </c>
       <c r="C2207">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D2207">
-        <v>0</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="2208" spans="1:4" x14ac:dyDescent="0.35">
@@ -38299,10 +38299,10 @@
         <v>2162</v>
       </c>
       <c r="C2212">
-        <v>0</v>
+        <v>103.85</v>
       </c>
       <c r="D2212">
-        <v>0</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="2213" spans="1:4" x14ac:dyDescent="0.35">
@@ -38313,10 +38313,10 @@
         <v>2163</v>
       </c>
       <c r="C2213">
-        <v>0</v>
+        <v>104.1</v>
       </c>
       <c r="D2213">
-        <v>0</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="2214" spans="1:4" x14ac:dyDescent="0.35">
@@ -38327,10 +38327,10 @@
         <v>2164</v>
       </c>
       <c r="C2214">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D2214">
-        <v>0</v>
+        <v>110.55</v>
       </c>
     </row>
     <row r="2215" spans="1:4" x14ac:dyDescent="0.35">
@@ -38355,10 +38355,10 @@
         <v>2166</v>
       </c>
       <c r="C2216">
-        <v>0</v>
+        <v>105.8</v>
       </c>
       <c r="D2216">
-        <v>0</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="2217" spans="1:4" x14ac:dyDescent="0.35">
@@ -38369,10 +38369,10 @@
         <v>2167</v>
       </c>
       <c r="C2217">
-        <v>0</v>
+        <v>108.55</v>
       </c>
       <c r="D2217">
-        <v>0</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="2218" spans="1:4" x14ac:dyDescent="0.35">
@@ -38439,10 +38439,10 @@
         <v>2172</v>
       </c>
       <c r="C2222">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="D2222">
-        <v>0</v>
+        <v>94.55</v>
       </c>
     </row>
     <row r="2223" spans="1:4" x14ac:dyDescent="0.35">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C21C4F-79AC-4A16-B4E6-4A781322AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3EA3D-0DE2-46DC-8483-90B8C273B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -6651,7 +6651,67 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7024,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2095" workbookViewId="0">
-      <selection activeCell="A2115" sqref="A2115:XFD2121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -21016,7 +21076,7 @@
         <v>610</v>
       </c>
       <c r="D999" s="10">
-        <v>109.75</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -21041,7 +21101,7 @@
         <v>765</v>
       </c>
       <c r="C1001" s="4">
-        <v>190</v>
+        <v>129.4</v>
       </c>
       <c r="D1001" s="10">
         <v>93</v>
@@ -27400,7 +27460,7 @@
         <v>135.9</v>
       </c>
       <c r="D1455" s="10">
-        <v>84.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -27414,7 +27474,7 @@
         <v>136</v>
       </c>
       <c r="D1456" s="10">
-        <v>98.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457" spans="1:4">
@@ -28044,7 +28104,7 @@
         <v>202</v>
       </c>
       <c r="D1501" s="10">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502" spans="1:4">
@@ -28380,7 +28440,7 @@
         <v>110.3</v>
       </c>
       <c r="D1525" s="10">
-        <v>98.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1526" spans="1:4">
@@ -29654,7 +29714,7 @@
         <v>231</v>
       </c>
       <c r="D1616" s="10">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1617" spans="1:4">
@@ -36276,7 +36336,7 @@
         <v>116</v>
       </c>
       <c r="D2089" s="10">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2090" spans="1:4">
@@ -36329,7 +36389,7 @@
         <v>2118</v>
       </c>
       <c r="C2093" s="4">
-        <v>134.5</v>
+        <v>102.2</v>
       </c>
       <c r="D2093" s="10">
         <v>100</v>
@@ -36343,7 +36403,7 @@
         <v>2119</v>
       </c>
       <c r="C2094" s="4">
-        <v>102.5</v>
+        <v>96.9</v>
       </c>
       <c r="D2094" s="10">
         <v>93.65</v>
@@ -36357,7 +36417,7 @@
         <v>2120</v>
       </c>
       <c r="C2095" s="4">
-        <v>168</v>
+        <v>101.4</v>
       </c>
       <c r="D2095" s="10">
         <v>97</v>
@@ -36371,7 +36431,7 @@
         <v>2121</v>
       </c>
       <c r="C2096" s="4">
-        <v>148.69999999999999</v>
+        <v>104.25</v>
       </c>
       <c r="D2096" s="10">
         <v>101</v>
@@ -36385,7 +36445,7 @@
         <v>2122</v>
       </c>
       <c r="C2097" s="4">
-        <v>288</v>
+        <v>100.2</v>
       </c>
       <c r="D2097" s="10">
         <v>99.75</v>
@@ -36399,7 +36459,7 @@
         <v>2123</v>
       </c>
       <c r="C2098" s="4">
-        <v>229</v>
+        <v>112.8</v>
       </c>
       <c r="D2098" s="10">
         <v>107</v>
@@ -36735,20 +36795,20 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2114">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2115:B2121">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2115:B2121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C3EA3D-0DE2-46DC-8483-90B8C273B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A584D41-BDE2-41B0-B0DC-AC163F03EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2150">
   <si>
     <t>名稱</t>
   </si>
@@ -6409,6 +6409,84 @@
   </si>
   <si>
     <t>三發一</t>
+  </si>
+  <si>
+    <t>旭軟二</t>
+  </si>
+  <si>
+    <t>及成四</t>
+  </si>
+  <si>
+    <t>台灣大四</t>
+  </si>
+  <si>
+    <t>台灣大五</t>
+  </si>
+  <si>
+    <t>兆利三</t>
+  </si>
+  <si>
+    <t>哲固一</t>
+  </si>
+  <si>
+    <t>訊芯二KY</t>
+  </si>
+  <si>
+    <t>冠星一KY</t>
+  </si>
+  <si>
+    <t>高鋒二</t>
+  </si>
+  <si>
+    <t>欣巴巴三</t>
+  </si>
+  <si>
+    <t>錼創科技-KY創一</t>
+  </si>
+  <si>
+    <t>訊舟八</t>
+  </si>
+  <si>
+    <t>碩天三</t>
+  </si>
+  <si>
+    <t>順德一</t>
+  </si>
+  <si>
+    <t>承業醫五</t>
+  </si>
+  <si>
+    <t>華友聯四</t>
+  </si>
+  <si>
+    <t>岱宇四</t>
+  </si>
+  <si>
+    <t>旺宏二</t>
+  </si>
+  <si>
+    <t>玖鼎電力一</t>
+  </si>
+  <si>
+    <t>綠茵一</t>
+  </si>
+  <si>
+    <t>綠茵二</t>
+  </si>
+  <si>
+    <t>弘裕三</t>
+  </si>
+  <si>
+    <t>華建三</t>
+  </si>
+  <si>
+    <t>華建四</t>
+  </si>
+  <si>
+    <t>達麗七</t>
+  </si>
+  <si>
+    <t>可寧衛二</t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6729,17 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7082,10 +7170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2121"/>
+  <dimension ref="A1:D2147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2121"/>
+    <sheetView tabSelected="1" topLeftCell="A2125" workbookViewId="0">
+      <selection activeCell="A2129" sqref="A2129:XFD2129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7115,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>100.3</v>
+        <v>108.1</v>
       </c>
       <c r="D2" s="10">
         <v>98.5</v>
@@ -7339,7 +7427,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4">
-        <v>112</v>
+        <v>125.5</v>
       </c>
       <c r="D18" s="10">
         <v>102.8</v>
@@ -7857,7 +7945,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="4">
-        <v>105.45</v>
+        <v>119.85</v>
       </c>
       <c r="D55" s="10">
         <v>100.5</v>
@@ -8165,10 +8253,10 @@
         <v>63</v>
       </c>
       <c r="C77" s="4">
-        <v>116.6</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D77" s="10">
-        <v>106</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9579,7 +9667,7 @@
         <v>151</v>
       </c>
       <c r="C178" s="4">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="D178" s="10">
         <v>95.6</v>
@@ -10055,7 +10143,7 @@
         <v>165</v>
       </c>
       <c r="C212" s="4">
-        <v>111.25</v>
+        <v>120</v>
       </c>
       <c r="D212" s="10">
         <v>100</v>
@@ -10576,7 +10664,7 @@
         <v>134.30000000000001</v>
       </c>
       <c r="D249" s="10">
-        <v>100.7</v>
+        <v>100.35</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10601,7 +10689,7 @@
         <v>202</v>
       </c>
       <c r="C251" s="4">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D251" s="10">
         <v>104</v>
@@ -10671,7 +10759,7 @@
         <v>207</v>
       </c>
       <c r="C256" s="4">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D256" s="10">
         <v>109</v>
@@ -11245,7 +11333,7 @@
         <v>239</v>
       </c>
       <c r="C297" s="4">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D297" s="10">
         <v>97</v>
@@ -11259,7 +11347,7 @@
         <v>240</v>
       </c>
       <c r="C298" s="4">
-        <v>118.3</v>
+        <v>118.5</v>
       </c>
       <c r="D298" s="10">
         <v>102.1</v>
@@ -12155,7 +12243,7 @@
         <v>263</v>
       </c>
       <c r="C362" s="4">
-        <v>101.1</v>
+        <v>108.5</v>
       </c>
       <c r="D362" s="10">
         <v>94.55</v>
@@ -12169,7 +12257,7 @@
         <v>264</v>
       </c>
       <c r="C363" s="4">
-        <v>99.95</v>
+        <v>107.5</v>
       </c>
       <c r="D363" s="10">
         <v>97.7</v>
@@ -12578,7 +12666,7 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D392" s="10">
-        <v>101.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -13401,7 +13489,7 @@
         <v>302</v>
       </c>
       <c r="C451" s="4">
-        <v>119.5</v>
+        <v>123.5</v>
       </c>
       <c r="D451" s="10">
         <v>107.5</v>
@@ -13415,7 +13503,7 @@
         <v>303</v>
       </c>
       <c r="C452" s="4">
-        <v>99.9</v>
+        <v>112.15</v>
       </c>
       <c r="D452" s="10">
         <v>97</v>
@@ -13821,7 +13909,7 @@
         <v>324</v>
       </c>
       <c r="C481" s="4">
-        <v>104.25</v>
+        <v>105.75</v>
       </c>
       <c r="D481" s="10">
         <v>100.2</v>
@@ -13835,7 +13923,7 @@
         <v>325</v>
       </c>
       <c r="C482" s="4">
-        <v>104</v>
+        <v>106.2</v>
       </c>
       <c r="D482" s="10">
         <v>100</v>
@@ -14507,10 +14595,10 @@
         <v>349</v>
       </c>
       <c r="C530" s="4">
-        <v>107.25</v>
+        <v>115.45</v>
       </c>
       <c r="D530" s="10">
-        <v>98.8</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -14731,7 +14819,7 @@
         <v>365</v>
       </c>
       <c r="C546" s="4">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D546" s="10">
         <v>100.3</v>
@@ -15364,7 +15452,7 @@
         <v>140</v>
       </c>
       <c r="D591" s="10">
-        <v>114.5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -16831,7 +16919,7 @@
         <v>486</v>
       </c>
       <c r="C696" s="4">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D696" s="10">
         <v>107</v>
@@ -16904,7 +16992,7 @@
         <v>116.6</v>
       </c>
       <c r="D701" s="10">
-        <v>99.55</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -17069,7 +17157,7 @@
         <v>500</v>
       </c>
       <c r="C713" s="4">
-        <v>107.3</v>
+        <v>112</v>
       </c>
       <c r="D713" s="10">
         <v>99.9</v>
@@ -17926,7 +18014,7 @@
         <v>111.55</v>
       </c>
       <c r="D774" s="10">
-        <v>96</v>
+        <v>95.05</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -18245,7 +18333,7 @@
         <v>570</v>
       </c>
       <c r="C797" s="4">
-        <v>105.9</v>
+        <v>113</v>
       </c>
       <c r="D797" s="10">
         <v>101.05</v>
@@ -18413,7 +18501,7 @@
         <v>582</v>
       </c>
       <c r="C809" s="4">
-        <v>112</v>
+        <v>115.05</v>
       </c>
       <c r="D809" s="10">
         <v>100.8</v>
@@ -18808,7 +18896,7 @@
         <v>104.7</v>
       </c>
       <c r="D837" s="10">
-        <v>99.1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -18917,7 +19005,7 @@
         <v>617</v>
       </c>
       <c r="C845" s="4">
-        <v>134.1</v>
+        <v>151</v>
       </c>
       <c r="D845" s="10">
         <v>112.8</v>
@@ -19127,7 +19215,7 @@
         <v>627</v>
       </c>
       <c r="C860" s="4">
-        <v>140</v>
+        <v>141.5</v>
       </c>
       <c r="D860" s="10">
         <v>110</v>
@@ -19410,7 +19498,7 @@
         <v>154</v>
       </c>
       <c r="D880" s="10">
-        <v>109.05</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -19449,7 +19537,7 @@
         <v>648</v>
       </c>
       <c r="C883" s="4">
-        <v>144.9</v>
+        <v>160</v>
       </c>
       <c r="D883" s="10">
         <v>105.5</v>
@@ -19505,7 +19593,7 @@
         <v>651</v>
       </c>
       <c r="C887" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D887" s="10">
         <v>110.75</v>
@@ -20124,7 +20212,7 @@
         <v>159</v>
       </c>
       <c r="D931" s="10">
-        <v>119.85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -20331,7 +20419,7 @@
         <v>710</v>
       </c>
       <c r="C946" s="4">
-        <v>127</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="D946" s="10">
         <v>101.8</v>
@@ -20555,7 +20643,7 @@
         <v>726</v>
       </c>
       <c r="C962" s="4">
-        <v>134.5</v>
+        <v>162</v>
       </c>
       <c r="D962" s="10">
         <v>94.5</v>
@@ -20877,7 +20965,7 @@
         <v>749</v>
       </c>
       <c r="C985" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D985" s="10">
         <v>115</v>
@@ -20922,7 +21010,7 @@
         <v>111</v>
       </c>
       <c r="D988" s="10">
-        <v>98.05</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -21017,7 +21105,7 @@
         <v>759</v>
       </c>
       <c r="C995" s="4">
-        <v>103.85</v>
+        <v>104.2</v>
       </c>
       <c r="D995" s="10">
         <v>100.65</v>
@@ -21031,7 +21119,7 @@
         <v>760</v>
       </c>
       <c r="C996" s="4">
-        <v>104.5</v>
+        <v>104.9</v>
       </c>
       <c r="D996" s="10">
         <v>101.6</v>
@@ -21146,7 +21234,7 @@
         <v>172</v>
       </c>
       <c r="D1004" s="10">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -21650,7 +21738,7 @@
         <v>117</v>
       </c>
       <c r="D1040" s="10">
-        <v>100.5</v>
+        <v>100.35</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
@@ -21678,7 +21766,7 @@
         <v>139.9</v>
       </c>
       <c r="D1042" s="10">
-        <v>112</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -22210,7 +22298,7 @@
         <v>168</v>
       </c>
       <c r="D1080" s="10">
-        <v>104.2</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -22658,7 +22746,7 @@
         <v>108.8</v>
       </c>
       <c r="D1112" s="10">
-        <v>99.75</v>
+        <v>99.25</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -23131,7 +23219,7 @@
         <v>892</v>
       </c>
       <c r="C1146" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1146" s="10">
         <v>101</v>
@@ -24069,7 +24157,7 @@
         <v>956</v>
       </c>
       <c r="C1213" s="4">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D1213" s="10">
         <v>93.2</v>
@@ -24083,7 +24171,7 @@
         <v>957</v>
       </c>
       <c r="C1214" s="4">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="D1214" s="10">
         <v>99.55</v>
@@ -24321,7 +24409,7 @@
         <v>974</v>
       </c>
       <c r="C1231" s="4">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="D1231" s="10">
         <v>104</v>
@@ -24727,7 +24815,7 @@
         <v>999</v>
       </c>
       <c r="C1260" s="4">
-        <v>105.45</v>
+        <v>107.4</v>
       </c>
       <c r="D1260" s="10">
         <v>101.05</v>
@@ -24940,7 +25028,7 @@
         <v>122</v>
       </c>
       <c r="D1275" s="10">
-        <v>99.9</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1276" spans="1:4">
@@ -25108,7 +25196,7 @@
         <v>121</v>
       </c>
       <c r="D1287" s="10">
-        <v>107.05</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1288" spans="1:4">
@@ -25892,7 +25980,7 @@
         <v>134</v>
       </c>
       <c r="D1343" s="10">
-        <v>106.2</v>
+        <v>106.15</v>
       </c>
     </row>
     <row r="1344" spans="1:4">
@@ -26799,7 +26887,7 @@
         <v>1130</v>
       </c>
       <c r="C1408" s="4">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D1408" s="10">
         <v>101</v>
@@ -26995,7 +27083,7 @@
         <v>1137</v>
       </c>
       <c r="C1422" s="4">
-        <v>143.6</v>
+        <v>146</v>
       </c>
       <c r="D1422" s="10">
         <v>97</v>
@@ -27488,7 +27576,7 @@
         <v>125</v>
       </c>
       <c r="D1457" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -28006,7 +28094,7 @@
         <v>117</v>
       </c>
       <c r="D1494" s="10">
-        <v>94.7</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -28776,7 +28864,7 @@
         <v>118</v>
       </c>
       <c r="D1549" s="10">
-        <v>100</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="1550" spans="1:4">
@@ -29392,7 +29480,7 @@
         <v>130.30000000000001</v>
       </c>
       <c r="D1593" s="10">
-        <v>107.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -30904,7 +30992,7 @@
         <v>129.80000000000001</v>
       </c>
       <c r="D1701" s="10">
-        <v>110.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1702" spans="1:4">
@@ -31013,7 +31101,7 @@
         <v>1711</v>
       </c>
       <c r="C1709" s="4">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D1709" s="10">
         <v>111.8</v>
@@ -31282,7 +31370,7 @@
         <v>118.5</v>
       </c>
       <c r="D1728" s="10">
-        <v>100.8</v>
+        <v>100.55</v>
       </c>
     </row>
     <row r="1729" spans="1:4">
@@ -31643,7 +31731,7 @@
         <v>1756</v>
       </c>
       <c r="C1754" s="4">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D1754" s="10">
         <v>110.55</v>
@@ -32024,7 +32112,7 @@
         <v>122.1</v>
       </c>
       <c r="D1781" s="10">
-        <v>106</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="1782" spans="1:4">
@@ -32192,7 +32280,7 @@
         <v>116.7</v>
       </c>
       <c r="D1793" s="10">
-        <v>107</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="1794" spans="1:4">
@@ -32416,7 +32504,7 @@
         <v>119.35</v>
       </c>
       <c r="D1809" s="10">
-        <v>95.55</v>
+        <v>94.65</v>
       </c>
     </row>
     <row r="1810" spans="1:4">
@@ -32595,7 +32683,7 @@
         <v>1824</v>
       </c>
       <c r="C1822" s="4">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D1822" s="10">
         <v>103.2</v>
@@ -32609,7 +32697,7 @@
         <v>1825</v>
       </c>
       <c r="C1823" s="4">
-        <v>129.5</v>
+        <v>143.9</v>
       </c>
       <c r="D1823" s="10">
         <v>110</v>
@@ -32654,7 +32742,7 @@
         <v>115.9</v>
       </c>
       <c r="D1826" s="10">
-        <v>93.9</v>
+        <v>89.65</v>
       </c>
     </row>
     <row r="1827" spans="1:4">
@@ -32735,7 +32823,7 @@
         <v>1834</v>
       </c>
       <c r="C1832" s="4">
-        <v>137.5</v>
+        <v>172</v>
       </c>
       <c r="D1832" s="10">
         <v>115.8</v>
@@ -32833,10 +32921,10 @@
         <v>1841</v>
       </c>
       <c r="C1839" s="4">
-        <v>106.65</v>
+        <v>113</v>
       </c>
       <c r="D1839" s="10">
-        <v>99.95</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="1840" spans="1:4">
@@ -32889,7 +32977,7 @@
         <v>1845</v>
       </c>
       <c r="C1843" s="4">
-        <v>109.1</v>
+        <v>111.45</v>
       </c>
       <c r="D1843" s="10">
         <v>100</v>
@@ -32903,7 +32991,7 @@
         <v>1846</v>
       </c>
       <c r="C1844" s="4">
-        <v>113</v>
+        <v>114.5</v>
       </c>
       <c r="D1844" s="10">
         <v>101.7</v>
@@ -33099,10 +33187,10 @@
         <v>1860</v>
       </c>
       <c r="C1858" s="4">
-        <v>103.4</v>
+        <v>126</v>
       </c>
       <c r="D1858" s="10">
-        <v>102</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="1859" spans="1:4">
@@ -34429,7 +34517,7 @@
         <v>1955</v>
       </c>
       <c r="C1953" s="4">
-        <v>106.95</v>
+        <v>114</v>
       </c>
       <c r="D1953" s="10">
         <v>102.05</v>
@@ -34516,7 +34604,7 @@
         <v>135</v>
       </c>
       <c r="D1959" s="10">
-        <v>110.45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -35146,7 +35234,7 @@
         <v>118.5</v>
       </c>
       <c r="D2004" s="10">
-        <v>103.1</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="2005" spans="1:4">
@@ -35454,7 +35542,7 @@
         <v>134.1</v>
       </c>
       <c r="D2026" s="10">
-        <v>115.5</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="2027" spans="1:4">
@@ -36165,7 +36253,7 @@
         <v>2079</v>
       </c>
       <c r="C2077" s="4">
-        <v>130</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="D2077" s="10">
         <v>108.55</v>
@@ -36347,7 +36435,7 @@
         <v>2092</v>
       </c>
       <c r="C2090" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2090" s="10">
         <v>102</v>
@@ -36375,7 +36463,7 @@
         <v>2117</v>
       </c>
       <c r="C2092" s="4">
-        <v>110.45</v>
+        <v>114.15</v>
       </c>
       <c r="D2092" s="10">
         <v>101.9</v>
@@ -36403,7 +36491,7 @@
         <v>2119</v>
       </c>
       <c r="C2094" s="4">
-        <v>96.9</v>
+        <v>97.8</v>
       </c>
       <c r="D2094" s="10">
         <v>93.65</v>
@@ -36599,7 +36687,7 @@
         <v>2103</v>
       </c>
       <c r="C2108" s="4">
-        <v>105.4</v>
+        <v>106.5</v>
       </c>
       <c r="D2108" s="10">
         <v>99.95</v>
@@ -36613,7 +36701,7 @@
         <v>2104</v>
       </c>
       <c r="C2109" s="4">
-        <v>106</v>
+        <v>107.7</v>
       </c>
       <c r="D2109" s="10">
         <v>100.15</v>
@@ -36785,6 +36873,370 @@
       </c>
       <c r="D2121" s="10">
         <v>98.5</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4">
+      <c r="A2122" s="2">
+        <v>33902</v>
+      </c>
+      <c r="B2122" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C2122" s="4">
+        <v>119</v>
+      </c>
+      <c r="D2122" s="10">
+        <v>115.55</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4">
+      <c r="A2123" s="2">
+        <v>30954</v>
+      </c>
+      <c r="B2123" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C2123" s="4">
+        <v>123.6</v>
+      </c>
+      <c r="D2123" s="10">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4">
+      <c r="A2124" s="2">
+        <v>30454</v>
+      </c>
+      <c r="B2124" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C2124" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="D2124" s="10">
+        <v>99.35</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4">
+      <c r="A2125" s="2">
+        <v>30455</v>
+      </c>
+      <c r="B2125" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C2125" s="4">
+        <v>103.8</v>
+      </c>
+      <c r="D2125" s="10">
+        <v>100.63</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4">
+      <c r="A2126" s="2">
+        <v>35483</v>
+      </c>
+      <c r="B2126" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C2126" s="4">
+        <v>119.5</v>
+      </c>
+      <c r="D2126" s="10">
+        <v>110.05</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4">
+      <c r="A2127" s="2">
+        <v>34341</v>
+      </c>
+      <c r="B2127" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C2127" s="4">
+        <v>108.5</v>
+      </c>
+      <c r="D2127" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4">
+      <c r="A2128" s="2">
+        <v>64512</v>
+      </c>
+      <c r="B2128" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C2128" s="4">
+        <v>104.05</v>
+      </c>
+      <c r="D2128" s="10">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4">
+      <c r="A2129" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B2129" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C2129" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2129" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4">
+      <c r="A2130" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B2130" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C2130" s="4">
+        <v>121.6</v>
+      </c>
+      <c r="D2130" s="10">
+        <v>110.55</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4">
+      <c r="A2131" s="2">
+        <v>99063</v>
+      </c>
+      <c r="B2131" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C2131" s="4">
+        <v>108</v>
+      </c>
+      <c r="D2131" s="10">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4">
+      <c r="A2132" s="2">
+        <v>68541</v>
+      </c>
+      <c r="B2132" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C2132" s="4">
+        <v>110</v>
+      </c>
+      <c r="D2132" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4">
+      <c r="A2133" s="2">
+        <v>30478</v>
+      </c>
+      <c r="B2133" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C2133" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2133" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4">
+      <c r="A2134" s="2">
+        <v>36173</v>
+      </c>
+      <c r="B2134" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C2134" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2134" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4">
+      <c r="A2135" s="2">
+        <v>23511</v>
+      </c>
+      <c r="B2135" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C2135" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2135" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4">
+      <c r="A2136" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B2136" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C2136" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2136" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4">
+      <c r="A2137" s="2">
+        <v>14364</v>
+      </c>
+      <c r="B2137" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C2137" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2137" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4">
+      <c r="A2138" s="2">
+        <v>15984</v>
+      </c>
+      <c r="B2138" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C2138" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2138" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4">
+      <c r="A2139" s="2">
+        <v>23372</v>
+      </c>
+      <c r="B2139" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C2139" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2139" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4">
+      <c r="A2140" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B2140" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C2140" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2140" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4">
+      <c r="A2141" s="2">
+        <v>68461</v>
+      </c>
+      <c r="B2141" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C2141" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2141" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4">
+      <c r="A2142" s="2">
+        <v>68462</v>
+      </c>
+      <c r="B2142" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C2142" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2142" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4">
+      <c r="A2143" s="2">
+        <v>14743</v>
+      </c>
+      <c r="B2143" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C2143" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2143" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4">
+      <c r="A2144" s="2">
+        <v>25303</v>
+      </c>
+      <c r="B2144" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C2144" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2144" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4">
+      <c r="A2145" s="2">
+        <v>25304</v>
+      </c>
+      <c r="B2145" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C2145" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2145" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4">
+      <c r="A2146" s="2">
+        <v>61777</v>
+      </c>
+      <c r="B2146" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C2146" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2146" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4">
+      <c r="A2147" s="2">
+        <v>84222</v>
+      </c>
+      <c r="B2147" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C2147" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2147" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36795,20 +37247,23 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2114">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2115:B2121">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2122:B2147">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A584D41-BDE2-41B0-B0DC-AC163F03EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA446D35-0CD0-4CFE-9DCF-F45223183097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -6729,7 +6729,67 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7172,8 +7232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2125" workbookViewId="0">
-      <selection activeCell="A2129" sqref="A2129:XFD2129"/>
+    <sheetView tabSelected="1" topLeftCell="A2124" workbookViewId="0">
+      <selection activeCell="C2127" sqref="C2127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7528,7 +7588,7 @@
         <v>243</v>
       </c>
       <c r="D25" s="10">
-        <v>106.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7640,7 +7700,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="10">
-        <v>121.9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8298,7 +8358,7 @@
         <v>141.85</v>
       </c>
       <c r="D80" s="10">
-        <v>113</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8732,7 +8792,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="10">
-        <v>100.3</v>
+        <v>100.15</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -9306,7 +9366,7 @@
         <v>116.95</v>
       </c>
       <c r="D152" s="10">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -10496,7 +10556,7 @@
         <v>118.45</v>
       </c>
       <c r="D237" s="10">
-        <v>98.15</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -10566,7 +10626,7 @@
         <v>133.80000000000001</v>
       </c>
       <c r="D242" s="10">
-        <v>111</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -10664,7 +10724,7 @@
         <v>134.30000000000001</v>
       </c>
       <c r="D249" s="10">
-        <v>100.35</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -12694,7 +12754,7 @@
         <v>124.1</v>
       </c>
       <c r="D394" s="10">
-        <v>109</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -14581,7 +14641,7 @@
         <v>348</v>
       </c>
       <c r="C529" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D529" s="10">
         <v>100.7</v>
@@ -15452,7 +15512,7 @@
         <v>140</v>
       </c>
       <c r="D591" s="10">
-        <v>113</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -17157,7 +17217,7 @@
         <v>500</v>
       </c>
       <c r="C713" s="4">
-        <v>112</v>
+        <v>114.95</v>
       </c>
       <c r="D713" s="10">
         <v>99.9</v>
@@ -17202,7 +17262,7 @@
         <v>130</v>
       </c>
       <c r="D716" s="10">
-        <v>101.2</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -18014,7 +18074,7 @@
         <v>111.55</v>
       </c>
       <c r="D774" s="10">
-        <v>95.05</v>
+        <v>94</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -18896,7 +18956,7 @@
         <v>104.7</v>
       </c>
       <c r="D837" s="10">
-        <v>99</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -18938,7 +18998,7 @@
         <v>129.9</v>
       </c>
       <c r="D840" s="10">
-        <v>108.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -19593,7 +19653,7 @@
         <v>651</v>
       </c>
       <c r="C887" s="4">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D887" s="10">
         <v>110.75</v>
@@ -19708,7 +19768,7 @@
         <v>129.5</v>
       </c>
       <c r="D895" s="10">
-        <v>102.5</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -20100,7 +20160,7 @@
         <v>125</v>
       </c>
       <c r="D923" s="10">
-        <v>104</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -20198,7 +20258,7 @@
         <v>153</v>
       </c>
       <c r="D930" s="10">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="931" spans="1:4">
@@ -20212,7 +20272,7 @@
         <v>159</v>
       </c>
       <c r="D931" s="10">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -20240,7 +20300,7 @@
         <v>158</v>
       </c>
       <c r="D933" s="10">
-        <v>111.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -20419,7 +20479,7 @@
         <v>710</v>
       </c>
       <c r="C946" s="4">
-        <v>133.30000000000001</v>
+        <v>135</v>
       </c>
       <c r="D946" s="10">
         <v>101.8</v>
@@ -21108,7 +21168,7 @@
         <v>104.2</v>
       </c>
       <c r="D995" s="10">
-        <v>100.65</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -21122,7 +21182,7 @@
         <v>104.9</v>
       </c>
       <c r="D996" s="10">
-        <v>101.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -21234,7 +21294,7 @@
         <v>172</v>
       </c>
       <c r="D1004" s="10">
-        <v>105</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -21766,7 +21826,7 @@
         <v>139.9</v>
       </c>
       <c r="D1042" s="10">
-        <v>111.7</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
@@ -21780,7 +21840,7 @@
         <v>136.75</v>
       </c>
       <c r="D1043" s="10">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -22298,7 +22358,7 @@
         <v>168</v>
       </c>
       <c r="D1080" s="10">
-        <v>103.05</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -23026,7 +23086,7 @@
         <v>141</v>
       </c>
       <c r="D1132" s="10">
-        <v>105.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1133" spans="1:4">
@@ -23233,7 +23293,7 @@
         <v>893</v>
       </c>
       <c r="C1147" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1147" s="10">
         <v>107</v>
@@ -24171,7 +24231,7 @@
         <v>957</v>
       </c>
       <c r="C1214" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D1214" s="10">
         <v>99.55</v>
@@ -24496,7 +24556,7 @@
         <v>150</v>
       </c>
       <c r="D1237" s="10">
-        <v>116.65</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -24510,7 +24570,7 @@
         <v>137.5</v>
       </c>
       <c r="D1238" s="10">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -24790,7 +24850,7 @@
         <v>128.19999999999999</v>
       </c>
       <c r="D1258" s="10">
-        <v>108.95</v>
+        <v>105.35</v>
       </c>
     </row>
     <row r="1259" spans="1:4">
@@ -24815,7 +24875,7 @@
         <v>999</v>
       </c>
       <c r="C1260" s="4">
-        <v>107.4</v>
+        <v>109</v>
       </c>
       <c r="D1260" s="10">
         <v>101.05</v>
@@ -25028,7 +25088,7 @@
         <v>122</v>
       </c>
       <c r="D1275" s="10">
-        <v>99.5</v>
+        <v>99.15</v>
       </c>
     </row>
     <row r="1276" spans="1:4">
@@ -25042,7 +25102,7 @@
         <v>100</v>
       </c>
       <c r="D1276" s="10">
-        <v>95.85</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="1277" spans="1:4">
@@ -25140,7 +25200,7 @@
         <v>181</v>
       </c>
       <c r="D1283" s="10">
-        <v>119</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="1284" spans="1:4">
@@ -27324,7 +27384,7 @@
         <v>174</v>
       </c>
       <c r="D1439" s="10">
-        <v>106.05</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -28878,7 +28938,7 @@
         <v>120</v>
       </c>
       <c r="D1550" s="10">
-        <v>103</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="1551" spans="1:4">
@@ -29309,7 +29369,7 @@
         <v>1215</v>
       </c>
       <c r="C1581" s="4">
-        <v>132.94999999999999</v>
+        <v>134.35</v>
       </c>
       <c r="D1581" s="10">
         <v>96.1</v>
@@ -30166,7 +30226,7 @@
         <v>121.6</v>
       </c>
       <c r="D1642" s="10">
-        <v>110.55</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1643" spans="1:4">
@@ -30488,7 +30548,7 @@
         <v>112.9</v>
       </c>
       <c r="D1665" s="10">
-        <v>94.15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1666" spans="1:4">
@@ -31818,7 +31878,7 @@
         <v>135</v>
       </c>
       <c r="D1760" s="10">
-        <v>110.55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1761" spans="1:4">
@@ -32630,7 +32690,7 @@
         <v>108.45</v>
       </c>
       <c r="D1818" s="10">
-        <v>102.55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1819" spans="1:4">
@@ -32683,7 +32743,7 @@
         <v>1824</v>
       </c>
       <c r="C1822" s="4">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D1822" s="10">
         <v>103.2</v>
@@ -32742,7 +32802,7 @@
         <v>115.9</v>
       </c>
       <c r="D1826" s="10">
-        <v>89.65</v>
+        <v>88.05</v>
       </c>
     </row>
     <row r="1827" spans="1:4">
@@ -32770,7 +32830,7 @@
         <v>138</v>
       </c>
       <c r="D1828" s="10">
-        <v>112</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="1829" spans="1:4">
@@ -32882,7 +32942,7 @@
         <v>167</v>
       </c>
       <c r="D1836" s="10">
-        <v>106</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="1837" spans="1:4">
@@ -32910,7 +32970,7 @@
         <v>152</v>
       </c>
       <c r="D1838" s="10">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="1839" spans="1:4">
@@ -32921,7 +32981,7 @@
         <v>1841</v>
       </c>
       <c r="C1839" s="4">
-        <v>113</v>
+        <v>113.8</v>
       </c>
       <c r="D1839" s="10">
         <v>99.8</v>
@@ -32938,7 +32998,7 @@
         <v>130.5</v>
       </c>
       <c r="D1840" s="10">
-        <v>97.5</v>
+        <v>95.15</v>
       </c>
     </row>
     <row r="1841" spans="1:4">
@@ -32952,7 +33012,7 @@
         <v>117.3</v>
       </c>
       <c r="D1841" s="10">
-        <v>104.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -33190,7 +33250,7 @@
         <v>126</v>
       </c>
       <c r="D1858" s="10">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="1859" spans="1:4">
@@ -34517,7 +34577,7 @@
         <v>1955</v>
       </c>
       <c r="C1953" s="4">
-        <v>114</v>
+        <v>127.5</v>
       </c>
       <c r="D1953" s="10">
         <v>102.05</v>
@@ -34573,7 +34633,7 @@
         <v>1959</v>
       </c>
       <c r="C1957" s="4">
-        <v>134.44999999999999</v>
+        <v>136</v>
       </c>
       <c r="D1957" s="10">
         <v>108.65</v>
@@ -34954,7 +35014,7 @@
         <v>120</v>
       </c>
       <c r="D1984" s="10">
-        <v>103.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1985" spans="1:4">
@@ -35388,7 +35448,7 @@
         <v>133</v>
       </c>
       <c r="D2015" s="10">
-        <v>107.95</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -35542,7 +35602,7 @@
         <v>134.1</v>
       </c>
       <c r="D2026" s="10">
-        <v>114.9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2027" spans="1:4">
@@ -36687,7 +36747,7 @@
         <v>2103</v>
       </c>
       <c r="C2108" s="4">
-        <v>106.5</v>
+        <v>106.8</v>
       </c>
       <c r="D2108" s="10">
         <v>99.95</v>
@@ -36701,7 +36761,7 @@
         <v>2104</v>
       </c>
       <c r="C2109" s="4">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="D2109" s="10">
         <v>100.15</v>
@@ -36883,10 +36943,10 @@
         <v>2124</v>
       </c>
       <c r="C2122" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2122" s="10">
-        <v>115.55</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="2123" spans="1:4">
@@ -36897,10 +36957,10 @@
         <v>2125</v>
       </c>
       <c r="C2123" s="4">
-        <v>123.6</v>
+        <v>126.6</v>
       </c>
       <c r="D2123" s="10">
-        <v>112.7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2124" spans="1:4">
@@ -36911,7 +36971,7 @@
         <v>2126</v>
       </c>
       <c r="C2124" s="4">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="D2124" s="10">
         <v>99.35</v>
@@ -36925,7 +36985,7 @@
         <v>2127</v>
       </c>
       <c r="C2125" s="4">
-        <v>103.8</v>
+        <v>104.35</v>
       </c>
       <c r="D2125" s="10">
         <v>100.63</v>
@@ -36942,7 +37002,7 @@
         <v>119.5</v>
       </c>
       <c r="D2126" s="10">
-        <v>110.05</v>
+        <v>107.85</v>
       </c>
     </row>
     <row r="2127" spans="1:4">
@@ -36953,7 +37013,7 @@
         <v>2129</v>
       </c>
       <c r="C2127" s="4">
-        <v>108.5</v>
+        <v>138.25</v>
       </c>
       <c r="D2127" s="10">
         <v>107</v>
@@ -36970,7 +37030,7 @@
         <v>104.05</v>
       </c>
       <c r="D2128" s="10">
-        <v>102.5</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="2129" spans="1:4">
@@ -36981,10 +37041,10 @@
         <v>2131</v>
       </c>
       <c r="C2129" s="4">
-        <v>0</v>
+        <v>103.2</v>
       </c>
       <c r="D2129" s="10">
-        <v>0</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="2130" spans="1:4">
@@ -36998,7 +37058,7 @@
         <v>121.6</v>
       </c>
       <c r="D2130" s="10">
-        <v>110.55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2131" spans="1:4">
@@ -37012,7 +37072,7 @@
         <v>108</v>
       </c>
       <c r="D2131" s="10">
-        <v>105.6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2132" spans="1:4">
@@ -37023,10 +37083,10 @@
         <v>2134</v>
       </c>
       <c r="C2132" s="4">
-        <v>110</v>
+        <v>113.3</v>
       </c>
       <c r="D2132" s="10">
-        <v>110</v>
+        <v>104.95</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -37093,10 +37153,10 @@
         <v>2139</v>
       </c>
       <c r="C2137" s="4">
-        <v>0</v>
+        <v>104.95</v>
       </c>
       <c r="D2137" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2138" spans="1:4">
@@ -37107,10 +37167,10 @@
         <v>2140</v>
       </c>
       <c r="C2138" s="4">
-        <v>0</v>
+        <v>103.5</v>
       </c>
       <c r="D2138" s="10">
-        <v>0</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="2139" spans="1:4">
@@ -37121,10 +37181,10 @@
         <v>2141</v>
       </c>
       <c r="C2139" s="4">
-        <v>0</v>
+        <v>104.55</v>
       </c>
       <c r="D2139" s="10">
-        <v>0</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="2140" spans="1:4">
@@ -37149,10 +37209,10 @@
         <v>2143</v>
       </c>
       <c r="C2141" s="4">
-        <v>0</v>
+        <v>106.9</v>
       </c>
       <c r="D2141" s="10">
-        <v>0</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2142" spans="1:4">
@@ -37163,10 +37223,10 @@
         <v>2144</v>
       </c>
       <c r="C2142" s="4">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="D2142" s="10">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -37177,10 +37237,10 @@
         <v>2145</v>
       </c>
       <c r="C2143" s="4">
-        <v>0</v>
+        <v>99.95</v>
       </c>
       <c r="D2143" s="10">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2144" spans="1:4">
@@ -37247,23 +37307,23 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2114">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2115:B2121">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2122:B2147">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2122:B2147">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788CEDD4-C098-4A32-BFD1-EEEB3089C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627F728-DA8D-4C5C-B544-8D6D8C32365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
   <sheets>
     <sheet name="資料庫" sheetId="1" r:id="rId1"/>
@@ -6618,17 +6618,7 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7001,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
   <dimension ref="A1:D2148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2125" workbookViewId="0">
-      <selection activeCell="C2136" sqref="C2136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -8506,7 +8496,7 @@
         <v>191</v>
       </c>
       <c r="D107" s="4">
-        <v>108.2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -8562,7 +8552,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="4">
-        <v>99.45</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -10242,7 +10232,7 @@
         <v>106.4</v>
       </c>
       <c r="D231" s="4">
-        <v>96.6</v>
+        <v>94.05</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -11163,7 +11153,7 @@
         <v>239</v>
       </c>
       <c r="C297" s="4">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="D297" s="4">
         <v>97</v>
@@ -11177,7 +11167,7 @@
         <v>240</v>
       </c>
       <c r="C298" s="4">
-        <v>118.5</v>
+        <v>134.5</v>
       </c>
       <c r="D298" s="4">
         <v>101.75</v>
@@ -11191,7 +11181,7 @@
         <v>241</v>
       </c>
       <c r="C299" s="4">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D299" s="4">
         <v>105</v>
@@ -13028,7 +13018,7 @@
         <v>138</v>
       </c>
       <c r="D430" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -15142,7 +15132,7 @@
         <v>139.9</v>
       </c>
       <c r="D581" s="4">
-        <v>96.95</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -17844,7 +17834,7 @@
         <v>111.55</v>
       </c>
       <c r="D774" s="4">
-        <v>89.1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -19538,7 +19528,7 @@
         <v>129.5</v>
       </c>
       <c r="D895" s="4">
-        <v>102.05</v>
+        <v>98</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.35">
@@ -19580,7 +19570,7 @@
         <v>159</v>
       </c>
       <c r="D898" s="4">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -19930,7 +19920,7 @@
         <v>125</v>
       </c>
       <c r="D923" s="4">
-        <v>99.15</v>
+        <v>95.1</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.35">
@@ -23472,7 +23462,7 @@
         <v>161</v>
       </c>
       <c r="D1176" s="4">
-        <v>100</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.35">
@@ -24648,7 +24638,7 @@
         <v>109</v>
       </c>
       <c r="D1260" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
@@ -30724,7 +30714,7 @@
         <v>114.85</v>
       </c>
       <c r="D1694" s="4">
-        <v>94.8</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.35">
@@ -32026,7 +32016,7 @@
         <v>123.5</v>
       </c>
       <c r="D1787" s="4">
-        <v>98.1</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.35">
@@ -32205,7 +32195,7 @@
         <v>1802</v>
       </c>
       <c r="C1800" s="4">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D1800" s="4">
         <v>94.6</v>
@@ -32376,7 +32366,7 @@
         <v>119.3</v>
       </c>
       <c r="D1812" s="4">
-        <v>100</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
@@ -32404,7 +32394,7 @@
         <v>110.95</v>
       </c>
       <c r="D1814" s="4">
-        <v>104.5</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.35">
@@ -32460,7 +32450,7 @@
         <v>108.45</v>
       </c>
       <c r="D1818" s="4">
-        <v>97.1</v>
+        <v>95.55</v>
       </c>
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.35">
@@ -32810,7 +32800,7 @@
         <v>111.45</v>
       </c>
       <c r="D1843" s="4">
-        <v>96.2</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="1844" spans="1:4" x14ac:dyDescent="0.35">
@@ -33986,7 +33976,7 @@
         <v>119</v>
       </c>
       <c r="D1927" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.35">
@@ -34336,7 +34326,7 @@
         <v>120.9</v>
       </c>
       <c r="D1952" s="4">
-        <v>100</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.35">
@@ -35078,7 +35068,7 @@
         <v>111.5</v>
       </c>
       <c r="D2005" s="4">
-        <v>96.9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.35">
@@ -35274,7 +35264,7 @@
         <v>178</v>
       </c>
       <c r="D2019" s="4">
-        <v>110.7</v>
+        <v>110.05</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
@@ -35369,7 +35359,7 @@
         <v>2028</v>
       </c>
       <c r="C2026" s="4">
-        <v>134.1</v>
+        <v>144.75</v>
       </c>
       <c r="D2026" s="4">
         <v>106.2</v>
@@ -36198,7 +36188,7 @@
         <v>114.5</v>
       </c>
       <c r="D2085" s="4">
-        <v>85.85</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="2086" spans="1:4" x14ac:dyDescent="0.35">
@@ -36783,7 +36773,7 @@
         <v>2129</v>
       </c>
       <c r="C2127" s="4">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D2127" s="4">
         <v>107</v>
@@ -36800,7 +36790,7 @@
         <v>104.05</v>
       </c>
       <c r="D2128" s="4">
-        <v>89.45</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="2129" spans="1:4" x14ac:dyDescent="0.35">
@@ -36940,7 +36930,7 @@
         <v>103.5</v>
       </c>
       <c r="D2138" s="4">
-        <v>94.2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2139" spans="1:4" x14ac:dyDescent="0.35">
@@ -37063,7 +37053,7 @@
         <v>2149</v>
       </c>
       <c r="C2147" s="4">
-        <v>104.5</v>
+        <v>107.35</v>
       </c>
       <c r="D2147" s="4">
         <v>96.3</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627F728-DA8D-4C5C-B544-8D6D8C32365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7587D39-6159-4893-9AA9-525DE70D4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="2162">
   <si>
     <t>名稱</t>
   </si>
@@ -6444,9 +6444,6 @@
     <t>錼創科技-KY創一</t>
   </si>
   <si>
-    <t>訊舟八</t>
-  </si>
-  <si>
     <t>碩天三</t>
   </si>
   <si>
@@ -6465,9 +6462,6 @@
     <t>旺宏二</t>
   </si>
   <si>
-    <t>玖鼎電力一</t>
-  </si>
-  <si>
     <t>綠茵一</t>
   </si>
   <si>
@@ -6487,6 +6481,48 @@
   </si>
   <si>
     <t>可寧衛二</t>
+  </si>
+  <si>
+    <t>麗升能源二</t>
+  </si>
+  <si>
+    <t>平和環保一創</t>
+  </si>
+  <si>
+    <t>良維十</t>
+  </si>
+  <si>
+    <t>事欣科五</t>
+  </si>
+  <si>
+    <t>迎廣二</t>
+  </si>
+  <si>
+    <t>三洋實業二</t>
+  </si>
+  <si>
+    <t>泓德能源二</t>
+  </si>
+  <si>
+    <t>聯合五</t>
+  </si>
+  <si>
+    <t>健策四</t>
+  </si>
+  <si>
+    <t>氣立四</t>
+  </si>
+  <si>
+    <t>健策五</t>
+  </si>
+  <si>
+    <t>三洋實業三</t>
+  </si>
+  <si>
+    <t>聚隆四</t>
+  </si>
+  <si>
+    <t>鑫龍騰二</t>
   </si>
 </sst>
 </file>
@@ -6618,68 +6654,7 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6989,10 +6964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2148"/>
+  <dimension ref="A1:D2162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2147"/>
+    <sheetView tabSelected="1" topLeftCell="A2135" workbookViewId="0">
+      <selection activeCell="B2157" sqref="B2157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7026,7 +7001,7 @@
         <v>108.1</v>
       </c>
       <c r="D2" s="4">
-        <v>98.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8076,7 +8051,7 @@
         <v>130.30000000000001</v>
       </c>
       <c r="D77" s="4">
-        <v>99.5</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -8552,7 +8527,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="4">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -9487,7 +9462,7 @@
         <v>151</v>
       </c>
       <c r="C178" s="4">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="D178" s="4">
         <v>95.6</v>
@@ -10134,7 +10109,7 @@
         <v>156</v>
       </c>
       <c r="D224" s="4">
-        <v>103.35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -10985,7 +10960,7 @@
         <v>232</v>
       </c>
       <c r="C285" s="4">
-        <v>130.6</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="D285" s="4">
         <v>99.5</v>
@@ -11153,7 +11128,7 @@
         <v>239</v>
       </c>
       <c r="C297" s="4">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="D297" s="4">
         <v>97</v>
@@ -11167,7 +11142,7 @@
         <v>240</v>
       </c>
       <c r="C298" s="4">
-        <v>134.5</v>
+        <v>148.5</v>
       </c>
       <c r="D298" s="4">
         <v>101.75</v>
@@ -11181,7 +11156,7 @@
         <v>241</v>
       </c>
       <c r="C299" s="4">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D299" s="4">
         <v>105</v>
@@ -12486,7 +12461,7 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D392" s="4">
-        <v>100</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -14404,7 +14379,7 @@
         <v>150</v>
       </c>
       <c r="D529" s="4">
-        <v>100.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -14639,7 +14614,7 @@
         <v>365</v>
       </c>
       <c r="C546" s="4">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D546" s="4">
         <v>100.3</v>
@@ -16742,7 +16717,7 @@
         <v>167</v>
       </c>
       <c r="D696" s="4">
-        <v>106.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
@@ -16980,7 +16955,7 @@
         <v>114.95</v>
       </c>
       <c r="D713" s="4">
-        <v>98.85</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
@@ -17834,7 +17809,7 @@
         <v>111.55</v>
       </c>
       <c r="D774" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -18156,7 +18131,7 @@
         <v>113</v>
       </c>
       <c r="D797" s="4">
-        <v>101.05</v>
+        <v>95</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.35">
@@ -18282,7 +18257,7 @@
         <v>139</v>
       </c>
       <c r="D806" s="4">
-        <v>94.05</v>
+        <v>92.05</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.35">
@@ -18394,7 +18369,7 @@
         <v>111.25</v>
       </c>
       <c r="D814" s="4">
-        <v>95.45</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.35">
@@ -19262,7 +19237,7 @@
         <v>123</v>
       </c>
       <c r="D876" s="4">
-        <v>103</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.35">
@@ -23042,7 +23017,7 @@
         <v>109</v>
       </c>
       <c r="D1146" s="4">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.35">
@@ -23462,7 +23437,7 @@
         <v>161</v>
       </c>
       <c r="D1176" s="4">
-        <v>99.6</v>
+        <v>98.05</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.35">
@@ -24204,7 +24179,7 @@
         <v>208</v>
       </c>
       <c r="D1229" s="4">
-        <v>100.05</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.35">
@@ -24470,7 +24445,7 @@
         <v>119.7</v>
       </c>
       <c r="D1248" s="4">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
@@ -24862,7 +24837,7 @@
         <v>100</v>
       </c>
       <c r="D1276" s="4">
-        <v>89.05</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.35">
@@ -25013,7 +24988,7 @@
         <v>1025</v>
       </c>
       <c r="C1287" s="4">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D1287" s="4">
         <v>95.05</v>
@@ -27396,7 +27371,7 @@
         <v>125</v>
       </c>
       <c r="D1457" s="4">
-        <v>97.6</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.35">
@@ -27715,7 +27690,7 @@
         <v>1576</v>
       </c>
       <c r="C1480" s="4">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D1480" s="4">
         <v>110</v>
@@ -29255,7 +29230,7 @@
         <v>1223</v>
       </c>
       <c r="C1590" s="4">
-        <v>131.4</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="D1590" s="4">
         <v>106.1</v>
@@ -29983,7 +29958,7 @@
         <v>1254</v>
       </c>
       <c r="C1642" s="4">
-        <v>121.6</v>
+        <v>122</v>
       </c>
       <c r="D1642" s="4">
         <v>96.5</v>
@@ -30728,7 +30703,7 @@
         <v>111.75</v>
       </c>
       <c r="D1695" s="4">
-        <v>96.4</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.35">
@@ -30809,7 +30784,7 @@
         <v>1703</v>
       </c>
       <c r="C1701" s="4">
-        <v>129.80000000000001</v>
+        <v>144</v>
       </c>
       <c r="D1701" s="4">
         <v>101.55</v>
@@ -30952,7 +30927,7 @@
         <v>124.65</v>
       </c>
       <c r="D1711" s="4">
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.35">
@@ -31341,7 +31316,7 @@
         <v>1741</v>
       </c>
       <c r="C1739" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D1739" s="4">
         <v>108.2</v>
@@ -31456,7 +31431,7 @@
         <v>154</v>
       </c>
       <c r="D1747" s="4">
-        <v>114.15</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.35">
@@ -32366,7 +32341,7 @@
         <v>119.3</v>
       </c>
       <c r="D1812" s="4">
-        <v>99.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
@@ -32394,7 +32369,7 @@
         <v>110.95</v>
       </c>
       <c r="D1814" s="4">
-        <v>104.05</v>
+        <v>103.55</v>
       </c>
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.35">
@@ -32520,7 +32495,7 @@
         <v>143.9</v>
       </c>
       <c r="D1823" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.35">
@@ -32800,7 +32775,7 @@
         <v>111.45</v>
       </c>
       <c r="D1843" s="4">
-        <v>95.3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1844" spans="1:4" x14ac:dyDescent="0.35">
@@ -34326,7 +34301,7 @@
         <v>120.9</v>
       </c>
       <c r="D1952" s="4">
-        <v>99.6</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.35">
@@ -34410,7 +34385,7 @@
         <v>128</v>
       </c>
       <c r="D1958" s="4">
-        <v>98</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="1959" spans="1:4" x14ac:dyDescent="0.35">
@@ -34421,7 +34396,7 @@
         <v>1961</v>
       </c>
       <c r="C1959" s="4">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="D1959" s="4">
         <v>99.1</v>
@@ -35040,7 +35015,7 @@
         <v>147.85</v>
       </c>
       <c r="D2003" s="4">
-        <v>104.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.35">
@@ -35264,7 +35239,7 @@
         <v>178</v>
       </c>
       <c r="D2019" s="4">
-        <v>110.05</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
@@ -35334,7 +35309,7 @@
         <v>121.85</v>
       </c>
       <c r="D2024" s="4">
-        <v>90.15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.35">
@@ -35348,7 +35323,7 @@
         <v>116.95</v>
       </c>
       <c r="D2025" s="4">
-        <v>99.95</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.35">
@@ -35359,7 +35334,7 @@
         <v>2028</v>
       </c>
       <c r="C2026" s="4">
-        <v>144.75</v>
+        <v>186</v>
       </c>
       <c r="D2026" s="4">
         <v>106.2</v>
@@ -36258,7 +36233,7 @@
         <v>114</v>
       </c>
       <c r="D2090" s="4">
-        <v>95.5</v>
+        <v>93.05</v>
       </c>
     </row>
     <row r="2091" spans="1:4" x14ac:dyDescent="0.35">
@@ -36507,7 +36482,7 @@
         <v>2103</v>
       </c>
       <c r="C2108" s="4">
-        <v>106.8</v>
+        <v>111.5</v>
       </c>
       <c r="D2108" s="4">
         <v>99.95</v>
@@ -36521,7 +36496,7 @@
         <v>2104</v>
       </c>
       <c r="C2109" s="4">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D2109" s="4">
         <v>96</v>
@@ -36720,7 +36695,7 @@
         <v>126.6</v>
       </c>
       <c r="D2123" s="4">
-        <v>111</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="2124" spans="1:4" x14ac:dyDescent="0.35">
@@ -36790,7 +36765,7 @@
         <v>104.05</v>
       </c>
       <c r="D2128" s="4">
-        <v>88.2</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="2129" spans="1:4" x14ac:dyDescent="0.35">
@@ -36843,7 +36818,7 @@
         <v>2134</v>
       </c>
       <c r="C2132" s="4">
-        <v>113.3</v>
+        <v>119</v>
       </c>
       <c r="D2132" s="4">
         <v>100.05</v>
@@ -36851,219 +36826,423 @@
     </row>
     <row r="2133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2133" s="2">
-        <v>30478</v>
+        <v>36173</v>
       </c>
       <c r="B2133" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="C2133" s="4">
-        <v>0</v>
+        <v>108.15</v>
       </c>
       <c r="D2133" s="4">
-        <v>0</v>
+        <v>99.85</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2134" s="2">
-        <v>36173</v>
+        <v>23511</v>
       </c>
       <c r="B2134" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="C2134" s="4">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D2134" s="4">
-        <v>0</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="2135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2135" s="2">
-        <v>23511</v>
+        <v>41645</v>
       </c>
       <c r="B2135" s="2" t="s">
         <v>2137</v>
       </c>
       <c r="C2135" s="4">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D2135" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2136" s="2">
-        <v>41645</v>
+        <v>14364</v>
       </c>
       <c r="B2136" s="2" t="s">
         <v>2138</v>
       </c>
       <c r="C2136" s="4">
-        <v>0</v>
+        <v>104.95</v>
       </c>
       <c r="D2136" s="4">
-        <v>0</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2137" s="2">
-        <v>14364</v>
+        <v>15984</v>
       </c>
       <c r="B2137" s="2" t="s">
         <v>2139</v>
       </c>
       <c r="C2137" s="4">
-        <v>104.95</v>
+        <v>103.5</v>
       </c>
       <c r="D2137" s="4">
-        <v>92.5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2138" s="2">
-        <v>15984</v>
+        <v>23372</v>
       </c>
       <c r="B2138" s="2" t="s">
         <v>2140</v>
       </c>
       <c r="C2138" s="4">
-        <v>103.5</v>
+        <v>104.55</v>
       </c>
       <c r="D2138" s="4">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2139" s="2">
-        <v>23372</v>
+        <v>68461</v>
       </c>
       <c r="B2139" s="2" t="s">
         <v>2141</v>
       </c>
       <c r="C2139" s="4">
-        <v>104.55</v>
+        <v>106.9</v>
       </c>
       <c r="D2139" s="4">
-        <v>87</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="2140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2140" s="2">
-        <v>45881</v>
+        <v>68462</v>
       </c>
       <c r="B2140" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="C2140" s="4">
-        <v>0</v>
+        <v>106.7</v>
       </c>
       <c r="D2140" s="4">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2141" s="2">
-        <v>68461</v>
+        <v>14743</v>
       </c>
       <c r="B2141" s="2" t="s">
         <v>2143</v>
       </c>
       <c r="C2141" s="4">
-        <v>106.9</v>
+        <v>99.95</v>
       </c>
       <c r="D2141" s="4">
-        <v>92.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2142" s="2">
-        <v>68462</v>
+        <v>25303</v>
       </c>
       <c r="B2142" s="2" t="s">
         <v>2144</v>
       </c>
       <c r="C2142" s="4">
-        <v>106.7</v>
+        <v>94.95</v>
       </c>
       <c r="D2142" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2143" s="2">
-        <v>14743</v>
+        <v>25304</v>
       </c>
       <c r="B2143" s="2" t="s">
         <v>2145</v>
       </c>
       <c r="C2143" s="4">
-        <v>99.95</v>
+        <v>97</v>
       </c>
       <c r="D2143" s="4">
-        <v>89.5</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="2144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2144" s="2">
-        <v>25303</v>
+        <v>61777</v>
       </c>
       <c r="B2144" s="2" t="s">
         <v>2146</v>
       </c>
       <c r="C2144" s="4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D2144" s="4">
-        <v>0</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="2145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2145" s="2">
-        <v>25304</v>
+        <v>84222</v>
       </c>
       <c r="B2145" s="2" t="s">
         <v>2147</v>
       </c>
       <c r="C2145" s="4">
-        <v>0</v>
+        <v>107.4</v>
       </c>
       <c r="D2145" s="4">
-        <v>0</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="2146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2146" s="2">
-        <v>61777</v>
+        <v>80872</v>
       </c>
       <c r="B2146" s="2" t="s">
         <v>2148</v>
       </c>
       <c r="C2146" s="4">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D2146" s="4">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2147" s="2">
-        <v>84222</v>
+        <v>67711</v>
       </c>
       <c r="B2147" s="2" t="s">
         <v>2149</v>
       </c>
       <c r="C2147" s="4">
-        <v>107.35</v>
+        <v>118</v>
       </c>
       <c r="D2147" s="4">
-        <v>96.3</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="2148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2148" s="2"/>
-      <c r="B2148" s="2"/>
-      <c r="C2148" s="4"/>
-      <c r="D2148" s="4"/>
+      <c r="A2148" s="2">
+        <v>629010</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C2148" s="4">
+        <v>134.5</v>
+      </c>
+      <c r="D2148" s="4">
+        <v>117.85</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2149" s="2">
+        <v>49165</v>
+      </c>
+      <c r="B2149" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C2149" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="D2149" s="4">
+        <v>100.65</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2150" s="2">
+        <v>61172</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C2150" s="4">
+        <v>121.8</v>
+      </c>
+      <c r="D2150" s="4">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2151" s="2">
+        <v>14722</v>
+      </c>
+      <c r="B2151" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C2151" s="4">
+        <v>110.3</v>
+      </c>
+      <c r="D2151" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2152" s="2">
+        <v>68732</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C2152" s="4">
+        <v>114</v>
+      </c>
+      <c r="D2152" s="4">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2153" s="2">
+        <v>41295</v>
+      </c>
+      <c r="B2153" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C2153" s="4">
+        <v>114</v>
+      </c>
+      <c r="D2153" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2154" s="2">
+        <v>36534</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C2154" s="4">
+        <v>124.4</v>
+      </c>
+      <c r="D2154" s="4">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2155" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B2155" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C2155" s="4">
+        <v>102.1</v>
+      </c>
+      <c r="D2155" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2156" s="2">
+        <v>36535</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C2156" s="4">
+        <v>123.4</v>
+      </c>
+      <c r="D2156" s="4">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2157" s="2">
+        <v>36173</v>
+      </c>
+      <c r="B2157" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C2157" s="4">
+        <v>108.15</v>
+      </c>
+      <c r="D2157" s="4">
+        <v>99.85</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2158" s="2">
+        <v>23511</v>
+      </c>
+      <c r="B2158" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C2158" s="4">
+        <v>112</v>
+      </c>
+      <c r="D2158" s="4">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2159" s="2">
+        <v>14723</v>
+      </c>
+      <c r="B2159" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C2159" s="4">
+        <v>99</v>
+      </c>
+      <c r="D2159" s="4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2160" s="2">
+        <v>14664</v>
+      </c>
+      <c r="B2160" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C2160" s="4">
+        <v>107.8</v>
+      </c>
+      <c r="D2160" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2161" s="2">
+        <v>31882</v>
+      </c>
+      <c r="B2161" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C2161" s="4">
+        <v>99</v>
+      </c>
+      <c r="D2161" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2162" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B2162" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C2162" s="4">
+        <v>110</v>
+      </c>
+      <c r="D2162" s="4">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{560938A7-4414-491C-AA09-6A0E6F3D3732}">

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AC4C2-5F38-4C58-A302-93C6F8C849C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD1748-60AB-4FC7-A86F-5B23680F4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="2183">
   <si>
     <t>名稱</t>
   </si>
@@ -6538,6 +6538,54 @@
   </si>
   <si>
     <t>遠見一</t>
+  </si>
+  <si>
+    <t>大井泵浦一</t>
+  </si>
+  <si>
+    <t>凡甲七</t>
+  </si>
+  <si>
+    <t>大樹三</t>
+  </si>
+  <si>
+    <t>竣邦一KY</t>
+  </si>
+  <si>
+    <t>福貞三KY</t>
+  </si>
+  <si>
+    <t>科妍三</t>
+  </si>
+  <si>
+    <t>大井泵浦二</t>
+  </si>
+  <si>
+    <t>進典一</t>
+  </si>
+  <si>
+    <t>弘塑二</t>
+  </si>
+  <si>
+    <t>大量二</t>
+  </si>
+  <si>
+    <t>正德八</t>
+  </si>
+  <si>
+    <t>意德士一</t>
+  </si>
+  <si>
+    <t>意德士二</t>
+  </si>
+  <si>
+    <t>光隆精密一KY</t>
+  </si>
+  <si>
+    <t>聯寶一</t>
+  </si>
+  <si>
+    <t>漢磊五</t>
   </si>
 </sst>
 </file>
@@ -6979,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2170"/>
+  <dimension ref="A1:D2186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2158" workbookViewId="0">
+      <selection activeCell="B2167" sqref="B2167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -7016,7 +7064,7 @@
         <v>108.1</v>
       </c>
       <c r="D2" s="4">
-        <v>97.6</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8931,7 +8979,7 @@
         <v>116</v>
       </c>
       <c r="C139" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D139" s="4">
         <v>97.55</v>
@@ -10124,7 +10172,7 @@
         <v>156</v>
       </c>
       <c r="D224" s="4">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -10373,7 +10421,7 @@
         <v>193</v>
       </c>
       <c r="C242" s="4">
-        <v>133.80000000000001</v>
+        <v>147</v>
       </c>
       <c r="D242" s="4">
         <v>106</v>
@@ -10975,7 +11023,7 @@
         <v>232</v>
       </c>
       <c r="C285" s="4">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D285" s="4">
         <v>99.5</v>
@@ -11157,7 +11205,7 @@
         <v>240</v>
       </c>
       <c r="C298" s="4">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="D298" s="4">
         <v>101.75</v>
@@ -13008,7 +13056,7 @@
         <v>138</v>
       </c>
       <c r="D430" s="4">
-        <v>99</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
@@ -14629,7 +14677,7 @@
         <v>365</v>
       </c>
       <c r="C546" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D546" s="4">
         <v>100.3</v>
@@ -16732,7 +16780,7 @@
         <v>167</v>
       </c>
       <c r="D696" s="4">
-        <v>106</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
@@ -17334,7 +17382,7 @@
         <v>155</v>
       </c>
       <c r="D739" s="4">
-        <v>99</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.35">
@@ -17625,7 +17673,7 @@
         <v>540</v>
       </c>
       <c r="C760" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D760" s="4">
         <v>92</v>
@@ -18213,7 +18261,7 @@
         <v>575</v>
       </c>
       <c r="C802" s="4">
-        <v>132.9</v>
+        <v>180</v>
       </c>
       <c r="D802" s="4">
         <v>99.5</v>
@@ -19025,7 +19073,7 @@
         <v>627</v>
       </c>
       <c r="C860" s="4">
-        <v>141.5</v>
+        <v>154</v>
       </c>
       <c r="D860" s="4">
         <v>107.3</v>
@@ -19560,7 +19608,7 @@
         <v>159</v>
       </c>
       <c r="D898" s="4">
-        <v>102.85</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -20106,7 +20154,7 @@
         <v>119</v>
       </c>
       <c r="D937" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.35">
@@ -20229,7 +20277,7 @@
         <v>710</v>
       </c>
       <c r="C946" s="4">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D946" s="4">
         <v>97</v>
@@ -20708,7 +20756,7 @@
         <v>168</v>
       </c>
       <c r="D980" s="4">
-        <v>104.3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
@@ -20775,7 +20823,7 @@
         <v>749</v>
       </c>
       <c r="C985" s="4">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D985" s="4">
         <v>115</v>
@@ -21041,7 +21089,7 @@
         <v>768</v>
       </c>
       <c r="C1004" s="4">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D1004" s="4">
         <v>100.2</v>
@@ -21055,7 +21103,7 @@
         <v>769</v>
       </c>
       <c r="C1005" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D1005" s="4">
         <v>102.7</v>
@@ -22038,7 +22086,7 @@
         <v>153</v>
       </c>
       <c r="D1075" s="4">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.35">
@@ -23029,7 +23077,7 @@
         <v>892</v>
       </c>
       <c r="C1146" s="4">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D1146" s="4">
         <v>95</v>
@@ -23967,7 +24015,7 @@
         <v>956</v>
       </c>
       <c r="C1213" s="4">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D1213" s="4">
         <v>93.2</v>
@@ -23981,7 +24029,7 @@
         <v>957</v>
       </c>
       <c r="C1214" s="4">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D1214" s="4">
         <v>99.55</v>
@@ -24460,7 +24508,7 @@
         <v>119.7</v>
       </c>
       <c r="D1248" s="4">
-        <v>98.3</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
@@ -24628,7 +24676,7 @@
         <v>109</v>
       </c>
       <c r="D1260" s="4">
-        <v>98</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
@@ -25003,7 +25051,7 @@
         <v>1025</v>
       </c>
       <c r="C1287" s="4">
-        <v>149.4</v>
+        <v>183</v>
       </c>
       <c r="D1287" s="4">
         <v>95.05</v>
@@ -25185,7 +25233,7 @@
         <v>1036</v>
       </c>
       <c r="C1300" s="4">
-        <v>132.55000000000001</v>
+        <v>161</v>
       </c>
       <c r="D1300" s="4">
         <v>97.8</v>
@@ -27705,7 +27753,7 @@
         <v>1576</v>
       </c>
       <c r="C1480" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1480" s="4">
         <v>110</v>
@@ -28867,7 +28915,7 @@
         <v>1207</v>
       </c>
       <c r="C1563" s="4">
-        <v>105.2</v>
+        <v>120.3</v>
       </c>
       <c r="D1563" s="4">
         <v>98</v>
@@ -29119,7 +29167,7 @@
         <v>1215</v>
       </c>
       <c r="C1581" s="4">
-        <v>134.35</v>
+        <v>166</v>
       </c>
       <c r="D1581" s="4">
         <v>96.1</v>
@@ -29245,7 +29293,7 @@
         <v>1223</v>
       </c>
       <c r="C1590" s="4">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D1590" s="4">
         <v>106.1</v>
@@ -29287,7 +29335,7 @@
         <v>1224</v>
       </c>
       <c r="C1593" s="4">
-        <v>130.30000000000001</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="D1593" s="4">
         <v>101.75</v>
@@ -29973,7 +30021,7 @@
         <v>1254</v>
       </c>
       <c r="C1642" s="4">
-        <v>132.94999999999999</v>
+        <v>159</v>
       </c>
       <c r="D1642" s="4">
         <v>96.5</v>
@@ -30799,7 +30847,7 @@
         <v>1703</v>
       </c>
       <c r="C1701" s="4">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D1701" s="4">
         <v>101.55</v>
@@ -31625,7 +31673,7 @@
         <v>1762</v>
       </c>
       <c r="C1760" s="4">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="D1760" s="4">
         <v>97</v>
@@ -31712,7 +31760,7 @@
         <v>155</v>
       </c>
       <c r="D1766" s="4">
-        <v>100</v>
+        <v>99.35</v>
       </c>
     </row>
     <row r="1767" spans="1:4" x14ac:dyDescent="0.35">
@@ -31751,7 +31799,7 @@
         <v>1771</v>
       </c>
       <c r="C1769" s="4">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D1769" s="4">
         <v>109.2</v>
@@ -32087,7 +32135,7 @@
         <v>1795</v>
       </c>
       <c r="C1793" s="4">
-        <v>127.5</v>
+        <v>145</v>
       </c>
       <c r="D1793" s="4">
         <v>101</v>
@@ -32101,7 +32149,7 @@
         <v>1796</v>
       </c>
       <c r="C1794" s="4">
-        <v>118</v>
+        <v>135.15</v>
       </c>
       <c r="D1794" s="4">
         <v>98</v>
@@ -32356,7 +32404,7 @@
         <v>119.3</v>
       </c>
       <c r="D1812" s="4">
-        <v>98</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
@@ -32384,7 +32432,7 @@
         <v>110.95</v>
       </c>
       <c r="D1814" s="4">
-        <v>103.55</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.35">
@@ -32437,7 +32485,7 @@
         <v>1820</v>
       </c>
       <c r="C1818" s="4">
-        <v>108.45</v>
+        <v>109.9</v>
       </c>
       <c r="D1818" s="4">
         <v>95.55</v>
@@ -32510,7 +32558,7 @@
         <v>143.9</v>
       </c>
       <c r="D1823" s="4">
-        <v>106.5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.35">
@@ -32692,7 +32740,7 @@
         <v>167</v>
       </c>
       <c r="D1836" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1837" spans="1:4" x14ac:dyDescent="0.35">
@@ -32997,7 +33045,7 @@
         <v>1860</v>
       </c>
       <c r="C1858" s="4">
-        <v>126</v>
+        <v>127.7</v>
       </c>
       <c r="D1858" s="4">
         <v>94</v>
@@ -34327,7 +34375,7 @@
         <v>1955</v>
       </c>
       <c r="C1953" s="4">
-        <v>127.5</v>
+        <v>135</v>
       </c>
       <c r="D1953" s="4">
         <v>102.05</v>
@@ -34411,7 +34459,7 @@
         <v>1961</v>
       </c>
       <c r="C1959" s="4">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D1959" s="4">
         <v>99.1</v>
@@ -34985,7 +35033,7 @@
         <v>2002</v>
       </c>
       <c r="C2000" s="4">
-        <v>133</v>
+        <v>139.25</v>
       </c>
       <c r="D2000" s="4">
         <v>102.7</v>
@@ -35044,7 +35092,7 @@
         <v>118.5</v>
       </c>
       <c r="D2004" s="4">
-        <v>99.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.35">
@@ -36710,7 +36758,7 @@
         <v>126.6</v>
       </c>
       <c r="D2123" s="4">
-        <v>107</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="2124" spans="1:4" x14ac:dyDescent="0.35">
@@ -36861,7 +36909,7 @@
         <v>2136</v>
       </c>
       <c r="C2134" s="4">
-        <v>118.35</v>
+        <v>132</v>
       </c>
       <c r="D2134" s="4">
         <v>102.2</v>
@@ -36875,7 +36923,7 @@
         <v>2137</v>
       </c>
       <c r="C2135" s="4">
-        <v>111.3</v>
+        <v>121.3</v>
       </c>
       <c r="D2135" s="4">
         <v>104</v>
@@ -36976,7 +37024,7 @@
         <v>98.8</v>
       </c>
       <c r="D2142" s="4">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.35">
@@ -36987,7 +37035,7 @@
         <v>2145</v>
       </c>
       <c r="C2143" s="4">
-        <v>97.75</v>
+        <v>99.6</v>
       </c>
       <c r="D2143" s="4">
         <v>92.4</v>
@@ -37015,7 +37063,7 @@
         <v>2147</v>
       </c>
       <c r="C2145" s="4">
-        <v>112.35</v>
+        <v>116.3</v>
       </c>
       <c r="D2145" s="4">
         <v>96.3</v>
@@ -37032,7 +37080,7 @@
         <v>107</v>
       </c>
       <c r="D2146" s="4">
-        <v>96</v>
+        <v>92.35</v>
       </c>
     </row>
     <row r="2147" spans="1:4" x14ac:dyDescent="0.35">
@@ -37057,7 +37105,7 @@
         <v>2150</v>
       </c>
       <c r="C2148" s="4">
-        <v>143.94999999999999</v>
+        <v>151</v>
       </c>
       <c r="D2148" s="4">
         <v>117.85</v>
@@ -37071,7 +37119,7 @@
         <v>2151</v>
       </c>
       <c r="C2149" s="4">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="D2149" s="4">
         <v>99</v>
@@ -37116,7 +37164,7 @@
         <v>114</v>
       </c>
       <c r="D2152" s="4">
-        <v>102.8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
@@ -37127,7 +37175,7 @@
         <v>2155</v>
       </c>
       <c r="C2153" s="4">
-        <v>114</v>
+        <v>122.1</v>
       </c>
       <c r="D2153" s="4">
         <v>106</v>
@@ -37141,7 +37189,7 @@
         <v>2156</v>
       </c>
       <c r="C2154" s="4">
-        <v>124.4</v>
+        <v>158</v>
       </c>
       <c r="D2154" s="4">
         <v>108.5</v>
@@ -37155,7 +37203,7 @@
         <v>2157</v>
       </c>
       <c r="C2155" s="4">
-        <v>102.1</v>
+        <v>119.5</v>
       </c>
       <c r="D2155" s="4">
         <v>100</v>
@@ -37169,10 +37217,10 @@
         <v>2158</v>
       </c>
       <c r="C2156" s="4">
-        <v>123.45</v>
+        <v>159</v>
       </c>
       <c r="D2156" s="4">
-        <v>116.75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.35">
@@ -37197,7 +37245,7 @@
         <v>2136</v>
       </c>
       <c r="C2158" s="4">
-        <v>118.35</v>
+        <v>132</v>
       </c>
       <c r="D2158" s="4">
         <v>102.2</v>
@@ -37214,7 +37262,7 @@
         <v>99.45</v>
       </c>
       <c r="D2159" s="4">
-        <v>95.55</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.35">
@@ -37253,122 +37301,346 @@
         <v>2137</v>
       </c>
       <c r="C2162" s="4">
-        <v>111.3</v>
+        <v>121.3</v>
       </c>
       <c r="D2162" s="4">
         <v>104</v>
       </c>
     </row>
     <row r="2163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2163" s="1">
+      <c r="A2163" s="2">
         <v>65381</v>
       </c>
-      <c r="B2163" s="1" t="s">
+      <c r="B2163" s="2" t="s">
         <v>2162</v>
       </c>
-      <c r="C2163">
+      <c r="C2163" s="4">
         <v>101</v>
       </c>
-      <c r="D2163">
+      <c r="D2163" s="4">
         <v>92.5</v>
       </c>
     </row>
     <row r="2164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2164" s="1">
+      <c r="A2164" s="2">
         <v>22472</v>
       </c>
-      <c r="B2164" s="1" t="s">
+      <c r="B2164" s="2" t="s">
         <v>2163</v>
       </c>
-      <c r="C2164">
+      <c r="C2164" s="4">
         <v>119.95</v>
       </c>
-      <c r="D2164">
+      <c r="D2164" s="4">
         <v>102</v>
       </c>
     </row>
     <row r="2165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2165" s="1">
+      <c r="A2165" s="2">
         <v>25303</v>
       </c>
-      <c r="B2165" s="1" t="s">
+      <c r="B2165" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="C2165">
+      <c r="C2165" s="4">
         <v>98.8</v>
       </c>
-      <c r="D2165">
-        <v>93</v>
+      <c r="D2165" s="4">
+        <v>91</v>
       </c>
     </row>
     <row r="2166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2166" s="1">
+      <c r="A2166" s="2">
         <v>61565</v>
       </c>
-      <c r="B2166" s="1" t="s">
+      <c r="B2166" s="2" t="s">
         <v>2164</v>
       </c>
-      <c r="C2166">
+      <c r="C2166" s="4">
         <v>111.3</v>
       </c>
-      <c r="D2166">
+      <c r="D2166" s="4">
         <v>102.5</v>
       </c>
     </row>
     <row r="2167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2167" s="1">
+      <c r="A2167" s="2">
         <v>61777</v>
       </c>
-      <c r="B2167" s="1" t="s">
+      <c r="B2167" s="2" t="s">
         <v>2146</v>
       </c>
-      <c r="C2167">
+      <c r="C2167" s="4">
         <v>110.4</v>
       </c>
-      <c r="D2167">
+      <c r="D2167" s="4">
         <v>100.5</v>
       </c>
     </row>
     <row r="2168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2168" s="1">
+      <c r="A2168" s="2">
         <v>22471</v>
       </c>
-      <c r="B2168" s="1" t="s">
+      <c r="B2168" s="2" t="s">
         <v>2165</v>
       </c>
-      <c r="C2168">
+      <c r="C2168" s="4">
         <v>118.5</v>
       </c>
-      <c r="D2168">
+      <c r="D2168" s="4">
         <v>101.1</v>
       </c>
     </row>
     <row r="2169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2169" s="1">
+      <c r="A2169" s="2">
         <v>25304</v>
       </c>
-      <c r="B2169" s="1" t="s">
+      <c r="B2169" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="C2169">
-        <v>97.75</v>
-      </c>
-      <c r="D2169">
+      <c r="C2169" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="D2169" s="4">
         <v>92.4</v>
       </c>
     </row>
     <row r="2170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2170" s="1">
+      <c r="A2170" s="2">
         <v>30401</v>
       </c>
-      <c r="B2170" s="1" t="s">
+      <c r="B2170" s="2" t="s">
         <v>2166</v>
       </c>
-      <c r="C2170">
+      <c r="C2170" s="4">
         <v>148.05000000000001</v>
       </c>
-      <c r="D2170">
+      <c r="D2170" s="4">
         <v>110</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2171" s="2">
+        <v>69821</v>
+      </c>
+      <c r="B2171" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C2171" s="4">
+        <v>119.5</v>
+      </c>
+      <c r="D2171" s="4">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2172" s="2">
+        <v>35267</v>
+      </c>
+      <c r="B2172" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C2172" s="4">
+        <v>118</v>
+      </c>
+      <c r="D2172" s="4">
+        <v>107.35</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2173" s="2">
+        <v>64693</v>
+      </c>
+      <c r="B2173" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C2173" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="D2173" s="4">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2174" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B2174" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C2174" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="D2174" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2175" s="2">
+        <v>84113</v>
+      </c>
+      <c r="B2175" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C2175" s="4">
+        <v>102.3</v>
+      </c>
+      <c r="D2175" s="4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2176" s="2">
+        <v>17863</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C2176" s="4">
+        <v>142.85</v>
+      </c>
+      <c r="D2176" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2177" s="2">
+        <v>69822</v>
+      </c>
+      <c r="B2177" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C2177" s="4">
+        <v>120</v>
+      </c>
+      <c r="D2177" s="4">
+        <v>102.05</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2178" s="2">
+        <v>68431</v>
+      </c>
+      <c r="B2178" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C2178" s="4">
+        <v>114.3</v>
+      </c>
+      <c r="D2178" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2179" s="2">
+        <v>31312</v>
+      </c>
+      <c r="B2179" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C2179" s="4">
+        <v>124</v>
+      </c>
+      <c r="D2179" s="4">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2180" s="2">
+        <v>31672</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C2180" s="4">
+        <v>140.25</v>
+      </c>
+      <c r="D2180" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2181" s="2">
+        <v>26418</v>
+      </c>
+      <c r="B2181" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C2181" s="4">
+        <v>110.6</v>
+      </c>
+      <c r="D2181" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2182" s="2">
+        <v>75561</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C2182" s="4">
+        <v>124.8</v>
+      </c>
+      <c r="D2182" s="4">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2183" s="2">
+        <v>75562</v>
+      </c>
+      <c r="B2183" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C2183" s="4">
+        <v>124.85</v>
+      </c>
+      <c r="D2183" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2184" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B2184" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C2184" s="4">
+        <v>107.05</v>
+      </c>
+      <c r="D2184" s="4">
+        <v>99.95</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2185" s="2">
+        <v>68211</v>
+      </c>
+      <c r="B2185" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C2185" s="4">
+        <v>110</v>
+      </c>
+      <c r="D2185" s="4">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2186" s="2">
+        <v>37075</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C2186" s="4">
+        <v>117</v>
+      </c>
+      <c r="D2186" s="4">
+        <v>110.55</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD1748-60AB-4FC7-A86F-5B23680F4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBBF1F-0BCB-4CAE-A7E1-8621A37EEF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
   <sheets>
     <sheet name="資料庫" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="2183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="2219">
   <si>
     <t>名稱</t>
   </si>
@@ -6586,6 +6586,114 @@
   </si>
   <si>
     <t>漢磊五</t>
+  </si>
+  <si>
+    <t>寶緯一</t>
+  </si>
+  <si>
+    <t>山富一</t>
+  </si>
+  <si>
+    <t>弘塑一</t>
+  </si>
+  <si>
+    <t>雷科五</t>
+  </si>
+  <si>
+    <t>動力四KY</t>
+  </si>
+  <si>
+    <t>邑錡二</t>
+  </si>
+  <si>
+    <t>雷科六</t>
+  </si>
+  <si>
+    <t>晶心科一</t>
+  </si>
+  <si>
+    <t>高技一</t>
+  </si>
+  <si>
+    <t>醣聯四</t>
+  </si>
+  <si>
+    <t>太普高三</t>
+  </si>
+  <si>
+    <t>華電網五</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>鑫龍騰三</t>
+  </si>
+  <si>
+    <t>百和興業一KY</t>
+  </si>
+  <si>
+    <t>世禾三</t>
+  </si>
+  <si>
+    <t>精成科二</t>
+  </si>
+  <si>
+    <t>復盛應用二</t>
+  </si>
+  <si>
+    <t>廣越三</t>
+  </si>
+  <si>
+    <t>聯上五</t>
+  </si>
+  <si>
+    <t>聯上六</t>
+  </si>
+  <si>
+    <t>國精化三</t>
+  </si>
+  <si>
+    <t>百達三KY</t>
+  </si>
+  <si>
+    <t>群聯三</t>
+  </si>
+  <si>
+    <t>歐買尬二</t>
+  </si>
+  <si>
+    <t>歐買尬三</t>
+  </si>
+  <si>
+    <t>裕慶一KY</t>
+  </si>
+  <si>
+    <t>今國光三</t>
+  </si>
+  <si>
+    <t>鮮活果汁一KY</t>
+  </si>
+  <si>
+    <t>凱衛一</t>
+  </si>
+  <si>
+    <t>安集五</t>
+  </si>
+  <si>
+    <t>八方雲集一</t>
+  </si>
+  <si>
+    <t>八方雲集二</t>
+  </si>
+  <si>
+    <t>威力德一</t>
+  </si>
+  <si>
+    <t>富旺四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綠茵一    </t>
   </si>
 </sst>
 </file>
@@ -7027,10 +7135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D2186"/>
+  <dimension ref="A1:D2226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2158" workbookViewId="0">
-      <selection activeCell="B2167" sqref="B2167"/>
+    <sheetView tabSelected="1" topLeftCell="A2173" workbookViewId="0">
+      <selection activeCell="B2194" sqref="B2194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -10421,7 +10529,7 @@
         <v>193</v>
       </c>
       <c r="C242" s="4">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D242" s="4">
         <v>106</v>
@@ -11023,7 +11131,7 @@
         <v>232</v>
       </c>
       <c r="C285" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D285" s="4">
         <v>99.5</v>
@@ -11205,7 +11313,7 @@
         <v>240</v>
       </c>
       <c r="C298" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D298" s="4">
         <v>101.75</v>
@@ -12101,7 +12209,7 @@
         <v>263</v>
       </c>
       <c r="C362" s="4">
-        <v>108.5</v>
+        <v>112.5</v>
       </c>
       <c r="D362" s="4">
         <v>91</v>
@@ -12115,7 +12223,7 @@
         <v>264</v>
       </c>
       <c r="C363" s="4">
-        <v>107.5</v>
+        <v>111.3</v>
       </c>
       <c r="D363" s="4">
         <v>90.45</v>
@@ -12759,7 +12867,7 @@
         <v>282</v>
       </c>
       <c r="C409" s="4">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D409" s="4">
         <v>103.15</v>
@@ -17673,7 +17781,7 @@
         <v>540</v>
       </c>
       <c r="C760" s="4">
-        <v>111</v>
+        <v>124.5</v>
       </c>
       <c r="D760" s="4">
         <v>92</v>
@@ -18261,7 +18369,7 @@
         <v>575</v>
       </c>
       <c r="C802" s="4">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D802" s="4">
         <v>99.5</v>
@@ -18359,7 +18467,7 @@
         <v>582</v>
       </c>
       <c r="C809" s="4">
-        <v>115.05</v>
+        <v>134.9</v>
       </c>
       <c r="D809" s="4">
         <v>100.8</v>
@@ -18471,7 +18579,7 @@
         <v>589</v>
       </c>
       <c r="C817" s="4">
-        <v>140.1</v>
+        <v>172</v>
       </c>
       <c r="D817" s="4">
         <v>99</v>
@@ -18541,7 +18649,7 @@
         <v>594</v>
       </c>
       <c r="C822" s="4">
-        <v>135.19999999999999</v>
+        <v>148</v>
       </c>
       <c r="D822" s="4">
         <v>105</v>
@@ -19073,7 +19181,7 @@
         <v>627</v>
       </c>
       <c r="C860" s="4">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D860" s="4">
         <v>107.3</v>
@@ -20277,7 +20385,7 @@
         <v>710</v>
       </c>
       <c r="C946" s="4">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D946" s="4">
         <v>97</v>
@@ -20938,7 +21046,7 @@
         <v>128.9</v>
       </c>
       <c r="D993" s="4">
-        <v>99.95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.35">
@@ -23080,7 +23188,7 @@
         <v>115</v>
       </c>
       <c r="D1146" s="4">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.35">
@@ -25051,7 +25159,7 @@
         <v>1025</v>
       </c>
       <c r="C1287" s="4">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D1287" s="4">
         <v>95.05</v>
@@ -25233,7 +25341,7 @@
         <v>1036</v>
       </c>
       <c r="C1300" s="4">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="D1300" s="4">
         <v>97.8</v>
@@ -25793,7 +25901,7 @@
         <v>1070</v>
       </c>
       <c r="C1340" s="4">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D1340" s="4">
         <v>104.1</v>
@@ -27753,7 +27861,7 @@
         <v>1576</v>
       </c>
       <c r="C1480" s="4">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D1480" s="4">
         <v>110</v>
@@ -28733,7 +28841,7 @@
         <v>1197</v>
       </c>
       <c r="C1550" s="4">
-        <v>120</v>
+        <v>127.9</v>
       </c>
       <c r="D1550" s="4">
         <v>94.65</v>
@@ -28873,7 +28981,7 @@
         <v>1205</v>
       </c>
       <c r="C1560" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1560" s="4">
         <v>85</v>
@@ -29293,7 +29401,7 @@
         <v>1223</v>
       </c>
       <c r="C1590" s="4">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D1590" s="4">
         <v>106.1</v>
@@ -29335,7 +29443,7 @@
         <v>1224</v>
       </c>
       <c r="C1593" s="4">
-        <v>130.69999999999999</v>
+        <v>138.9</v>
       </c>
       <c r="D1593" s="4">
         <v>101.75</v>
@@ -30021,7 +30129,7 @@
         <v>1254</v>
       </c>
       <c r="C1642" s="4">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D1642" s="4">
         <v>96.5</v>
@@ -31673,7 +31781,7 @@
         <v>1762</v>
       </c>
       <c r="C1760" s="4">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D1760" s="4">
         <v>97</v>
@@ -32135,7 +32243,7 @@
         <v>1795</v>
       </c>
       <c r="C1793" s="4">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D1793" s="4">
         <v>101</v>
@@ -32149,7 +32257,7 @@
         <v>1796</v>
       </c>
       <c r="C1794" s="4">
-        <v>135.15</v>
+        <v>138.9</v>
       </c>
       <c r="D1794" s="4">
         <v>98</v>
@@ -32376,7 +32484,7 @@
         <v>121.6</v>
       </c>
       <c r="D1810" s="4">
-        <v>103.5</v>
+        <v>101.35</v>
       </c>
     </row>
     <row r="1811" spans="1:4" x14ac:dyDescent="0.35">
@@ -32404,7 +32512,7 @@
         <v>119.3</v>
       </c>
       <c r="D1812" s="4">
-        <v>96.1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.35">
@@ -32485,7 +32593,7 @@
         <v>1820</v>
       </c>
       <c r="C1818" s="4">
-        <v>109.9</v>
+        <v>119.4</v>
       </c>
       <c r="D1818" s="4">
         <v>95.55</v>
@@ -32653,7 +32761,7 @@
         <v>1832</v>
       </c>
       <c r="C1830" s="4">
-        <v>142.94999999999999</v>
+        <v>180</v>
       </c>
       <c r="D1830" s="4">
         <v>101</v>
@@ -32740,7 +32848,7 @@
         <v>167</v>
       </c>
       <c r="D1836" s="4">
-        <v>98</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="1837" spans="1:4" x14ac:dyDescent="0.35">
@@ -32810,7 +32918,7 @@
         <v>117.3</v>
       </c>
       <c r="D1841" s="4">
-        <v>90</v>
+        <v>89.05</v>
       </c>
     </row>
     <row r="1842" spans="1:4" x14ac:dyDescent="0.35">
@@ -32835,7 +32943,7 @@
         <v>1845</v>
       </c>
       <c r="C1843" s="4">
-        <v>111.45</v>
+        <v>111.95</v>
       </c>
       <c r="D1843" s="4">
         <v>93</v>
@@ -32849,7 +32957,7 @@
         <v>1846</v>
       </c>
       <c r="C1844" s="4">
-        <v>114.5</v>
+        <v>118.5</v>
       </c>
       <c r="D1844" s="4">
         <v>94.5</v>
@@ -33045,7 +33153,7 @@
         <v>1860</v>
       </c>
       <c r="C1858" s="4">
-        <v>127.7</v>
+        <v>139.05000000000001</v>
       </c>
       <c r="D1858" s="4">
         <v>94</v>
@@ -34364,7 +34472,7 @@
         <v>120.9</v>
       </c>
       <c r="D1952" s="4">
-        <v>96.8</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.35">
@@ -34697,7 +34805,7 @@
         <v>1978</v>
       </c>
       <c r="C1976" s="4">
-        <v>137</v>
+        <v>143.55000000000001</v>
       </c>
       <c r="D1976" s="4">
         <v>102</v>
@@ -35033,7 +35141,7 @@
         <v>2002</v>
       </c>
       <c r="C2000" s="4">
-        <v>139.25</v>
+        <v>140.9</v>
       </c>
       <c r="D2000" s="4">
         <v>102.7</v>
@@ -35092,7 +35200,7 @@
         <v>118.5</v>
       </c>
       <c r="D2004" s="4">
-        <v>97</v>
+        <v>96.65</v>
       </c>
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.35">
@@ -36909,7 +37017,7 @@
         <v>2136</v>
       </c>
       <c r="C2134" s="4">
-        <v>132</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="D2134" s="4">
         <v>102.2</v>
@@ -36965,7 +37073,7 @@
         <v>2140</v>
       </c>
       <c r="C2138" s="4">
-        <v>104.55</v>
+        <v>125</v>
       </c>
       <c r="D2138" s="4">
         <v>87</v>
@@ -37035,7 +37143,7 @@
         <v>2145</v>
       </c>
       <c r="C2143" s="4">
-        <v>99.6</v>
+        <v>101.5</v>
       </c>
       <c r="D2143" s="4">
         <v>92.4</v>
@@ -37049,7 +37157,7 @@
         <v>2146</v>
       </c>
       <c r="C2144" s="4">
-        <v>110.4</v>
+        <v>122.05</v>
       </c>
       <c r="D2144" s="4">
         <v>100.5</v>
@@ -37063,7 +37171,7 @@
         <v>2147</v>
       </c>
       <c r="C2145" s="4">
-        <v>116.3</v>
+        <v>118.4</v>
       </c>
       <c r="D2145" s="4">
         <v>96.3</v>
@@ -37105,7 +37213,7 @@
         <v>2150</v>
       </c>
       <c r="C2148" s="4">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D2148" s="4">
         <v>117.85</v>
@@ -37119,7 +37227,7 @@
         <v>2151</v>
       </c>
       <c r="C2149" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2149" s="4">
         <v>99</v>
@@ -37164,7 +37272,7 @@
         <v>114</v>
       </c>
       <c r="D2152" s="4">
-        <v>93</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.35">
@@ -37175,7 +37283,7 @@
         <v>2155</v>
       </c>
       <c r="C2153" s="4">
-        <v>122.1</v>
+        <v>126.65</v>
       </c>
       <c r="D2153" s="4">
         <v>106</v>
@@ -37189,7 +37297,7 @@
         <v>2156</v>
       </c>
       <c r="C2154" s="4">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="D2154" s="4">
         <v>108.5</v>
@@ -37203,7 +37311,7 @@
         <v>2157</v>
       </c>
       <c r="C2155" s="4">
-        <v>119.5</v>
+        <v>123.5</v>
       </c>
       <c r="D2155" s="4">
         <v>100</v>
@@ -37217,7 +37325,7 @@
         <v>2158</v>
       </c>
       <c r="C2156" s="4">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D2156" s="4">
         <v>115</v>
@@ -37245,7 +37353,7 @@
         <v>2136</v>
       </c>
       <c r="C2158" s="4">
-        <v>132</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="D2158" s="4">
         <v>102.2</v>
@@ -37273,7 +37381,7 @@
         <v>2160</v>
       </c>
       <c r="C2160" s="4">
-        <v>107.8</v>
+        <v>116.95</v>
       </c>
       <c r="D2160" s="4">
         <v>103</v>
@@ -37287,7 +37395,7 @@
         <v>2161</v>
       </c>
       <c r="C2161" s="4">
-        <v>99</v>
+        <v>99.45</v>
       </c>
       <c r="D2161" s="4">
         <v>91</v>
@@ -37360,7 +37468,7 @@
         <v>111.3</v>
       </c>
       <c r="D2166" s="4">
-        <v>102.5</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="2167" spans="1:4" x14ac:dyDescent="0.35">
@@ -37371,7 +37479,7 @@
         <v>2146</v>
       </c>
       <c r="C2167" s="4">
-        <v>110.4</v>
+        <v>122.05</v>
       </c>
       <c r="D2167" s="4">
         <v>100.5</v>
@@ -37399,7 +37507,7 @@
         <v>2145</v>
       </c>
       <c r="C2169" s="4">
-        <v>99.6</v>
+        <v>101.5</v>
       </c>
       <c r="D2169" s="4">
         <v>92.4</v>
@@ -37413,7 +37521,7 @@
         <v>2166</v>
       </c>
       <c r="C2170" s="4">
-        <v>148.05000000000001</v>
+        <v>157</v>
       </c>
       <c r="D2170" s="4">
         <v>110</v>
@@ -37441,7 +37549,7 @@
         <v>2168</v>
       </c>
       <c r="C2172" s="4">
-        <v>118</v>
+        <v>118.75</v>
       </c>
       <c r="D2172" s="4">
         <v>107.35</v>
@@ -37458,7 +37566,7 @@
         <v>118.5</v>
       </c>
       <c r="D2173" s="4">
-        <v>108.6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2174" spans="1:4" x14ac:dyDescent="0.35">
@@ -37469,7 +37577,7 @@
         <v>2170</v>
       </c>
       <c r="C2174" s="4">
-        <v>118.5</v>
+        <v>121.6</v>
       </c>
       <c r="D2174" s="4">
         <v>96</v>
@@ -37497,7 +37605,7 @@
         <v>2172</v>
       </c>
       <c r="C2176" s="4">
-        <v>142.85</v>
+        <v>148</v>
       </c>
       <c r="D2176" s="4">
         <v>110</v>
@@ -37525,7 +37633,7 @@
         <v>2174</v>
       </c>
       <c r="C2178" s="4">
-        <v>114.3</v>
+        <v>115</v>
       </c>
       <c r="D2178" s="4">
         <v>102</v>
@@ -37539,7 +37647,7 @@
         <v>2175</v>
       </c>
       <c r="C2179" s="4">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D2179" s="4">
         <v>110.3</v>
@@ -37567,7 +37675,7 @@
         <v>2177</v>
       </c>
       <c r="C2181" s="4">
-        <v>110.6</v>
+        <v>114.5</v>
       </c>
       <c r="D2181" s="4">
         <v>100</v>
@@ -37598,7 +37706,7 @@
         <v>124.85</v>
       </c>
       <c r="D2183" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2184" spans="1:4" x14ac:dyDescent="0.35">
@@ -37626,7 +37734,7 @@
         <v>110</v>
       </c>
       <c r="D2185" s="4">
-        <v>104.5</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="2186" spans="1:4" x14ac:dyDescent="0.35">
@@ -37637,10 +37745,570 @@
         <v>2182</v>
       </c>
       <c r="C2186" s="4">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D2186" s="4">
-        <v>110.55</v>
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2187" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B2187" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C2187" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="D2187" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2188" s="2">
+        <v>27431</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C2188" s="4">
+        <v>109.95</v>
+      </c>
+      <c r="D2188" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2189" s="2">
+        <v>31311</v>
+      </c>
+      <c r="B2189" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C2189" s="4">
+        <v>127.8</v>
+      </c>
+      <c r="D2189" s="4">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2190" s="2">
+        <v>62075</v>
+      </c>
+      <c r="B2190" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C2190" s="4">
+        <v>131</v>
+      </c>
+      <c r="D2190" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2191" s="2">
+        <v>65914</v>
+      </c>
+      <c r="B2191" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C2191" s="4">
+        <v>124</v>
+      </c>
+      <c r="D2191" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2192" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C2192" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="D2192" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2193" s="2">
+        <v>27431</v>
+      </c>
+      <c r="B2193" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C2193" s="4">
+        <v>109.95</v>
+      </c>
+      <c r="D2193" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2194" s="2">
+        <v>74022</v>
+      </c>
+      <c r="B2194" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C2194" s="4">
+        <v>168</v>
+      </c>
+      <c r="D2194" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2195" s="2">
+        <v>62076</v>
+      </c>
+      <c r="B2195" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C2195" s="4">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="D2195" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2196" s="2">
+        <v>65331</v>
+      </c>
+      <c r="B2196" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C2196" s="4">
+        <v>113.25</v>
+      </c>
+      <c r="D2196" s="4">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2197" s="2">
+        <v>54391</v>
+      </c>
+      <c r="B2197" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C2197" s="4">
+        <v>129</v>
+      </c>
+      <c r="D2197" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2198" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B2198" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C2198" s="4">
+        <v>117.5</v>
+      </c>
+      <c r="D2198" s="4">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2199" s="2">
+        <v>32843</v>
+      </c>
+      <c r="B2199" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C2199" s="4">
+        <v>121</v>
+      </c>
+      <c r="D2199" s="4">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2200" s="2">
+        <v>61635</v>
+      </c>
+      <c r="B2200" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C2200" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2200" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2201" s="2">
+        <v>31883</v>
+      </c>
+      <c r="B2201" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C2201" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2201" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2202" s="2">
+        <v>84041</v>
+      </c>
+      <c r="B2202" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C2202" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2202" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2203" s="2">
+        <v>35513</v>
+      </c>
+      <c r="B2203" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C2203" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2203" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2204" s="2">
+        <v>61912</v>
+      </c>
+      <c r="B2204" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C2204" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2204" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2205" s="2">
+        <v>66702</v>
+      </c>
+      <c r="B2205" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C2205" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2205" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2206" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B2206" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C2206" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2206" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2207" s="2">
+        <v>41135</v>
+      </c>
+      <c r="B2207" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C2207" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2207" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2208" s="2">
+        <v>41136</v>
+      </c>
+      <c r="B2208" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C2208" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2208" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2209" s="2">
+        <v>47223</v>
+      </c>
+      <c r="B2209" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C2209" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2209" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2210" s="2">
+        <v>22363</v>
+      </c>
+      <c r="B2210" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C2210" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2210" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2211" s="2">
+        <v>82993</v>
+      </c>
+      <c r="B2211" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C2211" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2211" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2212" s="2">
+        <v>36872</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C2212" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2212" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2213" s="2">
+        <v>36873</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C2213" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2213" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2214" s="2">
+        <v>69571</v>
+      </c>
+      <c r="B2214" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C2214" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2214" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2215" s="2">
+        <v>62093</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C2215" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2215" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2216" s="2">
+        <v>12561</v>
+      </c>
+      <c r="B2216" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C2216" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2216" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2217" s="2">
+        <v>52011</v>
+      </c>
+      <c r="B2217" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C2217" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2217" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2218" s="2">
+        <v>64775</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2218" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2218" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2219" s="2">
+        <v>27531</v>
+      </c>
+      <c r="B2219" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C2219" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2219" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2220" s="2">
+        <v>27532</v>
+      </c>
+      <c r="B2220" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C2220" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2220" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2221" s="2">
+        <v>77131</v>
+      </c>
+      <c r="B2221" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C2221" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2221" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2222" s="2">
+        <v>62194</v>
+      </c>
+      <c r="B2222" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C2222" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D2222" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2223" s="2">
+        <v>49793</v>
+      </c>
+      <c r="B2223" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C2223" s="4">
+        <v>150</v>
+      </c>
+      <c r="D2223" s="4">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2224" s="2">
+        <v>49794</v>
+      </c>
+      <c r="B2224" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2224" s="4">
+        <v>137.5</v>
+      </c>
+      <c r="D2224" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2225" s="2">
+        <v>68461</v>
+      </c>
+      <c r="B2225" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C2225" s="4">
+        <v>106.9</v>
+      </c>
+      <c r="D2225" s="4">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2226" s="2">
+        <v>13166</v>
+      </c>
+      <c r="B2226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2226" s="4">
+        <v>125.5</v>
+      </c>
+      <c r="D2226" s="4">
+        <v>102.8</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B7CC8-5200-4EA8-A2C3-937CF3CE5B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC2B47-02F5-4226-A8C1-388529219BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="2213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="2222">
   <si>
     <t>名稱</t>
   </si>
@@ -6672,12 +6672,37 @@
     <t>榮昌一</t>
   </si>
   <si>
+    <t>欣興一</t>
+  </si>
+  <si>
+    <t>萬泰科七</t>
+  </si>
+  <si>
+    <t>台燿五</t>
+  </si>
+  <si>
+    <t>偉訓一</t>
+  </si>
+  <si>
+    <t>偉訓二</t>
+  </si>
+  <si>
+    <t>毅嘉三</t>
+  </si>
+  <si>
+    <t>金像電三</t>
+  </si>
+  <si>
+    <t>台特化一</t>
+  </si>
+  <si>
+    <t>來億一KY</t>
+  </si>
+  <si>
     <t>掛牌最高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>掛牌最低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6829,7 +6854,17 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7200,10 +7235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D4752"/>
+  <dimension ref="A1:D4738"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2206" workbookViewId="0">
-      <selection activeCell="C2208" sqref="C2208"/>
+      <selection activeCell="B2214" sqref="B2214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7221,10 +7256,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2211</v>
+        <v>2220</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2212</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7238,7 +7273,7 @@
         <v>108.1</v>
       </c>
       <c r="D2" s="5">
-        <v>95</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7560,7 +7595,7 @@
         <v>243</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8005,7 +8040,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="5">
-        <v>119.95</v>
+        <v>127</v>
       </c>
       <c r="D57" s="5">
         <v>99.45</v>
@@ -8173,7 +8208,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="5">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D69" s="5">
         <v>123</v>
@@ -8187,7 +8222,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="5">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D70" s="5">
         <v>102.5</v>
@@ -9307,7 +9342,7 @@
         <v>1282</v>
       </c>
       <c r="C150" s="5">
-        <v>120</v>
+        <v>594</v>
       </c>
       <c r="D150" s="5">
         <v>120</v>
@@ -10049,7 +10084,7 @@
         <v>1296</v>
       </c>
       <c r="C203" s="5">
-        <v>145.9</v>
+        <v>157</v>
       </c>
       <c r="D203" s="5">
         <v>98</v>
@@ -10091,7 +10126,7 @@
         <v>1299</v>
       </c>
       <c r="C206" s="5">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D206" s="5">
         <v>132</v>
@@ -10206,7 +10241,7 @@
         <v>180</v>
       </c>
       <c r="D214" s="5">
-        <v>101.6</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -10973,7 +11008,7 @@
         <v>2138</v>
       </c>
       <c r="C269" s="5">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D269" s="5">
         <v>87</v>
@@ -11267,7 +11302,7 @@
         <v>232</v>
       </c>
       <c r="C290" s="5">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="D290" s="5">
         <v>99.5</v>
@@ -12807,7 +12842,7 @@
         <v>1377</v>
       </c>
       <c r="C400" s="5">
-        <v>115.1</v>
+        <v>116.5</v>
       </c>
       <c r="D400" s="5">
         <v>93</v>
@@ -13608,7 +13643,7 @@
         <v>112.15</v>
       </c>
       <c r="D457" s="5">
-        <v>92</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -13647,7 +13682,7 @@
         <v>2142</v>
       </c>
       <c r="C460" s="5">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D460" s="5">
         <v>91</v>
@@ -14179,7 +14214,7 @@
         <v>1419</v>
       </c>
       <c r="C498" s="5">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D498" s="5">
         <v>96.55</v>
@@ -14193,7 +14228,7 @@
         <v>1420</v>
       </c>
       <c r="C499" s="5">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D499" s="5">
         <v>95.5</v>
@@ -14249,7 +14284,7 @@
         <v>1424</v>
       </c>
       <c r="C503" s="5">
-        <v>120.5</v>
+        <v>132</v>
       </c>
       <c r="D503" s="5">
         <v>99.5</v>
@@ -14431,7 +14466,7 @@
         <v>1435</v>
       </c>
       <c r="C516" s="5">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D516" s="5">
         <v>104.6</v>
@@ -14714,7 +14749,7 @@
         <v>150</v>
       </c>
       <c r="D536" s="5">
-        <v>0</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -14910,7 +14945,7 @@
         <v>133</v>
       </c>
       <c r="D550" s="5">
-        <v>99.8</v>
+        <v>99.55</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -15232,7 +15267,7 @@
         <v>135</v>
       </c>
       <c r="D573" s="5">
-        <v>99.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -15929,7 +15964,7 @@
         <v>429</v>
       </c>
       <c r="C623" s="5">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D623" s="5">
         <v>104</v>
@@ -16237,7 +16272,7 @@
         <v>444</v>
       </c>
       <c r="C645" s="5">
-        <v>124.9</v>
+        <v>130.05000000000001</v>
       </c>
       <c r="D645" s="5">
         <v>93</v>
@@ -16548,7 +16583,7 @@
         <v>104.5</v>
       </c>
       <c r="D667" s="5">
-        <v>100.63</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -17094,7 +17129,7 @@
         <v>167</v>
       </c>
       <c r="D706" s="5">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -18855,7 +18890,7 @@
         <v>593</v>
       </c>
       <c r="C832" s="5">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D832" s="5">
         <v>100.8</v>
@@ -18869,7 +18904,7 @@
         <v>594</v>
       </c>
       <c r="C833" s="5">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D833" s="5">
         <v>105</v>
@@ -19807,7 +19842,7 @@
         <v>651</v>
       </c>
       <c r="C900" s="5">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D900" s="5">
         <v>110.75</v>
@@ -20328,7 +20363,7 @@
         <v>125</v>
       </c>
       <c r="D937" s="5">
-        <v>95.1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -20524,7 +20559,7 @@
         <v>119</v>
       </c>
       <c r="D951" s="5">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="952" spans="1:4">
@@ -20745,7 +20780,7 @@
         <v>2133</v>
       </c>
       <c r="C967" s="5">
-        <v>111.2</v>
+        <v>115.5</v>
       </c>
       <c r="D967" s="5">
         <v>99.85</v>
@@ -21347,7 +21382,7 @@
         <v>759</v>
       </c>
       <c r="C1010" s="5">
-        <v>104.2</v>
+        <v>113</v>
       </c>
       <c r="D1010" s="5">
         <v>93.5</v>
@@ -21406,7 +21441,7 @@
         <v>610</v>
       </c>
       <c r="D1014" s="5">
-        <v>110.1</v>
+        <v>109.75</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
@@ -21529,7 +21564,7 @@
         <v>772</v>
       </c>
       <c r="C1023" s="5">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D1023" s="5">
         <v>99</v>
@@ -21543,7 +21578,7 @@
         <v>773</v>
       </c>
       <c r="C1024" s="5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1024" s="5">
         <v>100</v>
@@ -21613,7 +21648,7 @@
         <v>778</v>
       </c>
       <c r="C1029" s="5">
-        <v>145.35</v>
+        <v>143</v>
       </c>
       <c r="D1029" s="5">
         <v>108</v>
@@ -21683,7 +21718,7 @@
         <v>1497</v>
       </c>
       <c r="C1034" s="5">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D1034" s="5">
         <v>104</v>
@@ -21725,7 +21760,7 @@
         <v>781</v>
       </c>
       <c r="C1037" s="5">
-        <v>136</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="D1037" s="5">
         <v>103.1</v>
@@ -22495,7 +22530,7 @@
         <v>828</v>
       </c>
       <c r="C1092" s="5">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D1092" s="5">
         <v>99.9</v>
@@ -22635,7 +22670,7 @@
         <v>838</v>
       </c>
       <c r="C1102" s="5">
-        <v>122.5</v>
+        <v>167</v>
       </c>
       <c r="D1102" s="5">
         <v>94.15</v>
@@ -22649,7 +22684,7 @@
         <v>839</v>
       </c>
       <c r="C1103" s="5">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D1103" s="5">
         <v>91.05</v>
@@ -22705,7 +22740,7 @@
         <v>842</v>
       </c>
       <c r="C1107" s="5">
-        <v>153</v>
+        <v>126.95</v>
       </c>
       <c r="D1107" s="5">
         <v>91.15</v>
@@ -22817,7 +22852,7 @@
         <v>848</v>
       </c>
       <c r="C1115" s="5">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D1115" s="5">
         <v>101.9</v>
@@ -22831,7 +22866,7 @@
         <v>849</v>
       </c>
       <c r="C1116" s="5">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="D1116" s="5">
         <v>100.9</v>
@@ -22845,7 +22880,7 @@
         <v>850</v>
       </c>
       <c r="C1117" s="5">
-        <v>167</v>
+        <v>118.5</v>
       </c>
       <c r="D1117" s="5">
         <v>105.95</v>
@@ -22859,7 +22894,7 @@
         <v>1510</v>
       </c>
       <c r="C1118" s="5">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D1118" s="5">
         <v>97.25</v>
@@ -22873,7 +22908,7 @@
         <v>851</v>
       </c>
       <c r="C1119" s="5">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D1119" s="5">
         <v>98.7</v>
@@ -22901,7 +22936,7 @@
         <v>853</v>
       </c>
       <c r="C1121" s="5">
-        <v>107.1</v>
+        <v>146.1</v>
       </c>
       <c r="D1121" s="5">
         <v>99.05</v>
@@ -23013,7 +23048,7 @@
         <v>2129</v>
       </c>
       <c r="C1129" s="5">
-        <v>103.2</v>
+        <v>108.65</v>
       </c>
       <c r="D1129" s="5">
         <v>92.85</v>
@@ -23027,7 +23062,7 @@
         <v>861</v>
       </c>
       <c r="C1130" s="5">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D1130" s="5">
         <v>71.099999999999994</v>
@@ -23055,7 +23090,7 @@
         <v>862</v>
       </c>
       <c r="C1132" s="5">
-        <v>110.5</v>
+        <v>113.3</v>
       </c>
       <c r="D1132" s="5">
         <v>97.1</v>
@@ -23069,7 +23104,7 @@
         <v>863</v>
       </c>
       <c r="C1133" s="5">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D1133" s="5">
         <v>107</v>
@@ -23153,7 +23188,7 @@
         <v>1512</v>
       </c>
       <c r="C1139" s="5">
-        <v>105</v>
+        <v>101.5</v>
       </c>
       <c r="D1139" s="5">
         <v>91.5</v>
@@ -23226,7 +23261,7 @@
         <v>176</v>
       </c>
       <c r="D1144" s="5">
-        <v>100</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -23506,7 +23541,7 @@
         <v>115</v>
       </c>
       <c r="D1164" s="5">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
@@ -23520,7 +23555,7 @@
         <v>121</v>
       </c>
       <c r="D1165" s="5">
-        <v>105</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -23741,7 +23776,7 @@
         <v>1513</v>
       </c>
       <c r="C1181" s="5">
-        <v>128.5</v>
+        <v>105.6</v>
       </c>
       <c r="D1181" s="5">
         <v>96.5</v>
@@ -24301,7 +24336,7 @@
         <v>946</v>
       </c>
       <c r="C1221" s="5">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D1221" s="5">
         <v>107</v>
@@ -24357,7 +24392,7 @@
         <v>949</v>
       </c>
       <c r="C1225" s="5">
-        <v>114</v>
+        <v>102.5</v>
       </c>
       <c r="D1225" s="5">
         <v>38</v>
@@ -24791,7 +24826,7 @@
         <v>980</v>
       </c>
       <c r="C1256" s="5">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D1256" s="5">
         <v>101.5</v>
@@ -24948,7 +24983,7 @@
         <v>119.7</v>
       </c>
       <c r="D1267" s="5">
-        <v>98.1</v>
+        <v>97.45</v>
       </c>
     </row>
     <row r="1268" spans="1:4">
@@ -25029,7 +25064,7 @@
         <v>995</v>
       </c>
       <c r="C1273" s="5">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1273" s="5">
         <v>95</v>
@@ -25043,7 +25078,7 @@
         <v>996</v>
       </c>
       <c r="C1274" s="5">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="D1274" s="5">
         <v>106</v>
@@ -25071,7 +25106,7 @@
         <v>997</v>
       </c>
       <c r="C1276" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D1276" s="5">
         <v>83.75</v>
@@ -25298,7 +25333,7 @@
         <v>197</v>
       </c>
       <c r="D1292" s="5">
-        <v>108</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="1293" spans="1:4">
@@ -25449,7 +25484,7 @@
         <v>1022</v>
       </c>
       <c r="C1303" s="5">
-        <v>101.75</v>
+        <v>102.2</v>
       </c>
       <c r="D1303" s="5">
         <v>81</v>
@@ -25575,7 +25610,7 @@
         <v>1031</v>
       </c>
       <c r="C1312" s="5">
-        <v>111.1</v>
+        <v>110</v>
       </c>
       <c r="D1312" s="5">
         <v>100</v>
@@ -25589,7 +25624,7 @@
         <v>1032</v>
       </c>
       <c r="C1313" s="5">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D1313" s="5">
         <v>99.6</v>
@@ -25673,7 +25708,7 @@
         <v>1036</v>
       </c>
       <c r="C1319" s="5">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D1319" s="5">
         <v>97.8</v>
@@ -25687,7 +25722,7 @@
         <v>1037</v>
       </c>
       <c r="C1320" s="5">
-        <v>114.15</v>
+        <v>121.5</v>
       </c>
       <c r="D1320" s="5">
         <v>60</v>
@@ -25701,7 +25736,7 @@
         <v>1038</v>
       </c>
       <c r="C1321" s="5">
-        <v>102.2</v>
+        <v>100</v>
       </c>
       <c r="D1321" s="5">
         <v>99</v>
@@ -25743,7 +25778,7 @@
         <v>1040</v>
       </c>
       <c r="C1324" s="5">
-        <v>107.2</v>
+        <v>150</v>
       </c>
       <c r="D1324" s="5">
         <v>93</v>
@@ -25757,7 +25792,7 @@
         <v>1041</v>
       </c>
       <c r="C1325" s="5">
-        <v>154</v>
+        <v>149.9</v>
       </c>
       <c r="D1325" s="5">
         <v>124</v>
@@ -25785,7 +25820,7 @@
         <v>1043</v>
       </c>
       <c r="C1327" s="5">
-        <v>127.8</v>
+        <v>115</v>
       </c>
       <c r="D1327" s="5">
         <v>59</v>
@@ -25841,7 +25876,7 @@
         <v>1047</v>
       </c>
       <c r="C1331" s="5">
-        <v>156</v>
+        <v>119.5</v>
       </c>
       <c r="D1331" s="5">
         <v>118.1</v>
@@ -25925,7 +25960,7 @@
         <v>1052</v>
       </c>
       <c r="C1337" s="5">
-        <v>239</v>
+        <v>115.1</v>
       </c>
       <c r="D1337" s="5">
         <v>106.95</v>
@@ -25981,7 +26016,7 @@
         <v>1055</v>
       </c>
       <c r="C1341" s="5">
-        <v>110.05</v>
+        <v>0</v>
       </c>
       <c r="D1341" s="5">
         <v>101</v>
@@ -26135,7 +26170,7 @@
         <v>1065</v>
       </c>
       <c r="C1352" s="5">
-        <v>123.05</v>
+        <v>229</v>
       </c>
       <c r="D1352" s="5">
         <v>100</v>
@@ -26191,7 +26226,7 @@
         <v>1067</v>
       </c>
       <c r="C1356" s="5">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="D1356" s="5">
         <v>99.5</v>
@@ -26233,7 +26268,7 @@
         <v>1070</v>
       </c>
       <c r="C1359" s="5">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D1359" s="5">
         <v>104.1</v>
@@ -26247,7 +26282,7 @@
         <v>1071</v>
       </c>
       <c r="C1360" s="5">
-        <v>108</v>
+        <v>103.45</v>
       </c>
       <c r="D1360" s="5">
         <v>32.5</v>
@@ -26317,7 +26352,7 @@
         <v>1529</v>
       </c>
       <c r="C1365" s="5">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="D1365" s="5">
         <v>97.2</v>
@@ -26387,7 +26422,7 @@
         <v>1080</v>
       </c>
       <c r="C1370" s="5">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="D1370" s="5">
         <v>103</v>
@@ -26401,7 +26436,7 @@
         <v>1081</v>
       </c>
       <c r="C1371" s="5">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D1371" s="5">
         <v>100</v>
@@ -26429,7 +26464,7 @@
         <v>1083</v>
       </c>
       <c r="C1373" s="5">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D1373" s="5">
         <v>83</v>
@@ -26443,7 +26478,7 @@
         <v>1084</v>
       </c>
       <c r="C1374" s="5">
-        <v>257</v>
+        <v>99.8</v>
       </c>
       <c r="D1374" s="5">
         <v>83.2</v>
@@ -26457,7 +26492,7 @@
         <v>1085</v>
       </c>
       <c r="C1375" s="5">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D1375" s="5">
         <v>98</v>
@@ -26569,7 +26604,7 @@
         <v>1093</v>
       </c>
       <c r="C1383" s="5">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D1383" s="5">
         <v>107.55</v>
@@ -26653,7 +26688,7 @@
         <v>1097</v>
       </c>
       <c r="C1389" s="5">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D1389" s="5">
         <v>100.5</v>
@@ -26835,7 +26870,7 @@
         <v>1109</v>
       </c>
       <c r="C1402" s="5">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D1402" s="5">
         <v>99.5</v>
@@ -26849,7 +26884,7 @@
         <v>1533</v>
       </c>
       <c r="C1403" s="5">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D1403" s="5">
         <v>100</v>
@@ -27003,7 +27038,7 @@
         <v>1119</v>
       </c>
       <c r="C1414" s="5">
-        <v>115.5</v>
+        <v>130</v>
       </c>
       <c r="D1414" s="5">
         <v>95</v>
@@ -27059,7 +27094,7 @@
         <v>1123</v>
       </c>
       <c r="C1418" s="5">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="D1418" s="5">
         <v>93</v>
@@ -27101,7 +27136,7 @@
         <v>1126</v>
       </c>
       <c r="C1421" s="5">
-        <v>280</v>
+        <v>113.1</v>
       </c>
       <c r="D1421" s="5">
         <v>103.5</v>
@@ -27143,7 +27178,7 @@
         <v>1127</v>
       </c>
       <c r="C1424" s="5">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D1424" s="5">
         <v>98</v>
@@ -27157,7 +27192,7 @@
         <v>1128</v>
       </c>
       <c r="C1425" s="5">
-        <v>101.6</v>
+        <v>105</v>
       </c>
       <c r="D1425" s="5">
         <v>94.5</v>
@@ -27199,7 +27234,7 @@
         <v>1537</v>
       </c>
       <c r="C1428" s="5">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D1428" s="5">
         <v>92</v>
@@ -27300,7 +27335,7 @@
         <v>200</v>
       </c>
       <c r="D1435" s="5">
-        <v>102</v>
+        <v>101.05</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
@@ -27311,7 +27346,7 @@
         <v>1541</v>
       </c>
       <c r="C1436" s="5">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D1436" s="5">
         <v>115</v>
@@ -27395,7 +27430,7 @@
         <v>1138</v>
       </c>
       <c r="C1442" s="5">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D1442" s="5">
         <v>115</v>
@@ -27437,7 +27472,7 @@
         <v>1141</v>
       </c>
       <c r="C1445" s="5">
-        <v>130.9</v>
+        <v>162</v>
       </c>
       <c r="D1445" s="5">
         <v>99.2</v>
@@ -27454,7 +27489,7 @@
         <v>173</v>
       </c>
       <c r="D1446" s="5">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1447" spans="1:4">
@@ -27493,7 +27528,7 @@
         <v>1145</v>
       </c>
       <c r="C1449" s="5">
-        <v>110.9</v>
+        <v>198</v>
       </c>
       <c r="D1449" s="5">
         <v>78.5</v>
@@ -27521,7 +27556,7 @@
         <v>1545</v>
       </c>
       <c r="C1451" s="5">
-        <v>129</v>
+        <v>110.5</v>
       </c>
       <c r="D1451" s="5">
         <v>101.05</v>
@@ -27563,7 +27598,7 @@
         <v>1148</v>
       </c>
       <c r="C1454" s="5">
-        <v>128.9</v>
+        <v>171</v>
       </c>
       <c r="D1454" s="5">
         <v>100.05</v>
@@ -27661,7 +27696,7 @@
         <v>1547</v>
       </c>
       <c r="C1461" s="5">
-        <v>142</v>
+        <v>120.4</v>
       </c>
       <c r="D1461" s="5">
         <v>92</v>
@@ -27731,7 +27766,7 @@
         <v>1157</v>
       </c>
       <c r="C1466" s="5">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D1466" s="5">
         <v>98</v>
@@ -27745,7 +27780,7 @@
         <v>1158</v>
       </c>
       <c r="C1467" s="5">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D1467" s="5">
         <v>126</v>
@@ -27846,7 +27881,7 @@
         <v>135.9</v>
       </c>
       <c r="D1474" s="5">
-        <v>0</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="1475" spans="1:4">
@@ -27857,10 +27892,10 @@
         <v>1163</v>
       </c>
       <c r="C1475" s="5">
-        <v>136</v>
+        <v>141.9</v>
       </c>
       <c r="D1475" s="5">
-        <v>0</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -27899,7 +27934,7 @@
         <v>1553</v>
       </c>
       <c r="C1478" s="5">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D1478" s="5">
         <v>109.9</v>
@@ -27927,7 +27962,7 @@
         <v>1555</v>
       </c>
       <c r="C1480" s="5">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D1480" s="5">
         <v>100</v>
@@ -27941,7 +27976,7 @@
         <v>1556</v>
       </c>
       <c r="C1481" s="5">
-        <v>107.5</v>
+        <v>100</v>
       </c>
       <c r="D1481" s="5">
         <v>100</v>
@@ -27955,7 +27990,7 @@
         <v>1557</v>
       </c>
       <c r="C1482" s="5">
-        <v>148</v>
+        <v>148.4</v>
       </c>
       <c r="D1482" s="5">
         <v>98</v>
@@ -28067,7 +28102,7 @@
         <v>1565</v>
       </c>
       <c r="C1490" s="5">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D1490" s="5">
         <v>99.7</v>
@@ -28095,7 +28130,7 @@
         <v>1567</v>
       </c>
       <c r="C1492" s="5">
-        <v>114.55</v>
+        <v>105</v>
       </c>
       <c r="D1492" s="5">
         <v>58.5</v>
@@ -28109,7 +28144,7 @@
         <v>1568</v>
       </c>
       <c r="C1493" s="5">
-        <v>141.9</v>
+        <v>104</v>
       </c>
       <c r="D1493" s="5">
         <v>96</v>
@@ -28123,7 +28158,7 @@
         <v>1569</v>
       </c>
       <c r="C1494" s="5">
-        <v>109.5</v>
+        <v>102</v>
       </c>
       <c r="D1494" s="5">
         <v>89.5</v>
@@ -28151,7 +28186,7 @@
         <v>1571</v>
       </c>
       <c r="C1496" s="5">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="D1496" s="5">
         <v>181</v>
@@ -28179,7 +28214,7 @@
         <v>1573</v>
       </c>
       <c r="C1498" s="5">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D1498" s="5">
         <v>99.95</v>
@@ -28207,7 +28242,7 @@
         <v>1575</v>
       </c>
       <c r="C1500" s="5">
-        <v>148.4</v>
+        <v>123.5</v>
       </c>
       <c r="D1500" s="5">
         <v>102.5</v>
@@ -28235,7 +28270,7 @@
         <v>1577</v>
       </c>
       <c r="C1502" s="5">
-        <v>131.94999999999999</v>
+        <v>187</v>
       </c>
       <c r="D1502" s="5">
         <v>80</v>
@@ -28333,7 +28368,7 @@
         <v>1583</v>
       </c>
       <c r="C1509" s="5">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="D1509" s="5">
         <v>75.150000000000006</v>
@@ -28347,7 +28382,7 @@
         <v>1584</v>
       </c>
       <c r="C1510" s="5">
-        <v>116</v>
+        <v>124.9</v>
       </c>
       <c r="D1510" s="5">
         <v>95</v>
@@ -28403,7 +28438,7 @@
         <v>1588</v>
       </c>
       <c r="C1514" s="5">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="D1514" s="5">
         <v>127</v>
@@ -28417,7 +28452,7 @@
         <v>1589</v>
       </c>
       <c r="C1515" s="5">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D1515" s="5">
         <v>93</v>
@@ -28431,7 +28466,7 @@
         <v>1590</v>
       </c>
       <c r="C1516" s="5">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D1516" s="5">
         <v>143</v>
@@ -28473,7 +28508,7 @@
         <v>1593</v>
       </c>
       <c r="C1519" s="5">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D1519" s="5">
         <v>92.5</v>
@@ -28490,7 +28525,7 @@
         <v>202</v>
       </c>
       <c r="D1520" s="5">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1521" spans="1:4">
@@ -28501,7 +28536,7 @@
         <v>1595</v>
       </c>
       <c r="C1521" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D1521" s="5">
         <v>114</v>
@@ -28529,7 +28564,7 @@
         <v>1597</v>
       </c>
       <c r="C1523" s="5">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D1523" s="5">
         <v>99.5</v>
@@ -28585,7 +28620,7 @@
         <v>1601</v>
       </c>
       <c r="C1527" s="5">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="D1527" s="5">
         <v>106</v>
@@ -28627,7 +28662,7 @@
         <v>1604</v>
       </c>
       <c r="C1530" s="5">
-        <v>113.35</v>
+        <v>190</v>
       </c>
       <c r="D1530" s="5">
         <v>82</v>
@@ -28669,7 +28704,7 @@
         <v>1167</v>
       </c>
       <c r="C1533" s="5">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D1533" s="5">
         <v>81.849999999999994</v>
@@ -28826,7 +28861,7 @@
         <v>110.3</v>
       </c>
       <c r="D1544" s="5">
-        <v>0</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="1545" spans="1:4">
@@ -28851,7 +28886,7 @@
         <v>1176</v>
       </c>
       <c r="C1546" s="5">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D1546" s="5">
         <v>99</v>
@@ -28865,7 +28900,7 @@
         <v>1177</v>
       </c>
       <c r="C1547" s="5">
-        <v>114.8</v>
+        <v>142</v>
       </c>
       <c r="D1547" s="5">
         <v>99.2</v>
@@ -28907,7 +28942,7 @@
         <v>1179</v>
       </c>
       <c r="C1550" s="5">
-        <v>108.75</v>
+        <v>103</v>
       </c>
       <c r="D1550" s="5">
         <v>97</v>
@@ -28921,7 +28956,7 @@
         <v>1180</v>
       </c>
       <c r="C1551" s="5">
-        <v>121</v>
+        <v>104.5</v>
       </c>
       <c r="D1551" s="5">
         <v>81</v>
@@ -28949,7 +28984,7 @@
         <v>1181</v>
       </c>
       <c r="C1553" s="5">
-        <v>103.45</v>
+        <v>134</v>
       </c>
       <c r="D1553" s="5">
         <v>93.6</v>
@@ -29117,7 +29152,7 @@
         <v>1192</v>
       </c>
       <c r="C1565" s="5">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="D1565" s="5">
         <v>97</v>
@@ -29131,7 +29166,7 @@
         <v>1193</v>
       </c>
       <c r="C1566" s="5">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D1566" s="5">
         <v>77.849999999999994</v>
@@ -29159,7 +29194,7 @@
         <v>1195</v>
       </c>
       <c r="C1568" s="5">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="D1568" s="5">
         <v>102</v>
@@ -29369,7 +29404,7 @@
         <v>1207</v>
       </c>
       <c r="C1583" s="5">
-        <v>120.3</v>
+        <v>136</v>
       </c>
       <c r="D1583" s="5">
         <v>98</v>
@@ -29383,7 +29418,7 @@
         <v>1615</v>
       </c>
       <c r="C1584" s="5">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D1584" s="5">
         <v>93</v>
@@ -29425,7 +29460,7 @@
         <v>1618</v>
       </c>
       <c r="C1587" s="5">
-        <v>245</v>
+        <v>133.5</v>
       </c>
       <c r="D1587" s="5">
         <v>112</v>
@@ -29551,7 +29586,7 @@
         <v>1622</v>
       </c>
       <c r="C1596" s="5">
-        <v>147.5</v>
+        <v>155</v>
       </c>
       <c r="D1596" s="5">
         <v>94.05</v>
@@ -29635,7 +29670,7 @@
         <v>1216</v>
       </c>
       <c r="C1602" s="5">
-        <v>109.4</v>
+        <v>118.2</v>
       </c>
       <c r="D1602" s="5">
         <v>94</v>
@@ -29649,7 +29684,7 @@
         <v>1217</v>
       </c>
       <c r="C1603" s="5">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D1603" s="5">
         <v>98</v>
@@ -29663,7 +29698,7 @@
         <v>1218</v>
       </c>
       <c r="C1604" s="5">
-        <v>118.6</v>
+        <v>189</v>
       </c>
       <c r="D1604" s="5">
         <v>95</v>
@@ -29691,7 +29726,7 @@
         <v>1625</v>
       </c>
       <c r="C1606" s="5">
-        <v>133.5</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="D1606" s="5">
         <v>99</v>
@@ -29705,7 +29740,7 @@
         <v>1220</v>
       </c>
       <c r="C1607" s="5">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D1607" s="5">
         <v>93</v>
@@ -29789,7 +29824,7 @@
         <v>1224</v>
       </c>
       <c r="C1613" s="5">
-        <v>138.9</v>
+        <v>268</v>
       </c>
       <c r="D1613" s="5">
         <v>101.75</v>
@@ -29817,7 +29852,7 @@
         <v>1225</v>
       </c>
       <c r="C1615" s="5">
-        <v>155</v>
+        <v>119.5</v>
       </c>
       <c r="D1615" s="5">
         <v>98.8</v>
@@ -29859,7 +29894,7 @@
         <v>1227</v>
       </c>
       <c r="C1618" s="5">
-        <v>140.25</v>
+        <v>144</v>
       </c>
       <c r="D1618" s="5">
         <v>99</v>
@@ -29887,7 +29922,7 @@
         <v>1228</v>
       </c>
       <c r="C1620" s="5">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="D1620" s="5">
         <v>107.5</v>
@@ -29901,7 +29936,7 @@
         <v>1229</v>
       </c>
       <c r="C1621" s="5">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="D1621" s="5">
         <v>101.1</v>
@@ -29929,7 +29964,7 @@
         <v>1231</v>
       </c>
       <c r="C1623" s="5">
-        <v>189</v>
+        <v>140.9</v>
       </c>
       <c r="D1623" s="5">
         <v>115.15</v>
@@ -29943,7 +29978,7 @@
         <v>1232</v>
       </c>
       <c r="C1624" s="5">
-        <v>125</v>
+        <v>115.6</v>
       </c>
       <c r="D1624" s="5">
         <v>95</v>
@@ -29985,7 +30020,7 @@
         <v>1235</v>
       </c>
       <c r="C1627" s="5">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D1627" s="5">
         <v>138</v>
@@ -30055,7 +30090,7 @@
         <v>1633</v>
       </c>
       <c r="C1632" s="5">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="D1632" s="5">
         <v>121</v>
@@ -30114,7 +30149,7 @@
         <v>231</v>
       </c>
       <c r="D1636" s="5">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1637" spans="1:4">
@@ -30153,7 +30188,7 @@
         <v>1640</v>
       </c>
       <c r="C1639" s="5">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="D1639" s="5">
         <v>222</v>
@@ -30237,7 +30272,7 @@
         <v>1239</v>
       </c>
       <c r="C1645" s="5">
-        <v>120.4</v>
+        <v>184</v>
       </c>
       <c r="D1645" s="5">
         <v>99.5</v>
@@ -30251,7 +30286,7 @@
         <v>1240</v>
       </c>
       <c r="C1646" s="5">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D1646" s="5">
         <v>92.25</v>
@@ -30321,7 +30356,7 @@
         <v>1244</v>
       </c>
       <c r="C1651" s="5">
-        <v>121.1</v>
+        <v>142.05000000000001</v>
       </c>
       <c r="D1651" s="5">
         <v>92</v>
@@ -30335,7 +30370,7 @@
         <v>1245</v>
       </c>
       <c r="C1652" s="5">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D1652" s="5">
         <v>102.5</v>
@@ -30363,7 +30398,7 @@
         <v>1247</v>
       </c>
       <c r="C1654" s="5">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D1654" s="5">
         <v>88.3</v>
@@ -30377,7 +30412,7 @@
         <v>1248</v>
       </c>
       <c r="C1655" s="5">
-        <v>146.94999999999999</v>
+        <v>268</v>
       </c>
       <c r="D1655" s="5">
         <v>80</v>
@@ -30391,7 +30426,7 @@
         <v>1249</v>
       </c>
       <c r="C1656" s="5">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="D1656" s="5">
         <v>84</v>
@@ -30475,7 +30510,7 @@
         <v>1254</v>
       </c>
       <c r="C1662" s="5">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D1662" s="5">
         <v>96.5</v>
@@ -30545,7 +30580,7 @@
         <v>1257</v>
       </c>
       <c r="C1667" s="5">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="D1667" s="5">
         <v>100.8</v>
@@ -30587,7 +30622,7 @@
         <v>1650</v>
       </c>
       <c r="C1670" s="5">
-        <v>142.05000000000001</v>
+        <v>119</v>
       </c>
       <c r="D1670" s="5">
         <v>65.5</v>
@@ -30601,7 +30636,7 @@
         <v>1651</v>
       </c>
       <c r="C1671" s="5">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="D1671" s="5">
         <v>114.45</v>
@@ -30629,7 +30664,7 @@
         <v>1653</v>
       </c>
       <c r="C1673" s="5">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D1673" s="5">
         <v>114.45</v>
@@ -30643,7 +30678,7 @@
         <v>1654</v>
       </c>
       <c r="C1674" s="5">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D1674" s="5">
         <v>107</v>
@@ -30699,7 +30734,7 @@
         <v>1658</v>
       </c>
       <c r="C1678" s="5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D1678" s="5">
         <v>99.8</v>
@@ -30881,7 +30916,7 @@
         <v>1671</v>
       </c>
       <c r="C1691" s="5">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D1691" s="5">
         <v>94</v>
@@ -31147,7 +31182,7 @@
         <v>1690</v>
       </c>
       <c r="C1710" s="5">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D1710" s="5">
         <v>98</v>
@@ -32127,7 +32162,7 @@
         <v>1760</v>
       </c>
       <c r="C1780" s="5">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D1780" s="5">
         <v>97</v>
@@ -32270,7 +32305,7 @@
         <v>161</v>
       </c>
       <c r="D1790" s="5">
-        <v>109.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1791" spans="1:4">
@@ -32326,7 +32361,7 @@
         <v>113</v>
       </c>
       <c r="D1794" s="5">
-        <v>95.65</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="1795" spans="1:4">
@@ -32491,7 +32526,7 @@
         <v>1785</v>
       </c>
       <c r="C1806" s="5">
-        <v>100.45</v>
+        <v>120.15</v>
       </c>
       <c r="D1806" s="5">
         <v>86.75</v>
@@ -32603,7 +32638,7 @@
         <v>1793</v>
       </c>
       <c r="C1814" s="5">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D1814" s="5">
         <v>101</v>
@@ -32617,7 +32652,7 @@
         <v>1794</v>
       </c>
       <c r="C1815" s="5">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D1815" s="5">
         <v>98</v>
@@ -32729,7 +32764,7 @@
         <v>1802</v>
       </c>
       <c r="C1823" s="5">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D1823" s="5">
         <v>87.2</v>
@@ -32841,7 +32876,7 @@
         <v>1810</v>
       </c>
       <c r="C1831" s="5">
-        <v>121.6</v>
+        <v>122.5</v>
       </c>
       <c r="D1831" s="5">
         <v>101.35</v>
@@ -32869,7 +32904,7 @@
         <v>1812</v>
       </c>
       <c r="C1833" s="5">
-        <v>119.3</v>
+        <v>129</v>
       </c>
       <c r="D1833" s="5">
         <v>96</v>
@@ -32953,7 +32988,7 @@
         <v>1818</v>
       </c>
       <c r="C1839" s="5">
-        <v>120.4</v>
+        <v>122.05</v>
       </c>
       <c r="D1839" s="5">
         <v>95.55</v>
@@ -33208,7 +33243,7 @@
         <v>167</v>
       </c>
       <c r="D1857" s="5">
-        <v>97.75</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="1858" spans="1:4">
@@ -33275,7 +33310,7 @@
         <v>2139</v>
       </c>
       <c r="C1862" s="5">
-        <v>106.9</v>
+        <v>111.6</v>
       </c>
       <c r="D1862" s="5">
         <v>92.9</v>
@@ -33919,7 +33954,7 @@
         <v>1884</v>
       </c>
       <c r="C1908" s="5">
-        <v>120.5</v>
+        <v>269</v>
       </c>
       <c r="D1908" s="5">
         <v>99.1</v>
@@ -33933,7 +33968,7 @@
         <v>1885</v>
       </c>
       <c r="C1909" s="5">
-        <v>115.95</v>
+        <v>269</v>
       </c>
       <c r="D1909" s="5">
         <v>98.4</v>
@@ -33975,7 +34010,7 @@
         <v>1888</v>
       </c>
       <c r="C1912" s="5">
-        <v>116</v>
+        <v>100.55</v>
       </c>
       <c r="D1912" s="5">
         <v>88</v>
@@ -34241,10 +34276,10 @@
         <v>1907</v>
       </c>
       <c r="C1931" s="5">
-        <v>111.8</v>
+        <v>112.5</v>
       </c>
       <c r="D1931" s="5">
-        <v>106.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1932" spans="1:4">
@@ -34255,7 +34290,7 @@
         <v>1908</v>
       </c>
       <c r="C1932" s="5">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="D1932" s="5">
         <v>265</v>
@@ -34524,7 +34559,7 @@
         <v>119</v>
       </c>
       <c r="D1951" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -34885,7 +34920,7 @@
         <v>1953</v>
       </c>
       <c r="C1977" s="5">
-        <v>146.5</v>
+        <v>150</v>
       </c>
       <c r="D1977" s="5">
         <v>102.05</v>
@@ -35207,7 +35242,7 @@
         <v>1976</v>
       </c>
       <c r="C2000" s="5">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="D2000" s="5">
         <v>102</v>
@@ -35543,7 +35578,7 @@
         <v>2000</v>
       </c>
       <c r="C2024" s="5">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D2024" s="5">
         <v>102.7</v>
@@ -35557,7 +35592,7 @@
         <v>2145</v>
       </c>
       <c r="C2025" s="5">
-        <v>130.44999999999999</v>
+        <v>131.85</v>
       </c>
       <c r="D2025" s="5">
         <v>96.3</v>
@@ -35602,7 +35637,7 @@
         <v>147.85</v>
       </c>
       <c r="D2028" s="5">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="2029" spans="1:4">
@@ -35627,7 +35662,7 @@
         <v>2005</v>
       </c>
       <c r="C2030" s="5">
-        <v>111.5</v>
+        <v>155</v>
       </c>
       <c r="D2030" s="5">
         <v>96</v>
@@ -35977,7 +36012,7 @@
         <v>2030</v>
       </c>
       <c r="C2055" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2055" s="5">
         <v>95</v>
@@ -36148,7 +36183,7 @@
         <v>136</v>
       </c>
       <c r="D2067" s="5">
-        <v>104</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="2068" spans="1:4">
@@ -36355,7 +36390,7 @@
         <v>2057</v>
       </c>
       <c r="C2082" s="5">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="D2082" s="5">
         <v>80</v>
@@ -36551,7 +36586,7 @@
         <v>2071</v>
       </c>
       <c r="C2096" s="5">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="D2096" s="5">
         <v>107</v>
@@ -36705,7 +36740,7 @@
         <v>2081</v>
       </c>
       <c r="C2107" s="5">
-        <v>217</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="D2107" s="5">
         <v>138</v>
@@ -36820,7 +36855,7 @@
         <v>116</v>
       </c>
       <c r="D2115" s="5">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2116" spans="1:4">
@@ -36873,7 +36908,7 @@
         <v>2116</v>
       </c>
       <c r="C2119" s="5">
-        <v>102.2</v>
+        <v>134.5</v>
       </c>
       <c r="D2119" s="5">
         <v>100</v>
@@ -36887,7 +36922,7 @@
         <v>2117</v>
       </c>
       <c r="C2120" s="5">
-        <v>97.8</v>
+        <v>102.5</v>
       </c>
       <c r="D2120" s="5">
         <v>93.3</v>
@@ -36901,7 +36936,7 @@
         <v>2118</v>
       </c>
       <c r="C2121" s="5">
-        <v>101.4</v>
+        <v>168</v>
       </c>
       <c r="D2121" s="5">
         <v>97</v>
@@ -36915,10 +36950,10 @@
         <v>2119</v>
       </c>
       <c r="C2122" s="5">
-        <v>104.25</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="D2122" s="5">
-        <v>101</v>
+        <v>100.45</v>
       </c>
     </row>
     <row r="2123" spans="1:4">
@@ -36929,7 +36964,7 @@
         <v>2120</v>
       </c>
       <c r="C2123" s="5">
-        <v>100.2</v>
+        <v>288</v>
       </c>
       <c r="D2123" s="5">
         <v>99.75</v>
@@ -36943,7 +36978,7 @@
         <v>2121</v>
       </c>
       <c r="C2124" s="5">
-        <v>112.8</v>
+        <v>229</v>
       </c>
       <c r="D2124" s="5">
         <v>107</v>
@@ -37086,7 +37121,7 @@
         <v>111.8</v>
       </c>
       <c r="D2134" s="5">
-        <v>98.65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2135" spans="1:4">
@@ -37100,7 +37135,7 @@
         <v>115</v>
       </c>
       <c r="D2135" s="5">
-        <v>96</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="2136" spans="1:4">
@@ -37265,7 +37300,7 @@
         <v>2114</v>
       </c>
       <c r="C2147" s="5">
-        <v>124.1</v>
+        <v>125.55</v>
       </c>
       <c r="D2147" s="5">
         <v>92</v>
@@ -37296,7 +37331,7 @@
         <v>98.7</v>
       </c>
       <c r="D2149" s="5">
-        <v>95.8</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="2150" spans="1:4">
@@ -37324,7 +37359,7 @@
         <v>118</v>
       </c>
       <c r="D2151" s="5">
-        <v>107.3</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -37335,7 +37370,7 @@
         <v>2148</v>
       </c>
       <c r="C2152" s="5">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D2152" s="5">
         <v>117.85</v>
@@ -37366,7 +37401,7 @@
         <v>129</v>
       </c>
       <c r="D2154" s="5">
-        <v>105.05</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="2155" spans="1:4">
@@ -37394,7 +37429,7 @@
         <v>114</v>
       </c>
       <c r="D2156" s="5">
-        <v>89.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="2157" spans="1:4">
@@ -37405,7 +37440,7 @@
         <v>2153</v>
       </c>
       <c r="C2157" s="5">
-        <v>126.65</v>
+        <v>130.5</v>
       </c>
       <c r="D2157" s="5">
         <v>106</v>
@@ -37419,7 +37454,7 @@
         <v>2154</v>
       </c>
       <c r="C2158" s="5">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D2158" s="5">
         <v>108.5</v>
@@ -37447,7 +37482,7 @@
         <v>2156</v>
       </c>
       <c r="C2160" s="5">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D2160" s="5">
         <v>115</v>
@@ -37464,7 +37499,7 @@
         <v>99.45</v>
       </c>
       <c r="D2161" s="5">
-        <v>95.3</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -37489,7 +37524,7 @@
         <v>2159</v>
       </c>
       <c r="C2163" s="5">
-        <v>99.45</v>
+        <v>101</v>
       </c>
       <c r="D2163" s="5">
         <v>91</v>
@@ -37506,7 +37541,7 @@
         <v>101</v>
       </c>
       <c r="D2164" s="5">
-        <v>91.8</v>
+        <v>90.15</v>
       </c>
     </row>
     <row r="2165" spans="1:4">
@@ -37548,7 +37583,7 @@
         <v>157</v>
       </c>
       <c r="D2167" s="5">
-        <v>110</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -37576,7 +37611,7 @@
         <v>119.5</v>
       </c>
       <c r="D2169" s="5">
-        <v>107.35</v>
+        <v>105.05</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -37590,7 +37625,7 @@
         <v>118.5</v>
       </c>
       <c r="D2170" s="5">
-        <v>105.35</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="2171" spans="1:4">
@@ -37601,7 +37636,7 @@
         <v>2167</v>
       </c>
       <c r="C2171" s="5">
-        <v>122.5</v>
+        <v>148</v>
       </c>
       <c r="D2171" s="5">
         <v>96</v>
@@ -37646,7 +37681,7 @@
         <v>120</v>
       </c>
       <c r="D2174" s="5">
-        <v>102.05</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -37716,7 +37751,7 @@
         <v>124.8</v>
       </c>
       <c r="D2179" s="5">
-        <v>111.1</v>
+        <v>106.55</v>
       </c>
     </row>
     <row r="2180" spans="1:4">
@@ -37730,7 +37765,7 @@
         <v>124.85</v>
       </c>
       <c r="D2180" s="5">
-        <v>111.5</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="2181" spans="1:4">
@@ -37758,7 +37793,7 @@
         <v>110</v>
       </c>
       <c r="D2182" s="5">
-        <v>102.05</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="2183" spans="1:4">
@@ -37814,7 +37849,7 @@
         <v>131</v>
       </c>
       <c r="D2186" s="5">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2187" spans="1:4">
@@ -37870,7 +37905,7 @@
         <v>113.25</v>
       </c>
       <c r="D2190" s="5">
-        <v>103.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -37895,7 +37930,7 @@
         <v>2187</v>
       </c>
       <c r="C2192" s="5">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D2192" s="5">
         <v>122</v>
@@ -37912,7 +37947,7 @@
         <v>121</v>
       </c>
       <c r="D2193" s="5">
-        <v>101.05</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="2194" spans="1:4">
@@ -37926,7 +37961,7 @@
         <v>117.5</v>
       </c>
       <c r="D2194" s="5">
-        <v>110.6</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="2195" spans="1:4">
@@ -37940,7 +37975,7 @@
         <v>117</v>
       </c>
       <c r="D2195" s="5">
-        <v>101.85</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="2196" spans="1:4">
@@ -37968,7 +38003,7 @@
         <v>112.9</v>
       </c>
       <c r="D2197" s="5">
-        <v>104.9</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="2198" spans="1:4">
@@ -37979,7 +38014,7 @@
         <v>2199</v>
       </c>
       <c r="C2198" s="5">
-        <v>109.3</v>
+        <v>122.5</v>
       </c>
       <c r="D2198" s="5">
         <v>103</v>
@@ -37993,7 +38028,7 @@
         <v>2198</v>
       </c>
       <c r="C2199" s="5">
-        <v>109.5</v>
+        <v>110</v>
       </c>
       <c r="D2199" s="5">
         <v>100.5</v>
@@ -38010,7 +38045,7 @@
         <v>104</v>
       </c>
       <c r="D2200" s="5">
-        <v>97.25</v>
+        <v>95.65</v>
       </c>
     </row>
     <row r="2201" spans="1:4">
@@ -38021,7 +38056,7 @@
         <v>2204</v>
       </c>
       <c r="C2201" s="5">
-        <v>110.55</v>
+        <v>117</v>
       </c>
       <c r="D2201" s="5">
         <v>107.25</v>
@@ -38035,7 +38070,7 @@
         <v>2202</v>
       </c>
       <c r="C2202" s="5">
-        <v>127.9</v>
+        <v>132</v>
       </c>
       <c r="D2202" s="5">
         <v>115.8</v>
@@ -38063,7 +38098,7 @@
         <v>2190</v>
       </c>
       <c r="C2204" s="5">
-        <v>116.2</v>
+        <v>152</v>
       </c>
       <c r="D2204" s="5">
         <v>100.15</v>
@@ -38077,7 +38112,7 @@
         <v>2205</v>
       </c>
       <c r="C2205" s="5">
-        <v>116.15</v>
+        <v>116.5</v>
       </c>
       <c r="D2205" s="5">
         <v>106.5</v>
@@ -38091,7 +38126,7 @@
         <v>2206</v>
       </c>
       <c r="C2206" s="5">
-        <v>106.5</v>
+        <v>107.5</v>
       </c>
       <c r="D2206" s="5">
         <v>102</v>
@@ -38105,7 +38140,7 @@
         <v>2200</v>
       </c>
       <c r="C2207" s="5">
-        <v>130.9</v>
+        <v>157</v>
       </c>
       <c r="D2207" s="5">
         <v>118</v>
@@ -38119,7 +38154,7 @@
         <v>2195</v>
       </c>
       <c r="C2208" s="5">
-        <v>105.1</v>
+        <v>108.55</v>
       </c>
       <c r="D2208" s="5">
         <v>103.5</v>
@@ -38133,10 +38168,10 @@
         <v>2193</v>
       </c>
       <c r="C2209" s="5">
-        <v>121.6</v>
+        <v>123.5</v>
       </c>
       <c r="D2209" s="5">
-        <v>118.3</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -38147,47 +38182,137 @@
         <v>2210</v>
       </c>
       <c r="C2210" s="5">
-        <v>113.7</v>
+        <v>122.9</v>
       </c>
       <c r="D2210" s="5">
         <v>105.5</v>
       </c>
     </row>
     <row r="2211" spans="1:4">
-      <c r="A2211" s="6"/>
-      <c r="B2211" s="6"/>
+      <c r="A2211" s="2">
+        <v>30371</v>
+      </c>
+      <c r="B2211" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C2211" s="5">
+        <v>135</v>
+      </c>
+      <c r="D2211" s="5">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="2212" spans="1:4">
-      <c r="A2212" s="6"/>
-      <c r="B2212" s="6"/>
+      <c r="A2212" s="2">
+        <v>61907</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C2212" s="5">
+        <v>121</v>
+      </c>
+      <c r="D2212" s="5">
+        <v>109</v>
+      </c>
     </row>
     <row r="2213" spans="1:4">
-      <c r="A2213" s="6"/>
-      <c r="B2213" s="6"/>
+      <c r="A2213" s="2">
+        <v>62745</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2213" s="5">
+        <v>134</v>
+      </c>
+      <c r="D2213" s="5">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="2214" spans="1:4">
-      <c r="A2214" s="6"/>
-      <c r="B2214" s="6"/>
+      <c r="A2214" s="2">
+        <v>30321</v>
+      </c>
+      <c r="B2214" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C2214" s="5">
+        <v>110</v>
+      </c>
+      <c r="D2214" s="5">
+        <v>104.4</v>
+      </c>
     </row>
     <row r="2215" spans="1:4">
-      <c r="A2215" s="6"/>
-      <c r="B2215" s="6"/>
+      <c r="A2215" s="2">
+        <v>30322</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C2215" s="5">
+        <v>108</v>
+      </c>
+      <c r="D2215" s="5">
+        <v>105.6</v>
+      </c>
     </row>
     <row r="2216" spans="1:4">
-      <c r="A2216" s="6"/>
-      <c r="B2216" s="6"/>
+      <c r="A2216" s="2">
+        <v>24023</v>
+      </c>
+      <c r="B2216" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C2216" s="5">
+        <v>112.4</v>
+      </c>
+      <c r="D2216" s="5">
+        <v>102.65</v>
+      </c>
     </row>
     <row r="2217" spans="1:4">
-      <c r="A2217" s="6"/>
-      <c r="B2217" s="6"/>
+      <c r="A2217" s="2">
+        <v>23683</v>
+      </c>
+      <c r="B2217" s="2" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C2217" s="5">
+        <v>149</v>
+      </c>
+      <c r="D2217" s="5">
+        <v>124.15</v>
+      </c>
     </row>
     <row r="2218" spans="1:4">
-      <c r="A2218" s="6"/>
-      <c r="B2218" s="6"/>
+      <c r="A2218" s="2">
+        <v>47721</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C2218" s="5">
+        <v>117.85</v>
+      </c>
+      <c r="D2218" s="5">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="2219" spans="1:4">
-      <c r="A2219" s="6"/>
-      <c r="B2219" s="6"/>
+      <c r="A2219" s="2">
+        <v>68901</v>
+      </c>
+      <c r="B2219" s="2" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C2219" s="5">
+        <v>110</v>
+      </c>
+      <c r="D2219" s="5">
+        <v>110</v>
+      </c>
     </row>
     <row r="2220" spans="1:4">
       <c r="A2220" s="6"/>
@@ -48264,62 +48389,6 @@
     <row r="4738" spans="1:2">
       <c r="A4738" s="6"/>
       <c r="B4738" s="6"/>
-    </row>
-    <row r="4739" spans="1:2">
-      <c r="A4739" s="6"/>
-      <c r="B4739" s="6"/>
-    </row>
-    <row r="4740" spans="1:2">
-      <c r="A4740" s="6"/>
-      <c r="B4740" s="6"/>
-    </row>
-    <row r="4741" spans="1:2">
-      <c r="A4741" s="6"/>
-      <c r="B4741" s="6"/>
-    </row>
-    <row r="4742" spans="1:2">
-      <c r="A4742" s="6"/>
-      <c r="B4742" s="6"/>
-    </row>
-    <row r="4743" spans="1:2">
-      <c r="A4743" s="6"/>
-      <c r="B4743" s="6"/>
-    </row>
-    <row r="4744" spans="1:2">
-      <c r="A4744" s="6"/>
-      <c r="B4744" s="6"/>
-    </row>
-    <row r="4745" spans="1:2">
-      <c r="A4745" s="6"/>
-      <c r="B4745" s="6"/>
-    </row>
-    <row r="4746" spans="1:2">
-      <c r="A4746" s="6"/>
-      <c r="B4746" s="6"/>
-    </row>
-    <row r="4747" spans="1:2">
-      <c r="A4747" s="6"/>
-      <c r="B4747" s="6"/>
-    </row>
-    <row r="4748" spans="1:2">
-      <c r="A4748" s="6"/>
-      <c r="B4748" s="6"/>
-    </row>
-    <row r="4749" spans="1:2">
-      <c r="A4749" s="6"/>
-      <c r="B4749" s="6"/>
-    </row>
-    <row r="4750" spans="1:2">
-      <c r="A4750" s="6"/>
-      <c r="B4750" s="6"/>
-    </row>
-    <row r="4751" spans="1:2">
-      <c r="A4751" s="6"/>
-      <c r="B4751" s="6"/>
-    </row>
-    <row r="4752" spans="1:2">
-      <c r="A4752" s="6"/>
-      <c r="B4752" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D2210" xr:uid="{560938A7-4414-491C-AA09-6A0E6F3D3732}">
@@ -48329,22 +48398,25 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2211:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4753:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A2210">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2210">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B2210">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="A2220:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4739:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A2219">
+    <cfRule type="duplicateValues" dxfId="2" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B2219">
+    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2211:B2219">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC2B47-02F5-4226-A8C1-388529219BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A04C2-A970-4602-8438-0EEDBD1048B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{058AA146-B2DD-463C-A8D5-CED3B60360A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="2223">
   <si>
     <t>名稱</t>
   </si>
@@ -6703,6 +6703,9 @@
   </si>
   <si>
     <t>掛牌最低</t>
+  </si>
+  <si>
+    <t>弘塑一</t>
   </si>
 </sst>
 </file>
@@ -6854,7 +6857,17 @@
     <cellStyle name="百分比 2 2" xfId="3" xr:uid="{1061963D-BB9A-42F3-854A-3A22C83FF480}"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{82286704-F8A7-4DAA-86FE-9E5CB3572769}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7235,7 +7248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9794F15D-2674-4B04-A64B-82E9F6E4DDB3}">
-  <dimension ref="A1:D4738"/>
+  <dimension ref="A1:D4724"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2206" workbookViewId="0">
       <selection activeCell="B2214" sqref="B2214"/>
@@ -8208,7 +8221,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="5">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D69" s="5">
         <v>123</v>
@@ -8222,7 +8235,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="5">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D70" s="5">
         <v>102.5</v>
@@ -9342,7 +9355,7 @@
         <v>1282</v>
       </c>
       <c r="C150" s="5">
-        <v>594</v>
+        <v>120</v>
       </c>
       <c r="D150" s="5">
         <v>120</v>
@@ -10084,7 +10097,7 @@
         <v>1296</v>
       </c>
       <c r="C203" s="5">
-        <v>157</v>
+        <v>145.9</v>
       </c>
       <c r="D203" s="5">
         <v>98</v>
@@ -10126,7 +10139,7 @@
         <v>1299</v>
       </c>
       <c r="C206" s="5">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D206" s="5">
         <v>132</v>
@@ -12842,7 +12855,7 @@
         <v>1377</v>
       </c>
       <c r="C400" s="5">
-        <v>116.5</v>
+        <v>115.1</v>
       </c>
       <c r="D400" s="5">
         <v>93</v>
@@ -14214,7 +14227,7 @@
         <v>1419</v>
       </c>
       <c r="C498" s="5">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D498" s="5">
         <v>96.55</v>
@@ -14228,7 +14241,7 @@
         <v>1420</v>
       </c>
       <c r="C499" s="5">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D499" s="5">
         <v>95.5</v>
@@ -14284,7 +14297,7 @@
         <v>1424</v>
       </c>
       <c r="C503" s="5">
-        <v>132</v>
+        <v>120.5</v>
       </c>
       <c r="D503" s="5">
         <v>99.5</v>
@@ -14466,7 +14479,7 @@
         <v>1435</v>
       </c>
       <c r="C516" s="5">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D516" s="5">
         <v>104.6</v>
@@ -15964,7 +15977,7 @@
         <v>429</v>
       </c>
       <c r="C623" s="5">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D623" s="5">
         <v>104</v>
@@ -16272,7 +16285,7 @@
         <v>444</v>
       </c>
       <c r="C645" s="5">
-        <v>130.05000000000001</v>
+        <v>124.9</v>
       </c>
       <c r="D645" s="5">
         <v>93</v>
@@ -21382,7 +21395,7 @@
         <v>759</v>
       </c>
       <c r="C1010" s="5">
-        <v>113</v>
+        <v>104.2</v>
       </c>
       <c r="D1010" s="5">
         <v>93.5</v>
@@ -21564,7 +21577,7 @@
         <v>772</v>
       </c>
       <c r="C1023" s="5">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D1023" s="5">
         <v>99</v>
@@ -21578,7 +21591,7 @@
         <v>773</v>
       </c>
       <c r="C1024" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1024" s="5">
         <v>100</v>
@@ -21648,7 +21661,7 @@
         <v>778</v>
       </c>
       <c r="C1029" s="5">
-        <v>143</v>
+        <v>145.35</v>
       </c>
       <c r="D1029" s="5">
         <v>108</v>
@@ -21718,7 +21731,7 @@
         <v>1497</v>
       </c>
       <c r="C1034" s="5">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1034" s="5">
         <v>104</v>
@@ -21760,7 +21773,7 @@
         <v>781</v>
       </c>
       <c r="C1037" s="5">
-        <v>133.19999999999999</v>
+        <v>136</v>
       </c>
       <c r="D1037" s="5">
         <v>103.1</v>
@@ -22530,7 +22543,7 @@
         <v>828</v>
       </c>
       <c r="C1092" s="5">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D1092" s="5">
         <v>99.9</v>
@@ -22670,7 +22683,7 @@
         <v>838</v>
       </c>
       <c r="C1102" s="5">
-        <v>167</v>
+        <v>122.5</v>
       </c>
       <c r="D1102" s="5">
         <v>94.15</v>
@@ -22684,7 +22697,7 @@
         <v>839</v>
       </c>
       <c r="C1103" s="5">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D1103" s="5">
         <v>91.05</v>
@@ -22740,7 +22753,7 @@
         <v>842</v>
       </c>
       <c r="C1107" s="5">
-        <v>126.95</v>
+        <v>153</v>
       </c>
       <c r="D1107" s="5">
         <v>91.15</v>
@@ -22852,7 +22865,7 @@
         <v>848</v>
       </c>
       <c r="C1115" s="5">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D1115" s="5">
         <v>101.9</v>
@@ -22866,7 +22879,7 @@
         <v>849</v>
       </c>
       <c r="C1116" s="5">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="D1116" s="5">
         <v>100.9</v>
@@ -22880,7 +22893,7 @@
         <v>850</v>
       </c>
       <c r="C1117" s="5">
-        <v>118.5</v>
+        <v>167</v>
       </c>
       <c r="D1117" s="5">
         <v>105.95</v>
@@ -22894,7 +22907,7 @@
         <v>1510</v>
       </c>
       <c r="C1118" s="5">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D1118" s="5">
         <v>97.25</v>
@@ -22908,7 +22921,7 @@
         <v>851</v>
       </c>
       <c r="C1119" s="5">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D1119" s="5">
         <v>98.7</v>
@@ -22936,7 +22949,7 @@
         <v>853</v>
       </c>
       <c r="C1121" s="5">
-        <v>146.1</v>
+        <v>107.1</v>
       </c>
       <c r="D1121" s="5">
         <v>99.05</v>
@@ -23062,7 +23075,7 @@
         <v>861</v>
       </c>
       <c r="C1130" s="5">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D1130" s="5">
         <v>71.099999999999994</v>
@@ -23090,7 +23103,7 @@
         <v>862</v>
       </c>
       <c r="C1132" s="5">
-        <v>113.3</v>
+        <v>110.5</v>
       </c>
       <c r="D1132" s="5">
         <v>97.1</v>
@@ -23104,7 +23117,7 @@
         <v>863</v>
       </c>
       <c r="C1133" s="5">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D1133" s="5">
         <v>107</v>
@@ -23188,7 +23201,7 @@
         <v>1512</v>
       </c>
       <c r="C1139" s="5">
-        <v>101.5</v>
+        <v>105</v>
       </c>
       <c r="D1139" s="5">
         <v>91.5</v>
@@ -23776,7 +23789,7 @@
         <v>1513</v>
       </c>
       <c r="C1181" s="5">
-        <v>105.6</v>
+        <v>128.5</v>
       </c>
       <c r="D1181" s="5">
         <v>96.5</v>
@@ -24336,7 +24349,7 @@
         <v>946</v>
       </c>
       <c r="C1221" s="5">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D1221" s="5">
         <v>107</v>
@@ -24392,7 +24405,7 @@
         <v>949</v>
       </c>
       <c r="C1225" s="5">
-        <v>102.5</v>
+        <v>114</v>
       </c>
       <c r="D1225" s="5">
         <v>38</v>
@@ -24826,7 +24839,7 @@
         <v>980</v>
       </c>
       <c r="C1256" s="5">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="D1256" s="5">
         <v>101.5</v>
@@ -25064,7 +25077,7 @@
         <v>995</v>
       </c>
       <c r="C1273" s="5">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1273" s="5">
         <v>95</v>
@@ -25078,7 +25091,7 @@
         <v>996</v>
       </c>
       <c r="C1274" s="5">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="D1274" s="5">
         <v>106</v>
@@ -25106,7 +25119,7 @@
         <v>997</v>
       </c>
       <c r="C1276" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D1276" s="5">
         <v>83.75</v>
@@ -25484,7 +25497,7 @@
         <v>1022</v>
       </c>
       <c r="C1303" s="5">
-        <v>102.2</v>
+        <v>101.75</v>
       </c>
       <c r="D1303" s="5">
         <v>81</v>
@@ -25610,7 +25623,7 @@
         <v>1031</v>
       </c>
       <c r="C1312" s="5">
-        <v>110</v>
+        <v>111.1</v>
       </c>
       <c r="D1312" s="5">
         <v>100</v>
@@ -25624,7 +25637,7 @@
         <v>1032</v>
       </c>
       <c r="C1313" s="5">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D1313" s="5">
         <v>99.6</v>
@@ -25708,7 +25721,7 @@
         <v>1036</v>
       </c>
       <c r="C1319" s="5">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D1319" s="5">
         <v>97.8</v>
@@ -25722,7 +25735,7 @@
         <v>1037</v>
       </c>
       <c r="C1320" s="5">
-        <v>121.5</v>
+        <v>114.15</v>
       </c>
       <c r="D1320" s="5">
         <v>60</v>
@@ -25736,7 +25749,7 @@
         <v>1038</v>
       </c>
       <c r="C1321" s="5">
-        <v>100</v>
+        <v>102.2</v>
       </c>
       <c r="D1321" s="5">
         <v>99</v>
@@ -25778,7 +25791,7 @@
         <v>1040</v>
       </c>
       <c r="C1324" s="5">
-        <v>150</v>
+        <v>107.2</v>
       </c>
       <c r="D1324" s="5">
         <v>93</v>
@@ -25792,7 +25805,7 @@
         <v>1041</v>
       </c>
       <c r="C1325" s="5">
-        <v>149.9</v>
+        <v>154</v>
       </c>
       <c r="D1325" s="5">
         <v>124</v>
@@ -25820,7 +25833,7 @@
         <v>1043</v>
       </c>
       <c r="C1327" s="5">
-        <v>115</v>
+        <v>127.8</v>
       </c>
       <c r="D1327" s="5">
         <v>59</v>
@@ -25876,7 +25889,7 @@
         <v>1047</v>
       </c>
       <c r="C1331" s="5">
-        <v>119.5</v>
+        <v>156</v>
       </c>
       <c r="D1331" s="5">
         <v>118.1</v>
@@ -25960,7 +25973,7 @@
         <v>1052</v>
       </c>
       <c r="C1337" s="5">
-        <v>115.1</v>
+        <v>239</v>
       </c>
       <c r="D1337" s="5">
         <v>106.95</v>
@@ -26016,7 +26029,7 @@
         <v>1055</v>
       </c>
       <c r="C1341" s="5">
-        <v>0</v>
+        <v>110.05</v>
       </c>
       <c r="D1341" s="5">
         <v>101</v>
@@ -26170,7 +26183,7 @@
         <v>1065</v>
       </c>
       <c r="C1352" s="5">
-        <v>229</v>
+        <v>123.05</v>
       </c>
       <c r="D1352" s="5">
         <v>100</v>
@@ -26226,7 +26239,7 @@
         <v>1067</v>
       </c>
       <c r="C1356" s="5">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="D1356" s="5">
         <v>99.5</v>
@@ -26282,7 +26295,7 @@
         <v>1071</v>
       </c>
       <c r="C1360" s="5">
-        <v>103.45</v>
+        <v>108</v>
       </c>
       <c r="D1360" s="5">
         <v>32.5</v>
@@ -26352,7 +26365,7 @@
         <v>1529</v>
       </c>
       <c r="C1365" s="5">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="D1365" s="5">
         <v>97.2</v>
@@ -26422,7 +26435,7 @@
         <v>1080</v>
       </c>
       <c r="C1370" s="5">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="D1370" s="5">
         <v>103</v>
@@ -26436,7 +26449,7 @@
         <v>1081</v>
       </c>
       <c r="C1371" s="5">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D1371" s="5">
         <v>100</v>
@@ -26464,7 +26477,7 @@
         <v>1083</v>
       </c>
       <c r="C1373" s="5">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D1373" s="5">
         <v>83</v>
@@ -26478,7 +26491,7 @@
         <v>1084</v>
       </c>
       <c r="C1374" s="5">
-        <v>99.8</v>
+        <v>257</v>
       </c>
       <c r="D1374" s="5">
         <v>83.2</v>
@@ -26492,7 +26505,7 @@
         <v>1085</v>
       </c>
       <c r="C1375" s="5">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D1375" s="5">
         <v>98</v>
@@ -26604,7 +26617,7 @@
         <v>1093</v>
       </c>
       <c r="C1383" s="5">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D1383" s="5">
         <v>107.55</v>
@@ -26688,7 +26701,7 @@
         <v>1097</v>
       </c>
       <c r="C1389" s="5">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D1389" s="5">
         <v>100.5</v>
@@ -26870,7 +26883,7 @@
         <v>1109</v>
       </c>
       <c r="C1402" s="5">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D1402" s="5">
         <v>99.5</v>
@@ -26884,7 +26897,7 @@
         <v>1533</v>
       </c>
       <c r="C1403" s="5">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="D1403" s="5">
         <v>100</v>
@@ -27038,7 +27051,7 @@
         <v>1119</v>
       </c>
       <c r="C1414" s="5">
-        <v>130</v>
+        <v>115.5</v>
       </c>
       <c r="D1414" s="5">
         <v>95</v>
@@ -27094,7 +27107,7 @@
         <v>1123</v>
       </c>
       <c r="C1418" s="5">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="D1418" s="5">
         <v>93</v>
@@ -27136,7 +27149,7 @@
         <v>1126</v>
       </c>
       <c r="C1421" s="5">
-        <v>113.1</v>
+        <v>280</v>
       </c>
       <c r="D1421" s="5">
         <v>103.5</v>
@@ -27178,7 +27191,7 @@
         <v>1127</v>
       </c>
       <c r="C1424" s="5">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D1424" s="5">
         <v>98</v>
@@ -27192,7 +27205,7 @@
         <v>1128</v>
       </c>
       <c r="C1425" s="5">
-        <v>105</v>
+        <v>101.6</v>
       </c>
       <c r="D1425" s="5">
         <v>94.5</v>
@@ -27234,7 +27247,7 @@
         <v>1537</v>
       </c>
       <c r="C1428" s="5">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D1428" s="5">
         <v>92</v>
@@ -27346,7 +27359,7 @@
         <v>1541</v>
       </c>
       <c r="C1436" s="5">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D1436" s="5">
         <v>115</v>
@@ -27430,7 +27443,7 @@
         <v>1138</v>
       </c>
       <c r="C1442" s="5">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D1442" s="5">
         <v>115</v>
@@ -27472,7 +27485,7 @@
         <v>1141</v>
       </c>
       <c r="C1445" s="5">
-        <v>162</v>
+        <v>130.9</v>
       </c>
       <c r="D1445" s="5">
         <v>99.2</v>
@@ -27528,7 +27541,7 @@
         <v>1145</v>
       </c>
       <c r="C1449" s="5">
-        <v>198</v>
+        <v>110.9</v>
       </c>
       <c r="D1449" s="5">
         <v>78.5</v>
@@ -27556,7 +27569,7 @@
         <v>1545</v>
       </c>
       <c r="C1451" s="5">
-        <v>110.5</v>
+        <v>129</v>
       </c>
       <c r="D1451" s="5">
         <v>101.05</v>
@@ -27598,7 +27611,7 @@
         <v>1148</v>
       </c>
       <c r="C1454" s="5">
-        <v>171</v>
+        <v>128.9</v>
       </c>
       <c r="D1454" s="5">
         <v>100.05</v>
@@ -27696,7 +27709,7 @@
         <v>1547</v>
       </c>
       <c r="C1461" s="5">
-        <v>120.4</v>
+        <v>142</v>
       </c>
       <c r="D1461" s="5">
         <v>92</v>
@@ -27766,7 +27779,7 @@
         <v>1157</v>
       </c>
       <c r="C1466" s="5">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D1466" s="5">
         <v>98</v>
@@ -27780,7 +27793,7 @@
         <v>1158</v>
       </c>
       <c r="C1467" s="5">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D1467" s="5">
         <v>126</v>
@@ -27892,7 +27905,7 @@
         <v>1163</v>
       </c>
       <c r="C1475" s="5">
-        <v>141.9</v>
+        <v>136</v>
       </c>
       <c r="D1475" s="5">
         <v>98.5</v>
@@ -27934,7 +27947,7 @@
         <v>1553</v>
       </c>
       <c r="C1478" s="5">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="D1478" s="5">
         <v>109.9</v>
@@ -27962,7 +27975,7 @@
         <v>1555</v>
       </c>
       <c r="C1480" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D1480" s="5">
         <v>100</v>
@@ -27976,7 +27989,7 @@
         <v>1556</v>
       </c>
       <c r="C1481" s="5">
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="D1481" s="5">
         <v>100</v>
@@ -27990,7 +28003,7 @@
         <v>1557</v>
       </c>
       <c r="C1482" s="5">
-        <v>148.4</v>
+        <v>148</v>
       </c>
       <c r="D1482" s="5">
         <v>98</v>
@@ -28102,7 +28115,7 @@
         <v>1565</v>
       </c>
       <c r="C1490" s="5">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D1490" s="5">
         <v>99.7</v>
@@ -28130,7 +28143,7 @@
         <v>1567</v>
       </c>
       <c r="C1492" s="5">
-        <v>105</v>
+        <v>114.55</v>
       </c>
       <c r="D1492" s="5">
         <v>58.5</v>
@@ -28144,7 +28157,7 @@
         <v>1568</v>
       </c>
       <c r="C1493" s="5">
-        <v>104</v>
+        <v>141.9</v>
       </c>
       <c r="D1493" s="5">
         <v>96</v>
@@ -28158,7 +28171,7 @@
         <v>1569</v>
       </c>
       <c r="C1494" s="5">
-        <v>102</v>
+        <v>109.5</v>
       </c>
       <c r="D1494" s="5">
         <v>89.5</v>
@@ -28186,7 +28199,7 @@
         <v>1571</v>
       </c>
       <c r="C1496" s="5">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="D1496" s="5">
         <v>181</v>
@@ -28214,7 +28227,7 @@
         <v>1573</v>
       </c>
       <c r="C1498" s="5">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="D1498" s="5">
         <v>99.95</v>
@@ -28242,7 +28255,7 @@
         <v>1575</v>
       </c>
       <c r="C1500" s="5">
-        <v>123.5</v>
+        <v>148.4</v>
       </c>
       <c r="D1500" s="5">
         <v>102.5</v>
@@ -28270,7 +28283,7 @@
         <v>1577</v>
       </c>
       <c r="C1502" s="5">
-        <v>187</v>
+        <v>131.94999999999999</v>
       </c>
       <c r="D1502" s="5">
         <v>80</v>
@@ -28368,7 +28381,7 @@
         <v>1583</v>
       </c>
       <c r="C1509" s="5">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D1509" s="5">
         <v>75.150000000000006</v>
@@ -28382,7 +28395,7 @@
         <v>1584</v>
       </c>
       <c r="C1510" s="5">
-        <v>124.9</v>
+        <v>116</v>
       </c>
       <c r="D1510" s="5">
         <v>95</v>
@@ -28438,7 +28451,7 @@
         <v>1588</v>
       </c>
       <c r="C1514" s="5">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="D1514" s="5">
         <v>127</v>
@@ -28452,7 +28465,7 @@
         <v>1589</v>
       </c>
       <c r="C1515" s="5">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D1515" s="5">
         <v>93</v>
@@ -28466,7 +28479,7 @@
         <v>1590</v>
       </c>
       <c r="C1516" s="5">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D1516" s="5">
         <v>143</v>
@@ -28508,7 +28521,7 @@
         <v>1593</v>
       </c>
       <c r="C1519" s="5">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="D1519" s="5">
         <v>92.5</v>
@@ -28536,7 +28549,7 @@
         <v>1595</v>
       </c>
       <c r="C1521" s="5">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D1521" s="5">
         <v>114</v>
@@ -28564,7 +28577,7 @@
         <v>1597</v>
       </c>
       <c r="C1523" s="5">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D1523" s="5">
         <v>99.5</v>
@@ -28620,7 +28633,7 @@
         <v>1601</v>
       </c>
       <c r="C1527" s="5">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D1527" s="5">
         <v>106</v>
@@ -28662,7 +28675,7 @@
         <v>1604</v>
       </c>
       <c r="C1530" s="5">
-        <v>190</v>
+        <v>113.35</v>
       </c>
       <c r="D1530" s="5">
         <v>82</v>
@@ -28704,7 +28717,7 @@
         <v>1167</v>
       </c>
       <c r="C1533" s="5">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D1533" s="5">
         <v>81.849999999999994</v>
@@ -28886,7 +28899,7 @@
         <v>1176</v>
       </c>
       <c r="C1546" s="5">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D1546" s="5">
         <v>99</v>
@@ -28900,7 +28913,7 @@
         <v>1177</v>
       </c>
       <c r="C1547" s="5">
-        <v>142</v>
+        <v>114.8</v>
       </c>
       <c r="D1547" s="5">
         <v>99.2</v>
@@ -28942,7 +28955,7 @@
         <v>1179</v>
       </c>
       <c r="C1550" s="5">
-        <v>103</v>
+        <v>108.75</v>
       </c>
       <c r="D1550" s="5">
         <v>97</v>
@@ -28956,7 +28969,7 @@
         <v>1180</v>
       </c>
       <c r="C1551" s="5">
-        <v>104.5</v>
+        <v>121</v>
       </c>
       <c r="D1551" s="5">
         <v>81</v>
@@ -28984,7 +28997,7 @@
         <v>1181</v>
       </c>
       <c r="C1553" s="5">
-        <v>134</v>
+        <v>103.45</v>
       </c>
       <c r="D1553" s="5">
         <v>93.6</v>
@@ -29152,7 +29165,7 @@
         <v>1192</v>
       </c>
       <c r="C1565" s="5">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="D1565" s="5">
         <v>97</v>
@@ -29166,7 +29179,7 @@
         <v>1193</v>
       </c>
       <c r="C1566" s="5">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D1566" s="5">
         <v>77.849999999999994</v>
@@ -29194,7 +29207,7 @@
         <v>1195</v>
       </c>
       <c r="C1568" s="5">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="D1568" s="5">
         <v>102</v>
@@ -29404,7 +29417,7 @@
         <v>1207</v>
       </c>
       <c r="C1583" s="5">
-        <v>136</v>
+        <v>120.3</v>
       </c>
       <c r="D1583" s="5">
         <v>98</v>
@@ -29418,7 +29431,7 @@
         <v>1615</v>
       </c>
       <c r="C1584" s="5">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D1584" s="5">
         <v>93</v>
@@ -29460,7 +29473,7 @@
         <v>1618</v>
       </c>
       <c r="C1587" s="5">
-        <v>133.5</v>
+        <v>245</v>
       </c>
       <c r="D1587" s="5">
         <v>112</v>
@@ -29586,7 +29599,7 @@
         <v>1622</v>
       </c>
       <c r="C1596" s="5">
-        <v>155</v>
+        <v>147.5</v>
       </c>
       <c r="D1596" s="5">
         <v>94.05</v>
@@ -29670,7 +29683,7 @@
         <v>1216</v>
       </c>
       <c r="C1602" s="5">
-        <v>118.2</v>
+        <v>109.4</v>
       </c>
       <c r="D1602" s="5">
         <v>94</v>
@@ -29684,7 +29697,7 @@
         <v>1217</v>
       </c>
       <c r="C1603" s="5">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D1603" s="5">
         <v>98</v>
@@ -29698,7 +29711,7 @@
         <v>1218</v>
       </c>
       <c r="C1604" s="5">
-        <v>189</v>
+        <v>118.6</v>
       </c>
       <c r="D1604" s="5">
         <v>95</v>
@@ -29726,7 +29739,7 @@
         <v>1625</v>
       </c>
       <c r="C1606" s="5">
-        <v>133.05000000000001</v>
+        <v>133.5</v>
       </c>
       <c r="D1606" s="5">
         <v>99</v>
@@ -29740,7 +29753,7 @@
         <v>1220</v>
       </c>
       <c r="C1607" s="5">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D1607" s="5">
         <v>93</v>
@@ -29824,7 +29837,7 @@
         <v>1224</v>
       </c>
       <c r="C1613" s="5">
-        <v>268</v>
+        <v>138.9</v>
       </c>
       <c r="D1613" s="5">
         <v>101.75</v>
@@ -29852,7 +29865,7 @@
         <v>1225</v>
       </c>
       <c r="C1615" s="5">
-        <v>119.5</v>
+        <v>155</v>
       </c>
       <c r="D1615" s="5">
         <v>98.8</v>
@@ -29894,7 +29907,7 @@
         <v>1227</v>
       </c>
       <c r="C1618" s="5">
-        <v>144</v>
+        <v>140.25</v>
       </c>
       <c r="D1618" s="5">
         <v>99</v>
@@ -29922,7 +29935,7 @@
         <v>1228</v>
       </c>
       <c r="C1620" s="5">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D1620" s="5">
         <v>107.5</v>
@@ -29936,7 +29949,7 @@
         <v>1229</v>
       </c>
       <c r="C1621" s="5">
-        <v>0</v>
+        <v>118.2</v>
       </c>
       <c r="D1621" s="5">
         <v>101.1</v>
@@ -29964,7 +29977,7 @@
         <v>1231</v>
       </c>
       <c r="C1623" s="5">
-        <v>140.9</v>
+        <v>189</v>
       </c>
       <c r="D1623" s="5">
         <v>115.15</v>
@@ -29978,7 +29991,7 @@
         <v>1232</v>
       </c>
       <c r="C1624" s="5">
-        <v>115.6</v>
+        <v>125</v>
       </c>
       <c r="D1624" s="5">
         <v>95</v>
@@ -30020,7 +30033,7 @@
         <v>1235</v>
       </c>
       <c r="C1627" s="5">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D1627" s="5">
         <v>138</v>
@@ -30090,7 +30103,7 @@
         <v>1633</v>
       </c>
       <c r="C1632" s="5">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="D1632" s="5">
         <v>121</v>
@@ -30188,7 +30201,7 @@
         <v>1640</v>
       </c>
       <c r="C1639" s="5">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="D1639" s="5">
         <v>222</v>
@@ -30272,7 +30285,7 @@
         <v>1239</v>
       </c>
       <c r="C1645" s="5">
-        <v>184</v>
+        <v>120.4</v>
       </c>
       <c r="D1645" s="5">
         <v>99.5</v>
@@ -30286,7 +30299,7 @@
         <v>1240</v>
       </c>
       <c r="C1646" s="5">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D1646" s="5">
         <v>92.25</v>
@@ -30356,7 +30369,7 @@
         <v>1244</v>
       </c>
       <c r="C1651" s="5">
-        <v>142.05000000000001</v>
+        <v>121.1</v>
       </c>
       <c r="D1651" s="5">
         <v>92</v>
@@ -30370,7 +30383,7 @@
         <v>1245</v>
       </c>
       <c r="C1652" s="5">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D1652" s="5">
         <v>102.5</v>
@@ -30398,7 +30411,7 @@
         <v>1247</v>
       </c>
       <c r="C1654" s="5">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="D1654" s="5">
         <v>88.3</v>
@@ -30412,7 +30425,7 @@
         <v>1248</v>
       </c>
       <c r="C1655" s="5">
-        <v>268</v>
+        <v>146.94999999999999</v>
       </c>
       <c r="D1655" s="5">
         <v>80</v>
@@ -30426,7 +30439,7 @@
         <v>1249</v>
       </c>
       <c r="C1656" s="5">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="D1656" s="5">
         <v>84</v>
@@ -30580,7 +30593,7 @@
         <v>1257</v>
       </c>
       <c r="C1667" s="5">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="D1667" s="5">
         <v>100.8</v>
@@ -30622,7 +30635,7 @@
         <v>1650</v>
       </c>
       <c r="C1670" s="5">
-        <v>119</v>
+        <v>142.05000000000001</v>
       </c>
       <c r="D1670" s="5">
         <v>65.5</v>
@@ -30636,7 +30649,7 @@
         <v>1651</v>
       </c>
       <c r="C1671" s="5">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="D1671" s="5">
         <v>114.45</v>
@@ -30664,7 +30677,7 @@
         <v>1653</v>
       </c>
       <c r="C1673" s="5">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D1673" s="5">
         <v>114.45</v>
@@ -30678,7 +30691,7 @@
         <v>1654</v>
       </c>
       <c r="C1674" s="5">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="D1674" s="5">
         <v>107</v>
@@ -30734,7 +30747,7 @@
         <v>1658</v>
       </c>
       <c r="C1678" s="5">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D1678" s="5">
         <v>99.8</v>
@@ -30916,7 +30929,7 @@
         <v>1671</v>
       </c>
       <c r="C1691" s="5">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D1691" s="5">
         <v>94</v>
@@ -31182,7 +31195,7 @@
         <v>1690</v>
       </c>
       <c r="C1710" s="5">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D1710" s="5">
         <v>98</v>
@@ -32526,7 +32539,7 @@
         <v>1785</v>
       </c>
       <c r="C1806" s="5">
-        <v>120.15</v>
+        <v>100.45</v>
       </c>
       <c r="D1806" s="5">
         <v>86.75</v>
@@ -32764,7 +32777,7 @@
         <v>1802</v>
       </c>
       <c r="C1823" s="5">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D1823" s="5">
         <v>87.2</v>
@@ -33310,7 +33323,7 @@
         <v>2139</v>
       </c>
       <c r="C1862" s="5">
-        <v>111.6</v>
+        <v>106.9</v>
       </c>
       <c r="D1862" s="5">
         <v>92.9</v>
@@ -33954,7 +33967,7 @@
         <v>1884</v>
       </c>
       <c r="C1908" s="5">
-        <v>269</v>
+        <v>120.5</v>
       </c>
       <c r="D1908" s="5">
         <v>99.1</v>
@@ -33968,7 +33981,7 @@
         <v>1885</v>
       </c>
       <c r="C1909" s="5">
-        <v>269</v>
+        <v>115.95</v>
       </c>
       <c r="D1909" s="5">
         <v>98.4</v>
@@ -34010,7 +34023,7 @@
         <v>1888</v>
       </c>
       <c r="C1912" s="5">
-        <v>100.55</v>
+        <v>116</v>
       </c>
       <c r="D1912" s="5">
         <v>88</v>
@@ -34276,7 +34289,7 @@
         <v>1907</v>
       </c>
       <c r="C1931" s="5">
-        <v>112.5</v>
+        <v>111.8</v>
       </c>
       <c r="D1931" s="5">
         <v>100</v>
@@ -34290,7 +34303,7 @@
         <v>1908</v>
       </c>
       <c r="C1932" s="5">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="D1932" s="5">
         <v>265</v>
@@ -35662,7 +35675,7 @@
         <v>2005</v>
       </c>
       <c r="C2030" s="5">
-        <v>155</v>
+        <v>111.5</v>
       </c>
       <c r="D2030" s="5">
         <v>96</v>
@@ -36012,7 +36025,7 @@
         <v>2030</v>
       </c>
       <c r="C2055" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2055" s="5">
         <v>95</v>
@@ -36390,7 +36403,7 @@
         <v>2057</v>
       </c>
       <c r="C2082" s="5">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D2082" s="5">
         <v>80</v>
@@ -36740,7 +36753,7 @@
         <v>2081</v>
       </c>
       <c r="C2107" s="5">
-        <v>148.55000000000001</v>
+        <v>217</v>
       </c>
       <c r="D2107" s="5">
         <v>138</v>
@@ -36908,7 +36921,7 @@
         <v>2116</v>
       </c>
       <c r="C2119" s="5">
-        <v>134.5</v>
+        <v>102.2</v>
       </c>
       <c r="D2119" s="5">
         <v>100</v>
@@ -36922,7 +36935,7 @@
         <v>2117</v>
       </c>
       <c r="C2120" s="5">
-        <v>102.5</v>
+        <v>97.8</v>
       </c>
       <c r="D2120" s="5">
         <v>93.3</v>
@@ -36936,7 +36949,7 @@
         <v>2118</v>
       </c>
       <c r="C2121" s="5">
-        <v>168</v>
+        <v>101.4</v>
       </c>
       <c r="D2121" s="5">
         <v>97</v>
@@ -36950,7 +36963,7 @@
         <v>2119</v>
       </c>
       <c r="C2122" s="5">
-        <v>148.69999999999999</v>
+        <v>104.25</v>
       </c>
       <c r="D2122" s="5">
         <v>100.45</v>
@@ -36964,7 +36977,7 @@
         <v>2120</v>
       </c>
       <c r="C2123" s="5">
-        <v>288</v>
+        <v>100.2</v>
       </c>
       <c r="D2123" s="5">
         <v>99.75</v>
@@ -36978,7 +36991,7 @@
         <v>2121</v>
       </c>
       <c r="C2124" s="5">
-        <v>229</v>
+        <v>112.8</v>
       </c>
       <c r="D2124" s="5">
         <v>107</v>
@@ -38315,8 +38328,18 @@
       </c>
     </row>
     <row r="2220" spans="1:4">
-      <c r="A2220" s="6"/>
-      <c r="B2220" s="6"/>
+      <c r="A2220" s="2">
+        <v>31311</v>
+      </c>
+      <c r="B2220" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C2220" s="5">
+        <v>127.8</v>
+      </c>
+      <c r="D2220" s="5">
+        <v>116.1</v>
+      </c>
     </row>
     <row r="2221" spans="1:4">
       <c r="A2221" s="6"/>
@@ -48333,62 +48356,6 @@
     <row r="4724" spans="1:2">
       <c r="A4724" s="6"/>
       <c r="B4724" s="6"/>
-    </row>
-    <row r="4725" spans="1:2">
-      <c r="A4725" s="6"/>
-      <c r="B4725" s="6"/>
-    </row>
-    <row r="4726" spans="1:2">
-      <c r="A4726" s="6"/>
-      <c r="B4726" s="6"/>
-    </row>
-    <row r="4727" spans="1:2">
-      <c r="A4727" s="6"/>
-      <c r="B4727" s="6"/>
-    </row>
-    <row r="4728" spans="1:2">
-      <c r="A4728" s="6"/>
-      <c r="B4728" s="6"/>
-    </row>
-    <row r="4729" spans="1:2">
-      <c r="A4729" s="6"/>
-      <c r="B4729" s="6"/>
-    </row>
-    <row r="4730" spans="1:2">
-      <c r="A4730" s="6"/>
-      <c r="B4730" s="6"/>
-    </row>
-    <row r="4731" spans="1:2">
-      <c r="A4731" s="6"/>
-      <c r="B4731" s="6"/>
-    </row>
-    <row r="4732" spans="1:2">
-      <c r="A4732" s="6"/>
-      <c r="B4732" s="6"/>
-    </row>
-    <row r="4733" spans="1:2">
-      <c r="A4733" s="6"/>
-      <c r="B4733" s="6"/>
-    </row>
-    <row r="4734" spans="1:2">
-      <c r="A4734" s="6"/>
-      <c r="B4734" s="6"/>
-    </row>
-    <row r="4735" spans="1:2">
-      <c r="A4735" s="6"/>
-      <c r="B4735" s="6"/>
-    </row>
-    <row r="4736" spans="1:2">
-      <c r="A4736" s="6"/>
-      <c r="B4736" s="6"/>
-    </row>
-    <row r="4737" spans="1:2">
-      <c r="A4737" s="6"/>
-      <c r="B4737" s="6"/>
-    </row>
-    <row r="4738" spans="1:2">
-      <c r="A4738" s="6"/>
-      <c r="B4738" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D2210" xr:uid="{560938A7-4414-491C-AA09-6A0E6F3D3732}">
@@ -48398,25 +48365,28 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2210">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2220:B1048576">
+  <conditionalFormatting sqref="A2221:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4725:B1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4739:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  <conditionalFormatting sqref="A2211:B2214">
+    <cfRule type="duplicateValues" dxfId="3" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A2219">
-    <cfRule type="duplicateValues" dxfId="2" priority="47"/>
+  <conditionalFormatting sqref="A2215:B2220">
+    <cfRule type="duplicateValues" dxfId="2" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B2219">
-    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+  <conditionalFormatting sqref="A2:A2220">
+    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2211:B2219">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  <conditionalFormatting sqref="B2:B2220">
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
